--- a/coupang_reviews_final_speedup.xlsx
+++ b/coupang_reviews_final_speedup.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>시나랑성원</t>
+          <t>운명개척자</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -491,7 +491,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025.11.26</t>
+          <t>2025.11.27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,16 +501,16 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>n년차 n번째 우리집 생수는 무조건 무라벨 제주삼다수!</t>
+          <t>물은 삼다수</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>내돈내산 솔직한 리뷰입니다 *ଘ(੭*ˊᵕˋ)੭* ੈ✩‧₊˚제품의 구매결정에 조금이나마 도움이 되고자 직접 사용해보고느낀 솔직후기를 남겨볼게요!급하신 분은 가장 하단에 있는 ⭕️총평 및 추천의사⭕️를 먼저 읽어주세요☺️❣️도움이 되셨다면 [도움이 돼요] 눌러주세요❣️━━━━━━━━━━━━━━━━━━━━━━━오늘도 빠른배송과 비교적 더 저렴한 쿠팡에서 구매하게 됐습니다!➿️ 제품명:제주삼다수 그린 무라벨, 2L, 12개✅ 구매 이유집에 생수가 딱 떨어져서 급하게 다시 구매하게 됐어요~!!평소에도 늘 마시던 생수라서 다른 브랜드로 갈아탈까 고민조차 안 하고 바로 재구매하게 되더라구요!ㅎㅎ기존에 먹어보면서 물맛 자체가 깔끔하고 속이 편안한 느낌이 좋아서 항상 쟁여두는 편인데요~ 무라벨 제품이라 분리수거도 훨씬 간편해서 더 좋아요! 큰 용량이지만 뚜껑만 따면 바로 재활용 가능하니까 주방이 깔끔해지고, 쓰레기 처리 스트레스도 확 줄었어요~ 남편이 물을 많이 마시는 편이라 2L짜리는 냉장고에 넣어두고 시원하게 마시기에도 딱 좋아요! 무엇보다 삼다수 특유의 부드러운 물맛이 늘 만족스러워서 이번에도 고민 없이 선택했어요~✅ 사이즈 / 내구성2L 용량이라 한 병만 있어도 하루 동안 충분히 마실 수 있어서 너무 좋구요~ 병 자체의 내구성도 꽤 단단해서 이동할 때도 물이 쉽게 흔들리거나 찌그러지는 느낌 없이 안정감 있어요! 박스 포장도 튼튼하게 와서 다섯 번씩이나 재구매하면서도 터진 적이 단 한 번도 없었어요~ 생수병이 너무 얇으면 들고 따를 때 힘 조절하기가 어렵고 물이 갑자기 확 쏟아지기도 하는데 삼다수 병은 적당히 단단해서 따르기도 편하고 손에 잡히는 촉감도 좋아요! 세워두었을 때 흔들림 없이 안정적이라 보관하기도 좋고 냉장고 문 선반에도 딱 맞게 들어가서 아주 만족하고 있어요~!✅ 디자인라벨이 없는 무라벨 제품이라 깔끔함 그 자체예요~^_^♡필요 없는 플라스틱을 줄인 디자인이라 보기에도 심플하면서 환경을 생각한 느낌이라 뭔가 더 뿌듯한 느낌까지 나요~ 브랜드 로고는 뚜껑에만 들어가 있어서 정리해놓으면 군더더기 없이 정말 깔끔해 보이고요! 투명한 병 디자인 덕분에 남은 양도 한눈에 확인할 수 있어 관리하기도 너무 편해요~ 잡다한 라벨이 없으니까 주방 선반이 훨씬 정돈돼 보이는 효과도 있어요!✅ 장점- 물맛이 깔끔하고 부드러워서 속이 편안해요~- 무라벨이라 분리수거가 엄청 쉬워요!- 대용량이라 자주 주문할 필요가 없어요~- 포장이 튼튼해서 배송 중 파손 걱정이 거의 없어요!- 브랜드 신뢰도가 높아서 믿고 마실 수 있어요~✅ 단점✘ 2L는 무게가 있다 보니 들고 따를 때 한 손으로는 조금 무거울 수 있어요~✘ 인기 상품이라 때때로 품절이 빨리 나는 편이라서 미리 쟁여두면 더 좋아요~✅ 재구매 의사네! 생수는 고민할 것도 없이 계속 삼다수로 정착해서 앞으로도 꾸준히 재구매할 예정이에요~ 무라벨이라 더 애착이 가고, 다른 브랜드와 비교해도 물맛이 가장 깔끔해서 만족도가 정말 높아요!━━━━━━━━━━━━━━━━━━━━━━━⭕️총평 및 추천의사⭕️“제주삼다수 그린 무라벨은 깔끔한 물맛과 편한 분리수거를 원하는 분께 정말 딱 맞는 제품이에요!”직접 사용해보고 만족도가 높았기에 추천합니다!━━━━━━━━━━━━━━━━━━━━━━━내돈내산으로 이용해보고 작성한 저의 솔직한 리뷰입니다☺️❣️도움이 되셨다면 하단에 [도움이 돼요]를 눌러주세요❣️저에게 큰 힘이 되어 더욱 솔직한 리뷰로 답하겠습니다!감사합니다! 행복한 하루 되세요! *ฅ´ω`ฅ*↙️❤️↙️❤️↙️❤️↙️❤️↙️❤️↙️❤️↙️❤️↙️❤️↙️❤️</t>
+          <t>#집에서 쓰기 너무 좋은 생수 사이즈 — 제주삼다수 그린 무라벨 2L 후기생수는 집에서 가장 자주 쓰는 생활용품 중 하나인데, 500ml는 금방 없어지고 2L는 한 번 사두면 오래 쓰기 좋아서 항상 집에 구비해두는 편이에요. 그중에서도 제주삼다수 그린 무라벨 2L × 12개는 맛이나 편의성 면에서 꾸준히 만족스러운 제품이에요. 깔끔하고 심플한 무라벨 디자인 덕분에 정리하기도 좋아서 계속 재구매하게 돼요.#무라벨이라 정리하기 깔끔하고 쓰기 편해요라벨을 뜯을 필요가 없다는 것만으로도 꽤 편해요. 생수 라벨 떼는 작업이 은근히 신경 쓰이는데, 이 제품은 병이 통째로 깔끔해서 재활용 분리수거할 때도 훨씬 수월해요. 냉장고 문 선반에 넣어도 정돈된 느낌이 나고, 주방에 두었을 때도 시각적으로 깔끔해요.#2L는 집에서 가장 쓰기 좋고 활용도가 높아요물 많이 마시는 날은 500ml로는 부족하고, 커피나 차를 많이 타는 집에서는 2L가 훨씬 효율적이에요.-밥 지을 때-커피머신 물 채울 때-운동 갈 때 개인 물병에 옮겨 담을 때-냉장고에 한 병 넣어두는 용도이런 여러 상황에서 2L 사이즈는 딱 알맞아요. 하루에 한두 병 정도 소모되는 편이라 12개 구성도 금방 비지만, 그만큼 잘 쓰는 제품이라는 뜻이에요.#삼다수 특유의 깔끔하고 부드러운 물맛물맛이 사람마다 다르긴 해도, 삼다수는 꾸준히 ‘가장 무난하고 깔끔한 물맛’으로 느껴져요. 미네랄감이 과하지 않고, 뭔가 텁텁한 맛이 없는 깨끗한 느낌이라 부담 없이 마실 수 있어요. 차를 우릴 때도 맛이 흐트러지지 않고, 공용으로 쓰기에도 적당해요.#12개 구성이라 생각보다 금방 쓰고 금방 비워요2L는 커피·요리·식수 등 다용도로 쓰다 보면 하루 한 병 가까이 소비되는 날도 많아요. 그래서 12병 구성이 넉넉해 보이지만 실제로는 빠르게 소진돼요. 그렇지만 그만큼 활용도가 높기 때문이라 아예 여유 있게 두 박스씩 주문해놓는 편이에요.#이런 분들께 추천해요-집에서 2L 생수를 자주 사용하는 분-무라벨 제품의 깔끔함을 선호하는 분-요리·식수·음료 제조 등 다용도로 생수를 쓰는 분-깔끔한 물맛을 원하고 삼다수 맛이 잘 맞는 분제주삼다수 그린 무라벨 2L는 실용성, 물맛, 편의성 모두 균형이 좋아서 집에서 쓰기 딱 알맞은 제품이에요.한 번 사두면 활용도가 넓어서 금방 소진되지만, 그만큼 만족도가 높아서 계속 찾게 돼요.집에서 생수 사용할 일이 많은 분들께 충분히 추천할 만한 선택이에요.</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -521,7 +521,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>진중입니다</t>
+          <t>문*호</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -529,26 +529,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025.11.25</t>
+          <t>2025.11.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 24개</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>믿고 먹는 삼다수 추천(14번째 재구매)</t>
+          <t>물맛 중요하시죠~? 이겁니다.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>제주 삼다수 2L 무라벨 후기 남김.생수는 그냥 물이라 브랜드 크게 차이 없다고 생각했는데, 삼다수는 꾸준히 사먹다 보면 확실히 다른 점이 느껴짐. 가장 먼저 물맛이 깔끔하고 부드러움. 첫 모금부터 끝까지 텁텁함 없이 맑게 넘어가고, 입안에 잔여감이 거의 없어서 물 자체가 ‘깨끗하다’는 느낌이 확 남. 특히 아침에 일어나서 한 컵 마실 때 목 넘김이 확실히 편해서 더 찾게 됨.2L 용량이라 금방 동나는 일 없고, 하루 수분 섭취용으로 두고두고 마시기 좋음. 무라벨이라 쓰레기 분리수거할 때도 진짜 편함. 라벨 뜯을 필요 없이 그냥 병만 압축해서 버리면 끝이라 번거로움이 확 줄어듦. 이게 은근 생활 편의성 크게 올려주는 부분임.배송 상태도 항상 안정적이었음. 12개 묶음이 묵직하게 오는데 파손된 적 없고, 병 찌그러진 적도 거의 없음. 포장도 밀착비닐로 잘 감겨 있어 흐트러짐 없이 도착함. 저장하기도 좋아서 베란다·싱크대 아래 아무 데나 세워놓고 필요할 때 꺼내 쓰기 편함.삼다수는 물 특유의 미네랄 맛이 거의 없이 담백한 타입이라 누구나 편하게 마실 수 있고, 커피나 차 탈 때도 물맛 간섭이 없어 맛이 깔끔하게 나옴. 특히 운동 후나 샤워 후 시원하게 냉장고에 넣어둔 거 한 컵 마시면 확 살아나는 느낌.요약하면, 맛·편의성·가격 모든 면에서 ‘계속 재구매하게 되는 물’임. 생수 고민 없이 그냥 기본으로 두고 쓰기 좋은 제품이라서 집에서는 이걸로 정착함. 대용량이라 외출용 작은 병에 덜어 다니기도 좋고, 무라벨 덕에 쓰레기 배출 스트레스도 없음.이상 매일 쿠팡주문하는 쿠팡생활러입니다 선택에 도움되셨다면 도움이 돼요 (클릭) 부탁드립니다!!</t>
+          <t>1. 패키지 &amp; 사용 편의성삼다수 무라벨 제품을 처음 구매해서 사용해보았는데, 가장 만족스러웠던 부분은 깔끔한 패키지였습니다. 라벨이 없으니 전체적인 디자인이 훨씬 미니멀하고 정돈된 느낌이라 집이나 사무실 어디에 두어도 시각적으로 깔끔해 보였습니다. 기존 라벨 생수는 분리수거할 때 라벨을 제거하는 과정이 번거롭고, 간혹 떼어내기 어렵거나 잔여끈끈이가 남는 경우도 있었는데, 무라벨 제품은 그런 과정 없이 바로 압착해서 버릴 수 있어 굉장히 편했습니다. 특히 여러 병을 한 번에 소비하는 분들이라면 라벨 쓰레기가 사라지는 것만으로도 집안 정리나 쓰레기 처리 스트레스가 확 줄어드는 점이 장점이라고 느끼실 것 같습니다.2. 물맛 &amp; 품질무라벨이라고 해서 물맛이나 품질이 달라질까 걱정했지만, 삼다수 특유의 부드럽고 깔끔한 맛은 그대로였습니다. 제주 화산암반수의 연수 특성이 잘 살아 있어 목 넘김이 부담 없고, 아침 공복에 마실 때나 운동할 때도 물 자체의 맛이 아주 깔끔하게 느껴졌습니다. 플라스틱 냄새나 이물감 같은 부분도 전혀 없었고, 기존 라벨 제품과 차이가 느껴지지 않을 만큼 품질이 안정적이었습니다. 매일 마시는 생수로서 가장 중요한 ‘맛의 일관성’이 유지된다는 점에서 만족도가 높았습니다.3. 환경성 &amp; 실용성삼다수 무라벨 제품의 가장 큰 장점 중 하나는 역시 환경을 고려한 구성이라는 점입니다. 라벨이 사라지면서 분리수거 과정은 훨씬 간편해졌고, 실제 플라스틱 쓰레기 양도 줄어든다는 점이 소비자로서 기분 좋았습니다. 또한 라벨이 없어도 뚜껑에 필요한 정보가 깔끔하게 표시되어 있어 실용성 면에서도 불편함이 없었습니다. 불필요한 포장을 줄이면서도 브랜드 고유의 신뢰성과 품질을 유지하고 있다는 느낌을 받았습니다.</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -559,7 +559,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>찐리뷰어S</t>
+          <t>김*우</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -567,26 +567,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025.11.24</t>
+          <t>2025.11.27</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 1L, 18개</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>⭐물맛이 최고예요⭐</t>
+          <t>분리수거가 세상 쉬워진 착한 무라벨 삼다수!</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>먹는 물은 생수만 마셔요.커피나 음료를 마시다 보니 물은 잘 마시지 않게 되는데그러면 수분 부족이 된다고 하더라고요.건강을 위해 물을 의식적으로 자주 마시려고 노력하는데정수기 물은 목넘김이 좋지 않고 맛없어서 잘 안 마시게 되고목넘김이 좋은 생수만 마시는데 그중에서도 삼다수가 제일 맛있어요.삼다수 무라벨은 분리수거에도 편리한 장점이 있어서리뷰를 적게 되었습니다.**POINT**- 출시 이후 27년 동안 단 한번도 수질 변화 없는 믿을 수 있어요- 연간 2만번의 철저한 수질검사로 깐깐한 물이에요- 취수원 주변 토지매입으로 잠재 오염까지 차단했다고 해요- 106개의 관측망이 빈틈없이 지키는 안전한 물이에요- 지하 420m 제주 화산암반층에 부존하는 청정한 물이에요- 미네랄 성분이 균형적으로 함유된 건강한 물이에요- 용기의 압축 강도도 함께 개선해 플라스틱 절감 효과와탄소 배출량 감축 효과가 있다고 해요- 무색병, 무색캡, 무라벨로 분리수거 하기가 편리해요- 뚜껑이 튼튼하고 잘 닫혀져서 물샘 걱정이 없어요**아쉬운 점**- 가격대가 조금 높은 편이고 예전 라벨이 있는 삼다수보다 페트병의두께가 얇아져서 처음 뚜껑을 오픈할 때 병이 쉽게 눌리면서 물을쏟을 때가 있어요. (하지만 무라벨 생수 중에서는 단단한 편이긴 해요)⭐총평⭐삼다수는 생수 중에 물맛이 가장 좋아요.물이 부드럽고 깔끔해서 텁텁함이 없고 목넘김이 좋아요.철저한 관리로 신뢰가 가는 물이에요.예전에 여행 갔을 때 사정으로 인해 생수로 세수를 한 적이 있어요.그때 삼다수로 세수를 했을 땐 트러블이 없었는데삼다수는 가격대가 있다보니 아까운 마음에저렴한 생수로 바꿔서 세수를 했는데 얼굴에 바로 오톨도톨하게트러블이 났어요.제 컨디션이나 우연한 타이밍으로 그랬는지는 모르겠지만물 맛이 다른 만큼 차이가 있지 않을까 생각이 들었어요.그래서 그 이후론 더욱 삼다수만 마시고 있어요.물맛좋고 믿을 수 있는 삼다수물을 자주 마시는 분이나 물 마시기가 어려운 분분리수거를 편리하게 하시고 싶으신 분들에게추천드려요</t>
+          <t>⭐️⭐️⭐️⭐️⭐️구매 이유와 외관평소에 물을 많이 마시는 편이라 생수를 대량으로 주문해요.  매번 물 마시고 나서 분리수거할 때 라벨 떼는 게 정말 귀찮았어요.  친환경적이기도 하고 편리하다는 말에 제주삼다수 그린 무라벨을 구매했어요. 역시 삼다수는 믿고 마시는 브랜드잖아요. 2L짜리 24개 묶음이라 엄청 든든해요. 한동안 물 걱정은 없겠어요! 무라벨이라 투명하고 깔끔한 외관이 정말 마음에 들어요. 뚜껑 부분에만 작은 글씨로 표시되어 있어서 좋아요.이용 후기 (가장 큰 장점) ♻️무라벨의 편리함이 정말 최고예요. 이게 핵심 장점이에요!  물을 다 마신 후에 라벨을 뜯을 필요가 없다는 게 이렇게 편할 수가 없어요. 그냥 페트병을 찌그러트려서 분리수거함에 넣으면 끝! 분리수거 시간이 확 줄어들어서 너무 좋았어요. 환경을 생각하는 착한 소비를 하는 것 같아 기분도 좋아요.  물맛은 역시 삼다수답게 깔끔하고 깨끗해요. 목 넘김이 부드럽고 텁텁한 맛이 없어서 물 마시는 양이 늘었어요. 페트병 자체가 얇아서 다 마신 후에 부피를 줄이기도 쉬워요.보관 및 편리성24개 묶음으로 오는데, 배송 기사님이 문 앞까지 안전하게 가져다주셨어요. 묶음 포장이 단단해서 보관하기에도 아주 편했어요. 저희 집 베란다에 쌓아두었는데 안정감 있게 잘 쌓여요. 무라벨이라 박스에 넣은 채로 보관해도 외관이 지저분해 보이지 않아요. 2L 사이즈가 한 번에 물을 많이 마시는 저에게 딱 맞아요. 무라벨이지만 제품 정보는 뚜껑에 작게 표시되어 있어서 안심이에요.장점분리수거 혁신: 라벨을 제거할 필요가 없어 엄청 편리해요.깔끔한 물맛: 역시 믿고 마시는 삼다수의 깨끗한 맛이에요.보관 용이: 쌓아서 보관하기 편하고 안정적이에요.친환경적: 환경 보호에 동참하는 기분이 들어 좋아요.단점딱히 단점이라고 할 부분은 없어요. 다만, 물이 무거워서 층수가 높으면 옮길 때 조금 힘들 수 있어요. 이건 생수 대용량 구매 시 어쩔 수 없는 부분이죠.총평라벨 뜯는 귀찮음을 완벽하게 해결해 준 인생 생수예요.  편리함과 맛, 환경까지 생각하는 똑똑한 소비를 하고 싶다면 추천해요. 자취생 필수템으로 무조건 냉장고 옆에 쟁여두세요! 재구매 의사 200%입니다. 다음에도 꼭 무라벨로 주문할 거예요.후기가 도움이 되었다면 [도움이 돼요] 버튼을 눌러주세요.</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -597,7 +597,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>김*미</t>
+          <t>종신레오</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -605,22 +605,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025.11.24</t>
+          <t>2025.11.28</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨 330ml는 아이들 등교 준비를 할 때마다 자연스럽게 손이 가는 제품이라 이번에 40개 묶음으로 다시 구매하게 되었어요.작은 용량이라 아이들 두 명이 아침마다 한 병을 나누어 텀블러에 채워 가지고 다니기에 딱 맞고, 무라벨이라 분리수거할 때도 번거롭지 않아 사용하면서 느껴지는 편리함이 꽤 커요.아침마다 시간이 빠듯한데 병에서 그대로 따라 붓기만 하면 되니 따로 라벨을 떼거나 정리할 필요가 없어서 준비 과정이 훨씬 간단해졌고, 깔끔한 패키지 덕분에 재활용 쓰레기통도 불필요한 종이나 플라스틱이 쌓이지 않아 정돈된 느낌이 들어요.무엇보다 아이들이 물맛이 부드럽다며 좋아하는 편이라 다른 브랜드로 쉽게 바꾸기가 어렵고, 하루에 필요한 수분을 챙기는 데 자연스럽게 도움을 주는 점도 마음에 들어요.330ml는 아이들이 들고 다니기에도 적당한 무게라 가방에 넣어도 부담이 적고, 쉬는 시간이나 점심시간 전에 텀블러에 담아두면 하루 종일 적당한 양의 물을 마실 수 있어 양 조절이 편하다는 장점이 있어요.집에서도 종종 외출할 때 챙기기 좋은 사이즈라 운동 다녀올 때나 가까운 곳에 산책 갈 때도 이 작은 생수를 자주 사용하게 되더라고요.특히 무라벨 특유의 미니멀한 외관은 여러 개로 쌓아두었을 때도 시각적으로 깔끔해서 주방 수납장에 보관해두어도 어수선함이 없고, 박스를 뜯었을 때 병들이 가지런히 보여 만족감이 커요.삼다수 특유의 청량하면서도 거슬림 없는 물맛은 확실히 꾸준히 선택하게 되는 이유 중 하나예요.아이들이 평소 물을 자주 챙겨 마시는 편이 아니라 조금이라도 맛이 탄산수처럼 느낌이 있다거나 입에 남는 향이 있으면 잘 안 마시는데, 삼다수는 산뜻해서 그런 걱정 없이 비워오는 날이 훨씬 많았어요.특히 학교에서 체육 시간이 있는 날엔 물을 더 많이 찾는데, 이 제품은 일정한 품질을 유지하고 있어 텀블러에 옮겨 담아도 물맛이 달라지거나 답답하게 느껴지지 않아서 믿고 쓰게 돼요.또 40개 묶음은 생각보다 금방 소진되어도 한동안 넉넉하게 쓸 수 있는 양이라 마음이 편하고, 박스째로 보관해 두면 아이들이나 가족들이 언제든 꺼내 쓰기 좋아요.무라벨 생수는 환경을 생각할 수 있다는 점에서도 선택할 이유가 있는데, 실제로 사용해 보면 분리배출 과정이 확연히 줄어드는 게 체감돼요.번거로운 일을 덜어준다는 점도 만족스럽고 한 번 쓰기 시작하면 계속 이 용량과 형태를 찾게 돼요.용기에 라벨이 없다 보니 재질이 더 매끈하고 투명해서 물 상태가 잘 보여 안심되고, 차갑게 보관해 두었다가 옮겨 담으면 신선함도 오래 유지되는 느낌이에요.아침마다 아이들 가방에 물을 챙겨 넣는 일은 작은 루틴이지만, 그 과정이 조금이라도 편해지면 하루 전체 준비가 여유로워지는데 삼다수 무라벨 330ml는 그런 점에서 실용적이고 만족스러운 제품이에요.집에서는 물론 아이들 학교생활에서도 계속 활용도가 높아 금방 다시 구매하게 될 것 같아요. 작은 용량이 주는 휴대성과 무라벨의 간편함, 그리고 삼다수의 익숙하고 편안한 맛이 잘 어우러져 전반적으로 매우 만족스러운 선택이었어요.</t>
+          <t>제주삼다수 그린 무라벨 2L 12개 실사용 후기집에서 생수를 많이 마시는 편이라 무라벨 제품로 골라봤어요ㅎㅎ 라벨 떼는 수고가 없어서 분리수거할 때 진짜 편하고, 병 디자인도 깔끔해서 냉장고에 정리해두면 보기 좋아요. 삼다수 특유의 깔끔하고 부드러운 물맛은 그대로라서 하루 종일 부담 없이 마시기 좋았어요ㅋ 물이 텁텁하지 않고 삼키기 편해서 운동 후나 식사 중에도 딱 맞는 느낌이에요. 2L 대용량이라 가성비도 좋아서 집에서 상시로 두고 마시기 좋았어요.그래서 가격은 어떤가요? 12개 묶음 구성이라 마트에서 낱개로 사는 것보다 훨씬 합리적이었어요ㅎ상품은 자주 쓰게 되나요? 하루에 물을 많이 마셔서 금방금방 없어져요ㅋㅋ전체적인 느낌은 어떠한가? 깔끔한 물맛에 무라벨이라 편의성까지 만족했어요✅ 라벨 제거 필요 없는 깔끔한 무라벨✅ 삼다수 특유의 부드럽고 깔끔한 물맛✅ 2L 대용량으로 가정에서 사용하기 좋음✅ 12개 묶음으로 가성비 뛰어남✅ 분리수거·정리 모두 편함✅ 하루 수분 보충·식사·운동용으로 활용도 높음결론적으로 깔끔한 물맛과 편한 사용성을 원하시는 분께 추천해요ㅎㅎ ‘물은 매일 마시는 만큼 편해야 한다’는 말처럼, 무라벨 구성이라 더 자주 찾게 돼요ㅋ▼구매 결정에 도움될 만한 정보▼맛: ⭐⭐⭐⭐⭐ (부드럽고 깔끔함)가성비: ⭐⭐⭐⭐⭐ (12병 구성 만족)편의성: ⭐⭐⭐⭐⭐ (무라벨 최고)용량: ⭐⭐⭐⭐⭐ (2L 대용량)사용 목적: 일상음용/운동/식사/가정용 비축</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -631,7 +631,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>김*일</t>
+          <t>시나랑성원</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -639,26 +639,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025.11.24</t>
+          <t>2025.11.26</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>믿고 먹는 생수</t>
+          <t>n년차 n번째 우리집 생수는 무조건 무라벨 제주삼다수!</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>요즘 집에서도 그렇고 사무실에서도 그렇고 생수 소비가 꽤 많다 보니, 한 번 주문할 때 넉넉하게 사두는 편이에요. 특히 외출할 때나 운동 갈 때도 들고 나가야 해서 500ml 사이즈가 가장 실용적이더라고요. 그러다 최근에 분리수거할 때 라벨 제거하는 과정이 너무 귀찮기도 하고, 은근히 번거로워서 라벨 없는 제품을 찾게 됐어요. 그래서 선택한 게 제주삼다수 그린 무라벨 500ml입니다. 삼다수는 예전부터 믿고 마시던 브랜드라 걱정 없이 장바구니에 넣었고, 무라벨이라 분리배출도 간편하니 바로 주문하게 됐습니다.*장점가장 큰 장점은 역시 무라벨의 편리함이에요.생수병 라벨 떼다 보면 손톱도 상하고 잘 안 뜯길 때 진짜 스트레스인데, 이건 그런 과정이 전혀 없으니까 분리수거할 때 시간이 훨씬 절약됩니다.집에서는 물론이고 사무실 같은 곳에서도 버리기 간편해서 다들 좋아하더라고요.또 하나 좋은 점은 삼다수만의 깔끔하고 부드러운 물맛입니다. 너무 무겁지도, 너무 가볍지도 않은 중간 정도의 맛인데 오래 마셔도 질리지 않고, 운동할 때 마시면 특히 더 산뜻해요. 물맛 때문에 다른 브랜드는 잘 안 사는데 삼다수는 꾸준히 재구매하게 되는 이유가 바로 이 안정적인 맛입니다.500ml 용량도 활용도가 정말 좋아요. 들고 다니기 부담스럽지 않은 크기라 아이들 가방에도 가볍게 쏙 들어가고, 외출할 때 한 병 챙기면 물 부족할 걱정이 없어요. 냉장고에 넣으면 문 선반에도 딱 맞아서 보관도 편하고, 가정용으로 쌓아두기에도 사이즈가 적당합니다.그리고 무엇보다 40개 대량 구성이라 가성비가 좋습니다. 생수는 자주 떨어지면 매번 주문하기 번거로운데, 한 번에 넉넉하게 주문해두니 최소 몇 주는 걱정 없이 사용할 수 있어요. 포장도 튼튼하게 돼 있어서 터지거나 새는 제품 없이 깨끗하게 배송됐습니다.*단점무라벨이라 브랜드를 한눈에 알아보기 어렵다는 점이 있어요. 물론 삼다수는 병 모양만 봐도 알아볼 수 있긴 하지만, 다른 사람들과 섞였을 때 "이게 내 거였나?" 싶을 때가 있습니다. 특히 사무실에서 여러 사람이 같은 크기의 물병을 쓰면 헷갈리기 쉬워요.또 하나는 플라스틱 병이 약간 부드러운 편이라 가방에 넣을 때 눌리면 모양이 살짝 찌그러질 때가 있습니다. 사용하는 데 문제는 없지만, 견고한 제품을 선호하시는 분들에겐 약간 아쉬울 수 있어요.*총평전반적으로 편리함, 안전성, 맛까지 모두 만족스러운 생수입니다. 매일 마시는 물이니만큼 브랜드 신뢰도가 중요한데, 삼다수는 오래 마셔도 부담 없이 편안해서 계속 찾게 돼요. 여기에 무라벨의 장점까지 더해지니 분리수거 스트레스가 줄어서 생활 편의성이 확실히 좋아졌습니다.500ml 사이즈라 휴대성도 뛰어나고, 40개 구성이라 가성비도 괜찮아서 집·사무실·운동용 모두 만족스럽게 사용하고 있어요. 앞으로도 생수는 이 제품으로 꾸준히 주문할 것 같습니다. 물맛 깔끔한 브랜드 찾는 분, 무라벨 제품으로 분리배출 간편하게 하고 싶은 분들께 자신 있게 추천드립니다.</t>
+          <t>내돈내산 솔직한 리뷰입니다 *ଘ(੭*ˊᵕˋ)੭* ੈ✩‧₊˚제품의 구매결정에 조금이나마 도움이 되고자 직접 사용해보고느낀 솔직후기를 남겨볼게요!급하신 분은 가장 하단에 있는 ⭕️총평 및 추천의사⭕️를 먼저 읽어주세요☺️❣️도움이 되셨다면 [도움이 돼요] 눌러주세요❣️━━━━━━━━━━━━━━━━━━━━━━━오늘도 빠른배송과 비교적 더 저렴한 쿠팡에서 구매하게 됐습니다!➿️ 제품명:제주삼다수 그린 무라벨, 2L, 12개✅ 구매 이유집에 생수가 딱 떨어져서 급하게 다시 구매하게 됐어요~!!평소에도 늘 마시던 생수라서 다른 브랜드로 갈아탈까 고민조차 안 하고 바로 재구매하게 되더라구요!ㅎㅎ기존에 먹어보면서 물맛 자체가 깔끔하고 속이 편안한 느낌이 좋아서 항상 쟁여두는 편인데요~ 무라벨 제품이라 분리수거도 훨씬 간편해서 더 좋아요! 큰 용량이지만 뚜껑만 따면 바로 재활용 가능하니까 주방이 깔끔해지고, 쓰레기 처리 스트레스도 확 줄었어요~ 남편이 물을 많이 마시는 편이라 2L짜리는 냉장고에 넣어두고 시원하게 마시기에도 딱 좋아요! 무엇보다 삼다수 특유의 부드러운 물맛이 늘 만족스러워서 이번에도 고민 없이 선택했어요~✅ 사이즈 / 내구성2L 용량이라 한 병만 있어도 하루 동안 충분히 마실 수 있어서 너무 좋구요~ 병 자체의 내구성도 꽤 단단해서 이동할 때도 물이 쉽게 흔들리거나 찌그러지는 느낌 없이 안정감 있어요! 박스 포장도 튼튼하게 와서 다섯 번씩이나 재구매하면서도 터진 적이 단 한 번도 없었어요~ 생수병이 너무 얇으면 들고 따를 때 힘 조절하기가 어렵고 물이 갑자기 확 쏟아지기도 하는데 삼다수 병은 적당히 단단해서 따르기도 편하고 손에 잡히는 촉감도 좋아요! 세워두었을 때 흔들림 없이 안정적이라 보관하기도 좋고 냉장고 문 선반에도 딱 맞게 들어가서 아주 만족하고 있어요~!✅ 디자인라벨이 없는 무라벨 제품이라 깔끔함 그 자체예요~^_^♡필요 없는 플라스틱을 줄인 디자인이라 보기에도 심플하면서 환경을 생각한 느낌이라 뭔가 더 뿌듯한 느낌까지 나요~ 브랜드 로고는 뚜껑에만 들어가 있어서 정리해놓으면 군더더기 없이 정말 깔끔해 보이고요! 투명한 병 디자인 덕분에 남은 양도 한눈에 확인할 수 있어 관리하기도 너무 편해요~ 잡다한 라벨이 없으니까 주방 선반이 훨씬 정돈돼 보이는 효과도 있어요!✅ 장점- 물맛이 깔끔하고 부드러워서 속이 편안해요~- 무라벨이라 분리수거가 엄청 쉬워요!- 대용량이라 자주 주문할 필요가 없어요~- 포장이 튼튼해서 배송 중 파손 걱정이 거의 없어요!- 브랜드 신뢰도가 높아서 믿고 마실 수 있어요~✅ 단점✘ 2L는 무게가 있다 보니 들고 따를 때 한 손으로는 조금 무거울 수 있어요~✘ 인기 상품이라 때때로 품절이 빨리 나는 편이라서 미리 쟁여두면 더 좋아요~✅ 재구매 의사네! 생수는 고민할 것도 없이 계속 삼다수로 정착해서 앞으로도 꾸준히 재구매할 예정이에요~ 무라벨이라 더 애착이 가고, 다른 브랜드와 비교해도 물맛이 가장 깔끔해서 만족도가 정말 높아요!━━━━━━━━━━━━━━━━━━━━━━━⭕️총평 및 추천의사⭕️“제주삼다수 그린 무라벨은 깔끔한 물맛과 편한 분리수거를 원하는 분께 정말 딱 맞는 제품이에요!”직접 사용해보고 만족도가 높았기에 추천합니다!━━━━━━━━━━━━━━━━━━━━━━━내돈내산으로 이용해보고 작성한 저의 솔직한 리뷰입니다☺️❣️도움이 되셨다면 하단에 [도움이 돼요]를 눌러주세요❣️저에게 큰 힘이 되어 더욱 솔직한 리뷰로 답하겠습니다!감사합니다! 행복한 하루 되세요! *ฅ´ω`ฅ*↙️❤️↙️❤️↙️❤️↙️❤️↙️❤️↙️❤️↙️❤️↙️❤️↙️❤️</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -669,7 +669,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>존가</t>
+          <t>진중입니다</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -677,26 +677,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025.11.23</t>
+          <t>2025.11.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 60개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>생수하면 삼다수죠.</t>
+          <t>믿고 먹는 삼다수 추천(14번째 재구매)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>안녕하세요존가입니다.오늘은 제주삼다수 그린 무라벨, 500ml, 60개 제품을 사보았습니다.물하면 뭐 사먹으세요?그냥 조금 비싸도 저희는 제주삼다수를 사먹고 있어요.그렇다고 자주 사먹는 건 아니고 생수를 사먹게 되면요. 그렇다는 거에요.그린은 기존 삼다수의 품질은 유지하면서 친환경을 위해 라벨을 제거하고 포장재를 개선한 제품이라서더 사먹기 편하고 사먹어도 마음이 조금 편해지더라고요. 환경에 조금이라도 도움이 될까 싶어서요.아무튼 생수를 사게 되면 항상 제주삼다수를 사먹게 되네요.제주삼다수 그린 무라벨, 500ml, 60개의 특징을 한마디로 표현하면1. 지금까지 수질변화 없이 믿을 수 있는 물로서 자리 잡은 것 같아요.2. PH 7.8의 약알칼리성의 연수로 부드러운 물맛 아니랄까봐 건강한 물맛이 느껴져요.3. 천연 화산 암반층에서 걸러낸 깨끗하고 미네랄 성분이 균형있게 함유되어 있으니깐 더 믿음이 가요.여기서 좋은 점을 더 말하자면환경 친화적으로 라벨 제거와 병 경량화 전략으로 플라스틱 사용을 줄이고 있어서 지속 가능성 고려한 소비에 적합한 것 같아요. 또한 신뢰할 수 있는 수원지로써 제주 삼다수는 오랫동안 사랑받아온 브랜드이며 안정된 수질을 자랑하고 있네요.가성비를 따지자면 60병이라는 세트로 큰 단위 구매 시 병당 단가가 낮아지기도 한답니다.그리고 라벨이 없기 때문에 병 분리 배출 시 라벨 제거 과정이 줄어들어 재활용이 조금 더 간편해요.이런 분들께 한 번 추천해봅니다.1. 환경에 민감하고, 플라스틱 사용 줄이기를 실천하는 사람2. 집에서 물 소비가 많은 가정3. 사무실이나 공동 공간에 물을 비치하고 싶은 경우4. 장기 보관 가능한 생수를 찾는 사람그래도이런 저런 말하는 것보다 한 번 사서 마셔보시는 걸 강력 추천드리고제 후기가 조금이라도 도움이 되셨다면 도움이돼요 빵빵~ 한 번 눌러주시는 센스 부탁드립니다.감사합니다.</t>
+          <t>제주 삼다수 2L 무라벨 후기 남김.생수는 그냥 물이라 브랜드 크게 차이 없다고 생각했는데, 삼다수는 꾸준히 사먹다 보면 확실히 다른 점이 느껴짐. 가장 먼저 물맛이 깔끔하고 부드러움. 첫 모금부터 끝까지 텁텁함 없이 맑게 넘어가고, 입안에 잔여감이 거의 없어서 물 자체가 ‘깨끗하다’는 느낌이 확 남. 특히 아침에 일어나서 한 컵 마실 때 목 넘김이 확실히 편해서 더 찾게 됨.2L 용량이라 금방 동나는 일 없고, 하루 수분 섭취용으로 두고두고 마시기 좋음. 무라벨이라 쓰레기 분리수거할 때도 진짜 편함. 라벨 뜯을 필요 없이 그냥 병만 압축해서 버리면 끝이라 번거로움이 확 줄어듦. 이게 은근 생활 편의성 크게 올려주는 부분임.배송 상태도 항상 안정적이었음. 12개 묶음이 묵직하게 오는데 파손된 적 없고, 병 찌그러진 적도 거의 없음. 포장도 밀착비닐로 잘 감겨 있어 흐트러짐 없이 도착함. 저장하기도 좋아서 베란다·싱크대 아래 아무 데나 세워놓고 필요할 때 꺼내 쓰기 편함.삼다수는 물 특유의 미네랄 맛이 거의 없이 담백한 타입이라 누구나 편하게 마실 수 있고, 커피나 차 탈 때도 물맛 간섭이 없어 맛이 깔끔하게 나옴. 특히 운동 후나 샤워 후 시원하게 냉장고에 넣어둔 거 한 컵 마시면 확 살아나는 느낌.요약하면, 맛·편의성·가격 모든 면에서 ‘계속 재구매하게 되는 물’임. 생수 고민 없이 그냥 기본으로 두고 쓰기 좋은 제품이라서 집에서는 이걸로 정착함. 대용량이라 외출용 작은 병에 덜어 다니기도 좋고, 무라벨 덕에 쓰레기 배출 스트레스도 없음.이상 매일 쿠팡주문하는 쿠팡생활러입니다 선택에 도움되셨다면 도움이 돼요 (클릭) 부탁드립니다!!</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -707,7 +707,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>루시엥</t>
+          <t>찐리뷰어S</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -715,7 +715,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025.11.23</t>
+          <t>2025.11.24</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -723,14 +723,18 @@
           <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>⭐물맛이 최고예요⭐</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨은 환경을 고려한 심플한 패키지가 가장 먼저 눈에 들어옵니다. 라벨이 없어 플라스틱 사용을 최소화했으며, 손에 잡히는 그립감도 좋아 이동 중에도 편리하게 마실 수 있어요. 냉장고에 넣어도 깔끔하게 정리되고, 한 병으로 하루 수분을 충분히 보충할 수 있어 부담 없이 활용할 수 있습니다.물맛 면에서는 제주삼다수 특유의 깔끔한 미네랄 맛이 살아있습니다. 목넘김이 부드러워 여러 모금 마셔도 부담이 없고, 운동 후나 더운 날, 식사 중에도 상쾌하게 마실 수 있어요. 기존 라벨 제품보다 시각적으로도 더 깔끔해서 마시는 동안 기분까지 한층 상쾌해집니다.활용도도 뛰어납니다. 그냥 마시는 것은 물론 아이스티, 과일청, 스무디, 주스 등 다양한 음료에 넣어도 재료 본연의 맛을 해치지 않고 잘 어울립니다. 외출할 때 작은 물병에 옮겨 담아 다니기에도 편리하고, 부드러운 물맛 덕분에 아이들부터 어른까지 누구나 부담 없이 마실 수 있어 가족용으로도 만족도가 높습니다.보관은 직사광선을 피해 서늘한 곳에 두면 물맛을 오래 유지할 수 있으며, 개봉 후에는 냉장 보관하면 신선하고 깨끗한 맛을 오래 즐길 수 있습니다. 무라벨이라 재활용도 쉽고, 환경을 생각하는 소비를 하고 싶을 때 안심하고 선택할 수 있는 점도 장점입니다.깔끔한 맛과 부드러운 목넘김, 환경까지 고려한 제주삼다수 그린 무라벨은 일상에서 운동, 외출, 요리 등 다양한 상황에서 활용할 수 있는 필수 생수입니다. 물 본연의 깔끔함과 신선함을 느끼면서 환경까지 신경 쓰고 싶은 분들에게 추천드립니다.</t>
+          <t>먹는 물은 생수만 마셔요.커피나 음료를 마시다 보니 물은 잘 마시지 않게 되는데그러면 수분 부족이 된다고 하더라고요.건강을 위해 물을 의식적으로 자주 마시려고 노력하는데정수기 물은 목넘김이 좋지 않고 맛없어서 잘 안 마시게 되고목넘김이 좋은 생수만 마시는데 그중에서도 삼다수가 제일 맛있어요.삼다수 무라벨은 분리수거에도 편리한 장점이 있어서리뷰를 적게 되었습니다.**POINT**- 출시 이후 27년 동안 단 한번도 수질 변화 없는 믿을 수 있어요- 연간 2만번의 철저한 수질검사로 깐깐한 물이에요- 취수원 주변 토지매입으로 잠재 오염까지 차단했다고 해요- 106개의 관측망이 빈틈없이 지키는 안전한 물이에요- 지하 420m 제주 화산암반층에 부존하는 청정한 물이에요- 미네랄 성분이 균형적으로 함유된 건강한 물이에요- 용기의 압축 강도도 함께 개선해 플라스틱 절감 효과와탄소 배출량 감축 효과가 있다고 해요- 무색병, 무색캡, 무라벨로 분리수거 하기가 편리해요- 뚜껑이 튼튼하고 잘 닫혀져서 물샘 걱정이 없어요**아쉬운 점**- 가격대가 조금 높은 편이고 예전 라벨이 있는 삼다수보다 페트병의두께가 얇아져서 처음 뚜껑을 오픈할 때 병이 쉽게 눌리면서 물을쏟을 때가 있어요. (하지만 무라벨 생수 중에서는 단단한 편이긴 해요)⭐총평⭐삼다수는 생수 중에 물맛이 가장 좋아요.물이 부드럽고 깔끔해서 텁텁함이 없고 목넘김이 좋아요.철저한 관리로 신뢰가 가는 물이에요.예전에 여행 갔을 때 사정으로 인해 생수로 세수를 한 적이 있어요.그때 삼다수로 세수를 했을 땐 트러블이 없었는데삼다수는 가격대가 있다보니 아까운 마음에저렴한 생수로 바꿔서 세수를 했는데 얼굴에 바로 오톨도톨하게트러블이 났어요.제 컨디션이나 우연한 타이밍으로 그랬는지는 모르겠지만물 맛이 다른 만큼 차이가 있지 않을까 생각이 들었어요.그래서 그 이후론 더욱 삼다수만 마시고 있어요.물맛좋고 믿을 수 있는 삼다수물을 자주 마시는 분이나 물 마시기가 어려운 분분리수거를 편리하게 하시고 싶으신 분들에게추천드려요</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -741,7 +745,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>naida</t>
+          <t>김*미</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -749,22 +753,18 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025.11.23</t>
+          <t>2025.11.24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>제일좋습니다</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>저는 평소에 물을 자주 마시는 습관이 있어서 생수 선택에 꽤나 까다로운 편입니다. 특히 외출이나 운동 시 간편하게 들고 다니기 좋은 500ml 사이즈 생수를 선호하는데요. 여러 브랜드를 시도해봤지만, 결국은 제주 삼다수로 다시 돌아와 정착하게 되었습니다. 최근 대량으로 구매해서 마시면서 느끼는 점들을 길고 솔직하게 적어보려 합니다.​1. 구매 과정 및 배송 상태​삼다수는 워낙 인기가 많은 국민 생수이다 보니 온라인이든 오프라인이든 구매가 쉽습니다. 저는 주로 인터넷 쇼핑몰을 통해 20개 또는 40개 묶음으로 주문합니다.​배송 만족도: 포장이 매우 꼼꼼하게 되어 도착하며, 지금까지 물통이 터지거나 외부 충격으로 인한 파손이 발생한 적은 한 번도 없었습니다.​유통기한: 항상 제조일자가 비교적 최근인 신선한 제품으로 배송되어 유통기한 걱정 없이 마실 수 있었습니다.​2. 맛과 목넘김: '국민 생수'인 이유​생수에서 가장 중요한 부분은 당연히 맛과 품질이겠지요. '물맛이 다 똑같다'고 생각할 수 있지만, 삼다수는 확실히 차이가 느껴집니다.​극강의 청량함: 물에서 느껴질 수 있는 잡내나 텁텁함이 전혀 없습니다. 매우 깨끗하고 청량한 느낌이 입안에 감돌아, 마실 때마다 기분 좋은 상쾌함을 선사합니다. 미네랄 밸런스가 좋아서 그런지 짠맛이나 비린 맛도 일절 없습니다.​부드러운 목넘김: 목으로 넘어가는 감촉이 굉장히 부드럽습니다. 억지로 물을 마시는 것이 아니라, 몸이 편안하게 물을 흡수하는 느낌입니다. 특히 땀을 많이 흘린 후 갈증 해소용으로 마실 때 이 부드러움이 더욱 돋보입니다.​개인적으로 다른 저가 브랜드의 생수 중에서는 가끔 쇠 맛이 느껴지거나 미세하게 소독약 냄새 같은 것이 나는 경우가 있었는데, 삼다수는 그런 불편함 없이 항상 일정한 최고 품질의 맛을 유지해줍니다.​3. 500ml 사이즈의 실용성 및 휴대성​500ml 용량은 저의 일상과 가장 잘 맞는 최적의 사이즈입니다.​뛰어난 휴대성: 가방에 넣어도 무게 부담이 적고, 크기가 적당하여 외출할 때나 출퇴근 시 항상 챙기게 되는 필수품입니다. 1L 이상은 가지고 다니기 부담스럽지만, 500ml는 가장 이상적인 크기입니다.​음용 적정량: 한 번에 다 마시기 딱 좋은 양이라서 남길 걱정이 적습니다. 뚜껑을 자주 열고 닫아 물통 입구가 오염되거나 물이 변질될 우려도 낮아 위생적입니다.​편의성: 차량의 컵홀더나 운동용 가방의 물통 주머니에도 안정적으로 들어가기 때문에 운동이나 운전 중에도 편리하게 이용할 수 있습니다.​4. 아쉬운 점: 페트병의 내구성​제품의 품질 자체는 만점이지만, 한 가지 아쉬운 점을 꼽자면 페트병 자체의 두께입니다.​얇은 플라스틱: 환경 보호를 위한 경량화 추세는 이해하지만, 뚜껑을 열거나 들고 다닐 때 병이 쉽게 찌그러지는 경향이 있습니다. 내용물이 새는 문제는 없었으나, 조금 더 단단해서 형태를 잘 유지해주었으면 하는 바람이 있습니다. 다만, 2L 대용량 병에 비해서는 500ml 병이 비교적 단단하게 느껴지는 편이기는 합니다.​5. 최종 평가: 가격 이상의 가치​삼다수는 분명히 시장의 다른 저가 생수나 PB 브랜드 제품보다는 가격대가 높은 편입니다. 하지만 저는 '먹는 물'의 품질에는 타협하지 말자는 생각입니다. 다른 물에서 느꼈던 미묘한 불쾌감이 전혀 없고, 마실 때마다 만족감을 주기 때문에 지불하는 금액이 전혀 아깝지 않습니다. 저에게는 '가성비'보다는 '가심비'가 높은 제품이라고 생각됩니다.​결론적으로 제주 삼다수 500ml는 최고의 품질을 자랑하는 생수입니다. 타의 추종을 불허하는 깨끗한 물맛, 부드러운 목넘김, 그리고 완벽한 휴대성을 갖춘 생수를 찾는 분들께 자신 있게 추천드립니다.</t>
+          <t>제주삼다수 그린 무라벨 330ml는 아이들 등교 준비를 할 때마다 자연스럽게 손이 가는 제품이라 이번에 40개 묶음으로 다시 구매하게 되었어요.작은 용량이라 아이들 두 명이 아침마다 한 병을 나누어 텀블러에 채워 가지고 다니기에 딱 맞고, 무라벨이라 분리수거할 때도 번거롭지 않아 사용하면서 느껴지는 편리함이 꽤 커요.아침마다 시간이 빠듯한데 병에서 그대로 따라 붓기만 하면 되니 따로 라벨을 떼거나 정리할 필요가 없어서 준비 과정이 훨씬 간단해졌고, 깔끔한 패키지 덕분에 재활용 쓰레기통도 불필요한 종이나 플라스틱이 쌓이지 않아 정돈된 느낌이 들어요.무엇보다 아이들이 물맛이 부드럽다며 좋아하는 편이라 다른 브랜드로 쉽게 바꾸기가 어렵고, 하루에 필요한 수분을 챙기는 데 자연스럽게 도움을 주는 점도 마음에 들어요.330ml는 아이들이 들고 다니기에도 적당한 무게라 가방에 넣어도 부담이 적고, 쉬는 시간이나 점심시간 전에 텀블러에 담아두면 하루 종일 적당한 양의 물을 마실 수 있어 양 조절이 편하다는 장점이 있어요.집에서도 종종 외출할 때 챙기기 좋은 사이즈라 운동 다녀올 때나 가까운 곳에 산책 갈 때도 이 작은 생수를 자주 사용하게 되더라고요.특히 무라벨 특유의 미니멀한 외관은 여러 개로 쌓아두었을 때도 시각적으로 깔끔해서 주방 수납장에 보관해두어도 어수선함이 없고, 박스를 뜯었을 때 병들이 가지런히 보여 만족감이 커요.삼다수 특유의 청량하면서도 거슬림 없는 물맛은 확실히 꾸준히 선택하게 되는 이유 중 하나예요.아이들이 평소 물을 자주 챙겨 마시는 편이 아니라 조금이라도 맛이 탄산수처럼 느낌이 있다거나 입에 남는 향이 있으면 잘 안 마시는데, 삼다수는 산뜻해서 그런 걱정 없이 비워오는 날이 훨씬 많았어요.특히 학교에서 체육 시간이 있는 날엔 물을 더 많이 찾는데, 이 제품은 일정한 품질을 유지하고 있어 텀블러에 옮겨 담아도 물맛이 달라지거나 답답하게 느껴지지 않아서 믿고 쓰게 돼요.또 40개 묶음은 생각보다 금방 소진되어도 한동안 넉넉하게 쓸 수 있는 양이라 마음이 편하고, 박스째로 보관해 두면 아이들이나 가족들이 언제든 꺼내 쓰기 좋아요.무라벨 생수는 환경을 생각할 수 있다는 점에서도 선택할 이유가 있는데, 실제로 사용해 보면 분리배출 과정이 확연히 줄어드는 게 체감돼요.번거로운 일을 덜어준다는 점도 만족스럽고 한 번 쓰기 시작하면 계속 이 용량과 형태를 찾게 돼요.용기에 라벨이 없다 보니 재질이 더 매끈하고 투명해서 물 상태가 잘 보여 안심되고, 차갑게 보관해 두었다가 옮겨 담으면 신선함도 오래 유지되는 느낌이에요.아침마다 아이들 가방에 물을 챙겨 넣는 일은 작은 루틴이지만, 그 과정이 조금이라도 편해지면 하루 전체 준비가 여유로워지는데 삼다수 무라벨 330ml는 그런 점에서 실용적이고 만족스러운 제품이에요.집에서는 물론 아이들 학교생활에서도 계속 활용도가 높아 금방 다시 구매하게 될 것 같아요. 작은 용량이 주는 휴대성과 무라벨의 간편함, 그리고 삼다수의 익숙하고 편안한 맛이 잘 어우러져 전반적으로 매우 만족스러운 선택이었어요.</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -779,7 +779,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>배정준</t>
+          <t>김*일</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -787,26 +787,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025.11.22</t>
+          <t>2025.11.24</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>환경·편의·맛 삼박자 완벽!</t>
+          <t>믿고 먹는 생수</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>✅ 제목환경도 지키고 수분도 꽉 채우는 삼다수 무라벨! 깔끔하고 편한 대용량 생수⸻✅ 구매 이유집에서 물을 많이 마시는 편이라 2L 생수는 필수인데, 라벨 제거가 귀찮아서 무라벨 제품을 찾다가 삼다수를 선택했어요.믿고 마시는 제주 삼다수인데다 가격과 품질이 좋아서 박스로 구매했습니다.⸻✅ 좋았던 점•	무라벨이라 분리수거가 너무 편합니다. 라벨 뜯을 필요 없어서 스트레스 ZERO!•	삼다수 특유의 깔끔하고 부드러운 맛은 여전해요. 물맛이 깨끗하고 목 넘김이 좋습니다.•	2L라 한 병만 꺼내도 하루 수분 섭취량 충분히 커버돼요. 운동할 때도 딱 좋은 용량!•	박스로 오기 때문에 보관도 깔끔하고, 냉장고에 넣어 시원하게 마시기 좋습니다.•	캠핑, 사무실, 집 어디서든 사용하기 편함.⸻✅ 아쉬웠던 점•	2L는 확실히 무거워서 냉장고에 넣고 꺼낼 때 힘이 조금 필요해요.•	무라벨이라 외관이 심플한 대신 브랜드 구분이 어려울 수 있지만, 삼다수 로고는 병에 양각으로 있어 크게 문제는 없어요.⸻✅ 꿀 TIP• 냉장고 문보다는 진열 칸에 눕혀 보관하면 공간 활용이 훨씬 편해요.• 무라벨 제품은 박스를 버릴 때도 정리 깔끔!• 2L는 다 못 마실 경우 물병 입구를 깨끗이 닦아두면 더 위생적으로 오래 보관 가능.• 운동·다이어트 중이라 물 많이 마시는 분들께 특히 추천!⸻✅ 한 줄 요약환경·편의·맛 삼박자 완벽!삼다수 무라벨 2L는 일상 수분 보충용으로 최고의 선택입니다</t>
+          <t>요즘 집에서도 그렇고 사무실에서도 그렇고 생수 소비가 꽤 많다 보니, 한 번 주문할 때 넉넉하게 사두는 편이에요. 특히 외출할 때나 운동 갈 때도 들고 나가야 해서 500ml 사이즈가 가장 실용적이더라고요. 그러다 최근에 분리수거할 때 라벨 제거하는 과정이 너무 귀찮기도 하고, 은근히 번거로워서 라벨 없는 제품을 찾게 됐어요. 그래서 선택한 게 제주삼다수 그린 무라벨 500ml입니다. 삼다수는 예전부터 믿고 마시던 브랜드라 걱정 없이 장바구니에 넣었고, 무라벨이라 분리배출도 간편하니 바로 주문하게 됐습니다.*장점가장 큰 장점은 역시 무라벨의 편리함이에요.생수병 라벨 떼다 보면 손톱도 상하고 잘 안 뜯길 때 진짜 스트레스인데, 이건 그런 과정이 전혀 없으니까 분리수거할 때 시간이 훨씬 절약됩니다.집에서는 물론이고 사무실 같은 곳에서도 버리기 간편해서 다들 좋아하더라고요.또 하나 좋은 점은 삼다수만의 깔끔하고 부드러운 물맛입니다. 너무 무겁지도, 너무 가볍지도 않은 중간 정도의 맛인데 오래 마셔도 질리지 않고, 운동할 때 마시면 특히 더 산뜻해요. 물맛 때문에 다른 브랜드는 잘 안 사는데 삼다수는 꾸준히 재구매하게 되는 이유가 바로 이 안정적인 맛입니다.500ml 용량도 활용도가 정말 좋아요. 들고 다니기 부담스럽지 않은 크기라 아이들 가방에도 가볍게 쏙 들어가고, 외출할 때 한 병 챙기면 물 부족할 걱정이 없어요. 냉장고에 넣으면 문 선반에도 딱 맞아서 보관도 편하고, 가정용으로 쌓아두기에도 사이즈가 적당합니다.그리고 무엇보다 40개 대량 구성이라 가성비가 좋습니다. 생수는 자주 떨어지면 매번 주문하기 번거로운데, 한 번에 넉넉하게 주문해두니 최소 몇 주는 걱정 없이 사용할 수 있어요. 포장도 튼튼하게 돼 있어서 터지거나 새는 제품 없이 깨끗하게 배송됐습니다.*단점무라벨이라 브랜드를 한눈에 알아보기 어렵다는 점이 있어요. 물론 삼다수는 병 모양만 봐도 알아볼 수 있긴 하지만, 다른 사람들과 섞였을 때 "이게 내 거였나?" 싶을 때가 있습니다. 특히 사무실에서 여러 사람이 같은 크기의 물병을 쓰면 헷갈리기 쉬워요.또 하나는 플라스틱 병이 약간 부드러운 편이라 가방에 넣을 때 눌리면 모양이 살짝 찌그러질 때가 있습니다. 사용하는 데 문제는 없지만, 견고한 제품을 선호하시는 분들에겐 약간 아쉬울 수 있어요.*총평전반적으로 편리함, 안전성, 맛까지 모두 만족스러운 생수입니다. 매일 마시는 물이니만큼 브랜드 신뢰도가 중요한데, 삼다수는 오래 마셔도 부담 없이 편안해서 계속 찾게 돼요. 여기에 무라벨의 장점까지 더해지니 분리수거 스트레스가 줄어서 생활 편의성이 확실히 좋아졌습니다.500ml 사이즈라 휴대성도 뛰어나고, 40개 구성이라 가성비도 괜찮아서 집·사무실·운동용 모두 만족스럽게 사용하고 있어요. 앞으로도 생수는 이 제품으로 꾸준히 주문할 것 같습니다. 물맛 깔끔한 브랜드 찾는 분, 무라벨 제품으로 분리배출 간편하게 하고 싶은 분들께 자신 있게 추천드립니다.</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -817,7 +817,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>한*진</t>
+          <t>존가</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -825,22 +825,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025.11.21</t>
+          <t>2025.11.23</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 500ml, 60개</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>생수하면 삼다수죠.</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>⭕ 계속 재구매중인 리뷰⭕✅ 깔끔한 물맛✅ 환경을 생각한 용기✅ 대용량, 보관 편리❤ 계속 재구매 중❤＊┈┈┈┈＊┈┈┈┈＊┈┈┈┈＊┈┈┈┈＊⭐⭐ 제주삼다수 그린무라벨 2리터 12병을 주문해 마시고 있는데, 집에 항상 떨어지지 않도록 무한 주문해두는 제품이예요.⭐⭐ 배송도 늘 빠르고 깔끔하게 도착해서 믿고 주문할 수 있어요.⭐⭐ 무엇보다도 변함없는 삼다수 특유의 깔끔한 물맛이라 정말 믿고 마실 수 있어요. 누구나 부담 없이 즐길 수 있는 담백한 물맛이라 가족 모두 만족하며 마셔요.⭐⭐ 무색 투명 페트병에 무라벨 디자인이라 분리배출이 훨씬 편리한 점도 맘에 들구요. 환경을 생각하는 마음까지 담긴 제품이라 만족도가 더 높아요. 라벨을 떼느라 번거로울 필요가 없고, 그대로 깨끗하게 압축해서 버리면 끝이라 정말 편해요. 무라벨이라고 해서 제품 정보가 부족할까 걱정했지만, 비닐포장에 필요한 정보가 잘 적혀 있어 전혀 불편함이 없었어요.⭐⭐ 2리터 용량이라 냉장고에 넣어두고 바로 꺼내 마시기에도 좋고, 실온에서 두고 마셔도 삼다수 특유의 시원하고 부드러운 맛이 그대로 살아 있어요. 요즘처럼 날씨가 선선할 때는 베란다에 보관해두었다가 마시면 자연 냉장한 듯 온도가 딱 맞아 더 맛있게 느껴져요. 물맛이 이렇게 일정하게 좋다는 게 가장 큰 신뢰 포인트죠.⭐⭐ 페트병 강도도 적당해서 압축해서 버릴 때 힘들지 않고, 사용 중에도 휘청거리지 않아 더 편해요. 전체적으로 품질, 편의성, 맛, 환경까지 모두 만족시키는 제품이라 계속 재구매하게 되는 이유를 충분히 갖춘 생수예요. 앞으로도 꾸준히 이 제품으로 선택할 생각이에요.</t>
+          <t>안녕하세요존가입니다.오늘은 제주삼다수 그린 무라벨, 500ml, 60개 제품을 사보았습니다.물하면 뭐 사먹으세요?그냥 조금 비싸도 저희는 제주삼다수를 사먹고 있어요.그렇다고 자주 사먹는 건 아니고 생수를 사먹게 되면요. 그렇다는 거에요.그린은 기존 삼다수의 품질은 유지하면서 친환경을 위해 라벨을 제거하고 포장재를 개선한 제품이라서더 사먹기 편하고 사먹어도 마음이 조금 편해지더라고요. 환경에 조금이라도 도움이 될까 싶어서요.아무튼 생수를 사게 되면 항상 제주삼다수를 사먹게 되네요.제주삼다수 그린 무라벨, 500ml, 60개의 특징을 한마디로 표현하면1. 지금까지 수질변화 없이 믿을 수 있는 물로서 자리 잡은 것 같아요.2. PH 7.8의 약알칼리성의 연수로 부드러운 물맛 아니랄까봐 건강한 물맛이 느껴져요.3. 천연 화산 암반층에서 걸러낸 깨끗하고 미네랄 성분이 균형있게 함유되어 있으니깐 더 믿음이 가요.여기서 좋은 점을 더 말하자면환경 친화적으로 라벨 제거와 병 경량화 전략으로 플라스틱 사용을 줄이고 있어서 지속 가능성 고려한 소비에 적합한 것 같아요. 또한 신뢰할 수 있는 수원지로써 제주 삼다수는 오랫동안 사랑받아온 브랜드이며 안정된 수질을 자랑하고 있네요.가성비를 따지자면 60병이라는 세트로 큰 단위 구매 시 병당 단가가 낮아지기도 한답니다.그리고 라벨이 없기 때문에 병 분리 배출 시 라벨 제거 과정이 줄어들어 재활용이 조금 더 간편해요.이런 분들께 한 번 추천해봅니다.1. 환경에 민감하고, 플라스틱 사용 줄이기를 실천하는 사람2. 집에서 물 소비가 많은 가정3. 사무실이나 공동 공간에 물을 비치하고 싶은 경우4. 장기 보관 가능한 생수를 찾는 사람그래도이런 저런 말하는 것보다 한 번 사서 마셔보시는 걸 강력 추천드리고제 후기가 조금이라도 도움이 되셨다면 도움이돼요 빵빵~ 한 번 눌러주시는 센스 부탁드립니다.감사합니다.</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -851,7 +855,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>한*진</t>
+          <t>루시엥</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -859,7 +863,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025.11.20</t>
+          <t>2025.11.23</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -870,11 +874,11 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>⭕ 삼다수구입 후 총평 ⭕✅ 친환경 포장: 무라벨 + 비닐팩 포장으로 쓰레기 최소화, 재활용도 간편✅ 튼튼한 병 구조: 물을 따를 때 찌그러지지 않아 안정적이고 사용하기 편함✅ 깔끔한 물맛: 커피·티 등 다양한 음료에 사용해도 풍미가 잘 살아나는 깨끗한 맛❤ 또 구매 예정 ❤＊┈┈┈┈＊┈┈┈┈＊┈┈┈┈＊┈┈┈┈＊⭐⭐ 삼다수 그린무라벨 2L 12병을 여러 번 구매해서 마시고 있는데, 역시 믿고 선택하는 국민생수답다는 생각이 들어요.⭐⭐ 별도의 박스 포장 없이 비닐팩으로만 간단하게 포장되어 와서 과도한 쓰레기가 나오지 않고, 개봉도 편해요.⭐⭐ 환경을 생각한 무라벨 제품이라 라벨을 뜯어내는 번거로움도 없고, 재활용할 때도 훨씬 간편해요. 요즘 플라스틱 사용 줄이기가 중요해진 만큼 이런 친환경 포장 방식이 정말 좋더라구요.⭐⭐ 병의 강도도 적당히 단단해서 물을 따를 때 찌그러지는 느낌이 없어 안정적이에요. 2L 대용량이면 잡고 따르기 불편한 경우가 많은데, 삼다수는 구조 자체가 탄탄해서 끝까지 편하게 사용할 수 있었어요.⭐⭐ 물맛은 말할 것도 없이 깔끔하고 부담 없는 맛이라 그냥 마실 때는 물론이고, 저는 특히 커피나 티를 만들 때 자주 활용하고 있어요. 물맛이 깔끔하다 보니 음료의 풍미까지 깔끔하게 살아나 만족스러워요.⭐⭐ 또 하나 장점은 배송 타이밍이 빨라서 재고 관리가 편하다는 점이에요. 저는 늘 1병 정도 남았을 때 주문하는데, 거의 바로 배송되어 물 떨어질 걱정이 없어요.⭐⭐ 누구나 좋아할 깔끔한 맛과 믿을 수 있는 품질, 환경을 고려한 무라벨 디자인까지 모두 갖춘 진짜 ‘국민생수’라는 표현이 딱 맞는 제품이예요. 앞으로도 계속 재구매할 예정이예요.</t>
+          <t>제주삼다수 그린 무라벨은 환경을 고려한 심플한 패키지가 가장 먼저 눈에 들어옵니다. 라벨이 없어 플라스틱 사용을 최소화했으며, 손에 잡히는 그립감도 좋아 이동 중에도 편리하게 마실 수 있어요. 냉장고에 넣어도 깔끔하게 정리되고, 한 병으로 하루 수분을 충분히 보충할 수 있어 부담 없이 활용할 수 있습니다.물맛 면에서는 제주삼다수 특유의 깔끔한 미네랄 맛이 살아있습니다. 목넘김이 부드러워 여러 모금 마셔도 부담이 없고, 운동 후나 더운 날, 식사 중에도 상쾌하게 마실 수 있어요. 기존 라벨 제품보다 시각적으로도 더 깔끔해서 마시는 동안 기분까지 한층 상쾌해집니다.활용도도 뛰어납니다. 그냥 마시는 것은 물론 아이스티, 과일청, 스무디, 주스 등 다양한 음료에 넣어도 재료 본연의 맛을 해치지 않고 잘 어울립니다. 외출할 때 작은 물병에 옮겨 담아 다니기에도 편리하고, 부드러운 물맛 덕분에 아이들부터 어른까지 누구나 부담 없이 마실 수 있어 가족용으로도 만족도가 높습니다.보관은 직사광선을 피해 서늘한 곳에 두면 물맛을 오래 유지할 수 있으며, 개봉 후에는 냉장 보관하면 신선하고 깨끗한 맛을 오래 즐길 수 있습니다. 무라벨이라 재활용도 쉽고, 환경을 생각하는 소비를 하고 싶을 때 안심하고 선택할 수 있는 점도 장점입니다.깔끔한 맛과 부드러운 목넘김, 환경까지 고려한 제주삼다수 그린 무라벨은 일상에서 운동, 외출, 요리 등 다양한 상황에서 활용할 수 있는 필수 생수입니다. 물 본연의 깔끔함과 신선함을 느끼면서 환경까지 신경 쓰고 싶은 분들에게 추천드립니다.</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -885,7 +889,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>가나슈</t>
+          <t>naida</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -893,26 +897,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025.11.19</t>
+          <t>2025.11.23</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>믿고 마시는 물~~</t>
+          <t>제일좋습니다</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>제주삼다수 무라벨 2L 제품을 구입해서 여러 번 마셔본 결과,“믿고 마실 수 있는 물”이라는 말이 딱 어울리는 제품입니다 !제주도 화산암반층에서 취수한 천연 지하수답게 물맛이 정말 깔끔하고,물비린내가 나지 않는 것 같아용물을 마실 때 느껴지는 청량함이 다르고, 냉장고에 넣어두면한여름에도 산뜻한 청결감이 오래 유지됩니다.특히 제주삼다수는 27년 동안 수질 변함이 없다는 점이 인상 깊었고,연간 2만 번 이상 실시된다는 철저한 수질검사 덕분에 믿음이 갑니다.취수원 주변 토지를 매입해 오염 가능성을 사전에 차단했다는 점에서도 브랜드의 신뢰도가 느껴집니다.일단 최대 장점은 바로 무라벨이라는 점인데요!무라벨 제품이라 분리수거할 때 정말 편리합니다.라벨을 일일이 떼어내는 번거로움이 없고, 병과 뚜껑이 모두 무색이라 재활용 효율도 높을 것 같아용환경을 생각하는 소비자라면 만족도가 클 것 같습니다.요즘 ESG 트렌드에 맞게 친환경 패키지를 실천하는 부분도 마음에 듭니다.또, 2L 대용량이라 가정이나 사무실에서 두고 마시기 좋고,12개입이라 넉넉하게 구비해두면 생수 떨어질 걱정이 없습니다.평소 식수나 커피, 요리용으로도 사용해봤는데,삼다수는 미네랄 성분이 균형 잡혀 있어서 물맛이 부드럽고 음식의 맛도 깔끔하게 살아납니다.무겁지만 쿠팡 로켓배송으로 문 앞까지 안전하게 배송되어 편리했습니다.포장도 튼튼하게 되어 있어서 병이 눌리거나 새는 일 없이 왔습니다.무엇보다 물을 자주 마시는 가족들이나 어린이가 있는 집이라면, 수질이 안정적인 생수를 고르는 게 중요한데, 그 점에서 삼다수는 가장 믿을 수 있는 선택입니다.106개의 관측망으로 철저하게 관리된다는 부분도 안심이 되고요~~전반적으로 “품질, 안전성, 친환경성” 세 가지를 모두 갖춘 생수라고 생각합니다!!다른 브랜드 생수에 비해 약간 가격대가 있을 수는 있지만,물의 맛과 신뢰성을 고려하면 충분히 그 값을 하는 제품입니다.앞으로도 무라벨 제주삼다수 2L는 꾸준히 재구매할 예정입니다.깨끗하고 건강한 물을 찾는 분들께 강력히 추천합니다.</t>
+          <t>저는 평소에 물을 자주 마시는 습관이 있어서 생수 선택에 꽤나 까다로운 편입니다. 특히 외출이나 운동 시 간편하게 들고 다니기 좋은 500ml 사이즈 생수를 선호하는데요. 여러 브랜드를 시도해봤지만, 결국은 제주 삼다수로 다시 돌아와 정착하게 되었습니다. 최근 대량으로 구매해서 마시면서 느끼는 점들을 길고 솔직하게 적어보려 합니다.​1. 구매 과정 및 배송 상태​삼다수는 워낙 인기가 많은 국민 생수이다 보니 온라인이든 오프라인이든 구매가 쉽습니다. 저는 주로 인터넷 쇼핑몰을 통해 20개 또는 40개 묶음으로 주문합니다.​배송 만족도: 포장이 매우 꼼꼼하게 되어 도착하며, 지금까지 물통이 터지거나 외부 충격으로 인한 파손이 발생한 적은 한 번도 없었습니다.​유통기한: 항상 제조일자가 비교적 최근인 신선한 제품으로 배송되어 유통기한 걱정 없이 마실 수 있었습니다.​2. 맛과 목넘김: '국민 생수'인 이유​생수에서 가장 중요한 부분은 당연히 맛과 품질이겠지요. '물맛이 다 똑같다'고 생각할 수 있지만, 삼다수는 확실히 차이가 느껴집니다.​극강의 청량함: 물에서 느껴질 수 있는 잡내나 텁텁함이 전혀 없습니다. 매우 깨끗하고 청량한 느낌이 입안에 감돌아, 마실 때마다 기분 좋은 상쾌함을 선사합니다. 미네랄 밸런스가 좋아서 그런지 짠맛이나 비린 맛도 일절 없습니다.​부드러운 목넘김: 목으로 넘어가는 감촉이 굉장히 부드럽습니다. 억지로 물을 마시는 것이 아니라, 몸이 편안하게 물을 흡수하는 느낌입니다. 특히 땀을 많이 흘린 후 갈증 해소용으로 마실 때 이 부드러움이 더욱 돋보입니다.​개인적으로 다른 저가 브랜드의 생수 중에서는 가끔 쇠 맛이 느껴지거나 미세하게 소독약 냄새 같은 것이 나는 경우가 있었는데, 삼다수는 그런 불편함 없이 항상 일정한 최고 품질의 맛을 유지해줍니다.​3. 500ml 사이즈의 실용성 및 휴대성​500ml 용량은 저의 일상과 가장 잘 맞는 최적의 사이즈입니다.​뛰어난 휴대성: 가방에 넣어도 무게 부담이 적고, 크기가 적당하여 외출할 때나 출퇴근 시 항상 챙기게 되는 필수품입니다. 1L 이상은 가지고 다니기 부담스럽지만, 500ml는 가장 이상적인 크기입니다.​음용 적정량: 한 번에 다 마시기 딱 좋은 양이라서 남길 걱정이 적습니다. 뚜껑을 자주 열고 닫아 물통 입구가 오염되거나 물이 변질될 우려도 낮아 위생적입니다.​편의성: 차량의 컵홀더나 운동용 가방의 물통 주머니에도 안정적으로 들어가기 때문에 운동이나 운전 중에도 편리하게 이용할 수 있습니다.​4. 아쉬운 점: 페트병의 내구성​제품의 품질 자체는 만점이지만, 한 가지 아쉬운 점을 꼽자면 페트병 자체의 두께입니다.​얇은 플라스틱: 환경 보호를 위한 경량화 추세는 이해하지만, 뚜껑을 열거나 들고 다닐 때 병이 쉽게 찌그러지는 경향이 있습니다. 내용물이 새는 문제는 없었으나, 조금 더 단단해서 형태를 잘 유지해주었으면 하는 바람이 있습니다. 다만, 2L 대용량 병에 비해서는 500ml 병이 비교적 단단하게 느껴지는 편이기는 합니다.​5. 최종 평가: 가격 이상의 가치​삼다수는 분명히 시장의 다른 저가 생수나 PB 브랜드 제품보다는 가격대가 높은 편입니다. 하지만 저는 '먹는 물'의 품질에는 타협하지 말자는 생각입니다. 다른 물에서 느꼈던 미묘한 불쾌감이 전혀 없고, 마실 때마다 만족감을 주기 때문에 지불하는 금액이 전혀 아깝지 않습니다. 저에게는 '가성비'보다는 '가심비'가 높은 제품이라고 생각됩니다.​결론적으로 제주 삼다수 500ml는 최고의 품질을 자랑하는 생수입니다. 타의 추종을 불허하는 깨끗한 물맛, 부드러운 목넘김, 그리고 완벽한 휴대성을 갖춘 생수를 찾는 분들께 자신 있게 추천드립니다.</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -923,7 +927,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>미냐</t>
+          <t>배정준</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -931,7 +935,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025.11.19</t>
+          <t>2025.11.22</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -941,16 +945,16 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>물은 역시 제주삼다수</t>
+          <t>환경·편의·맛 삼박자 완벽!</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>❤️ 제주삼다수 그린 무라벨 2L 12개 사용후기 ❤️제주삼다수 그린 무라벨 2L는 평소에도 물을 자주 마시는 저에게**“역시 물맛은 삼다수다”**라는 걸 다시 한 번 느끼게 해준 제품이에요.생수는 브랜드마다 맛이 미묘하게 다른데,삼다수는 늘 안정적인 맛이라 믿고 사게 되더라구요.특히 이번 무라벨 버전은 편의성과 깔끔함 면에서 만족도가 정말 높았어요.✔️ 첫 인상부터 확 깔끔한 무라벨 패키지박스를 열면 라벨 없는 투명 병들이 가지런히 들어 있는데,라벨이 없다는 것만으로도 보는 순간 심플하고 청량한 느낌이 확 들어요.라벨 뜯는 번거로움도 없고, 찢어진 라벨 조각이 굴러다닐 일도 없고,분리수거할 때 병만 쏙 버릴 수 있어서 너무 편해요.생각보다 이 “라벨 없는 편리함”이 생활에서 체감이 큽니다.✔️ 물맛이 정말 깔끔하고 부드러워요삼다수 특유의 청정 지하수 맛이 그대로 살아 있어요.잡맛 없고 목 넘김이 부드러워서 운동 후나 아침 공복에 마셔도 부담이 없어요.삼다수는 마실 때마다 딱 물맛이 ‘깨끗하다’라는 표현이 가장 잘 맞는데,무라벨도 동일하게 그 삼다수 맛 그대로예요.입안에 남는 텁텁함이 없고, 삼키고 난 뒤에도 뒷맛이 깔끔해서계속 손이 가는 생수예요.✔️ 냉장고에 넣어두면 더 맛있음이건 개인적인 만족 포인트인데,2L 병이 냉장고 측면 문칸에 딱 맞게 들어가서냉장 보관할 때도 정리된 느낌이 들어요.투명 무라벨이라 시각적으로도 깔끔하고,차갑게 한 잔 따라 마시면 삼다수 특유의 시원한 단맛이 더 잘 느껴져요.✔️ 요리·커피·차 등 어디에 써도 맛이 변하지 않아요물맛이 깔끔하다 보니 커피를 내려도 맛이 선명하게 나오고,국물 요리할 때도 물의 잡맛이 없어서 음식 맛이 더 깔끔해요.특히 밥 지을 때 쓰면 밥알에서 물 특유의 쌀뜬맛 없이담백한 맛이 잘 살아나는 느낌이에요.✔️ 병이 단단해서 사용하기 편해요요즘 얇아서 눌리거나 찌그러지는 생수병도 많은데,삼다수 무라벨은 병 자체가 탄탄해서따라 마실 때 흐르는 물 양도 안정적이에요.옮길 때나 보관할 때도 찌그러짐이 적어서 보기에도 단정해요.✔️ 환경적인 만족감까지무라벨이라 플라스틱 재활용이 훨씬 쉬워지고,눈에 띄는 쓰레기도 줄어서 기분 좋은 소비라는 느낌이 들어요.라벨 분리할 때 종종 손톱 부러지거나 찢어져서 짜증나는 경험 있었는데그 스트레스가 싹 사라졌어요 ㅋㅋ✔️ 대용량 2L × 12개 구성이라 가성비도 굿한 번 사두면 오래 쓰고, 마실 때마다 새로 들고 올 필요도 없고,쿠팡 배송이라 무거운 걸 직접 옮길 일도 없어서가성비·편의성 두 마리 토끼 다 잡은 느낌이에요.❤️ 총평 ❤️물맛 깔끔하고 목 넘김 부드러운 생수 찾는 분들께는무라벨 삼다수가 진짜 실패 없는 선택이라고 생각해요.환경·편의성·맛까지 삼박자 골고루 만족!저도 다 마시면 당연히 다시 주문할 예정이에요.❤️ ‘도움이 돼요’ 한 번 눌러주시면 오늘 좋은 기운 듬뿍 가져가세요 ❤️</t>
+          <t>✅ 제목환경도 지키고 수분도 꽉 채우는 삼다수 무라벨! 깔끔하고 편한 대용량 생수⸻✅ 구매 이유집에서 물을 많이 마시는 편이라 2L 생수는 필수인데, 라벨 제거가 귀찮아서 무라벨 제품을 찾다가 삼다수를 선택했어요.믿고 마시는 제주 삼다수인데다 가격과 품질이 좋아서 박스로 구매했습니다.⸻✅ 좋았던 점•	무라벨이라 분리수거가 너무 편합니다. 라벨 뜯을 필요 없어서 스트레스 ZERO!•	삼다수 특유의 깔끔하고 부드러운 맛은 여전해요. 물맛이 깨끗하고 목 넘김이 좋습니다.•	2L라 한 병만 꺼내도 하루 수분 섭취량 충분히 커버돼요. 운동할 때도 딱 좋은 용량!•	박스로 오기 때문에 보관도 깔끔하고, 냉장고에 넣어 시원하게 마시기 좋습니다.•	캠핑, 사무실, 집 어디서든 사용하기 편함.⸻✅ 아쉬웠던 점•	2L는 확실히 무거워서 냉장고에 넣고 꺼낼 때 힘이 조금 필요해요.•	무라벨이라 외관이 심플한 대신 브랜드 구분이 어려울 수 있지만, 삼다수 로고는 병에 양각으로 있어 크게 문제는 없어요.⸻✅ 꿀 TIP• 냉장고 문보다는 진열 칸에 눕혀 보관하면 공간 활용이 훨씬 편해요.• 무라벨 제품은 박스를 버릴 때도 정리 깔끔!• 2L는 다 못 마실 경우 물병 입구를 깨끗이 닦아두면 더 위생적으로 오래 보관 가능.• 운동·다이어트 중이라 물 많이 마시는 분들께 특히 추천!⸻✅ 한 줄 요약환경·편의·맛 삼박자 완벽!삼다수 무라벨 2L는 일상 수분 보충용으로 최고의 선택입니다</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -961,7 +965,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>놀러가장</t>
+          <t>한*진</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -969,7 +973,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025.11.17</t>
+          <t>2025.11.21</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -977,18 +981,14 @@
           <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>제주 삼다수</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>부모님이 시중에서 판매하는 생수는 다 마셔 봤는데그 중에서도 삼다수 물맛이 최고라고 말씀을 하시네요.삼다수만 드셔서 다른 생수는 못 보내드리겠고, 그래서이번에도 부모님댁에 삼다수로 주문해드렸네요.다른 생수하고 다르게 고소하고,미세하게 단맛이 느껴진다고말씀을 하시는데 저는 아무리 마셔봐도 잘 모르겠더라구요.✴️《제주삼다수》-한라산 국립공원에 인접한 산림지대-그대로의 원시성이 보존된 제주 깨끗한 화산 암반수✴️《수원지》제주도 제주시 조천읍✴️《제주삼다수 그린》자연을 해치지 않고,그대로 자원 순환할수 있도록 무색병.무색캡.그리고 무라벨로 제주의 자연환경을 넘어서지구환경을 지키고자 하는 노력이 대단하네요.✴️《제주삼다수 우수성》➡️지하 420m 화산암층에 부존하는 물➡️화산암반에서 18년간 자연 정수된 깨끗한 물➡️20여년 동안 수질변화가 없는 안전한 물➡️균형잡힌 미네랄 성분이 함유된 건강한 물➡️약알칼리성의 경도 낮은 연수로 부드러운 물맛➡️제주 화산송이와 현무암층이 빚어낸 퓨어워터✴️《성분 함유량》칼슘(Ca)     2.5~4.0칼륨(K)       1.5~3.4나트륨(Na) 4.0~7.2마그네슘(Mg)1.7~3.5불소(F)   불검출제주 삼다수 부모님댁.그리고 저희집 주문을 했는데받자마자 한잔 따라서 마셨는데 진짜 물맛이 좋네요.삼다수 다 먹고 나서도 라벨제거 할 필요도 없고,물병이 잘찌그려져서 재활용 버리려갈때 마다 부피를 확 줄여 주네요.요즘 환경문제로 인해 좋은 일에 동참하는 브랜드들이 많은데여기에 같이 참여하게 되어서 너무나도 기쁘게 생각이 되네요.다시 본론으로 들어가서 제주 삼다수 물맛이 당연 최고인데별다른 말이 더 필요 할까요.삼다수는 어르신들이 좋아하고,대한민국 사람들이 일등으로뽑은 이유는 그만한 이유가 다 있을거라고 생각이 되네요.♥️♥️♥️지금까지 내돈내산으로 솔직하게 작성한 리뷰이고제 리뷰가 도움되셨다면 {도움되요} 꾹 눌러주세요.♥️♥️♥️</t>
+          <t>⭕ 계속 재구매중인 리뷰⭕✅ 깔끔한 물맛✅ 환경을 생각한 용기✅ 대용량, 보관 편리❤ 계속 재구매 중❤＊┈┈┈┈＊┈┈┈┈＊┈┈┈┈＊┈┈┈┈＊⭐⭐ 제주삼다수 그린무라벨 2리터 12병을 주문해 마시고 있는데, 집에 항상 떨어지지 않도록 무한 주문해두는 제품이예요.⭐⭐ 배송도 늘 빠르고 깔끔하게 도착해서 믿고 주문할 수 있어요.⭐⭐ 무엇보다도 변함없는 삼다수 특유의 깔끔한 물맛이라 정말 믿고 마실 수 있어요. 누구나 부담 없이 즐길 수 있는 담백한 물맛이라 가족 모두 만족하며 마셔요.⭐⭐ 무색 투명 페트병에 무라벨 디자인이라 분리배출이 훨씬 편리한 점도 맘에 들구요. 환경을 생각하는 마음까지 담긴 제품이라 만족도가 더 높아요. 라벨을 떼느라 번거로울 필요가 없고, 그대로 깨끗하게 압축해서 버리면 끝이라 정말 편해요. 무라벨이라고 해서 제품 정보가 부족할까 걱정했지만, 비닐포장에 필요한 정보가 잘 적혀 있어 전혀 불편함이 없었어요.⭐⭐ 2리터 용량이라 냉장고에 넣어두고 바로 꺼내 마시기에도 좋고, 실온에서 두고 마셔도 삼다수 특유의 시원하고 부드러운 맛이 그대로 살아 있어요. 요즘처럼 날씨가 선선할 때는 베란다에 보관해두었다가 마시면 자연 냉장한 듯 온도가 딱 맞아 더 맛있게 느껴져요. 물맛이 이렇게 일정하게 좋다는 게 가장 큰 신뢰 포인트죠.⭐⭐ 페트병 강도도 적당해서 압축해서 버릴 때 힘들지 않고, 사용 중에도 휘청거리지 않아 더 편해요. 전체적으로 품질, 편의성, 맛, 환경까지 모두 만족시키는 제품이라 계속 재구매하게 되는 이유를 충분히 갖춘 생수예요. 앞으로도 꾸준히 이 제품으로 선택할 생각이에요.</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -999,7 +999,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>노히로</t>
+          <t>한*진</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025.11.17</t>
+          <t>2025.11.20</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1018,11 +1018,11 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>✅ 한줄 결론제주삼다수 그린 무라벨 2L 12개는 물맛이 부드럽고 일관해요. 무라벨이라 분리배출이 빠르고, 비닐 포장 6개입 2벌 구성으로 보관과 운반이 편해요. 집과 사무실, 요리와 음료까지 전천후로 만족해요. ✨✅ 왜 샀는지매일 마시는 생수는 물맛이 일정하고 관리가 쉬워야 해요. 여러 브랜드를 돌려보다가 다시 삼다수로 정착했어요. 특히 라벨 제거가 필요 없는 무라벨과 2L 용량의 실용성이 마음에 들어요. 이번에 받아 보니 상자가 아니라 6병씩 비닐로 감싼 팩이 두 벌로 오더라고요. 현관에서 냉장고까지 옮길 때 두 번에 나눠 들기 좋아서 오히려 실사용성이 높았어요.✅ 핵심 장점✅ 무라벨 친환경 설계 라벨을 떼지 않아도 돼서 분리배출이 간단해요✅ 안정적인 물맛 첫 모금부터 끝맛까지 깔끔하고 부드러워요✅ 2L 대용량 가성비 좋고 가족 물리필에 적합해요✅ 6개입 비닐 포장 2벌 운반과 분리 보관이 쉽고 공간 배치가 유연해요✅ 병 마감과 캡 밀폐 튼튼해서 새거나 찌그러짐이 적어요✅ 요리와 음료 범용성 밥짓기, 커피, 차에도 결과가 안정적이에요 ✔✅ 실제 사용 후기물맛은 삼다수답게 깨끗해요. 상온으로 마셔도 텁텁함이 없고, 냉장 후에는 목 넘김이 더 부드러워요. 핸드드립 커피에 써 보면 향이 또렷하게 살아나고, 녹차나 보이차처럼 물의 성향을 타는 차도 비눗맛이나 금속맛이 전혀 없어 추출이 깔끔해요. 국이나 밥을 지을 때도 잡내가 없어서 재료 맛이 선명해요.포장에 대해 자세히 말해 볼게요. 상자 없이 6병씩 비닐로 감싼 팩이 두 벌로 와요. 한 벌만 먼저 들고 이동하면 팔에 무리가 덜하고, 남은 한 벌은 베란다나 다용도실에 세워 보관하면 끝이에요. 비닐 포장의 마감이 튼튼해서 들고 갈 때 중간이 찢어지지 않았고, 모서리 압착부도 깔끔했어요. 다만 비닐을 개봉할 때는 칼 대신 가위를 쓰면 병 표면에 흠집을 줄일 수 있어요.무라벨의 편의성은 분리배출에서 압도적이에요. 라벨 떼고 접착제 흔적을 제거하는 과정이 없으니 병을 헹구고 찌그러뜨려 바로 넣으면 끝이에요. 병 몸통에는 각인으로 정보가 들어가 있어 내용 파악도 쉬워요. 캡은 처음 열 때 손맛이 단단하고, 다시 닫을 때 밀폐감이 확실해서 컵에 여러 번 따라 마셔도 신선함이 유지돼요. 냉장고 문 선반에 세워 두면 흔들림 없이 안정적이었고, 물줄기가 한쪽으로 튀지 않아 주변이 젖지 않아요.✅ 활용 시나리오✔ 아침 공복 한 컵 상온으로 마셔 수분과 컨디션을 부드럽게 올려요✔ 커피와 차 추출 물맛이 중립이라 향이 또렷하게 나와요✔ 테이블 워터 냉장 한 병을 식탁에 올려 식사 때마다 리필해요✔ 요리용 밥짓기, 찌개, 육수에 잡맛 없이 사용해요✔ 아이스 메이커 얼림용으로 덜어 쓰면 얼음맛이 깔끔해요✔ 비상 저장수 6병 단위로 회전 보관하면 관리가 쉬워요✅ 사용 팁✔ 비닐 팩은 한 벌만 먼저 개봉해요 남은 한 벌은 직사광선을 피한 서늘한 곳에 세워 보관해요✔ 개봉한 병은 컵에 따라 마시고, 입대고 마신 병은 당일에 비우는 게 위생에 좋아요✔ 냉장 보관 시 병 목 주변의 물기를 닦고 세워 두면 깔끔해요✔ 커피용은 실온과 냉장 물을 반반 섞어 10도대 온도로 맞추면 추출이 안정적이에요✔ 분리배출은 캡과 뚜껑 속 링을 분리하고 병은 찌그러뜨려 부피를 줄여요 ⚠️ 개봉 전후로 강한 냄새의 식재료와 함께 두지 않으면 물맛이 더 오래 깔끔해요✅ 비교 포인트타 브랜드 중에는 미네랄감이 과해 떫거나 반대로 너무 밍밍한 제품이 있어요. 삼다수는 중심이 잘 잡혀 있어 매일 마시기 적합해요. 게다가 상자 대신 6병 비닐 포장 2벌 구성이라 운반과 층간 배치가 쉬워요. 한 벌은 즉시 사용, 한 벌은 비축으로 나눠 두면 재고 관리가 간단해요. 무라벨 덕분에 분리배출 시간도 크게 줄고, 병 퀄리티가 단단해서 눌림 파손이 드물었어요. ★★★★★✅ 총평제주삼다수 그린 무라벨 2L 12개는 물맛, 편의성, 보관성을 모두 갖춘 기본 생수예요. 무라벨이라 정리 시간이 짧고, 6개입 비닐 포장 2벌 구성은 운반과 보관을 더 실용적으로 만들어 줘요. 요리와 음료, 일상 수분 보충, 비상 상비수까지 전 영역에서 만족스러웠어요. 다음에도 이 구성으로 다시 살 계획이에요.★★★★★ 재구매 의사 높아요. 매일 마실수록 차이가 보이고, 무라벨과 6병 비닐 포장 2벌의 생활 편의가 확실해요.</t>
+          <t>⭕ 삼다수구입 후 총평 ⭕✅ 친환경 포장: 무라벨 + 비닐팩 포장으로 쓰레기 최소화, 재활용도 간편✅ 튼튼한 병 구조: 물을 따를 때 찌그러지지 않아 안정적이고 사용하기 편함✅ 깔끔한 물맛: 커피·티 등 다양한 음료에 사용해도 풍미가 잘 살아나는 깨끗한 맛❤ 또 구매 예정 ❤＊┈┈┈┈＊┈┈┈┈＊┈┈┈┈＊┈┈┈┈＊⭐⭐ 삼다수 그린무라벨 2L 12병을 여러 번 구매해서 마시고 있는데, 역시 믿고 선택하는 국민생수답다는 생각이 들어요.⭐⭐ 별도의 박스 포장 없이 비닐팩으로만 간단하게 포장되어 와서 과도한 쓰레기가 나오지 않고, 개봉도 편해요.⭐⭐ 환경을 생각한 무라벨 제품이라 라벨을 뜯어내는 번거로움도 없고, 재활용할 때도 훨씬 간편해요. 요즘 플라스틱 사용 줄이기가 중요해진 만큼 이런 친환경 포장 방식이 정말 좋더라구요.⭐⭐ 병의 강도도 적당히 단단해서 물을 따를 때 찌그러지는 느낌이 없어 안정적이에요. 2L 대용량이면 잡고 따르기 불편한 경우가 많은데, 삼다수는 구조 자체가 탄탄해서 끝까지 편하게 사용할 수 있었어요.⭐⭐ 물맛은 말할 것도 없이 깔끔하고 부담 없는 맛이라 그냥 마실 때는 물론이고, 저는 특히 커피나 티를 만들 때 자주 활용하고 있어요. 물맛이 깔끔하다 보니 음료의 풍미까지 깔끔하게 살아나 만족스러워요.⭐⭐ 또 하나 장점은 배송 타이밍이 빨라서 재고 관리가 편하다는 점이에요. 저는 늘 1병 정도 남았을 때 주문하는데, 거의 바로 배송되어 물 떨어질 걱정이 없어요.⭐⭐ 누구나 좋아할 깔끔한 맛과 믿을 수 있는 품질, 환경을 고려한 무라벨 디자인까지 모두 갖춘 진짜 ‘국민생수’라는 표현이 딱 맞는 제품이예요. 앞으로도 계속 재구매할 예정이예요.</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>운명개척자</t>
+          <t>가나슈</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1041,22 +1041,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025.11.16</t>
+          <t>2025.11.19</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 60개</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>믿고 마시는 물~~</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>#어디서든 편하게 들고 다니는 물 — 제주삼다수 그린 무라벨 후기물은 매일 마시는 거라 특별할 게 없어 보이지만, 막상 외출하거나 회사에 있을 때 물이 없으면 괜히 음료수를 사게 되잖아요. 그래서 저는 제주삼다수 그린 무라벨 500ml × 60개를 항상 집에 넉넉하게 두고, 회사·차·외출용으로 꾸준히 챙겨 다녀요. 이렇게 하니까 필요할 때 바로 마실 수 있고, 불필요하게 음료수를 사 먹는 일이 거의 없어져서 만족도가 상당히 높아요.#무라벨이라 깔끔하고 어디에 들고 가도 부담 없어요무라벨 제품은 진짜 장점이 많아요. 일단 병이 깔끔해서 라벨 떼는 번거로움이 없고, 디자인이 심플해서 사무실이나 회의실에 두어도 시각적으로 지저분해 보이지 않아요. 가방이나 차에 넣어두어도 늘어지지 않고 단정한 느낌이라 외출할 때 들고 다니기 좋고요.#500ml 사이즈가 가장 활용도 높아요1L는 들고 다니기 부담스럽고, 300ml는 금방 없어지는데 500ml는 딱 적당한 용량이에요.-회사 책상에 하나-차 cupholder에 하나-가방에 하나이렇게 세 군데만 세팅해두면 하루 동안 물 때문에 스트레스 받을 일이 없어요. 특히 운전 중 목마를 때 바로 꺼내 먹을 수 있어서 편하고, 출근길에도 무심코 챙기기 좋아요.#삼다수 특유의 깔끔한 맛이라 물맛 때문에 스트레스 없음물은 사람마다 취향이 조금씩 있는데, 저는 삼다수가 가장 입에 잘 맞아요. 특유의 미네랄감이 부담스럽지 않고, 아무 때나 마셔도 깔끔해서 질리지 않아요. 그래서 여러 병 사놓고 계속 마셔도 맛이 질리지 않아요.#60개 대용량이지만 금방 줄어드는 구성60개면 많아 보이는데, 실제로 회사·차·집·운동 갈 때 등 여기저기 두고 마시다 보면 생각보다 빨리 줄어요. 그래도 넉넉하게 쟁여두면 ‘물 떨어졌네’ 하고 갑자기 사러 갈 일이 없어서 확실히 편해요.#불필요하게 음료수 사먹는 일이 줄어드는 효과물을 들고 다니기만 해도 장점이 확실해요.카페에서 생수 사는 일도 줄고, 편의점에서 음료를 습관적으로 사는 일도 확연히 줄어요. 물병 하나만 챙겼을 뿐인데 지출도 줄고, 몸도 더 편해지는 느낌이에요.#이런 분들께 추천해요-외출할 때 늘 목이 마른데 음료를 자주 사먹는 분-차·사무실·가방에 물을 미리 세팅해두고 싶은 분-깔끔한 무라벨 디자인을 선호하는 분-가성비 좋은 생수 대용량을 찾는 분제주삼다수 그린 무라벨 500ml는 그냥 ‘생수’가 아니라 생활 루틴을 편하게 만들어주는 제품이에요. 회사, 차, 가방에 하나씩 챙겨두면 물 마시는 습관도 자연스럽게 잡히고, 쓸데없는 음료 지출도 확 줄어요.늘 들고 다니는 생수를 찾는다면 이 제품만큼 깔끔하고 편한 선택도 없을 거예요.</t>
+          <t>제주삼다수 무라벨 2L 제품을 구입해서 여러 번 마셔본 결과,“믿고 마실 수 있는 물”이라는 말이 딱 어울리는 제품입니다 !제주도 화산암반층에서 취수한 천연 지하수답게 물맛이 정말 깔끔하고,물비린내가 나지 않는 것 같아용물을 마실 때 느껴지는 청량함이 다르고, 냉장고에 넣어두면한여름에도 산뜻한 청결감이 오래 유지됩니다.특히 제주삼다수는 27년 동안 수질 변함이 없다는 점이 인상 깊었고,연간 2만 번 이상 실시된다는 철저한 수질검사 덕분에 믿음이 갑니다.취수원 주변 토지를 매입해 오염 가능성을 사전에 차단했다는 점에서도 브랜드의 신뢰도가 느껴집니다.일단 최대 장점은 바로 무라벨이라는 점인데요!무라벨 제품이라 분리수거할 때 정말 편리합니다.라벨을 일일이 떼어내는 번거로움이 없고, 병과 뚜껑이 모두 무색이라 재활용 효율도 높을 것 같아용환경을 생각하는 소비자라면 만족도가 클 것 같습니다.요즘 ESG 트렌드에 맞게 친환경 패키지를 실천하는 부분도 마음에 듭니다.또, 2L 대용량이라 가정이나 사무실에서 두고 마시기 좋고,12개입이라 넉넉하게 구비해두면 생수 떨어질 걱정이 없습니다.평소 식수나 커피, 요리용으로도 사용해봤는데,삼다수는 미네랄 성분이 균형 잡혀 있어서 물맛이 부드럽고 음식의 맛도 깔끔하게 살아납니다.무겁지만 쿠팡 로켓배송으로 문 앞까지 안전하게 배송되어 편리했습니다.포장도 튼튼하게 되어 있어서 병이 눌리거나 새는 일 없이 왔습니다.무엇보다 물을 자주 마시는 가족들이나 어린이가 있는 집이라면, 수질이 안정적인 생수를 고르는 게 중요한데, 그 점에서 삼다수는 가장 믿을 수 있는 선택입니다.106개의 관측망으로 철저하게 관리된다는 부분도 안심이 되고요~~전반적으로 “품질, 안전성, 친환경성” 세 가지를 모두 갖춘 생수라고 생각합니다!!다른 브랜드 생수에 비해 약간 가격대가 있을 수는 있지만,물의 맛과 신뢰성을 고려하면 충분히 그 값을 하는 제품입니다.앞으로도 무라벨 제주삼다수 2L는 꾸준히 재구매할 예정입니다.깨끗하고 건강한 물을 찾는 분들께 강력히 추천합니다.</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1067,7 +1071,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>김*혜</t>
+          <t>미냐</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1075,7 +1079,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025.11.17</t>
+          <t>2025.11.19</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1085,12 +1089,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>물맛좋고 안심하고 먹을수있는 제주삼다수~</t>
+          <t>물은 역시 제주삼다수</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>✔️배송로켓배송이라 하루만에안전하게잘도착함!!✔️장점아직도 생수가 이렇게까지 달라질 수 있나 싶을 정도로, 제주삼다수 그린 무라벨 2L 12개를 쓰면서 만족도가 꽤 높았습니다. 무엇보다도 ‘무라벨’이라는 점이 주는 편리함과 친환경성의 조합이 정말 좋아요.라벨을 일일이 떼어내지 않아도 재활용이 가능하다는 점은 생각보다 일상에서 스트레스를 줄여주더라고요. 박스째로 들여놓으면 깔끔하게 정돈되는 느낌도 있어서 공간 활용에도 도움이 됩니다.물맛은 역시 삼다수답게 부드럽고 깔끔합니다. 입안에 잔여감이 남지 않고, 크게 미네랄 향이 느껴지지 않아 누구나 편하게 마시기 좋습니다. 특히 집에서 요리하거나 커피를 내릴 때도 맛이 변질되지 않아 안정적이에요. 2L 용량이라 냉장고에 넣어서 하루종일 마시기에도 충분하고, 한 병만 있어도 가족 단위로 사용하기 좋아서 만족도가 높았습니다.배송도 파손 없이 안전하게 도착했고 박스도 깔끔히 정리되어 있어 보관하기 편했어요. 플라스틱 줄이기 실천에도 도움이 되고, 물맛도 좋아 자꾸 손이 가는 제품입니다. 앞으로도 꾸준히 재구매할 의향이 있을 만큼 신뢰도가 높은 생수입니다.✔️단점딱히없네요내돈내산 찐리뷰^^솔직한 후기가 도움이 되셨다면밑에 "도움이돼요"버튼을눌러주시면 행운이 올꺼예요❤️</t>
+          <t>❤️ 제주삼다수 그린 무라벨 2L 12개 사용후기 ❤️제주삼다수 그린 무라벨 2L는 평소에도 물을 자주 마시는 저에게**“역시 물맛은 삼다수다”**라는 걸 다시 한 번 느끼게 해준 제품이에요.생수는 브랜드마다 맛이 미묘하게 다른데,삼다수는 늘 안정적인 맛이라 믿고 사게 되더라구요.특히 이번 무라벨 버전은 편의성과 깔끔함 면에서 만족도가 정말 높았어요.✔️ 첫 인상부터 확 깔끔한 무라벨 패키지박스를 열면 라벨 없는 투명 병들이 가지런히 들어 있는데,라벨이 없다는 것만으로도 보는 순간 심플하고 청량한 느낌이 확 들어요.라벨 뜯는 번거로움도 없고, 찢어진 라벨 조각이 굴러다닐 일도 없고,분리수거할 때 병만 쏙 버릴 수 있어서 너무 편해요.생각보다 이 “라벨 없는 편리함”이 생활에서 체감이 큽니다.✔️ 물맛이 정말 깔끔하고 부드러워요삼다수 특유의 청정 지하수 맛이 그대로 살아 있어요.잡맛 없고 목 넘김이 부드러워서 운동 후나 아침 공복에 마셔도 부담이 없어요.삼다수는 마실 때마다 딱 물맛이 ‘깨끗하다’라는 표현이 가장 잘 맞는데,무라벨도 동일하게 그 삼다수 맛 그대로예요.입안에 남는 텁텁함이 없고, 삼키고 난 뒤에도 뒷맛이 깔끔해서계속 손이 가는 생수예요.✔️ 냉장고에 넣어두면 더 맛있음이건 개인적인 만족 포인트인데,2L 병이 냉장고 측면 문칸에 딱 맞게 들어가서냉장 보관할 때도 정리된 느낌이 들어요.투명 무라벨이라 시각적으로도 깔끔하고,차갑게 한 잔 따라 마시면 삼다수 특유의 시원한 단맛이 더 잘 느껴져요.✔️ 요리·커피·차 등 어디에 써도 맛이 변하지 않아요물맛이 깔끔하다 보니 커피를 내려도 맛이 선명하게 나오고,국물 요리할 때도 물의 잡맛이 없어서 음식 맛이 더 깔끔해요.특히 밥 지을 때 쓰면 밥알에서 물 특유의 쌀뜬맛 없이담백한 맛이 잘 살아나는 느낌이에요.✔️ 병이 단단해서 사용하기 편해요요즘 얇아서 눌리거나 찌그러지는 생수병도 많은데,삼다수 무라벨은 병 자체가 탄탄해서따라 마실 때 흐르는 물 양도 안정적이에요.옮길 때나 보관할 때도 찌그러짐이 적어서 보기에도 단정해요.✔️ 환경적인 만족감까지무라벨이라 플라스틱 재활용이 훨씬 쉬워지고,눈에 띄는 쓰레기도 줄어서 기분 좋은 소비라는 느낌이 들어요.라벨 분리할 때 종종 손톱 부러지거나 찢어져서 짜증나는 경험 있었는데그 스트레스가 싹 사라졌어요 ㅋㅋ✔️ 대용량 2L × 12개 구성이라 가성비도 굿한 번 사두면 오래 쓰고, 마실 때마다 새로 들고 올 필요도 없고,쿠팡 배송이라 무거운 걸 직접 옮길 일도 없어서가성비·편의성 두 마리 토끼 다 잡은 느낌이에요.❤️ 총평 ❤️물맛 깔끔하고 목 넘김 부드러운 생수 찾는 분들께는무라벨 삼다수가 진짜 실패 없는 선택이라고 생각해요.환경·편의성·맛까지 삼박자 골고루 만족!저도 다 마시면 당연히 다시 주문할 예정이에요.❤️ ‘도움이 돼요’ 한 번 눌러주시면 오늘 좋은 기운 듬뿍 가져가세요 ❤️</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1105,7 +1109,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>두부상</t>
+          <t>놀러가장</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1113,22 +1117,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025.11.12</t>
+          <t>2025.11.17</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 60개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>환경과 실용성 모두 챙긴 똑똑한 선택</t>
+          <t>제주 삼다수</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>믿고 마시는 제주삼다수 그린 무라벨 500ml 60개 후기요즘은 생수도 환경&amp;안전&amp;브랜드 신뢰도까지 꼼꼼히 따져보게 되는데요,그중에서도 삼다수는 단연 독보적인 존재입니다. 이번에 주문한 제주삼다수 그린 무라벨 500ml x 60개입은환경을 생각한 무라벨 디자인과 꼼꼼한 포장 덕분에 배송부터 마실 때까지 완벽하게 만족스러웠습니다1. 포장 상태이보다 짱짱할 수 있을까?배송받고 제일 먼저 놀랐던 건 묶음 포장 비닐의 견고함이었습니다.60개 대용량이라 혹시 중간에 터질까 걱정했는데, 비닐 두께가 탄탄하고 밀착 포장이 잘 되어 있어서운반 중에도 찢김 없이 완벽하게 도착했습니다. 손잡이 부분도 단단해서 이동할 때 불편함이 전혀 없었어요.대형 물량임에도 불구하고 쿠팡 배송 특유의 빠른 속도와 완벽한 포장 덕분에 제품 상태가 최상급으로 도착했습니다.2. 물맛과 수질 &amp;깨끗함의 기준, 삼다수삼다수는 제주 화산암반층 지하 420m에서 얻은 천연 암반수로,자연 필터링을 거친 미네랄 밸런스가 뛰어나서 입에 닿는 순간 깔끔하고 청량합니다.특히 수질검사 불량 이력이 단 한 번도 없었다는 점은 다른 생수 브랜드와 비교할 수 없는 강점입니다.제주특별자치도개발공사에서 직접 관리하는 만큼, 식약처 및 환경부의 수질 기준을 모두 상회하는 안전성을 자랑하죠.하루에 몇 병을 마셔도 목넘김이 부드럽고, 냉장 보관 시엔 더 맑고 신선한 맛이 살아납니다.♻️ 3. 무라벨 디자인환경과 실용성 모두 챙긴 똑똑한 선택요즘 환경을 생각해 무라벨 제품을 찾는 분들이 많잖아요.삼다수 그린 무라벨은 라벨이 없어도 투명하고 정갈한 병 디자인이라 보기에도 깔끔하고,무엇보다 분리수거가 편리합니다.라벨을 일일이 제거할 필요 없이 바로 재활용함으로써 탄소배출 저감과 자원순환에도 기여할 수 있습니다.환경을 위한 작은 실천이지만, 삼다수처럼 실질적인 친환경 실천을 제품에 녹여낸 기업은 드물다고 생각합니다.️ 4. 브랜드 신뢰도공공기관이 만든 국민 생수삼다수를 생산하는 제주특별자치도개발공사(JPDC)는공공기관으로서 수익보다 국민의 건강과 공공가치 실현을 최우선으로 하는 기업입니다.모든 제품은 ISO, HACCP 등 국제 품질인증을 획득했으며,수자원 보호 및 탄소중립 실현을 위한 ESG 경영에도 앞장서고 있습니다.그 결과, 삼다수는 수십 년간 국내 생수 시장 점유율 1위를 꾸준히 유지하고가장 깨끗하고 믿을 수 있는 물이라는 명성을 지켜오고 있습니다.✅ 5. 총평환경, 건강, 신뢰 세 마리 토끼를 잡은 생수깔끔한 맛, 완벽한 포장, 철저한 수질관리, 그리고 친환경 철학까지삼다수는 단순한 생수가 아니라프리미엄 공공 브랜드라는 느낌이 듭니다.물을 자주 마시는 가족 단위, 사무실, 운동하는 분들 모두에게 적극 추천드려요.앞으로도 꾸준히 재구매할 예정입니다.환경을 생각하는 소비자라면 삼다수가 답입니다.</t>
+          <t>부모님이 시중에서 판매하는 생수는 다 마셔 봤는데그 중에서도 삼다수 물맛이 최고라고 말씀을 하시네요.삼다수만 드셔서 다른 생수는 못 보내드리겠고, 그래서이번에도 부모님댁에 삼다수로 주문해드렸네요.다른 생수하고 다르게 고소하고,미세하게 단맛이 느껴진다고말씀을 하시는데 저는 아무리 마셔봐도 잘 모르겠더라구요.✴️《제주삼다수》-한라산 국립공원에 인접한 산림지대-그대로의 원시성이 보존된 제주 깨끗한 화산 암반수✴️《수원지》제주도 제주시 조천읍✴️《제주삼다수 그린》자연을 해치지 않고,그대로 자원 순환할수 있도록 무색병.무색캡.그리고 무라벨로 제주의 자연환경을 넘어서지구환경을 지키고자 하는 노력이 대단하네요.✴️《제주삼다수 우수성》➡️지하 420m 화산암층에 부존하는 물➡️화산암반에서 18년간 자연 정수된 깨끗한 물➡️20여년 동안 수질변화가 없는 안전한 물➡️균형잡힌 미네랄 성분이 함유된 건강한 물➡️약알칼리성의 경도 낮은 연수로 부드러운 물맛➡️제주 화산송이와 현무암층이 빚어낸 퓨어워터✴️《성분 함유량》칼슘(Ca)     2.5~4.0칼륨(K)       1.5~3.4나트륨(Na) 4.0~7.2마그네슘(Mg)1.7~3.5불소(F)   불검출제주 삼다수 부모님댁.그리고 저희집 주문을 했는데받자마자 한잔 따라서 마셨는데 진짜 물맛이 좋네요.삼다수 다 먹고 나서도 라벨제거 할 필요도 없고,물병이 잘찌그려져서 재활용 버리려갈때 마다 부피를 확 줄여 주네요.요즘 환경문제로 인해 좋은 일에 동참하는 브랜드들이 많은데여기에 같이 참여하게 되어서 너무나도 기쁘게 생각이 되네요.다시 본론으로 들어가서 제주 삼다수 물맛이 당연 최고인데별다른 말이 더 필요 할까요.삼다수는 어르신들이 좋아하고,대한민국 사람들이 일등으로뽑은 이유는 그만한 이유가 다 있을거라고 생각이 되네요.♥️♥️♥️지금까지 내돈내산으로 솔직하게 작성한 리뷰이고제 리뷰가 도움되셨다면 {도움되요} 꾹 눌러주세요.♥️♥️♥️</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1143,7 +1147,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>최*민</t>
+          <t>노히로</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1151,26 +1155,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025.11.11</t>
+          <t>2025.11.17</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>제주삼다수 그린 무라벨 항상 애용하는 휴대용 생수에요</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 40개, 500ml1. 구입동기​휴대용 생수로 제주삼다수 그린무라벨 항상 애용해서 떨어질 때마다 쿠팡에서 주문하면무거운데 문앞 까지 배송해줘서 너무 좋아서요.​2. 제품특징​● 믿으니깐 삼다수 좋아마심● 제주한라산 단 하나의 수원지에서 전하는 청정 제주의 생명력을 담은 물● 한라산 1450m 지대에 내린 빗물이 화산암반층을 18년간 거치며한방울 한발울 걸러지고 건강한 미네랄은 더해진 제주의 화산암반수● 철저하게 관리하니까 좋아마심● 한결같이 깨끗하니까 좋아마심● 출시 이후 27년 동안 단 한번도 수질 변화없는 믿을수 있는 물● 연간 2만번의 철저한 수질검사로 깐깐한 물● 취수원 주변 토지매입으로 잠재오렴까지 빈틈없는 물● 106개의 관측망이 빈틈없이 지키는 안전한 물● 지하420m 제주 화산암반층에 부존하는 청정한 물● 미네랄 성분이 균형적으로 함유된 건강한 물​3. 제품후기​쿠팡에서 제주 삼다수 구매하면 너무 좋아요.무거운 생수를 문앞까지 아침 일찍 배송해주셔서 감사한 마음이 저절로 들더라고요.삼다수 물맛은 말해서 모해요.제주삼다수 500ml 외출시에 휴대해서 마시기 딱 좋은 사이즈라 평소 애용합니다.삼다수 깨끗한 물, 믿을수 있는 물이라서 항상 신뢰하고 마시고 있어요.제주도 화산암반층에서 깨끗하게 걸러지는 물이라 신비한 물이라는 생각이 들기도 해요.4. 재구매의사​또 구매의사 있어요^^​* 도움이 되셨다면  도움이돼요  한번 꾸욱 눌러주시면 복받으실 거에요^^​</t>
+          <t>✅ 한줄 결론제주삼다수 그린 무라벨 2L 12개는 물맛이 부드럽고 일관해요. 무라벨이라 분리배출이 빠르고, 비닐 포장 6개입 2벌 구성으로 보관과 운반이 편해요. 집과 사무실, 요리와 음료까지 전천후로 만족해요. ✨✅ 왜 샀는지매일 마시는 생수는 물맛이 일정하고 관리가 쉬워야 해요. 여러 브랜드를 돌려보다가 다시 삼다수로 정착했어요. 특히 라벨 제거가 필요 없는 무라벨과 2L 용량의 실용성이 마음에 들어요. 이번에 받아 보니 상자가 아니라 6병씩 비닐로 감싼 팩이 두 벌로 오더라고요. 현관에서 냉장고까지 옮길 때 두 번에 나눠 들기 좋아서 오히려 실사용성이 높았어요.✅ 핵심 장점✅ 무라벨 친환경 설계 라벨을 떼지 않아도 돼서 분리배출이 간단해요✅ 안정적인 물맛 첫 모금부터 끝맛까지 깔끔하고 부드러워요✅ 2L 대용량 가성비 좋고 가족 물리필에 적합해요✅ 6개입 비닐 포장 2벌 운반과 분리 보관이 쉽고 공간 배치가 유연해요✅ 병 마감과 캡 밀폐 튼튼해서 새거나 찌그러짐이 적어요✅ 요리와 음료 범용성 밥짓기, 커피, 차에도 결과가 안정적이에요 ✔✅ 실제 사용 후기물맛은 삼다수답게 깨끗해요. 상온으로 마셔도 텁텁함이 없고, 냉장 후에는 목 넘김이 더 부드러워요. 핸드드립 커피에 써 보면 향이 또렷하게 살아나고, 녹차나 보이차처럼 물의 성향을 타는 차도 비눗맛이나 금속맛이 전혀 없어 추출이 깔끔해요. 국이나 밥을 지을 때도 잡내가 없어서 재료 맛이 선명해요.포장에 대해 자세히 말해 볼게요. 상자 없이 6병씩 비닐로 감싼 팩이 두 벌로 와요. 한 벌만 먼저 들고 이동하면 팔에 무리가 덜하고, 남은 한 벌은 베란다나 다용도실에 세워 보관하면 끝이에요. 비닐 포장의 마감이 튼튼해서 들고 갈 때 중간이 찢어지지 않았고, 모서리 압착부도 깔끔했어요. 다만 비닐을 개봉할 때는 칼 대신 가위를 쓰면 병 표면에 흠집을 줄일 수 있어요.무라벨의 편의성은 분리배출에서 압도적이에요. 라벨 떼고 접착제 흔적을 제거하는 과정이 없으니 병을 헹구고 찌그러뜨려 바로 넣으면 끝이에요. 병 몸통에는 각인으로 정보가 들어가 있어 내용 파악도 쉬워요. 캡은 처음 열 때 손맛이 단단하고, 다시 닫을 때 밀폐감이 확실해서 컵에 여러 번 따라 마셔도 신선함이 유지돼요. 냉장고 문 선반에 세워 두면 흔들림 없이 안정적이었고, 물줄기가 한쪽으로 튀지 않아 주변이 젖지 않아요.✅ 활용 시나리오✔ 아침 공복 한 컵 상온으로 마셔 수분과 컨디션을 부드럽게 올려요✔ 커피와 차 추출 물맛이 중립이라 향이 또렷하게 나와요✔ 테이블 워터 냉장 한 병을 식탁에 올려 식사 때마다 리필해요✔ 요리용 밥짓기, 찌개, 육수에 잡맛 없이 사용해요✔ 아이스 메이커 얼림용으로 덜어 쓰면 얼음맛이 깔끔해요✔ 비상 저장수 6병 단위로 회전 보관하면 관리가 쉬워요✅ 사용 팁✔ 비닐 팩은 한 벌만 먼저 개봉해요 남은 한 벌은 직사광선을 피한 서늘한 곳에 세워 보관해요✔ 개봉한 병은 컵에 따라 마시고, 입대고 마신 병은 당일에 비우는 게 위생에 좋아요✔ 냉장 보관 시 병 목 주변의 물기를 닦고 세워 두면 깔끔해요✔ 커피용은 실온과 냉장 물을 반반 섞어 10도대 온도로 맞추면 추출이 안정적이에요✔ 분리배출은 캡과 뚜껑 속 링을 분리하고 병은 찌그러뜨려 부피를 줄여요 ⚠️ 개봉 전후로 강한 냄새의 식재료와 함께 두지 않으면 물맛이 더 오래 깔끔해요✅ 비교 포인트타 브랜드 중에는 미네랄감이 과해 떫거나 반대로 너무 밍밍한 제품이 있어요. 삼다수는 중심이 잘 잡혀 있어 매일 마시기 적합해요. 게다가 상자 대신 6병 비닐 포장 2벌 구성이라 운반과 층간 배치가 쉬워요. 한 벌은 즉시 사용, 한 벌은 비축으로 나눠 두면 재고 관리가 간단해요. 무라벨 덕분에 분리배출 시간도 크게 줄고, 병 퀄리티가 단단해서 눌림 파손이 드물었어요. ★★★★★✅ 총평제주삼다수 그린 무라벨 2L 12개는 물맛, 편의성, 보관성을 모두 갖춘 기본 생수예요. 무라벨이라 정리 시간이 짧고, 6개입 비닐 포장 2벌 구성은 운반과 보관을 더 실용적으로 만들어 줘요. 요리와 음료, 일상 수분 보충, 비상 상비수까지 전 영역에서 만족스러웠어요. 다음에도 이 구성으로 다시 살 계획이에요.★★★★★ 재구매 의사 높아요. 매일 마실수록 차이가 보이고, 무라벨과 6병 비닐 포장 2벌의 생활 편의가 확실해요.</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>김*영</t>
+          <t>운명개척자</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1189,22 +1189,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025.11.11</t>
+          <t>2025.11.16</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 500ml, 60개</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>30년을 함께한 이 제주 삼다수예요몇일전엔 미국에서 장기 여행을 온 지인에게 보내 드렀고 이번엔 울집 냉장고에 넣었어요30년동안 중간중간에 에비앙을 구입도 해봤어요이유는 종이상자로 포장을 했기에 선택을 했답니다삼다수도 종이박스로 포장을 했음 하는 바램을 가져보아요 왜냐면 아시겠지만 이 펫트병이 햇볕에 노출이 되는 순간 환경호르몬이 뮤쟈게 방출이 된다고 알고 있어서죠 좋은물인데 배달 과정에서 충분히 햇볕에 노출이 되고 있어서 갠적으로 염려를 많이 힌고 있어요일반적으로 좋은 물만 마셔도 건강해진다는 알고 있는데 해서 높은가격을 지불하고 이 삼다수를 챙기는데 그점이 강하게 아쉽습니다가성비다양한 국내의 브랜드와 유럽등의 수입산 생수를 비교해 보면 완벽하지는 않지만 삼다수가 양과 질면에서 매우 편리하며 좋은물이니 그에 상응하는 가격대라 생각합니다품질제주 삼다수는 자연스러운 필터까지 되는 활화산 암반층에서 나오는 물로 경도가 낮아 목넘김이 매우 부드럽고 상큼하지요 품질은 최상이 아닐까 싶습니다총평지속적으로 구매를 하고 있고 앞으로도 그럴거예요우리나라 한반도는 토양도 우수하고 땅만 파면 깨끗한 생수가 나오며 삼면이 바다인데다 제주 활화산 섬까지 축복받는 나라가 아닐까 싶습니다살기좋은 환경 덕분에 물걱정 없이 잘 살아왔었는데 오염이 전국구가 심각하지고 있어 아쉽습니다 우리 아이들에게 깨끗한 자연이라도 물려줘야 하지 않을까 싶습니다 제주 삼다수는 국가차원에서라도 관리를 잘 해서 우리 후손들에게 물려주면 좋겠어요우리 모두에게 화이팅 입니다~!!</t>
+          <t>#어디서든 편하게 들고 다니는 물 — 제주삼다수 그린 무라벨 후기물은 매일 마시는 거라 특별할 게 없어 보이지만, 막상 외출하거나 회사에 있을 때 물이 없으면 괜히 음료수를 사게 되잖아요. 그래서 저는 제주삼다수 그린 무라벨 500ml × 60개를 항상 집에 넉넉하게 두고, 회사·차·외출용으로 꾸준히 챙겨 다녀요. 이렇게 하니까 필요할 때 바로 마실 수 있고, 불필요하게 음료수를 사 먹는 일이 거의 없어져서 만족도가 상당히 높아요.#무라벨이라 깔끔하고 어디에 들고 가도 부담 없어요무라벨 제품은 진짜 장점이 많아요. 일단 병이 깔끔해서 라벨 떼는 번거로움이 없고, 디자인이 심플해서 사무실이나 회의실에 두어도 시각적으로 지저분해 보이지 않아요. 가방이나 차에 넣어두어도 늘어지지 않고 단정한 느낌이라 외출할 때 들고 다니기 좋고요.#500ml 사이즈가 가장 활용도 높아요1L는 들고 다니기 부담스럽고, 300ml는 금방 없어지는데 500ml는 딱 적당한 용량이에요.-회사 책상에 하나-차 cupholder에 하나-가방에 하나이렇게 세 군데만 세팅해두면 하루 동안 물 때문에 스트레스 받을 일이 없어요. 특히 운전 중 목마를 때 바로 꺼내 먹을 수 있어서 편하고, 출근길에도 무심코 챙기기 좋아요.#삼다수 특유의 깔끔한 맛이라 물맛 때문에 스트레스 없음물은 사람마다 취향이 조금씩 있는데, 저는 삼다수가 가장 입에 잘 맞아요. 특유의 미네랄감이 부담스럽지 않고, 아무 때나 마셔도 깔끔해서 질리지 않아요. 그래서 여러 병 사놓고 계속 마셔도 맛이 질리지 않아요.#60개 대용량이지만 금방 줄어드는 구성60개면 많아 보이는데, 실제로 회사·차·집·운동 갈 때 등 여기저기 두고 마시다 보면 생각보다 빨리 줄어요. 그래도 넉넉하게 쟁여두면 ‘물 떨어졌네’ 하고 갑자기 사러 갈 일이 없어서 확실히 편해요.#불필요하게 음료수 사먹는 일이 줄어드는 효과물을 들고 다니기만 해도 장점이 확실해요.카페에서 생수 사는 일도 줄고, 편의점에서 음료를 습관적으로 사는 일도 확연히 줄어요. 물병 하나만 챙겼을 뿐인데 지출도 줄고, 몸도 더 편해지는 느낌이에요.#이런 분들께 추천해요-외출할 때 늘 목이 마른데 음료를 자주 사먹는 분-차·사무실·가방에 물을 미리 세팅해두고 싶은 분-깔끔한 무라벨 디자인을 선호하는 분-가성비 좋은 생수 대용량을 찾는 분제주삼다수 그린 무라벨 500ml는 그냥 ‘생수’가 아니라 생활 루틴을 편하게 만들어주는 제품이에요. 회사, 차, 가방에 하나씩 챙겨두면 물 마시는 습관도 자연스럽게 잡히고, 쓸데없는 음료 지출도 확 줄어요.늘 들고 다니는 생수를 찾는다면 이 제품만큼 깔끔하고 편한 선택도 없을 거예요.</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>김*선</t>
+          <t>김*혜</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2025.11.23</t>
+          <t>2025.11.17</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1233,16 +1233,16 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>여전히 생수 1위 삼다수~</t>
+          <t>물맛좋고 안심하고 먹을수있는 제주삼다수~</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>쿠팡제품을 구매할때 항상 다른분들의 후기를 보고 구매하는 편입니다저의 후기도 직접써보고 좋은점과 나쁜점을 정확히 기입하여 구매하시는분에게도움이 되고자 합니다정수기 렌탈 이용하다가 코로나 시국에 사람오는 것이 부담스럽고렌탈은 시간맞추기도 번거롭고, 가격대비 물도 많이 먹지 않아서생수를 사먹기로 하고 삼다수 주문하게 되었어요삼다수 물은 아직까지 국내 1위잖아요아들은 냉장고에 넣어두고 먹는데 저는 찬 물이 싫어서 실외에 두고 먹는데물비린내도 나지 않고 물맛이 아주 좋아요아들은 아침마다 오트밀을 삼다수에 타먹더라구요다른생수에 비해 미네랄 함량도 높구요앞전엔 다른 생수 구입해서 먹었는데 삼다수만큼 좋은 생수가 아직우리나라엔 없죠하루에 물을 많이 마시라고 하는데 잘먹기 어렵잖아요그래서 저는 일부러라도 꾸준히 먹기 위해 눈에 띄는 곳에 두고 자주자주 먹습니다물은 미지근하게 먹는게 좋데요삼다수는 미지근하게 먹어도 전혀 이상하지 않아요가격도 저렴하네요 마트보다주문하고 배달도 빨리 왔어요단점은,,,,,찾을수가 없네요요즘 느끼는 단점은 가격이 자꾸 오르는점 ㅜㅜ요즘 안오르는게 없네요이 제품은  가격이 좀 저렴해요 ~</t>
+          <t>✔️배송로켓배송이라 하루만에안전하게잘도착함!!✔️장점아직도 생수가 이렇게까지 달라질 수 있나 싶을 정도로, 제주삼다수 그린 무라벨 2L 12개를 쓰면서 만족도가 꽤 높았습니다. 무엇보다도 ‘무라벨’이라는 점이 주는 편리함과 친환경성의 조합이 정말 좋아요.라벨을 일일이 떼어내지 않아도 재활용이 가능하다는 점은 생각보다 일상에서 스트레스를 줄여주더라고요. 박스째로 들여놓으면 깔끔하게 정돈되는 느낌도 있어서 공간 활용에도 도움이 됩니다.물맛은 역시 삼다수답게 부드럽고 깔끔합니다. 입안에 잔여감이 남지 않고, 크게 미네랄 향이 느껴지지 않아 누구나 편하게 마시기 좋습니다. 특히 집에서 요리하거나 커피를 내릴 때도 맛이 변질되지 않아 안정적이에요. 2L 용량이라 냉장고에 넣어서 하루종일 마시기에도 충분하고, 한 병만 있어도 가족 단위로 사용하기 좋아서 만족도가 높았습니다.배송도 파손 없이 안전하게 도착했고 박스도 깔끔히 정리되어 있어 보관하기 편했어요. 플라스틱 줄이기 실천에도 도움이 되고, 물맛도 좋아 자꾸 손이 가는 제품입니다. 앞으로도 꾸준히 재구매할 의향이 있을 만큼 신뢰도가 높은 생수입니다.✔️단점딱히없네요내돈내산 찐리뷰^^솔직한 후기가 도움이 되셨다면밑에 "도움이돼요"버튼을눌러주시면 행운이 올꺼예요❤️</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>김*영</t>
+          <t>두부상</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1261,22 +1261,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2025.11.25</t>
+          <t>2025.11.12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 500ml, 60개</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>환경과 실용성 모두 챙긴 똑똑한 선택</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>《  제주삼다수 그린 무라벨, 2L, 12개  》물이 떨어질때쯤 항상 구매 재구매해서 먹고 있어요골드박스 조금이라도 저렴할 때 자주 사놓기도 하고무라벨이 더 좋네요재활용하기 편하니깐요 ^^여름이라 물이 자주 마셔서더 빠른시일내 주문하게 되네요( 더운 여름날은 시원한 물이 바로 나오는정수기가 갖고 싶어지긴 하네요 ㅎ )물 맛은 언제나 괜찮고타사제품 맛이 다르면서 정말 입에 안 맞는 물도 있는데제주 삼다수는 언제나 옳네요 ^^물 맛이 좋아요♡제주 삼다수~정수기 없이 식수로 생수를 항상 사먹고 있어요언제나 제주 삼다수~ 구매해서 떨어지기전에항상 집에 있어야하지요골드박스에 몇천원이라도 저렴하게 뜨면쟁여놓고 구매하는 편이고라벨 비닐이 없는 생수통을 선호하는 편입니다물 맛은 언제나 좋으며생수마다 물맛이 다르긴 하네요 ㅎ삼다수 물 맛은 언제나 괜찮고 좋은 느낌을 받아요제조일자는 언제나 최근이라 더 믿고 마실 수 있어요페트병 재활용하기는 최고로 쉽고 좋으며분리수거 아주 잘 되고 있지요가끔 빈 생수통을 잘 말려서 연필, 색연필 꽂이로도사용했네요빈 생수통도 잘 말려두면 학교 준비물로 쓰일 때도 있어서몇 개씩은 보관중입니다계속 쭉 구매해서 잘 마실께요</t>
+          <t>믿고 마시는 제주삼다수 그린 무라벨 500ml 60개 후기요즘은 생수도 환경&amp;안전&amp;브랜드 신뢰도까지 꼼꼼히 따져보게 되는데요,그중에서도 삼다수는 단연 독보적인 존재입니다. 이번에 주문한 제주삼다수 그린 무라벨 500ml x 60개입은환경을 생각한 무라벨 디자인과 꼼꼼한 포장 덕분에 배송부터 마실 때까지 완벽하게 만족스러웠습니다1. 포장 상태이보다 짱짱할 수 있을까?배송받고 제일 먼저 놀랐던 건 묶음 포장 비닐의 견고함이었습니다.60개 대용량이라 혹시 중간에 터질까 걱정했는데, 비닐 두께가 탄탄하고 밀착 포장이 잘 되어 있어서운반 중에도 찢김 없이 완벽하게 도착했습니다. 손잡이 부분도 단단해서 이동할 때 불편함이 전혀 없었어요.대형 물량임에도 불구하고 쿠팡 배송 특유의 빠른 속도와 완벽한 포장 덕분에 제품 상태가 최상급으로 도착했습니다.2. 물맛과 수질 &amp;깨끗함의 기준, 삼다수삼다수는 제주 화산암반층 지하 420m에서 얻은 천연 암반수로,자연 필터링을 거친 미네랄 밸런스가 뛰어나서 입에 닿는 순간 깔끔하고 청량합니다.특히 수질검사 불량 이력이 단 한 번도 없었다는 점은 다른 생수 브랜드와 비교할 수 없는 강점입니다.제주특별자치도개발공사에서 직접 관리하는 만큼, 식약처 및 환경부의 수질 기준을 모두 상회하는 안전성을 자랑하죠.하루에 몇 병을 마셔도 목넘김이 부드럽고, 냉장 보관 시엔 더 맑고 신선한 맛이 살아납니다.♻️ 3. 무라벨 디자인환경과 실용성 모두 챙긴 똑똑한 선택요즘 환경을 생각해 무라벨 제품을 찾는 분들이 많잖아요.삼다수 그린 무라벨은 라벨이 없어도 투명하고 정갈한 병 디자인이라 보기에도 깔끔하고,무엇보다 분리수거가 편리합니다.라벨을 일일이 제거할 필요 없이 바로 재활용함으로써 탄소배출 저감과 자원순환에도 기여할 수 있습니다.환경을 위한 작은 실천이지만, 삼다수처럼 실질적인 친환경 실천을 제품에 녹여낸 기업은 드물다고 생각합니다.️ 4. 브랜드 신뢰도공공기관이 만든 국민 생수삼다수를 생산하는 제주특별자치도개발공사(JPDC)는공공기관으로서 수익보다 국민의 건강과 공공가치 실현을 최우선으로 하는 기업입니다.모든 제품은 ISO, HACCP 등 국제 품질인증을 획득했으며,수자원 보호 및 탄소중립 실현을 위한 ESG 경영에도 앞장서고 있습니다.그 결과, 삼다수는 수십 년간 국내 생수 시장 점유율 1위를 꾸준히 유지하고가장 깨끗하고 믿을 수 있는 물이라는 명성을 지켜오고 있습니다.✅ 5. 총평환경, 건강, 신뢰 세 마리 토끼를 잡은 생수깔끔한 맛, 완벽한 포장, 철저한 수질관리, 그리고 친환경 철학까지삼다수는 단순한 생수가 아니라프리미엄 공공 브랜드라는 느낌이 듭니다.물을 자주 마시는 가족 단위, 사무실, 운동하는 분들 모두에게 적극 추천드려요.앞으로도 꾸준히 재구매할 예정입니다.환경을 생각하는 소비자라면 삼다수가 답입니다.</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1287,7 +1291,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>고포도님</t>
+          <t>최*민</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1295,22 +1299,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2025.11.15</t>
+          <t>2025.11.11</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>가성비보다 맛을 생각한다면 삼다수 !</t>
+          <t>제주삼다수 그린 무라벨 항상 애용하는 휴대용 생수에요</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>*** 100% 내돈내산 마셔본 후기 ***삼다수도 무라벨이 있네요?처음 알았습니다.가격이 비싼만큼 저희는 삼다수만 먹습니다.1. 구매이유수돗물에서 깔따구 유충이 나왔다는 소식을 듣고, 삼다수를 주문했습니다.우리가 먹는 수돗물에도 문제가 발생하다니...충격적이었습니다.생수를 바로 주문했죠~~!정수기를 사용한지 10년도 넘었는데, 다시 생수로 돌아갔습니다. ㅠㅠ이게 무슨일인지....그동안 편하게 정수기 사용했었는데...실제로 다시 생수로 돌아가니 엄청 불편하네요 ㅠㅠ어쩔수 없죠...아 그리고 삼다수 정말 구매이유는 제일 맛있고 안심할수 있기 때문입니다.내륙의 여러 수원들이 있지만, 그곳들은 운영도 여러곳에서 하고,브랜드도 다 다르고, 관리가 잘 되고 있는지 잘모르겠습니다.아마도 잘 되고 있겠죠~~~!삼다수는 꾸준하게 1개회사와 거래를 하고 있고, 제주도라는 지역적 특성으로 인해가격은 조금 비싸지만, 그래도 안심하고 먹고 있습니다.개인적으로도 삼다수를 제일 좋아합니다.2. 맛맛은 삼다수가 전형적인 물의 무맛에 가까운것 같습니다.물이 맛아나면 안되죠!!3. 단점가격이 비싸요유일한 단점입니다.좋은데....가격이...ㅠㅠ...어쩔수 없죠*** 요약 ***삼다수가 최고입니다.비싸지만, 물맛이 좋아요!무라벨 좋네요!가성비보다 맛을 생각한다면 삼다수 !*** 끝 ***</t>
+          <t>제주삼다수 그린 무라벨, 40개, 500ml1. 구입동기​휴대용 생수로 제주삼다수 그린무라벨 항상 애용해서 떨어질 때마다 쿠팡에서 주문하면무거운데 문앞 까지 배송해줘서 너무 좋아서요.​2. 제품특징​● 믿으니깐 삼다수 좋아마심● 제주한라산 단 하나의 수원지에서 전하는 청정 제주의 생명력을 담은 물● 한라산 1450m 지대에 내린 빗물이 화산암반층을 18년간 거치며한방울 한발울 걸러지고 건강한 미네랄은 더해진 제주의 화산암반수● 철저하게 관리하니까 좋아마심● 한결같이 깨끗하니까 좋아마심● 출시 이후 27년 동안 단 한번도 수질 변화없는 믿을수 있는 물● 연간 2만번의 철저한 수질검사로 깐깐한 물● 취수원 주변 토지매입으로 잠재오렴까지 빈틈없는 물● 106개의 관측망이 빈틈없이 지키는 안전한 물● 지하420m 제주 화산암반층에 부존하는 청정한 물● 미네랄 성분이 균형적으로 함유된 건강한 물​3. 제품후기​쿠팡에서 제주 삼다수 구매하면 너무 좋아요.무거운 생수를 문앞까지 아침 일찍 배송해주셔서 감사한 마음이 저절로 들더라고요.삼다수 물맛은 말해서 모해요.제주삼다수 500ml 외출시에 휴대해서 마시기 딱 좋은 사이즈라 평소 애용합니다.삼다수 깨끗한 물, 믿을수 있는 물이라서 항상 신뢰하고 마시고 있어요.제주도 화산암반층에서 깨끗하게 걸러지는 물이라 신비한 물이라는 생각이 들기도 해요.4. 재구매의사​또 구매의사 있어요^^​* 도움이 되셨다면  도움이돼요  한번 꾸욱 눌러주시면 복받으실 거에요^^​</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1325,7 +1329,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>잇별솜</t>
+          <t>김*영</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1333,22 +1337,18 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2025.11.07</t>
+          <t>2025.11.11</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>가정이나 사무실에서 잘 먹을 수 있는 구성입니다. 굿굿</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>⭕제주삼다수 그린 무라벨, 40개, 500ml⭕–––⭐⭐⭐⭐⭐–––✅제품명: 제주삼다수 그린 무라벨, 40개, 500ml✅포장&amp;배송▶ 배송 : 로켓배송▶ 2025.11.02(주문일자)▶ 2025.11.03(배송도착)✅총평: 제주삼다수 그린 무라벨 제품은 환경을 생각하면서도실용성을 챙긴 아주 만족스러운 선택이었습니다.먼저 ‘무라벨’이라는 점이 가장 큰 장점으로,라벨을 제거할 필요 없이바로 분리배출이 가능해 정말 편리했습니다.대량으로 음용수를 소비하는 가정이나사무실에서는 라벨 제거만으로도 꽤 많은 시간이 걸리는데,이 제품은 그 번거로움을 완전히 없애줍니다.환경 보호를 실천하면서도 깔끔하게 정리할 수 있어서만족도가 높았습니다.500ml 용량은 외출 시나 운동할 때들고 다니기 딱 좋은 사이즈였습니다.병 디자인은 단순하지만 세련되었고,투명한 바디 덕분에 청량한 느낌이 더욱 강조됩니다.병 두께도 적당히 단단해 찌그러지지 않으며,손에 쥐었을 때 미끄럽지 않아 사용감이 좋았습니다.무엇보다 삼다수 특유의 깨끗한 물맛은 여전했습니다.잡맛이 전혀 없고, 미네랄 밸런스가 잘 잡혀 있어하루 종일 마셔도 부담이 없었습니다.냉장고에 넣어두었다가 차게 마시면 청량감이 훨씬 살아나며,물 본연의 순수함이 느껴집니다.특히 다른 생수와 비교했을 때 삼다수 특유의부드러운 물맛이 입안에 잔잔하게 남는 점이 인상적이었습니다.40개 대용량 구성이라 가정, 사무실, 행사용으로모두 활용하기 좋았고, 박스 포장도 튼튼하게 되어 있어운반이나 보관이 용이했습니다.유통기한도 넉넉해 대량 구매 후 천천히 소비하기에 부담이 없었고,한 병씩 꺼내 쓰기 편한 구조라 관리가 쉬웠습니다.저는 삼다수를 늘 마시면서 대만족 하고 있습니다.■■■■■■■■■❗부탁드립니다❗■■■■■■■■■저의 후기가 많은 분들께 큰 도움이 됐으면 좋겠습니다.리뷰가 도움이 되셨다면 밑에❣️도움이 돼요❣️ 버튼 한 번씩만 눌러주세요!♩♪♬ 그러면 기분이 좋아져 신이 납니다 ♩♪♬감사합니다.(●'◡'●)(●'◡'●)■■■■■■■■■■■■■■■■■■■■■■■■■■■■</t>
+          <t>30년을 함께한 이 제주 삼다수예요몇일전엔 미국에서 장기 여행을 온 지인에게 보내 드렀고 이번엔 울집 냉장고에 넣었어요30년동안 중간중간에 에비앙을 구입도 해봤어요이유는 종이상자로 포장을 했기에 선택을 했답니다삼다수도 종이박스로 포장을 했음 하는 바램을 가져보아요 왜냐면 아시겠지만 이 펫트병이 햇볕에 노출이 되는 순간 환경호르몬이 뮤쟈게 방출이 된다고 알고 있어서죠 좋은물인데 배달 과정에서 충분히 햇볕에 노출이 되고 있어서 갠적으로 염려를 많이 힌고 있어요일반적으로 좋은 물만 마셔도 건강해진다는 알고 있는데 해서 높은가격을 지불하고 이 삼다수를 챙기는데 그점이 강하게 아쉽습니다가성비다양한 국내의 브랜드와 유럽등의 수입산 생수를 비교해 보면 완벽하지는 않지만 삼다수가 양과 질면에서 매우 편리하며 좋은물이니 그에 상응하는 가격대라 생각합니다품질제주 삼다수는 자연스러운 필터까지 되는 활화산 암반층에서 나오는 물로 경도가 낮아 목넘김이 매우 부드럽고 상큼하지요 품질은 최상이 아닐까 싶습니다총평지속적으로 구매를 하고 있고 앞으로도 그럴거예요우리나라 한반도는 토양도 우수하고 땅만 파면 깨끗한 생수가 나오며 삼면이 바다인데다 제주 활화산 섬까지 축복받는 나라가 아닐까 싶습니다살기좋은 환경 덕분에 물걱정 없이 잘 살아왔었는데 오염이 전국구가 심각하지고 있어 아쉽습니다 우리 아이들에게 깨끗한 자연이라도 물려줘야 하지 않을까 싶습니다 제주 삼다수는 국가차원에서라도 관리를 잘 해서 우리 후손들에게 물려주면 좋겠어요우리 모두에게 화이팅 입니다~!!</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>장*숙</t>
+          <t>김*선</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2025.11.07</t>
+          <t>2025.11.23</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1381,16 +1381,16 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>최고일등 물맛</t>
+          <t>여전히 생수 1위 삼다수~</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>내돈내산 리뷰! ❤️❤️ 평소 생수를 자주 마시는 편이라 대용량 2L 제품을 자주 구매하는데, 이번엔 환경을 고려해서 무라벨 제품으로 선택했어요. 제주 삼다수답게 물맛이 정말 깔끔하고 부드러워요. 다른 브랜드와 비교해도 잡맛이 거의 없고, 목넘김이 아주 부드러워서 꾸준히 손이 가는 생수예요.❤️ 무라벨이라 분리수거가 훨씬 편해요. 기존엔 라벨을 하나하나 떼는 게 번거로웠는데, 이건 그냥 병만 헹궈서 바로 버리면 되니까 정말 간편하더라고요. 환경을 생각하면서도 편리하게 사용할 수 있어서 만족도가 높아요.❤️ 물맛은 약간 미네랄이 느껴지는 듯하지만 부담스럽지 않고 깔끔하게 정제된 느낌이에요. 냉장고에 넣어두면 더 시원하고 깨끗하게 느껴져요. 특히 여름철엔 냉수로, 겨울엔 실온 보관해 마셔도 변질되지 않아 좋습니다.❤️ 포장 상태도 깔끔하게 왔어요. 12개 묶음이라 묵직하지만, 배송이 안전하게 와서 새거나 찌그러진 병이 하나도 없었어요. 뚜껑도 단단히 닫혀 있어서 보관할 때 안심이 돼요.❤️ 가격도 합리적인 편이에요. 물을 자주 마시는 가정이나 사무실에서는 2L 12개 묶음이 정말 효율적이에요. 특히 무라벨이라 환경에 미치는 부담이 적은 점이 마음에 들어요.총평제주삼다수 무라벨은 깔끔한 물맛, 편리한 분리수거, 안정적인 품질까지 모두 만족스러운 제품이에요. 깨끗한 물을 자주 찾는 분, 환경을 생각하는 분들께 꼭 추천드려요.도움이 되셨다면 아래 ‘도움이 돼요’ 버튼 꾹 눌러주세요 정말 큰 힘이 돼요 감사합니다 :)</t>
+          <t>쿠팡제품을 구매할때 항상 다른분들의 후기를 보고 구매하는 편입니다저의 후기도 직접써보고 좋은점과 나쁜점을 정확히 기입하여 구매하시는분에게도움이 되고자 합니다정수기 렌탈 이용하다가 코로나 시국에 사람오는 것이 부담스럽고렌탈은 시간맞추기도 번거롭고, 가격대비 물도 많이 먹지 않아서생수를 사먹기로 하고 삼다수 주문하게 되었어요삼다수 물은 아직까지 국내 1위잖아요아들은 냉장고에 넣어두고 먹는데 저는 찬 물이 싫어서 실외에 두고 먹는데물비린내도 나지 않고 물맛이 아주 좋아요아들은 아침마다 오트밀을 삼다수에 타먹더라구요다른생수에 비해 미네랄 함량도 높구요앞전엔 다른 생수 구입해서 먹었는데 삼다수만큼 좋은 생수가 아직우리나라엔 없죠하루에 물을 많이 마시라고 하는데 잘먹기 어렵잖아요그래서 저는 일부러라도 꾸준히 먹기 위해 눈에 띄는 곳에 두고 자주자주 먹습니다물은 미지근하게 먹는게 좋데요삼다수는 미지근하게 먹어도 전혀 이상하지 않아요가격도 저렴하네요 마트보다주문하고 배달도 빨리 왔어요단점은,,,,,찾을수가 없네요요즘 느끼는 단점은 가격이 자꾸 오르는점 ㅜㅜ요즘 안오르는게 없네요이 제품은  가격이 좀 저렴해요 ~</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>김*미</t>
+          <t>김*영</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1409,22 +1409,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2025.11.07</t>
+          <t>2025.11.25</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨 500ml 40개 세트를 아이들 학교용으로 쓰려고 구매했어요.아침마다 아이들이 학교에 갈 때 텀블러에 물을 담아 보내는데, 수돗물보다 깨끗하고 맛이 부드러운 생수를 준비해 주고 싶어서 선택한 제품이에요.여러 생수를 비교해 봤지만 제주삼다수는 물맛이 깔끔하고 신뢰감이 있어서 자연스럽게 손이 갔어요.특히 이번에 구매한 ‘그린 무라벨’ 제품은 환경을 생각한 포장이라는 점이 마음에 들었어요.예전에는 라벨을 떼서 분리배출하는 과정이 꽤 번거로웠는데, 무라벨 제품은 그런 번거로움이 전혀 없고 병 자체 디자인도 심플해서 보관할 때도 깔끔해 보여요.500ml 용량은 아이들이 하루 동안 마시기 딱 적당해요. 너무 크지도 작지도 않아서 텀블러에 옮겨 담기 편하고, 남기지 않고 마실 수 있는 양이에요.아침에 학교 갈 때마다 한 병씩 열어서 바로 텀블러에 붓고 뚜껑을 닫으면 되니까 정말 간편해요.아이들도 “오늘 물 맛이 좋아요”라고 할 정도로 삼다수의 물맛을 좋아하더라고요. 물 특유의 비릿함이나 금속성 맛이 전혀 없고, 삼다수 특유의 부드럽고 산뜻한 느낌이 있어서 아이들이 거부감 없이 잘 마셔요.포장 상태도 전반적으로 만족스러웠어요. 40개입 대용량이라 박스가 꽤 크긴 하지만 병이 단단하게 포장되어 있어서 배송 중에 눌리거나 새는 병이 없었어요.배송도 빠르게 와서 물 떨어지기 전에 바로 채워둘 수 있었어요. 아이들이 둘이라 하루에 두 병씩 사용하다 보니 금방 줄어들긴 하지만, 40개 세트라 한 번 사두면 꽤 오랫동안 쓸 수 있어요.특히 겨울철처럼 물 소비량이 조금 줄어드는 시기에는 한 달 반 이상도 충분히 버텨요.무라벨 제품이라 분리수거할 때도 훨씬 편해요. 예전에는 물을 다 마신 후 병에 붙은 비닐 라벨을 일일이 뜯어내야 해서 손이 자주 젖거나 라벨 찌꺼기가 남아 귀찮았는데, 이 제품은 그런 과정이 필요 없어서 바로 헹구고 압착해서 재활용함에 넣기만 하면 돼요.가정에서 분리배출하는 양이 많을수록 이런 작은 차이가 정말 크게 느껴져요. 환경을 생각하면서도 실생활에서의 편리함까지 챙긴 제품이라 만족감이 커요.맛은 늘 일정하고 신뢰할 수 있다는 점이 제주삼다수의 가장 큰 장점이에요.물맛이 깨끗하고, 목 넘김이 부드러워서 아무 때나 마시기 좋아요. 아이들이 학교에서 체육 활동을 하거나 점심 이후에 목이 마를 때도 삼다수로 채운 물이라면 꺼림칙하지 않게 잘 마셔요.가끔 저도 외출할 때 한 병 챙겨 나가는데, 커피를 마신 후 입안을 정리할 때 마셔도 개운하고 미네랄이 적당히 느껴져서 속이 편해요.제주 화산암반층에서 걸러진 물이라 그런지, 다른 브랜드의 생수보다 묘하게 부드럽고 순한 느낌이에요.가격도 40개 묶음 기준으로 보면 상당히 합리적이에요. 대형마트나 편의점에서 낱개로 사는 것보다 훨씬 저렴하고, 가정용이나 학교용으로 꾸준히 사용하는 분들에게는 부담 없는 가격이에요.게다가 제주삼다수 브랜드 자체가 워낙 인지도 있고 품질관리도 철저하니까 믿고 구매할 수 있었어요.아이들 학교용으로 매일 쓰다 보니, 아침에 급하게 준비할 때도 이 물병 덕분에 편하게 시작할 수 있어요.전날 저녁에 냉장고에 몇 병 넣어두면 아침에 시원한 물을 바로 부어 보낼 수 있고, 여름철에는 살짝 얼려서 보낼 수도 있어서 아이들이 학교 가서 시원하게 물을 마실 수 있어요.다만 제품 안내에도 나와 있듯이 물을 얼리면 흰색 침전물이 생길 수 있는데, 이는 천연 미네랄 성분 때문이라 품질에는 문제가 없다고 해요.실제로 몇 번 얼려 봤는데 맛이나 냄새의 변화는 거의 느껴지지 않았어요.무라벨이라는 점에서 환경적인 의미도 크다고 생각해요. 아이들에게도 “이건 라벨 없는 친환경 제품이야”라고 알려주니, 물 마신 후 병을 버릴 때 더 조심하고 분리수거에도 관심을 가지더라고요.작은 습관이지만 이런 교육적인 효과도 있어서 더 만족스러워요.</t>
+          <t>《  제주삼다수 그린 무라벨, 2L, 12개  》물이 떨어질때쯤 항상 구매 재구매해서 먹고 있어요골드박스 조금이라도 저렴할 때 자주 사놓기도 하고무라벨이 더 좋네요재활용하기 편하니깐요 ^^여름이라 물이 자주 마셔서더 빠른시일내 주문하게 되네요( 더운 여름날은 시원한 물이 바로 나오는정수기가 갖고 싶어지긴 하네요 ㅎ )물 맛은 언제나 괜찮고타사제품 맛이 다르면서 정말 입에 안 맞는 물도 있는데제주 삼다수는 언제나 옳네요 ^^물 맛이 좋아요♡제주 삼다수~정수기 없이 식수로 생수를 항상 사먹고 있어요언제나 제주 삼다수~ 구매해서 떨어지기전에항상 집에 있어야하지요골드박스에 몇천원이라도 저렴하게 뜨면쟁여놓고 구매하는 편이고라벨 비닐이 없는 생수통을 선호하는 편입니다물 맛은 언제나 좋으며생수마다 물맛이 다르긴 하네요 ㅎ삼다수 물 맛은 언제나 괜찮고 좋은 느낌을 받아요제조일자는 언제나 최근이라 더 믿고 마실 수 있어요페트병 재활용하기는 최고로 쉽고 좋으며분리수거 아주 잘 되고 있지요가끔 빈 생수통을 잘 말려서 연필, 색연필 꽂이로도사용했네요빈 생수통도 잘 말려두면 학교 준비물로 쓰일 때도 있어서몇 개씩은 보관중입니다계속 쭉 구매해서 잘 마실께요</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>황불독</t>
+          <t>고포도님</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1443,22 +1443,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2025.11.06</t>
+          <t>2025.11.15</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 24개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>✨믿고 마시는 제주 삼다수, 깨끗하고 시원한 생수✨</t>
+          <t>가성비보다 맛을 생각한다면 삼다수 !</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>물은 항상 삼다수로 주문해먹고 있어요!원래는 라벨 있는걸로 먹었다가 무라벨이 나오기 시작할때부터는무라벨만 시키고 있어요!분리수거 할때 라벨지를 따로 떼서 버리기 넘나 귀찮더라구요ㅠ다들 그러시지 않나요? ㅎㅎ가격이 조금 더 비싸도 그냥 최소한의 환경오염을 안하고싶어서요 ㅎㅎ그리고 디자인적으로도 무라벨이지만 이뻐요 ㅋㅋㅋ그냥 깔끔하고 음각으로 박혀져있어서 좋아요 ㅎㅎ그리고 제가 이 삼다수만 쿠팡에서 시켜먹은지 한...2년??됐거든요 ㅎㅎ저희는 2인가족이라 물을 많이먹진 않아서한달에 한번정도 시켜요!생수 종류가 무지하게 많자나요근데 딴 것도 아니고 우리 몸에 젤 중요한게 물이자나요!그래서 쫌 보장된거 먹고싶었어요 ㅋㅋㅋ워낙 오래되기도 했고 제주의 청정한 물이잖아요!믿을만하더라구요!!그리고맛이 부드럽고, 잡맛이 전혀 없어요.저희는 항상 2L 2개 세트시키는데포장을 정말 잘 해줘요 항상 문앞에 가지런히깨끗한 상태로 놔주는데기분이 넘나 좋다는거!!하나씩 말하자면~✅ 배송 &amp; 포장 상태박스가 아닌 비닐 포장으로 안전하게 도착했어요 ㅎㅎ병에 흠집이나 찌그러짐 없이 깔끔했고, 두 세트 겹쳐 쌓아도 안정감 있었어요.무게가 꽤 나가지만 기사님이 문 앞까지 배달해 주셔서 편했습니다✅ 맛 &amp; 사용감삼다수는 항상 일정하게 맑고 부드러운 맛이라 신뢰가 가요.찬물로 마셔도 목넘김이 부드럽고, 실온에 둬도 텁텁하지 않아요.전 실제로 실온에 두고 먹기도 하고 냉장고에 넣어서 먹이도 해요그 특유에 생수 비린맛은 전혀!!!! 없어요!!!!!!잡맛이 없어서 커피나 차 우려 마실 때도 좋아요✅ 보관 팁직사광선 피해서 실내에 보관하셔야돼요!플라스틱이 햇빛 닿으면 안좋대요ㅠㅠ 바로바로실내로 옮겨두셔야 합니다!!개봉 후엔 뚜껑 꼭 닫아 냉장 보관하면 마지막 한 모금까지 신선하게 마실 수 있어요ㅎㅎ내돈내산 솔직 후기입니다.&gt;&lt;2년째 매달  주문해 마시던 삼다수 후기입니다. ㅎㅎ배송도 빠르고 포장도 깔끔했습니다.시원하고 부드러운 물맛 덕분에 언제 마셔도 만족해요.앞으로도 계속~~~~~ 재구매할 예정이에요!</t>
+          <t>*** 100% 내돈내산 마셔본 후기 ***삼다수도 무라벨이 있네요?처음 알았습니다.가격이 비싼만큼 저희는 삼다수만 먹습니다.1. 구매이유수돗물에서 깔따구 유충이 나왔다는 소식을 듣고, 삼다수를 주문했습니다.우리가 먹는 수돗물에도 문제가 발생하다니...충격적이었습니다.생수를 바로 주문했죠~~!정수기를 사용한지 10년도 넘었는데, 다시 생수로 돌아갔습니다. ㅠㅠ이게 무슨일인지....그동안 편하게 정수기 사용했었는데...실제로 다시 생수로 돌아가니 엄청 불편하네요 ㅠㅠ어쩔수 없죠...아 그리고 삼다수 정말 구매이유는 제일 맛있고 안심할수 있기 때문입니다.내륙의 여러 수원들이 있지만, 그곳들은 운영도 여러곳에서 하고,브랜드도 다 다르고, 관리가 잘 되고 있는지 잘모르겠습니다.아마도 잘 되고 있겠죠~~~!삼다수는 꾸준하게 1개회사와 거래를 하고 있고, 제주도라는 지역적 특성으로 인해가격은 조금 비싸지만, 그래도 안심하고 먹고 있습니다.개인적으로도 삼다수를 제일 좋아합니다.2. 맛맛은 삼다수가 전형적인 물의 무맛에 가까운것 같습니다.물이 맛아나면 안되죠!!3. 단점가격이 비싸요유일한 단점입니다.좋은데....가격이...ㅠㅠ...어쩔수 없죠*** 요약 ***삼다수가 최고입니다.비싸지만, 물맛이 좋아요!무라벨 좋네요!가성비보다 맛을 생각한다면 삼다수 !*** 끝 ***</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>강*민</t>
+          <t>잇별솜</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1481,26 +1481,26 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2025.11.24</t>
+          <t>2025.11.07</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>정수기 없어도 삼다수만 있음 돼여</t>
+          <t>가정이나 사무실에서 잘 먹을 수 있는 구성입니다. 굿굿</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>완전 내돈내산 (정수기 안쓰는 집)요즘 아가 보면서 물 챙겨 마시는 것도 일이더라구요 ㅋㅋ그래서 집에 제주 삼다수 2리터를 쟁여놓기 시작했는데,이제는 그냥 이걸로 정착했어요.일단 물맛이 진짜 부드럽고 깔끔해요.아침에 일어나서 바로 한 컵 마셔도텁텁한 맛이 없어서 부담 없이 잘 넘어가요.신랑도 물맛 가리는 타입인데삼다수는 그냥 꾸준히 마시더라구요.2리터 대용량이라작은 생수 계속 뜯을 필요도 없고컵에 따라놓고 하루 종일 같이 마시기 딱 좋아요.육아하면서 이런 작은 편리함이 진짜 체감됨…ㅋㅋ그리고 삼다수가 좋은 게 또 하나!저는 아기 분유물도 필요할 때 삼다수 끓여서 쓰고 있어요.급하게 물필요할 때 “이거 끓여 쓰면 되니까”라는그 심리적 안정감이 진짜 커요.안심되는 물이라 이유식 준비할 때도 은근히 손이 가요.여행 갈 때도 차에 2리터 한 병 넣어두면물 부족할 걱정 없이 편해요.특히 제주 갔을 때는 현지에서 파는 삼다수가훨씬 신선한 느낌이라 더 좋았어요 ㅎㅎ정리하면,물맛 깔끔 + 가성비 좋고 + 아기 이유식·분유물로도 활용 가능이래서 계속 재구매하게 되는 듯해요.혹시 대용량 생수 고민 중이시면삼다수 2리터는 완전 무난하게 추천드려요 :)</t>
+          <t>⭕제주삼다수 그린 무라벨, 40개, 500ml⭕–––⭐⭐⭐⭐⭐–––✅제품명: 제주삼다수 그린 무라벨, 40개, 500ml✅포장&amp;배송▶ 배송 : 로켓배송▶ 2025.11.02(주문일자)▶ 2025.11.03(배송도착)✅총평: 제주삼다수 그린 무라벨 제품은 환경을 생각하면서도실용성을 챙긴 아주 만족스러운 선택이었습니다.먼저 ‘무라벨’이라는 점이 가장 큰 장점으로,라벨을 제거할 필요 없이바로 분리배출이 가능해 정말 편리했습니다.대량으로 음용수를 소비하는 가정이나사무실에서는 라벨 제거만으로도 꽤 많은 시간이 걸리는데,이 제품은 그 번거로움을 완전히 없애줍니다.환경 보호를 실천하면서도 깔끔하게 정리할 수 있어서만족도가 높았습니다.500ml 용량은 외출 시나 운동할 때들고 다니기 딱 좋은 사이즈였습니다.병 디자인은 단순하지만 세련되었고,투명한 바디 덕분에 청량한 느낌이 더욱 강조됩니다.병 두께도 적당히 단단해 찌그러지지 않으며,손에 쥐었을 때 미끄럽지 않아 사용감이 좋았습니다.무엇보다 삼다수 특유의 깨끗한 물맛은 여전했습니다.잡맛이 전혀 없고, 미네랄 밸런스가 잘 잡혀 있어하루 종일 마셔도 부담이 없었습니다.냉장고에 넣어두었다가 차게 마시면 청량감이 훨씬 살아나며,물 본연의 순수함이 느껴집니다.특히 다른 생수와 비교했을 때 삼다수 특유의부드러운 물맛이 입안에 잔잔하게 남는 점이 인상적이었습니다.40개 대용량 구성이라 가정, 사무실, 행사용으로모두 활용하기 좋았고, 박스 포장도 튼튼하게 되어 있어운반이나 보관이 용이했습니다.유통기한도 넉넉해 대량 구매 후 천천히 소비하기에 부담이 없었고,한 병씩 꺼내 쓰기 편한 구조라 관리가 쉬웠습니다.저는 삼다수를 늘 마시면서 대만족 하고 있습니다.■■■■■■■■■❗부탁드립니다❗■■■■■■■■■저의 후기가 많은 분들께 큰 도움이 됐으면 좋겠습니다.리뷰가 도움이 되셨다면 밑에❣️도움이 돼요❣️ 버튼 한 번씩만 눌러주세요!♩♪♬ 그러면 기분이 좋아져 신이 납니다 ♩♪♬감사합니다.(●'◡'●)(●'◡'●)■■■■■■■■■■■■■■■■■■■■■■■■■■■■</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>이*원</t>
+          <t>장*숙</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1519,26 +1519,26 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2025.11.16</t>
+          <t>2025.11.07</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 24개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>이번 사태의 생명줄같은 존재</t>
+          <t>최고일등 물맛</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨 24개 리뷰입니다.집에서 브리타를 쓰고 있다가 읭… 갑자기 단수가되고… 장기간으로 넘어가다보니 버티는데 한계가 생기면서 구매하게 되었어요!일단 엄마와 아빠는…어떻게든 버티고 안먹으면 되지만ㅠㅠ 우리 아가는…씻기고 깨끗한 물을 어찌되었든 먹이고 생활해야겠다하여 왕창구매했네요.학생때나 혼지 자취할때 삼다수 진짜 많이 애용했는데…오랜만에 구매하였어요.일단 물이라하면 삼다수고! 믿고마시는 물이자나요. 타 브랜드 물보대 일단은 어느정도 믿고 마실 수있는 물을 사자하여 구매했네요.보통은 마시는거 외에는 잘 사용 안하는데…아기 맘마먹이고…아기 엉덩이닦기, 아기식기만 닦기, 샤워하는데 엄청때려넣었어요.살면서 삼다수로 아기를 샤워시킬줄이야ㅋㅋㅋ 아낀다 아끼면서해도 10병이나 까서 썼네요진짜…혹시나 하는마음에 돈있어도 물구하기 어려울까 아기만 먹이고… 탄산수로 연명했네요… 부모 식기는 방치…샤워는 못하고..개차반…쨋든 최악의 상황에서 엄청난 경험을 했네요ㅋㅋ 삼다수 덕분에 수질검사까지 4일걸렸는데 버텼습니다.이지역… 상습적으로 단수에 난리던데…이사가기 전까지 항상 비상용 물로 구매해둘 의사 1000000000000%이네요삼다수 짱입니다!!</t>
+          <t>내돈내산 리뷰! ❤️❤️ 평소 생수를 자주 마시는 편이라 대용량 2L 제품을 자주 구매하는데, 이번엔 환경을 고려해서 무라벨 제품으로 선택했어요. 제주 삼다수답게 물맛이 정말 깔끔하고 부드러워요. 다른 브랜드와 비교해도 잡맛이 거의 없고, 목넘김이 아주 부드러워서 꾸준히 손이 가는 생수예요.❤️ 무라벨이라 분리수거가 훨씬 편해요. 기존엔 라벨을 하나하나 떼는 게 번거로웠는데, 이건 그냥 병만 헹궈서 바로 버리면 되니까 정말 간편하더라고요. 환경을 생각하면서도 편리하게 사용할 수 있어서 만족도가 높아요.❤️ 물맛은 약간 미네랄이 느껴지는 듯하지만 부담스럽지 않고 깔끔하게 정제된 느낌이에요. 냉장고에 넣어두면 더 시원하고 깨끗하게 느껴져요. 특히 여름철엔 냉수로, 겨울엔 실온 보관해 마셔도 변질되지 않아 좋습니다.❤️ 포장 상태도 깔끔하게 왔어요. 12개 묶음이라 묵직하지만, 배송이 안전하게 와서 새거나 찌그러진 병이 하나도 없었어요. 뚜껑도 단단히 닫혀 있어서 보관할 때 안심이 돼요.❤️ 가격도 합리적인 편이에요. 물을 자주 마시는 가정이나 사무실에서는 2L 12개 묶음이 정말 효율적이에요. 특히 무라벨이라 환경에 미치는 부담이 적은 점이 마음에 들어요.총평제주삼다수 무라벨은 깔끔한 물맛, 편리한 분리수거, 안정적인 품질까지 모두 만족스러운 제품이에요. 깨끗한 물을 자주 찾는 분, 환경을 생각하는 분들께 꼭 추천드려요.도움이 되셨다면 아래 ‘도움이 돼요’ 버튼 꾹 눌러주세요 정말 큰 힘이 돼요 감사합니다 :)</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1547,32 +1547,32 @@
           <t>최고</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>김*미</t>
+        </is>
+      </c>
       <c r="C31" t="n">
         <v>5</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2025.11.13</t>
+          <t>2025.11.07</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>맑은 국립공원물이 콸콸콸!!!!!!!!</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>안녕하세요.얼마전 뉴스보다 알게된 사실인데, 생수회사중에이름만 바꿔파는 회사들이 엄청 많더라구요. 그중에생수 부적격 받은 회사들도 다수있었고 제가 마시던 생수도그랬습니다... 하...그래서 밥은 몰라도 물이라도 그나마 안전한거 마시자해서 찾아보니까 삼다수 품질관리가 진짜 엄격해서삼다수로 골랐습니다..생수원 주변 부지도 매입해서 오염될만한거 아예 다차단해놓고 생수원도 국립공원 한군데에서만뽑아서 더 안전한거같습니다. 20년 넘게 경고조차도 받은적 없다하니일단 저보다는 깨끗한걸로.사람으로 따지면 학교다닐때 선생님함테 한번도안혼난 느낌입니다. 그리고 제조시도 공기업 한군데라서압으로 쭉 삼다수만 사려합니다...궁금해서 좀 더 찾아보니 생수를 판매하려면 원래수질검사를 받아야하는데 이게 좀 엄격한검산데,삼다수에서 이 검사를 할 권한도 받았더라구요.(알..알았어... 사 마실게... )찾아볼수록 생수에 진심이라고 느껴졌고다른제품대비 가격은 조금 더 있지만 그래도안전하고 인증된 물로 마시려고합니다..성인이면 몰라도 집에서 아기 키우시는 집이나건강 안좋으신분들은 깨끟한 물 드시는거 추천드려요.괜히 부적격 받은 물 마시다가 기분도 찝찝하고걱정거리도 생기고...°°°°°°암튼 삼다수는 진짜 강추 °°°°°</t>
+          <t>제주삼다수 그린 무라벨 500ml 40개 세트를 아이들 학교용으로 쓰려고 구매했어요.아침마다 아이들이 학교에 갈 때 텀블러에 물을 담아 보내는데, 수돗물보다 깨끗하고 맛이 부드러운 생수를 준비해 주고 싶어서 선택한 제품이에요.여러 생수를 비교해 봤지만 제주삼다수는 물맛이 깔끔하고 신뢰감이 있어서 자연스럽게 손이 갔어요.특히 이번에 구매한 ‘그린 무라벨’ 제품은 환경을 생각한 포장이라는 점이 마음에 들었어요.예전에는 라벨을 떼서 분리배출하는 과정이 꽤 번거로웠는데, 무라벨 제품은 그런 번거로움이 전혀 없고 병 자체 디자인도 심플해서 보관할 때도 깔끔해 보여요.500ml 용량은 아이들이 하루 동안 마시기 딱 적당해요. 너무 크지도 작지도 않아서 텀블러에 옮겨 담기 편하고, 남기지 않고 마실 수 있는 양이에요.아침에 학교 갈 때마다 한 병씩 열어서 바로 텀블러에 붓고 뚜껑을 닫으면 되니까 정말 간편해요.아이들도 “오늘 물 맛이 좋아요”라고 할 정도로 삼다수의 물맛을 좋아하더라고요. 물 특유의 비릿함이나 금속성 맛이 전혀 없고, 삼다수 특유의 부드럽고 산뜻한 느낌이 있어서 아이들이 거부감 없이 잘 마셔요.포장 상태도 전반적으로 만족스러웠어요. 40개입 대용량이라 박스가 꽤 크긴 하지만 병이 단단하게 포장되어 있어서 배송 중에 눌리거나 새는 병이 없었어요.배송도 빠르게 와서 물 떨어지기 전에 바로 채워둘 수 있었어요. 아이들이 둘이라 하루에 두 병씩 사용하다 보니 금방 줄어들긴 하지만, 40개 세트라 한 번 사두면 꽤 오랫동안 쓸 수 있어요.특히 겨울철처럼 물 소비량이 조금 줄어드는 시기에는 한 달 반 이상도 충분히 버텨요.무라벨 제품이라 분리수거할 때도 훨씬 편해요. 예전에는 물을 다 마신 후 병에 붙은 비닐 라벨을 일일이 뜯어내야 해서 손이 자주 젖거나 라벨 찌꺼기가 남아 귀찮았는데, 이 제품은 그런 과정이 필요 없어서 바로 헹구고 압착해서 재활용함에 넣기만 하면 돼요.가정에서 분리배출하는 양이 많을수록 이런 작은 차이가 정말 크게 느껴져요. 환경을 생각하면서도 실생활에서의 편리함까지 챙긴 제품이라 만족감이 커요.맛은 늘 일정하고 신뢰할 수 있다는 점이 제주삼다수의 가장 큰 장점이에요.물맛이 깨끗하고, 목 넘김이 부드러워서 아무 때나 마시기 좋아요. 아이들이 학교에서 체육 활동을 하거나 점심 이후에 목이 마를 때도 삼다수로 채운 물이라면 꺼림칙하지 않게 잘 마셔요.가끔 저도 외출할 때 한 병 챙겨 나가는데, 커피를 마신 후 입안을 정리할 때 마셔도 개운하고 미네랄이 적당히 느껴져서 속이 편해요.제주 화산암반층에서 걸러진 물이라 그런지, 다른 브랜드의 생수보다 묘하게 부드럽고 순한 느낌이에요.가격도 40개 묶음 기준으로 보면 상당히 합리적이에요. 대형마트나 편의점에서 낱개로 사는 것보다 훨씬 저렴하고, 가정용이나 학교용으로 꾸준히 사용하는 분들에게는 부담 없는 가격이에요.게다가 제주삼다수 브랜드 자체가 워낙 인지도 있고 품질관리도 철저하니까 믿고 구매할 수 있었어요.아이들 학교용으로 매일 쓰다 보니, 아침에 급하게 준비할 때도 이 물병 덕분에 편하게 시작할 수 있어요.전날 저녁에 냉장고에 몇 병 넣어두면 아침에 시원한 물을 바로 부어 보낼 수 있고, 여름철에는 살짝 얼려서 보낼 수도 있어서 아이들이 학교 가서 시원하게 물을 마실 수 있어요.다만 제품 안내에도 나와 있듯이 물을 얼리면 흰색 침전물이 생길 수 있는데, 이는 천연 미네랄 성분 때문이라 품질에는 문제가 없다고 해요.실제로 몇 번 얼려 봤는데 맛이나 냄새의 변화는 거의 느껴지지 않았어요.무라벨이라는 점에서 환경적인 의미도 크다고 생각해요. 아이들에게도 “이건 라벨 없는 친환경 제품이야”라고 알려주니, 물 마신 후 병을 버릴 때 더 조심하고 분리수거에도 관심을 가지더라고요.작은 습관이지만 이런 교육적인 효과도 있어서 더 만족스러워요.</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1581,28 +1581,36 @@
           <t>최고</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>황불독</t>
+        </is>
+      </c>
       <c r="C32" t="n">
         <v>5</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2025.11.24</t>
+          <t>2025.11.06</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 2L, 24개</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>✨믿고 마시는 제주 삼다수, 깨끗하고 시원한 생수✨</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t># 제주삼다수 그린 무라벨 2L 사용후기**깔끔한 첫인상**라벨 없는 투명 페트병이 정말 깨끗해 보여요. 2L 대용량 6개 묶음으로 왔는데 들고 다니기 편하게 손잡이도 있더라고요. 환경을 생각한 디자인이라 보기만 해도 뿌듯합니다.**구매 결정 이유**집에서 물 소비량이 많은데 매번 마트 가서 사오기 힘들었어요. 64만 개가 넘는 리뷰에 1만 명 이상 구매했다는 거 보고 믿고 주문했습니다. 제주 청정수에 무라벨이라 분리수거도 편하고, 가격도 합리적이어서 선택했어요.**실제 사용 경험**시원하게 냉장고에 넣어뒀다가 마시니 목 넘김이 부드럽고 깔끔해요. 물맛이 부드러워서 그냥 마셔도 좋고, 커피나 차 끓일 때 써도 맛이 좋더라고요. 2L라 자주 채워 넣을 필요 없어 편리하고, 무라벨이라 재활용할 때 라벨 뜯는 번거로움이 없어서 정말 만족스럽습니다.**종합 평가**장점은 청정한 제주수 품질, 환경친화적 무라벨, 대용량으로 가성비 좋다는 점이에요. 분리수거가 간편한 것도 큰 장점! 단점은 2L가 무거워서 노약자분들은 들기 힘들 수 있다는 것? 하지만 집에서 쓰기엔 전혀 문제없고, 앞으로도 계속 이 제품으로 구매할 생각입니다. 건강과 환경 모두 챙기는 현명한 선택인 것 같아요!</t>
+          <t>물은 항상 삼다수로 주문해먹고 있어요!원래는 라벨 있는걸로 먹었다가 무라벨이 나오기 시작할때부터는무라벨만 시키고 있어요!분리수거 할때 라벨지를 따로 떼서 버리기 넘나 귀찮더라구요ㅠ다들 그러시지 않나요? ㅎㅎ가격이 조금 더 비싸도 그냥 최소한의 환경오염을 안하고싶어서요 ㅎㅎ그리고 디자인적으로도 무라벨이지만 이뻐요 ㅋㅋㅋ그냥 깔끔하고 음각으로 박혀져있어서 좋아요 ㅎㅎ그리고 제가 이 삼다수만 쿠팡에서 시켜먹은지 한...2년??됐거든요 ㅎㅎ저희는 2인가족이라 물을 많이먹진 않아서한달에 한번정도 시켜요!생수 종류가 무지하게 많자나요근데 딴 것도 아니고 우리 몸에 젤 중요한게 물이자나요!그래서 쫌 보장된거 먹고싶었어요 ㅋㅋㅋ워낙 오래되기도 했고 제주의 청정한 물이잖아요!믿을만하더라구요!!그리고맛이 부드럽고, 잡맛이 전혀 없어요.저희는 항상 2L 2개 세트시키는데포장을 정말 잘 해줘요 항상 문앞에 가지런히깨끗한 상태로 놔주는데기분이 넘나 좋다는거!!하나씩 말하자면~✅ 배송 &amp; 포장 상태박스가 아닌 비닐 포장으로 안전하게 도착했어요 ㅎㅎ병에 흠집이나 찌그러짐 없이 깔끔했고, 두 세트 겹쳐 쌓아도 안정감 있었어요.무게가 꽤 나가지만 기사님이 문 앞까지 배달해 주셔서 편했습니다✅ 맛 &amp; 사용감삼다수는 항상 일정하게 맑고 부드러운 맛이라 신뢰가 가요.찬물로 마셔도 목넘김이 부드럽고, 실온에 둬도 텁텁하지 않아요.전 실제로 실온에 두고 먹기도 하고 냉장고에 넣어서 먹이도 해요그 특유에 생수 비린맛은 전혀!!!! 없어요!!!!!!잡맛이 없어서 커피나 차 우려 마실 때도 좋아요✅ 보관 팁직사광선 피해서 실내에 보관하셔야돼요!플라스틱이 햇빛 닿으면 안좋대요ㅠㅠ 바로바로실내로 옮겨두셔야 합니다!!개봉 후엔 뚜껑 꼭 닫아 냉장 보관하면 마지막 한 모금까지 신선하게 마실 수 있어요ㅎㅎ내돈내산 솔직 후기입니다.&gt;&lt;2년째 매달  주문해 마시던 삼다수 후기입니다. ㅎㅎ배송도 빠르고 포장도 깔끔했습니다.시원하고 부드러운 물맛 덕분에 언제 마셔도 만족해요.앞으로도 계속~~~~~ 재구매할 예정이에요!</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1613,7 +1621,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>온보딩</t>
+          <t>강*민</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1621,7 +1629,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2025.11.03</t>
+          <t>2025.11.24</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1629,14 +1637,18 @@
           <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>정수기 없어도 삼다수만 있음 돼여</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>★환경도 생각하고 맛도 깔끔한 믿음의 생수★★★★★★ 제주삼다수 그린 무라벨 2L 12개 후기입니다 ★★★★★물맛이 다 거기서 거기라고 생각했는데,삼다수는 마실 때마다 입안이 깔끔하고 미네랄 밸런스가 안정적이라 확실히 차이가 느껴져요.잡맛이 없고 부드럽게 넘어가서 식사 중이나 운동 후에도 부담 없이 마실 수 있습니다.★무라벨의 편리함★이 제품의 가장 큰 장점은 바로 무라벨이에요.라벨을 일일이 제거할 필요가 없어 분리수거가 훨씬 간편하고,환경적으로도 불필요한 플라스틱 낭비를 줄일 수 있어 뿌듯했습니다.심플한 그린 색상 캡만으로도 브랜드가 인식돼서 디자인도 깔끔하고 세련돼요.★용량 구성★2L 대용량이라 냉장고에 보관해두고 가족끼리 함께 마시기 좋고,12개입이라 한 번 주문해두면 꽤 오랜 기간 넉넉하게 사용할 수 있습니다.캠핑이나 여행 갈 때 몇 병 챙겨가기에도 딱이에요.★맛 품질★삼다수 특유의 부드럽고 청량한 맛은 여전하고,장시간 냉장 보관해도 맛의 변질이 없어서 신뢰가 갑니다.제주 지하 암반수로 만들어졌다는 점에서 안정감 있고, 늘 일정한 품질을 유지하는 게 장점이에요.★편리함 만족도★무거운 2L 물을 택배로 편하게 받아볼 수 있어 정말 편리하고,뚜껑이 단단하게 잠겨 누수 걱정도 없었습니다.환경을 생각하면서도 품질 좋은 생수를 찾는 분들께 딱 맞는 선택이라고 생각해요.▶▶▶환경편리함 맛 모두 챙기고 싶다면 삼다수 무라벨을 추천합니다◀◀◀직접 사용해보고 기술하는 후기입니다.도움이 되셨으면 도움이 돼요 부탁드려요!</t>
+          <t>완전 내돈내산 (정수기 안쓰는 집)요즘 아가 보면서 물 챙겨 마시는 것도 일이더라구요 ㅋㅋ그래서 집에 제주 삼다수 2리터를 쟁여놓기 시작했는데,이제는 그냥 이걸로 정착했어요.일단 물맛이 진짜 부드럽고 깔끔해요.아침에 일어나서 바로 한 컵 마셔도텁텁한 맛이 없어서 부담 없이 잘 넘어가요.신랑도 물맛 가리는 타입인데삼다수는 그냥 꾸준히 마시더라구요.2리터 대용량이라작은 생수 계속 뜯을 필요도 없고컵에 따라놓고 하루 종일 같이 마시기 딱 좋아요.육아하면서 이런 작은 편리함이 진짜 체감됨…ㅋㅋ그리고 삼다수가 좋은 게 또 하나!저는 아기 분유물도 필요할 때 삼다수 끓여서 쓰고 있어요.급하게 물필요할 때 “이거 끓여 쓰면 되니까”라는그 심리적 안정감이 진짜 커요.안심되는 물이라 이유식 준비할 때도 은근히 손이 가요.여행 갈 때도 차에 2리터 한 병 넣어두면물 부족할 걱정 없이 편해요.특히 제주 갔을 때는 현지에서 파는 삼다수가훨씬 신선한 느낌이라 더 좋았어요 ㅎㅎ정리하면,물맛 깔끔 + 가성비 좋고 + 아기 이유식·분유물로도 활용 가능이래서 계속 재구매하게 되는 듯해요.혹시 대용량 생수 고민 중이시면삼다수 2리터는 완전 무난하게 추천드려요 :)</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1647,7 +1659,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>꾸꾸까까</t>
+          <t>이*원</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1655,7 +1667,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2025.11.02</t>
+          <t>2025.11.16</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1663,14 +1675,18 @@
           <t>제주삼다수 그린 무라벨, 2L, 24개</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>이번 사태의 생명줄같은 존재</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>생수는 늘 집에 쌓아두는 편이라 여러 브랜드를 번갈아 마셔봤어요. 아이시스, 백산수, 동원샘물 등 거의 다 마셔봤는데, 결국 다시 돌아오게 되는 건 항상 제주삼다수더라고요. 이번엔 환경 생각해서 그린 무라벨 2L 24개입으로 구매했는데, 확실히 실용적이고 편리해서 만족도가 높았어요.우선 포장부터 마음에 들었어요. 무라벨 제품이라 분리수거가 진짜 편해요. 요즘 라벨 떼는 게 은근 귀찮고 손에 물 묻히기도 싫은데, 이건 그런 수고가 없어요. 그냥 바로 버리면 되니까 훨씬 깔끔해요. 플라스틱도 얇고 가벼워서 환경 부담도 줄인 느낌이에요. 패키지도 심플하고 깔끔해서 냉장고에 정리해 두면 보기에도 단정하더라고요.그리고 무엇보다 중요한 건 물맛. 사실 생수 맛이 다 거기서 거기라고 생각했던 적도 있었는데, 여러 브랜드 마셔보면 확실히 차이가 있어요. 제주삼다수는 일단 맛이 부드럽고 깔끔해요. 미네랄이 적당히 들어 있어서 그런지, 삼키는 순간 거칠거나 텁텁한 느낌이 전혀 없고 목넘김이 정말 부드러워요. 특히 미온수로 마셔도 냄새나 잡맛이 없어서 깔끔하게 넘어가요.제가 개인적으로 느낀 건데, 다른 브랜드 생수들은 가끔 텁텁하거나 플라스틱 냄새가 나는 경우가 있거든요. 그런데 제주삼다수는 그런 게 전혀 없어요. 오히려 산뜻하고 깨끗한 물맛이 느껴져요. 진짜 물맛이 다르다는 걸 삼다수 마시면 느껴요. ‘물이 이렇게 맛있을 수 있나?’ 싶을 정도로 깔끔해서 매일 마시기 딱 좋아요.2L 용량이라서 하루 물 섭취량 채우기에도 편하고, 가족 단위로 마시기에도 좋아요. 저는 냉장고에 몇 병 넣어두고 나머지는 베란다에 보관하는데, 뚜껑이 단단해서 새거나 흔들려도 문제 없어요. 병 디자인이 슬림해서 자리 차지도 별로 안 하고, 캡이 잘 잠기고 열 때도 부드럽게 돌아가요.하루 중 아침에 일어나자마자 한 잔, 식사 후 한 잔씩 마시는데, 삼다수는 속이 편하고 물이 부담 없이 들어가는 느낌이에요. 특히 운동 후나 더운 날에는 냉장고에서 바로 꺼내 마시면 그 시원함이 진짜 좋아요. 물맛이 차가워도 쓰거나 짠 느낌이 전혀 없고, 끝까지 깔끔하게 넘어가요.또, 무라벨 제품이다 보니까 캠핑이나 여행 갈 때 들고 다니기도 좋고, 재활용 분리도 간단해서 환경적으로도 마음이 편해요. 예전엔 라벨 벗기기 귀찮아서 쌓아뒀던 병들 정리하기 힘들었는데, 이제는 그런 걱정이 사라졌어요.아쉬운 점을 굳이 꼽자면, 무라벨이다 보니 브랜드 식별이 처음엔 어렵다는 점이에요. 처음엔 “이게 삼다수 맞나?” 싶어서 자세히 봤는데, 병 목 부분에 작게 ‘제주삼다수’ 각인이 되어 있어서 나중엔 익숙해졌어요. 그리고 박스 포장이 꽤 무겁기 때문에 2L × 24개 세트는 들기가 조금 힘들어요. 택배 받을 때는 괜찮지만 옮길 때 조심해야 해요.✅ 장점•   무라벨이라 분리수거가 간편하고 친환경적•   플라스틱 냄새나 잡맛 없이 깔끔한 물맛•   미네랄 밸런스가 좋아서 목넘김이 부드럽고 속이 편함•   2L 대용량으로 하루 수분 섭취에 적합•   병 디자인이 슬림하고 캡 밀폐력 우수❌ 아쉬운 점•   무라벨이라 처음엔 브랜드 식별이 어렵다•   24개 세트는 무게가 있어서 이동이 불편•   가격이 다른 생수 대비 약간 높은 편결론적으로, 여러 브랜드를 마셔봤지만 제주삼다수가 확실히 물맛이 제일 좋아요. 깔끔하고 순한데도 깊은 맛이 있어서 매일 마셔도 질리지 않아요. 특히 무라벨 제품이라 편의성과 환경까지 챙긴 점이 마음에 쏙 들어요. 생수 고를 때 고민 많으신 분이라면, 그냥 삼다수로 가세요. 맛, 품질, 편리함 세 박자 다 맞는 생수입니다❤️제 후기가 도움이 되셨다면 [[도움이돼요]] 한 번씩 꾸우욱 부탁드려요♥️</t>
+          <t>제주삼다수 그린 무라벨 24개 리뷰입니다.집에서 브리타를 쓰고 있다가 읭… 갑자기 단수가되고… 장기간으로 넘어가다보니 버티는데 한계가 생기면서 구매하게 되었어요!일단 엄마와 아빠는…어떻게든 버티고 안먹으면 되지만ㅠㅠ 우리 아가는…씻기고 깨끗한 물을 어찌되었든 먹이고 생활해야겠다하여 왕창구매했네요.학생때나 혼지 자취할때 삼다수 진짜 많이 애용했는데…오랜만에 구매하였어요.일단 물이라하면 삼다수고! 믿고마시는 물이자나요. 타 브랜드 물보대 일단은 어느정도 믿고 마실 수있는 물을 사자하여 구매했네요.보통은 마시는거 외에는 잘 사용 안하는데…아기 맘마먹이고…아기 엉덩이닦기, 아기식기만 닦기, 샤워하는데 엄청때려넣었어요.살면서 삼다수로 아기를 샤워시킬줄이야ㅋㅋㅋ 아낀다 아끼면서해도 10병이나 까서 썼네요진짜…혹시나 하는마음에 돈있어도 물구하기 어려울까 아기만 먹이고… 탄산수로 연명했네요… 부모 식기는 방치…샤워는 못하고..개차반…쨋든 최악의 상황에서 엄청난 경험을 했네요ㅋㅋ 삼다수 덕분에 수질검사까지 4일걸렸는데 버텼습니다.이지역… 상습적으로 단수에 난리던데…이사가기 전까지 항상 비상용 물로 구매해둘 의사 1000000000000%이네요삼다수 짱입니다!!</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1679,32 +1695,32 @@
           <t>최고</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>리뷰쟁이</t>
-        </is>
-      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
         <v>5</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2025.11.01</t>
+          <t>2025.11.13</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 24개</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>맑은 국립공원물이 콸콸콸!!!!!!!!</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[내돈내산 솔직한 후기]-배송월: 25.10.-실사용기간: 1주▶️ 주문이유집에 분유먹는 아기가 있는데 원래는 다른 브랜드들의 생수를 구매하다가 우연히 생수 부적합 사례들을 접해보고는 깜짝 놀랐습니다. 제가 구매한 브랜드 2개 모두 포함이 되어 있었고 거의 매년 반복되고 있더라고요. 친정에서 먹던 생수까지 포함하면 제가 먹어본 3개사 생수는 모두 부적합 판정을 받은 적이 있던 브랜드였네요;; 첫째 때는 이런 것도 모르고 저 중 한 회사 생수를 먹였었는데;; 둘째만큼은 그래도 수질 관리가 비교적 잘 되고 있(다고 믿고 있)는 삼다수를 구매하기로 했습니다.▶️ 상품설명2L짜리 24병입니다. 무라벨입니다.▶️ 사용후기물맛이 깔끔하고 무난합니다. 무라벨이라 분리수거도 편하네요. 저번 다른 회사 리뷰에도 남겼지만 배달이 정말 더럽게 와서(외부 비닐에 곰팡이인지 어디서 굴렀는지 아님 튀었는지 모를 구정물 얼룩인지 그런게 4팩 모두 있었음) 정말 꾸역꾸역 다 먹고 바로 갈아탔는데, 이건 배송이 아주 깨끗하게 잘 오기도 했네요.‼️장점: 제조원이 믿을 수 있고 물맛이 깔끔함‼️단점: 가격이 다소 비쌈‼️주의할 점: 직사광선 주의❤️내돈내산 솔직 후기입니다. GPT돌리지 않고 실제로 써보고 리뷰하고 있어요. 리뷰에 많은 정보가 있진 않겠지만 제 후기를 먼저 써본 사람이 느낀 점이라 생각하시고, 도움이 되셨다면 '도움이 돼요'를 눌러주시면 감사하겠습니다❤️</t>
+          <t>안녕하세요.얼마전 뉴스보다 알게된 사실인데, 생수회사중에이름만 바꿔파는 회사들이 엄청 많더라구요. 그중에생수 부적격 받은 회사들도 다수있었고 제가 마시던 생수도그랬습니다... 하...그래서 밥은 몰라도 물이라도 그나마 안전한거 마시자해서 찾아보니까 삼다수 품질관리가 진짜 엄격해서삼다수로 골랐습니다..생수원 주변 부지도 매입해서 오염될만한거 아예 다차단해놓고 생수원도 국립공원 한군데에서만뽑아서 더 안전한거같습니다. 20년 넘게 경고조차도 받은적 없다하니일단 저보다는 깨끗한걸로.사람으로 따지면 학교다닐때 선생님함테 한번도안혼난 느낌입니다. 그리고 제조시도 공기업 한군데라서압으로 쭉 삼다수만 사려합니다...궁금해서 좀 더 찾아보니 생수를 판매하려면 원래수질검사를 받아야하는데 이게 좀 엄격한검산데,삼다수에서 이 검사를 할 권한도 받았더라구요.(알..알았어... 사 마실게... )찾아볼수록 생수에 진심이라고 느껴졌고다른제품대비 가격은 조금 더 있지만 그래도안전하고 인증된 물로 마시려고합니다..성인이면 몰라도 집에서 아기 키우시는 집이나건강 안좋으신분들은 깨끟한 물 드시는거 추천드려요.괜히 부적격 받은 물 마시다가 기분도 찝찝하고걱정거리도 생기고...°°°°°°암튼 삼다수는 진짜 강추 °°°°°</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1713,32 +1729,24 @@
           <t>최고</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>최*혁</t>
-        </is>
-      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
         <v>5</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2025.11.10</t>
+          <t>2025.11.24</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>깔끔한 물맛, 라벨없이 분리수거까지 편한 삼다수</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>생수를 자주 구매하는 집이라 다양한 브랜드를 마셔봤는데, 제주삼다수 무라벨 버전을 사용하고 나서부터는 계속 재구매하게 됩니다. 라벨이 없어 분리수거 스트레스가 줄어들고, 정리할 때도 훨씬 깔끔해요. 2L 용량이라 냉장고 문 쪽에 딱 들어가고, 한 번 열면 하루나 이틀 정도는 충분히 마실 수 있는 양입니다.물이 부드럽게 넘어가는 맛이라고 해야 할까요? 삼다수 특유의 깨끗하고 담백한 맛 덕분에 목 넘김이 편안하고, 미네랄 향도 거의 없습니다. 운동할 때, 요리할 때, 그냥 물로만 마실 때까지 가장 무난하고 깔끔한 물맛이라 누구나 부담 없이 마실 수 있습니다.포장 상태도 늘 안정적이에요. 박스 안에서 병마다 흔들리지 않도록 되어 있어 깨짐이나 찌그러짐 없이 잘 도착했습니다. 특히 무라벨이라 분리배출할 때 라벨 제거 필요 없이 바로 압축해서 버릴 수 있는 편리함이 진짜 최고입니다.좋았던 점라벨 제거 NO, 바로 분리수거 가능 (환경적 + 실용성)삼다수 특유의 부드럽고 깔끔한 물맛박스 포장 견고, 배송 중 눌림 없음2L 용량으로 가성비 좋고 물 사용량 많은 집에 딱 맞음총평:매일 마시는 물이라면 편하고 깔끔해야 합니다. 맛 + 편리함 + 친환경까지 잡은 제품. 꾸준히 재구매 중이며 앞으로도 계속 구매할 예정입니다.</t>
+          <t># 제주삼다수 그린 무라벨 2L 사용후기**깔끔한 첫인상**라벨 없는 투명 페트병이 정말 깨끗해 보여요. 2L 대용량 6개 묶음으로 왔는데 들고 다니기 편하게 손잡이도 있더라고요. 환경을 생각한 디자인이라 보기만 해도 뿌듯합니다.**구매 결정 이유**집에서 물 소비량이 많은데 매번 마트 가서 사오기 힘들었어요. 64만 개가 넘는 리뷰에 1만 명 이상 구매했다는 거 보고 믿고 주문했습니다. 제주 청정수에 무라벨이라 분리수거도 편하고, 가격도 합리적이어서 선택했어요.**실제 사용 경험**시원하게 냉장고에 넣어뒀다가 마시니 목 넘김이 부드럽고 깔끔해요. 물맛이 부드러워서 그냥 마셔도 좋고, 커피나 차 끓일 때 써도 맛이 좋더라고요. 2L라 자주 채워 넣을 필요 없어 편리하고, 무라벨이라 재활용할 때 라벨 뜯는 번거로움이 없어서 정말 만족스럽습니다.**종합 평가**장점은 청정한 제주수 품질, 환경친화적 무라벨, 대용량으로 가성비 좋다는 점이에요. 분리수거가 간편한 것도 큰 장점! 단점은 2L가 무거워서 노약자분들은 들기 힘들 수 있다는 것? 하지만 집에서 쓰기엔 전혀 문제없고, 앞으로도 계속 이 제품으로 구매할 생각입니다. 건강과 환경 모두 챙기는 현명한 선택인 것 같아요!</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -1753,7 +1761,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>로찌릉</t>
+          <t>온보딩</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1761,26 +1769,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2025.11.04</t>
+          <t>2025.11.03</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 36개</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>제주삼다수 그린 무라벨 2L, 36개 후기</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>•	저는 원래부터 삼다수만 마시는 사람이에요!여러 생수를 다 마셔봤지만, 삼다수만큼 깨끗하고 목 넘김이 시원한 물은 없더라고요. 다른 물은 살짝 느끼하거나 입안에 남는 맛이 있는데, 삼다수는 그런 게 전혀 없어요. 그냥 ‘물 맛의 기준’ 같아요.•	이번에 처음으로 무라벨 버전으로 바꿔봤는데요 ♻️진짜 너무 편리해요! 라벨을 하나하나 떼는 게 생각보다 귀찮은데, 이건 그냥 바로 분리수거함에 넣으면 끝이에요. 깔끔하게 재활용할 수 있어서 환경에도 좋고, 쓰레기도 덜 나와서 마음이 편해요.•	2L 용량이라 가정용, 사무실용, 캠핑용으로도 완벽해요.저희는 냉장고에 2병 정도 넣어두고, 나머지는 시원한 곳에 쌓아두는데 36개 세트라 넉넉해서 한동안 든든해요•	뚜껑도 단단하게 닫히고, 물이 새거나 찌그러진 제품도 없이 깔끔하게 도착했어요. 배송 포장도 믿음직했고요•	무엇보다 무라벨이라 외관도 깔끔하고 미니멀해서 보기 좋아요. 투명한 병만 있어서 주방에 놔둬도 정돈된 느낌이에요.총평:깨끗한 물맛 + 환경을 생각한 무라벨 디자인 + 깔끔한 패키징삼다수를 매일 마시는 사람이라면 무라벨 버전으로 바꾸는 순간 “왜 이제 샀지?” 싶을 거예요!✅ 재활용 편리함 100점✅ 시원한 물맛 100점✅ 믿고 마시는 브랜드 삼다수환경도 지키고, 물맛도 챙기고 — 완벽한 선택이에요 ✨</t>
+          <t>★환경도 생각하고 맛도 깔끔한 믿음의 생수★★★★★★ 제주삼다수 그린 무라벨 2L 12개 후기입니다 ★★★★★물맛이 다 거기서 거기라고 생각했는데,삼다수는 마실 때마다 입안이 깔끔하고 미네랄 밸런스가 안정적이라 확실히 차이가 느껴져요.잡맛이 없고 부드럽게 넘어가서 식사 중이나 운동 후에도 부담 없이 마실 수 있습니다.★무라벨의 편리함★이 제품의 가장 큰 장점은 바로 무라벨이에요.라벨을 일일이 제거할 필요가 없어 분리수거가 훨씬 간편하고,환경적으로도 불필요한 플라스틱 낭비를 줄일 수 있어 뿌듯했습니다.심플한 그린 색상 캡만으로도 브랜드가 인식돼서 디자인도 깔끔하고 세련돼요.★용량 구성★2L 대용량이라 냉장고에 보관해두고 가족끼리 함께 마시기 좋고,12개입이라 한 번 주문해두면 꽤 오랜 기간 넉넉하게 사용할 수 있습니다.캠핑이나 여행 갈 때 몇 병 챙겨가기에도 딱이에요.★맛 품질★삼다수 특유의 부드럽고 청량한 맛은 여전하고,장시간 냉장 보관해도 맛의 변질이 없어서 신뢰가 갑니다.제주 지하 암반수로 만들어졌다는 점에서 안정감 있고, 늘 일정한 품질을 유지하는 게 장점이에요.★편리함 만족도★무거운 2L 물을 택배로 편하게 받아볼 수 있어 정말 편리하고,뚜껑이 단단하게 잠겨 누수 걱정도 없었습니다.환경을 생각하면서도 품질 좋은 생수를 찾는 분들께 딱 맞는 선택이라고 생각해요.▶▶▶환경편리함 맛 모두 챙기고 싶다면 삼다수 무라벨을 추천합니다◀◀◀직접 사용해보고 기술하는 후기입니다.도움이 되셨으면 도움이 돼요 부탁드려요!</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1791,7 +1795,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>쿠팡실구매자</t>
+          <t>꾸꾸까까</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1799,26 +1803,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2025.10.28</t>
+          <t>2025.11.02</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>수도 없이 시키는 ..</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 2L, 24개</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>-구매후기-정말 달에 두번이상은 시켜먹습니다!저희집은 정수기 보다는 요렇게 물을 시켜서 먹는데요! 요새 끓여서 먹지 않으니 편하게 물을 시켜먹는답니다!이러신 분들 많을꺼라 생각이 됩니다!그리고 물 중에서도 삼다수는 워낙 유명하자나요..? 그래서 저는 삼다수로 먹습니다~~그리고 이 쿠팡의 장점이 전날 구매하면 담날 문앞에 오는 게 정말 최대 장점이라고 생각이 듭니다!그죠? 다들 아실꺼라 생각이 많이 듭니다~이 제주 삼다수는용제주특별자치도개발공사가 생산하고 광동제약이 판매하는 생 수. '국민 생수'로 불릴 정도로 국내에서는 가장 인지도가 높은 생수 브랜드입니다!용량은 대중적인 2L와 500mL가 있고, 2018년 10월 즈음에 1L와 330mL 제품이 추가로 출시되었다고해요~~~^^정 식 명칭은 제주 삼다수로, 화산암반이 필터 역할을 해내는 화산 암반수라고 합니다! 그냥 물보단 확실히 더 좋아보입니다! ㅎㅎ알아보니~무기물질 함량 (mg/L)칼슘(Ca): 2.5~4.0칼륨(K): 1.5~3.4나트륨(Na): 4.0~7.2마그네슘(Mg): 1.7~3.5불소(F): 불검출 (불소는 2.0mg/L 이하가 '먹는 샘물'의 수질 기준이에요)이외에도 극미량의 바나듐이 포함되어 있다고 합니다.유럽 지역의 유명 생수들보다 석회질(칼슘) 비중이 상당히 낮아요.또한 본토에서 생산되는 거의 대부분의 생수보다도 석회질이 적다고 해요!또 외국에서 흔히 유통되는 총미네랄함량(TDS)가 높은 생수와 는 반대로, 원래부터 석회가 없는 맑은 물을 채수하여 사용하기 때문에 단물 중에서도 TDS가 가장 낮은 축에 속하는 생수라고 합니다~^^늘 먹는 물이지만 알고 먹으니 더 좋은 거 같네요~제 리뷰가 도움이 되셨으면 좋겠습니다^__^제 리뷰가 도움이 되셨다면 ‘도움이 되요’ 꾸욱 부탁드려요*^^*</t>
+          <t>생수는 늘 집에 쌓아두는 편이라 여러 브랜드를 번갈아 마셔봤어요. 아이시스, 백산수, 동원샘물 등 거의 다 마셔봤는데, 결국 다시 돌아오게 되는 건 항상 제주삼다수더라고요. 이번엔 환경 생각해서 그린 무라벨 2L 24개입으로 구매했는데, 확실히 실용적이고 편리해서 만족도가 높았어요.우선 포장부터 마음에 들었어요. 무라벨 제품이라 분리수거가 진짜 편해요. 요즘 라벨 떼는 게 은근 귀찮고 손에 물 묻히기도 싫은데, 이건 그런 수고가 없어요. 그냥 바로 버리면 되니까 훨씬 깔끔해요. 플라스틱도 얇고 가벼워서 환경 부담도 줄인 느낌이에요. 패키지도 심플하고 깔끔해서 냉장고에 정리해 두면 보기에도 단정하더라고요.그리고 무엇보다 중요한 건 물맛. 사실 생수 맛이 다 거기서 거기라고 생각했던 적도 있었는데, 여러 브랜드 마셔보면 확실히 차이가 있어요. 제주삼다수는 일단 맛이 부드럽고 깔끔해요. 미네랄이 적당히 들어 있어서 그런지, 삼키는 순간 거칠거나 텁텁한 느낌이 전혀 없고 목넘김이 정말 부드러워요. 특히 미온수로 마셔도 냄새나 잡맛이 없어서 깔끔하게 넘어가요.제가 개인적으로 느낀 건데, 다른 브랜드 생수들은 가끔 텁텁하거나 플라스틱 냄새가 나는 경우가 있거든요. 그런데 제주삼다수는 그런 게 전혀 없어요. 오히려 산뜻하고 깨끗한 물맛이 느껴져요. 진짜 물맛이 다르다는 걸 삼다수 마시면 느껴요. ‘물이 이렇게 맛있을 수 있나?’ 싶을 정도로 깔끔해서 매일 마시기 딱 좋아요.2L 용량이라서 하루 물 섭취량 채우기에도 편하고, 가족 단위로 마시기에도 좋아요. 저는 냉장고에 몇 병 넣어두고 나머지는 베란다에 보관하는데, 뚜껑이 단단해서 새거나 흔들려도 문제 없어요. 병 디자인이 슬림해서 자리 차지도 별로 안 하고, 캡이 잘 잠기고 열 때도 부드럽게 돌아가요.하루 중 아침에 일어나자마자 한 잔, 식사 후 한 잔씩 마시는데, 삼다수는 속이 편하고 물이 부담 없이 들어가는 느낌이에요. 특히 운동 후나 더운 날에는 냉장고에서 바로 꺼내 마시면 그 시원함이 진짜 좋아요. 물맛이 차가워도 쓰거나 짠 느낌이 전혀 없고, 끝까지 깔끔하게 넘어가요.또, 무라벨 제품이다 보니까 캠핑이나 여행 갈 때 들고 다니기도 좋고, 재활용 분리도 간단해서 환경적으로도 마음이 편해요. 예전엔 라벨 벗기기 귀찮아서 쌓아뒀던 병들 정리하기 힘들었는데, 이제는 그런 걱정이 사라졌어요.아쉬운 점을 굳이 꼽자면, 무라벨이다 보니 브랜드 식별이 처음엔 어렵다는 점이에요. 처음엔 “이게 삼다수 맞나?” 싶어서 자세히 봤는데, 병 목 부분에 작게 ‘제주삼다수’ 각인이 되어 있어서 나중엔 익숙해졌어요. 그리고 박스 포장이 꽤 무겁기 때문에 2L × 24개 세트는 들기가 조금 힘들어요. 택배 받을 때는 괜찮지만 옮길 때 조심해야 해요.✅ 장점•   무라벨이라 분리수거가 간편하고 친환경적•   플라스틱 냄새나 잡맛 없이 깔끔한 물맛•   미네랄 밸런스가 좋아서 목넘김이 부드럽고 속이 편함•   2L 대용량으로 하루 수분 섭취에 적합•   병 디자인이 슬림하고 캡 밀폐력 우수❌ 아쉬운 점•   무라벨이라 처음엔 브랜드 식별이 어렵다•   24개 세트는 무게가 있어서 이동이 불편•   가격이 다른 생수 대비 약간 높은 편결론적으로, 여러 브랜드를 마셔봤지만 제주삼다수가 확실히 물맛이 제일 좋아요. 깔끔하고 순한데도 깊은 맛이 있어서 매일 마셔도 질리지 않아요. 특히 무라벨 제품이라 편의성과 환경까지 챙긴 점이 마음에 쏙 들어요. 생수 고를 때 고민 많으신 분이라면, 그냥 삼다수로 가세요. 맛, 품질, 편리함 세 박자 다 맞는 생수입니다❤️제 후기가 도움이 되셨다면 [[도움이돼요]] 한 번씩 꾸우욱 부탁드려요♥️</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>박*우</t>
+          <t>리뷰쟁이</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1837,26 +1837,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2025.10.28</t>
+          <t>2025.11.01</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>제주삼다수 그린, 500ml, 20개</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>언제 어디서나 믿고 마시는 깨끗한 물, 제주삼다수 그린</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 2L, 24개</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>⭐️ 좋은점제주삼다수 그린 500ml는 말이 필요 없는 국민 생수죠. 예전부터 삼다수를 즐겨 마셔왔는데, 이번 그린 버전은 패키지부터 훨씬 깔끔하고 세련된 느낌이에요. 무라벨 디자인이라 분리수거할 때 훨씬 간편하고, 환경을 생각한 마음이 느껴져서 더 좋았어요. 무엇보다 물맛이 정말 부드럽고 깔끔해요. 입안에 남는 미묘한 냄새나 텁텁함이 전혀 없고, 그냥 ‘깨끗하다’는 표현이 딱 어울리는 물이에요. 냉장고에 넣어두었다가 꺼내 마시면 청량감이 정말 좋고, 하루 종일 수분 보충용으로 딱이에요.⭐️ 제품특징삼다수의 가장 큰 매력은 제주 용암층에서 걸러진 천연 암반수라는 점이에요. 덕분에 미네랄 밸런스가 적당해서 몸에도 부담이 없고, 매일 마셔도 질리지 않아요. 다른 생수들 중에는 금속성 맛이나 석회질 느낌이 나는 경우가 있는데, 삼다수는 그런 게 전혀 없어요. 물맛이 정말 ‘순수’하고 ‘맑은’ 느낌이에요.그리고 500ml 용량은 휴대성이 좋아서 가방에 쏙 들어가고, 나들이나 출근길, 운동할 때도 딱 좋은 크기예요. 뚜껑도 단단히 닫혀서 새는 일 없이 안심되고, 플라스틱도 너무 얇지 않아서 손에 쥐었을 때 안정감이 있어요. 특히 이번 그린 버전은 재활용을 고려한 친환경 소재로 만들어졌다고 해서, 마시면서도 환경에 조금은 보탬이 되는 기분이 들어요.⭐️ 추가로 좋았던 점저는 커피 대신 물을 자주 마시는 편인데, 삼다수는 온도나 환경에 상관없이 항상 맛이 일정해요. 실온에서도 깔끔하고, 냉장 보관하면 청량감이 두 배로 느껴져요. 또 무라벨이라 정리할 때 깔끔하게 쌓을 수 있고, 버릴 때도 라벨을 일일이 제거할 필요가 없어서 너무 편해요. 작게는 이런 편리함이지만, 결국 이런 선택이 환경을 위한 큰 변화로 이어진다고 생각하니 뿌듯했어요.✔️ 총평제주삼다수 그린 500ml는 단순한 생수가 아니라, ‘깨끗한 습관’을 만들어주는 물 같아요. 수년 동안 꾸준히 사랑받는 이유가 명확하더라고요 — 마실 때마다 믿음이 가는 품질, 깔끔한 물맛, 그리고 환경을 생각한 디자인까지. 특히 무라벨이라 분리수거 시 번거로움이 없고, 대량 구매해두면 언제든 간편하게 마실 수 있어서 집에서도, 야외에서도 늘 함께하게 돼요.매일 마시는 물일수록 브랜드가 중요하다고 생각하는데, 저는 삼다수가 주는 안정감이 가장 커요. 가족 모두 안심하고 마실 수 있고, 물맛이 변함없다는 게 정말 큰 장점이에요.✔️ 총평 한 줄 요약부드럽고 맑은 물맛에 친환경 감성까지 담은 제주삼다수 그린 — 매일 마셔도 질리지 않는 깨끗한 일상의 필수템이에요</t>
+          <t>[내돈내산 솔직한 후기]-배송월: 25.10.-실사용기간: 1주▶️ 주문이유집에 분유먹는 아기가 있는데 원래는 다른 브랜드들의 생수를 구매하다가 우연히 생수 부적합 사례들을 접해보고는 깜짝 놀랐습니다. 제가 구매한 브랜드 2개 모두 포함이 되어 있었고 거의 매년 반복되고 있더라고요. 친정에서 먹던 생수까지 포함하면 제가 먹어본 3개사 생수는 모두 부적합 판정을 받은 적이 있던 브랜드였네요;; 첫째 때는 이런 것도 모르고 저 중 한 회사 생수를 먹였었는데;; 둘째만큼은 그래도 수질 관리가 비교적 잘 되고 있(다고 믿고 있)는 삼다수를 구매하기로 했습니다.▶️ 상품설명2L짜리 24병입니다. 무라벨입니다.▶️ 사용후기물맛이 깔끔하고 무난합니다. 무라벨이라 분리수거도 편하네요. 저번 다른 회사 리뷰에도 남겼지만 배달이 정말 더럽게 와서(외부 비닐에 곰팡이인지 어디서 굴렀는지 아님 튀었는지 모를 구정물 얼룩인지 그런게 4팩 모두 있었음) 정말 꾸역꾸역 다 먹고 바로 갈아탔는데, 이건 배송이 아주 깨끗하게 잘 오기도 했네요.‼️장점: 제조원이 믿을 수 있고 물맛이 깔끔함‼️단점: 가격이 다소 비쌈‼️주의할 점: 직사광선 주의❤️내돈내산 솔직 후기입니다. GPT돌리지 않고 실제로 써보고 리뷰하고 있어요. 리뷰에 많은 정보가 있진 않겠지만 제 후기를 먼저 써본 사람이 느낀 점이라 생각하시고, 도움이 되셨다면 '도움이 돼요'를 눌러주시면 감사하겠습니다❤️</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -1867,7 +1863,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>바나나킥</t>
+          <t>최*혁</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1875,22 +1871,26 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2025.10.28</t>
+          <t>2025.11.10</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>제주삼다수 그린, 500ml, 20개</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>깔끔한 물맛, 라벨없이 분리수거까지 편한 삼다수</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>구매 전에 보시면 정말 도움 되실 거예요!✿ 제 돈 주고 구매한 솔직한 후기입니다 :)✿ 도움 되셨다면 아래 ‘도움이 돼요’ 눌러주시면 감사해요!제품명: 제주삼다수 그린, 500ml, 20개입✿ 구매이유: 평소 물을 많이 마시는 편이라 생수를 상비해두는데, 이번엔 라벨 없는 제품이라 분리수거가 편할 것 같아 구매했어요. 무엇보다 삼다수 브랜드라 믿음이 갔습니다.⸻삼다수는 워낙 익숙한 브랜드라, 처음엔 “물은 다 비슷하지 않을까?” 싶었지만한 번 마시면 왜 다들 삼다수를 고집하는지 알 수 있어요.이번에 구매한 **‘삼다수 그린’**은 기존 삼다수보다 한층 더 깔끔한 패키지로,라벨이 완전히 제거된 무라벨 타입이라 보는 순간부터 만족스러웠어요.✿ 먼저, 무라벨이라서 진짜 편리합니다.분리수거할 때 라벨을 일일이 떼는 게 생각보다 번거롭고 손이 많이 가는데,이건 그냥 마시고 바로 페트병만 헹궈 버리면 끝이에요.특히 요즘 환경문제나 재활용 이슈에 관심이 많아서,이런 친환경적인 패키징은 소비자 입장에서도 기분이 좋더라고요.뚜껑에도 별도 색상이 없고 투명해서, 전체적으로 깔끔하고 미니멀한 디자인이에요.✿ 맛은 역시 **‘삼다수답게 부드럽고 깔끔’**합니다.물이 자극적이거나 미네랄 맛이 강하지 않고, 마실 때 목 넘김이 아주 부드러워요.특히 냉장고에 넣어뒀다가 차게 마시면 더 상쾌하고,입안에 남는 텁텁함이 전혀 없어서 어떤 음식과도 잘 어울립니다.운동할 때, 외출 시, 공부 중 수분 보충용으로도 부담 없이 마시기 좋았어요.✿ 제주 지하암반수라 그런지 물 맛이 맑고 순수한 느낌이에요.다른 브랜드 생수는 가끔 미네랄 향이 강하게 느껴지거나 인위적인 느낌이 있는데,삼다수는 그런 게 없어요. 정말 ‘물 본연의 맛’이 그대로 살아 있습니다.매일 마셔도 질리지 않고, 오히려 다른 물을 마시면 “삼다수 맛이 더 깔끔했지” 하는 생각이 들 정도예요.✿ 500ml 용량도 딱 좋습니다.한 번에 마시기 적당하고, 휴대성도 좋아서 가방에 넣고 다니기 편했어요.집에서는 한 병씩 냉장고에 넣어두고, 외출할 땐 그대로 들고 나가면 끝.20개입 구성이라 가성비도 좋고, 무거운 생수를 직접 들고 오지 않아도 되는 점이 정말 편했습니다.또한 뚜껑 개봉감이 부드럽고, 병 자체가 너무 얇지 않아 잡을 때 안정감이 있어요.라벨이 없다고 해서 미끄럽지 않을까 걱정했는데, 페트 표면이 살짝 매트하게 처리되어 있어서손에 닿는 느낌도 좋고 미끄러짐이 거의 없습니다.</t>
+          <t>생수를 자주 구매하는 집이라 다양한 브랜드를 마셔봤는데, 제주삼다수 무라벨 버전을 사용하고 나서부터는 계속 재구매하게 됩니다. 라벨이 없어 분리수거 스트레스가 줄어들고, 정리할 때도 훨씬 깔끔해요. 2L 용량이라 냉장고 문 쪽에 딱 들어가고, 한 번 열면 하루나 이틀 정도는 충분히 마실 수 있는 양입니다.물이 부드럽게 넘어가는 맛이라고 해야 할까요? 삼다수 특유의 깨끗하고 담백한 맛 덕분에 목 넘김이 편안하고, 미네랄 향도 거의 없습니다. 운동할 때, 요리할 때, 그냥 물로만 마실 때까지 가장 무난하고 깔끔한 물맛이라 누구나 부담 없이 마실 수 있습니다.포장 상태도 늘 안정적이에요. 박스 안에서 병마다 흔들리지 않도록 되어 있어 깨짐이나 찌그러짐 없이 잘 도착했습니다. 특히 무라벨이라 분리배출할 때 라벨 제거 필요 없이 바로 압축해서 버릴 수 있는 편리함이 진짜 최고입니다.좋았던 점라벨 제거 NO, 바로 분리수거 가능 (환경적 + 실용성)삼다수 특유의 부드럽고 깔끔한 물맛박스 포장 견고, 배송 중 눌림 없음2L 용량으로 가성비 좋고 물 사용량 많은 집에 딱 맞음총평:매일 마시는 물이라면 편하고 깔끔해야 합니다. 맛 + 편리함 + 친환경까지 잡은 제품. 꾸준히 재구매 중이며 앞으로도 계속 구매할 예정입니다.</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>해바라기꽃</t>
+          <t>로찌릉</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1909,26 +1909,26 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2025.10.27</t>
+          <t>2025.11.04</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 1L, 9개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 36개</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>믿고먹는 삼다수 아기 분유물에도 유일하게 침전물없는 물</t>
+          <t>제주삼다수 그린 무라벨 2L, 36개 후기</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[1. 제품 첫인상]제주삼다수는 늘 믿고 마시는 생수 브랜드라, 이번 그린 무라벨 1L 제품이 눈에 띄었어요. 배송도 빠르고 포장도 깔끔하게 왔습니다. 라벨이 없는 친환경 디자인이라 첫인상부터 깔끔하고 고급스러운 느낌이었어요. 일반 생수보다 정돈된 외관 덕분에 냉장고 안에서도 보기 좋고, 분리수거할 때 라벨을 따로 떼지 않아도 되는 점이 편리해 보였어요.[2. 사용 후 장점]1. 물맛 – 제주 지하 암반수를 사용해 그런지 물맛이 부드럽고 깔끔해요. 잡맛이 없어서 이유식용, 커피용, 반려견 물로도 안심하고 쓸 수 있습니다.2. 편리한 용량 – 1L 용량이라 한 끼 식사나 외출 시 들고 다니기 적당해요. 500ml보단 여유 있고, 2L보단 부담 없는 크기예요.3. 친환경 무라벨 – 분리수거 시 라벨 제거할 필요가 없어 진짜 편리합니다. 요즘 환경을 생각하는 제품이라 호감도 높아요.4. 안전한 품질 – 제주삼다수 특유의 깔끔한 품질관리로 믿고 마실 수 있는 안정감이 있습니다.[3. 아쉬운 점 &amp; 팁]무라벨이라서 제품 구분이 어려울 때가 있는데, 여러 생수를 같이 보관하는 분이라면 뚜껑에 마킹해두면 편해요.[4. 총평 &amp; 추천]깔끔한 물맛, 친환경 디자인, 그리고 적당한 용량까지 모두 만족스러워요. 매일 마시는 물이니만큼 환경까지 생각한 선택을 하고 싶다면 제주삼다수 그린 무라벨 강력 추천합니다. 친환경 생수의 장점을 솔직하게 소개해보고 싶어요.</t>
+          <t>•	저는 원래부터 삼다수만 마시는 사람이에요!여러 생수를 다 마셔봤지만, 삼다수만큼 깨끗하고 목 넘김이 시원한 물은 없더라고요. 다른 물은 살짝 느끼하거나 입안에 남는 맛이 있는데, 삼다수는 그런 게 전혀 없어요. 그냥 ‘물 맛의 기준’ 같아요.•	이번에 처음으로 무라벨 버전으로 바꿔봤는데요 ♻️진짜 너무 편리해요! 라벨을 하나하나 떼는 게 생각보다 귀찮은데, 이건 그냥 바로 분리수거함에 넣으면 끝이에요. 깔끔하게 재활용할 수 있어서 환경에도 좋고, 쓰레기도 덜 나와서 마음이 편해요.•	2L 용량이라 가정용, 사무실용, 캠핑용으로도 완벽해요.저희는 냉장고에 2병 정도 넣어두고, 나머지는 시원한 곳에 쌓아두는데 36개 세트라 넉넉해서 한동안 든든해요•	뚜껑도 단단하게 닫히고, 물이 새거나 찌그러진 제품도 없이 깔끔하게 도착했어요. 배송 포장도 믿음직했고요•	무엇보다 무라벨이라 외관도 깔끔하고 미니멀해서 보기 좋아요. 투명한 병만 있어서 주방에 놔둬도 정돈된 느낌이에요.총평:깨끗한 물맛 + 환경을 생각한 무라벨 디자인 + 깔끔한 패키징삼다수를 매일 마시는 사람이라면 무라벨 버전으로 바꾸는 순간 “왜 이제 샀지?” 싶을 거예요!✅ 재활용 편리함 100점✅ 시원한 물맛 100점✅ 믿고 마시는 브랜드 삼다수환경도 지키고, 물맛도 챙기고 — 완벽한 선택이에요 ✨</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>자두야놀자</t>
+          <t>쿠팡실구매자</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1947,22 +1947,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2025.10.25</t>
+          <t>2025.10.28</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 1L, 9개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>자주 구매중이에요~~</t>
+          <t>수도 없이 시키는 ..</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 1L, 9개 구매후기~제품 소개제주삼다수 그린 무라벨은 제주도에서 나오는 청정한 물로, 무라벨 디자인 덕분에 재활용이 용이하다는 점이 큰 특징이에요.기존의 라벨이 없어서 환경 보호에도 기여할 수 있다는 점이 매력적이죠.이 제품은 1L 용량으로, 가벼운 무게 덕분에 휴대하기도 편리해요. 또한, 물의 성분은 미네랄이 풍부하여 건강에도 좋답니다.장점제주삼다수 그린 무라벨의 가장 큰 장점은 무엇보다도 청량감이에요.물을 마셨을 때 느껴지는 상쾌함이 정말 뛰어나고, 잡맛이 전혀 없어서 순수한 물맛을 즐길 수 있어요.그리고 무라벨 디자인 덕분에 재활용이 간편하다는 점도 큰 장점이에요.환경을 생각하는 소비자들에게는 더욱 매력적으로 다가올 것 같아요.또한, 가격도 합리적이라서 가성비가 좋다는 생각이 들어요.단점하지만, 단점도 몇 가지 있더라고요.첫 번째로는, 한 번에 9개를 구매하다 보니 보관 공간이 부족할 수 있다는 점이에요.집에 공간이 넉넉하지 않다면, 여러 개를 쟁여놓기에는 불편할 수 있어요.두 번째로는, 뚜껑이 조금 단단하게 닫혀 있어서 처음 열 때 힘이 필요하다는 점이 아쉬웠어요.물이 흘러내리지 않도록 잘 설계되어 있지만, 처음 사용할 때는 조금 불편할 수 있답니다.활용도제주삼다수 그린 무라벨은 다양한 상황에서 활용할 수 있어요.운동할 때, 외출할 때, 혹은 집에서 간편하게 마시기에도 좋답니다.특히 여름철에는 시원한 물이 필수인데, 이 제품은 그 청량감 덕분에 더위를 식혀주기에 안성맞춤이에요.또한, 요리할 때도 사용하면 좋고, 아이들 간식으로도 손색이 없답니다.물을 많이 마시는 것이 건강에 좋다는 점을 고려하면, 이 제품은 정말 유용하게 활용할 수 있어요.구매 후기마지막으로, 9개를 구매한 후 느낀 전반적인 후기를 말씀드릴게요.처음에는 가격이 조금 부담스러웠지만, 품질과 맛을 고려했을 때 충분히 만족스러웠어요.특히, 물맛이 정말 좋고, 환경을 생각하는 소비자로서 무라벨 제품을 선택한 것이 뿌듯했답니다.앞으로도 계속 구매할 의향이 있어요.*도움이 되셨다면 밑에 있는 "도움이 돼요" 눌러주세욤♡ *</t>
+          <t>-구매후기-정말 달에 두번이상은 시켜먹습니다!저희집은 정수기 보다는 요렇게 물을 시켜서 먹는데요! 요새 끓여서 먹지 않으니 편하게 물을 시켜먹는답니다!이러신 분들 많을꺼라 생각이 됩니다!그리고 물 중에서도 삼다수는 워낙 유명하자나요..? 그래서 저는 삼다수로 먹습니다~~그리고 이 쿠팡의 장점이 전날 구매하면 담날 문앞에 오는 게 정말 최대 장점이라고 생각이 듭니다!그죠? 다들 아실꺼라 생각이 많이 듭니다~이 제주 삼다수는용제주특별자치도개발공사가 생산하고 광동제약이 판매하는 생 수. '국민 생수'로 불릴 정도로 국내에서는 가장 인지도가 높은 생수 브랜드입니다!용량은 대중적인 2L와 500mL가 있고, 2018년 10월 즈음에 1L와 330mL 제품이 추가로 출시되었다고해요~~~^^정 식 명칭은 제주 삼다수로, 화산암반이 필터 역할을 해내는 화산 암반수라고 합니다! 그냥 물보단 확실히 더 좋아보입니다! ㅎㅎ알아보니~무기물질 함량 (mg/L)칼슘(Ca): 2.5~4.0칼륨(K): 1.5~3.4나트륨(Na): 4.0~7.2마그네슘(Mg): 1.7~3.5불소(F): 불검출 (불소는 2.0mg/L 이하가 '먹는 샘물'의 수질 기준이에요)이외에도 극미량의 바나듐이 포함되어 있다고 합니다.유럽 지역의 유명 생수들보다 석회질(칼슘) 비중이 상당히 낮아요.또한 본토에서 생산되는 거의 대부분의 생수보다도 석회질이 적다고 해요!또 외국에서 흔히 유통되는 총미네랄함량(TDS)가 높은 생수와 는 반대로, 원래부터 석회가 없는 맑은 물을 채수하여 사용하기 때문에 단물 중에서도 TDS가 가장 낮은 축에 속하는 생수라고 합니다~^^늘 먹는 물이지만 알고 먹으니 더 좋은 거 같네요~제 리뷰가 도움이 되셨으면 좋겠습니다^__^제 리뷰가 도움이 되셨다면 ‘도움이 되요’ 꾸욱 부탁드려요*^^*</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>이*성</t>
+          <t>박*우</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1985,22 +1985,26 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2025.10.25</t>
+          <t>2025.10.28</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 24개</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+          <t>제주삼다수 그린, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>언제 어디서나 믿고 마시는 깨끗한 물, 제주삼다수 그린</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨 2L, 24개 실사용 후기이번에 집에 생수를 쟁여두려고 제주삼다수 그린 무라벨 2L 24개 세트를 주문했어요.늘 마시던 삼다수인데 라벨 없는 버전이라 깔끔하고 환경에도 도움이 될 것 같아서 선택했어요.박스가 도착했을 때 첫인상은 “와, 무겁다!”였어요. 2L짜리 24개라 택배 기사님도 힘들어 보이셨고, 저도 옮길 때 허리 조심했어요그래도 한 번 사두면 한동안은 물 걱정 없어서 마음은 든든했어요.물을 처음 따서 마셨을 때, 역시 삼다수답게 깔끔하고 부드러운 맛이에요.특유의 깨끗한 목넘김이 있고, 다른 생수처럼 입안에 남는 맛이 전혀 없어요.저는 커피 내릴 때나 밥 지을 때도 삼다수를 쓰는데, 밥맛도 깔끔하고 좋아요.무라벨 제품이라 정리할 때 정말 편해요.예전엔 생수병 라벨을 일일이 떼느라 번거로웠는데, 이건 그런 수고가 없어요.보관할 때도 병이 전부 같은 디자인이라 냉장고 안이 한결 깔끔해 보여요.한 가지 단점이라면 2L라서 무겁고, 냉장고에 넣기엔 좀 커요.저는 미리 따서 작은 물병에 옮겨 담아 냉장고에 보관해요.그리고 박스가 크다 보니 처음 개봉할 때 자리 차지를 꽤 해서,보관할 공간은 미리 확보해 두는 게 좋아요.그래도 전반적으로 아주 만족이에요.물맛은 믿을 수 있고, 환경 생각한 무라벨 디자인까지 마음에 들어서다음에도 똑같이 재구매하려고요.가격 대비 양도 많고, 맛도 좋고, 편리한 생수 세트!한줄 요약:깔끔한 물맛 + 환경 생각한 무라벨 + 넉넉한 수량, 무게만 감수하면 재구매각입니다</t>
+          <t>⭐️ 좋은점제주삼다수 그린 500ml는 말이 필요 없는 국민 생수죠. 예전부터 삼다수를 즐겨 마셔왔는데, 이번 그린 버전은 패키지부터 훨씬 깔끔하고 세련된 느낌이에요. 무라벨 디자인이라 분리수거할 때 훨씬 간편하고, 환경을 생각한 마음이 느껴져서 더 좋았어요. 무엇보다 물맛이 정말 부드럽고 깔끔해요. 입안에 남는 미묘한 냄새나 텁텁함이 전혀 없고, 그냥 ‘깨끗하다’는 표현이 딱 어울리는 물이에요. 냉장고에 넣어두었다가 꺼내 마시면 청량감이 정말 좋고, 하루 종일 수분 보충용으로 딱이에요.⭐️ 제품특징삼다수의 가장 큰 매력은 제주 용암층에서 걸러진 천연 암반수라는 점이에요. 덕분에 미네랄 밸런스가 적당해서 몸에도 부담이 없고, 매일 마셔도 질리지 않아요. 다른 생수들 중에는 금속성 맛이나 석회질 느낌이 나는 경우가 있는데, 삼다수는 그런 게 전혀 없어요. 물맛이 정말 ‘순수’하고 ‘맑은’ 느낌이에요.그리고 500ml 용량은 휴대성이 좋아서 가방에 쏙 들어가고, 나들이나 출근길, 운동할 때도 딱 좋은 크기예요. 뚜껑도 단단히 닫혀서 새는 일 없이 안심되고, 플라스틱도 너무 얇지 않아서 손에 쥐었을 때 안정감이 있어요. 특히 이번 그린 버전은 재활용을 고려한 친환경 소재로 만들어졌다고 해서, 마시면서도 환경에 조금은 보탬이 되는 기분이 들어요.⭐️ 추가로 좋았던 점저는 커피 대신 물을 자주 마시는 편인데, 삼다수는 온도나 환경에 상관없이 항상 맛이 일정해요. 실온에서도 깔끔하고, 냉장 보관하면 청량감이 두 배로 느껴져요. 또 무라벨이라 정리할 때 깔끔하게 쌓을 수 있고, 버릴 때도 라벨을 일일이 제거할 필요가 없어서 너무 편해요. 작게는 이런 편리함이지만, 결국 이런 선택이 환경을 위한 큰 변화로 이어진다고 생각하니 뿌듯했어요.✔️ 총평제주삼다수 그린 500ml는 단순한 생수가 아니라, ‘깨끗한 습관’을 만들어주는 물 같아요. 수년 동안 꾸준히 사랑받는 이유가 명확하더라고요 — 마실 때마다 믿음이 가는 품질, 깔끔한 물맛, 그리고 환경을 생각한 디자인까지. 특히 무라벨이라 분리수거 시 번거로움이 없고, 대량 구매해두면 언제든 간편하게 마실 수 있어서 집에서도, 야외에서도 늘 함께하게 돼요.매일 마시는 물일수록 브랜드가 중요하다고 생각하는데, 저는 삼다수가 주는 안정감이 가장 커요. 가족 모두 안심하고 마실 수 있고, 물맛이 변함없다는 게 정말 큰 장점이에요.✔️ 총평 한 줄 요약부드럽고 맑은 물맛에 친환경 감성까지 담은 제주삼다수 그린 — 매일 마셔도 질리지 않는 깨끗한 일상의 필수템이에요</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2011,7 +2015,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>한*진</t>
+          <t>바나나킥</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2019,22 +2023,22 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2025.11.18</t>
+          <t>2025.10.28</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린, 500ml, 20개</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>⭕ 내돈또산 리뷰 ⭕✅ 깔끔하고 부드러운 물맛✅ 대용량으로 편리하게 사용✅ 무라벨로 간편한 분리배출❤ 또 구매예정 ❤＊┈┈┈┈＊┈┈┈┈＊┈┈┈┈＊┈┈┈┈＊⭐⭐ 건조한 계절이라 물을 더 많이 마시게 되는 요즘 삼다수 그린무라벨 제품을 정말 만족스럽게 사용하고 있어요.⭐⭐ 대용량이라 한 번에 넉넉히 마실 수 있고, 2L 통째로 냉장고에 넣어 시원하게 보관해두었다가 필요할 때 바로 꺼내 마시기에도 아주 편해요.⭐⭐ 오랜 기간 삼다수를 마셔왔지만, 이 제품은 특히 물맛의 변화 없이 늘 깔끔하고 부드러워서 믿고 선택하게 돼요. 잡맛 없이 산뜻하게 넘어가는 느낌이라 하루 종일 부담 없이 마실 수 있어 더 좋아요.⭐⭐ 무엇보다 ‘그린무라벨’이라는 이름처럼 라벨이 없어 분리배출할 때 훨씬 간편한 점이 마음에 들어요. 따로 라벨을 떼어낼 필요 없이 병을 헹군 후 바로 찌그러뜨려 버리기만 하면 되니 재활용 과정이 한층 수월해졌어요. 작은 부분이지만 환경을 고려한 선택을 하고 있다는 느낌도 들어 더 만족스러워요 .⭐⭐ 12개 세트라 재구매 주기도 길어 번거롭지 않고, 수분 보충용으로 집에 넉넉히 쌓아두기에도 좋구요. 편리함, 맛, 실용성 모두 갖춘 믿을 수 있는 생수라 앞으로도 꾸준히 구매할 예정이예요.</t>
+          <t>구매 전에 보시면 정말 도움 되실 거예요!✿ 제 돈 주고 구매한 솔직한 후기입니다 :)✿ 도움 되셨다면 아래 ‘도움이 돼요’ 눌러주시면 감사해요!제품명: 제주삼다수 그린, 500ml, 20개입✿ 구매이유: 평소 물을 많이 마시는 편이라 생수를 상비해두는데, 이번엔 라벨 없는 제품이라 분리수거가 편할 것 같아 구매했어요. 무엇보다 삼다수 브랜드라 믿음이 갔습니다.⸻삼다수는 워낙 익숙한 브랜드라, 처음엔 “물은 다 비슷하지 않을까?” 싶었지만한 번 마시면 왜 다들 삼다수를 고집하는지 알 수 있어요.이번에 구매한 **‘삼다수 그린’**은 기존 삼다수보다 한층 더 깔끔한 패키지로,라벨이 완전히 제거된 무라벨 타입이라 보는 순간부터 만족스러웠어요.✿ 먼저, 무라벨이라서 진짜 편리합니다.분리수거할 때 라벨을 일일이 떼는 게 생각보다 번거롭고 손이 많이 가는데,이건 그냥 마시고 바로 페트병만 헹궈 버리면 끝이에요.특히 요즘 환경문제나 재활용 이슈에 관심이 많아서,이런 친환경적인 패키징은 소비자 입장에서도 기분이 좋더라고요.뚜껑에도 별도 색상이 없고 투명해서, 전체적으로 깔끔하고 미니멀한 디자인이에요.✿ 맛은 역시 **‘삼다수답게 부드럽고 깔끔’**합니다.물이 자극적이거나 미네랄 맛이 강하지 않고, 마실 때 목 넘김이 아주 부드러워요.특히 냉장고에 넣어뒀다가 차게 마시면 더 상쾌하고,입안에 남는 텁텁함이 전혀 없어서 어떤 음식과도 잘 어울립니다.운동할 때, 외출 시, 공부 중 수분 보충용으로도 부담 없이 마시기 좋았어요.✿ 제주 지하암반수라 그런지 물 맛이 맑고 순수한 느낌이에요.다른 브랜드 생수는 가끔 미네랄 향이 강하게 느껴지거나 인위적인 느낌이 있는데,삼다수는 그런 게 없어요. 정말 ‘물 본연의 맛’이 그대로 살아 있습니다.매일 마셔도 질리지 않고, 오히려 다른 물을 마시면 “삼다수 맛이 더 깔끔했지” 하는 생각이 들 정도예요.✿ 500ml 용량도 딱 좋습니다.한 번에 마시기 적당하고, 휴대성도 좋아서 가방에 넣고 다니기 편했어요.집에서는 한 병씩 냉장고에 넣어두고, 외출할 땐 그대로 들고 나가면 끝.20개입 구성이라 가성비도 좋고, 무거운 생수를 직접 들고 오지 않아도 되는 점이 정말 편했습니다.또한 뚜껑 개봉감이 부드럽고, 병 자체가 너무 얇지 않아 잡을 때 안정감이 있어요.라벨이 없다고 해서 미끄럽지 않을까 걱정했는데, 페트 표면이 살짝 매트하게 처리되어 있어서손에 닿는 느낌도 좋고 미끄러짐이 거의 없습니다.</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -2045,7 +2049,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>마산아지매</t>
+          <t>해바라기꽃</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -2053,22 +2057,26 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2025.10.22</t>
+          <t>2025.10.27</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>제주삼다수 그린, 500ml, 20개</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 1L, 9개</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>믿고먹는 삼다수 아기 분유물에도 유일하게 침전물없는 물</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>안녕하세요!!제주삼다수 무라벨 500미리 제품에 대한실제 후기를 남겨드리고자 합니다.해당 제품을 구매하게 된 계기는요일단 전에는 정수기로 물을 먹었었는데욧정수기가.... 좋은 성분까지 다 걸러내서죽은 물이라고 하는 내용을 본 뒤로부터는....웬지  먹기가 꺼려지더라구요그래서 그 뒤부터는 그냥 생수를 구매해서 먹고 있답니다.집에 생수가 다 떨어져서 다시 또 구매를 하게 되었네요해당 상품의 장점 :1. 일단 무라벨이라서 재활용하기 좋아요2. 500미리 용량으로 휴대용으로 들고 다니기 좋은 용량입니다.3. 청정 제주에서 깨끗하고 안전한 물이어서 좋아요4. 미네랄성분이 들어있어 좋아요해당 상품의 단점 :1. 가격이 타사에 비해 좀 비싸요해당 제품은 그래도 인지도도 높기도 하고 일단 제주도 깊은 곳에서깨끗하게 여과되어 나온 제품이라서 더 좋은거 같아요그래서 믿고 마시는 물입니다.사실 다른 제품들도 물의 종류가 정말 많기는 하지만솔직히 믿을 만한 제품이... 거의 없잖아요그냥 제주도 깨끗한 물로 2만번의 수질검사를 거쳐나온 물이니 안심하면서 먹는 물이기도 해요특히 미네랄 성분이 균형적으로 담겨져 있어서너무 좋은거 같아요앞으로도 게속 구매해서 먹을 계획인데요무라벨이라서 저는 가격이 더 저렴할 줄 알았는데라벨보다 무라벨이 가격이 조금 더 있더라구요그래도 버리기에도 편하고 재활용을 할 수 있어환경보호에도 도움을 줄 수 있어서 너무 좋은거 같아요특히 저희 아이가 매번 학교에 가지고 다니는데휴대용으로도 편하게 들고 다닐 수 있는 용량이어서무엇보다 더 만족합니다.다음에 또 재구매할께요</t>
+          <t>[1. 제품 첫인상]제주삼다수는 늘 믿고 마시는 생수 브랜드라, 이번 그린 무라벨 1L 제품이 눈에 띄었어요. 배송도 빠르고 포장도 깔끔하게 왔습니다. 라벨이 없는 친환경 디자인이라 첫인상부터 깔끔하고 고급스러운 느낌이었어요. 일반 생수보다 정돈된 외관 덕분에 냉장고 안에서도 보기 좋고, 분리수거할 때 라벨을 따로 떼지 않아도 되는 점이 편리해 보였어요.[2. 사용 후 장점]1. 물맛 – 제주 지하 암반수를 사용해 그런지 물맛이 부드럽고 깔끔해요. 잡맛이 없어서 이유식용, 커피용, 반려견 물로도 안심하고 쓸 수 있습니다.2. 편리한 용량 – 1L 용량이라 한 끼 식사나 외출 시 들고 다니기 적당해요. 500ml보단 여유 있고, 2L보단 부담 없는 크기예요.3. 친환경 무라벨 – 분리수거 시 라벨 제거할 필요가 없어 진짜 편리합니다. 요즘 환경을 생각하는 제품이라 호감도 높아요.4. 안전한 품질 – 제주삼다수 특유의 깔끔한 품질관리로 믿고 마실 수 있는 안정감이 있습니다.[3. 아쉬운 점 &amp; 팁]무라벨이라서 제품 구분이 어려울 때가 있는데, 여러 생수를 같이 보관하는 분이라면 뚜껑에 마킹해두면 편해요.[4. 총평 &amp; 추천]깔끔한 물맛, 친환경 디자인, 그리고 적당한 용량까지 모두 만족스러워요. 매일 마시는 물이니만큼 환경까지 생각한 선택을 하고 싶다면 제주삼다수 그린 무라벨 강력 추천합니다. 친환경 생수의 장점을 솔직하게 소개해보고 싶어요.</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2079,7 +2087,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>리뷰별</t>
+          <t>자두야놀자</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2087,26 +2095,26 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2025.10.22</t>
+          <t>2025.10.25</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>제주삼다수 그린, 500ml, 20개</t>
+          <t>제주삼다수 그린 무라벨, 1L, 9개</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>깔끔한 물맛 아들 원픽이라 재구매해요</t>
+          <t>자주 구매중이에요~~</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>‘제주삼다수 그린, 500ml, 20개’를 마셔본 솔직리뷰1. 구매한 이유저희 집은 예전부터 생수를 자주 사두는 편이에요.그런데 여러 브랜드를 시도해봤지만, 아들이 유독 삼다수만 찾더라고요.물맛이 다 거기서 거기 같다고 생각했는데, 아들은 “삼다수가 제일 깔끔하고 미세하게 달라요”라며 꼭 이 브랜드만 고집했어요.그래서 이번에도 어김없이 제주삼다수 그린 500ml, 20개 세트를 다시 구매하게 됐어요.2. 사용후기역시 삼다수는 마실 때마다 물이 부드럽고, 입안에 남는 잔맛이 없어요.냉장고에 넣어두면 한 병 꺼내 마시기 딱 좋고, 운동 갈 때나 출근길에도 휴대하기 편해서 자주 챙기게 돼요.병 디자인도 군더더기 없이 깔끔하고, 뚜껑이 단단히 닫혀 있어서 이동 중에 새는 일도 없어요.무엇보다 미세한 잡맛이 전혀 없다는 게 삼다수의 가장 큰 장점 같아요.특히 여름철에 얼려뒀다가 녹여 마시면 청량감이 정말 뛰어나요.3. 장점✅ 제주 천연암반수라 그런지 물맛이 정말 맑고 깨끗해요.✅ 500ml 용량이 들고 다니기 딱 좋은 사이즈예요.✅ 병뚜껑이 견고해서 이동할 때 새지 않아요.✅ 물맛이 부드러워 아이부터 어른까지 모두 잘 마셔요.✅ 대량 구성이라 한 번 사두면 꽤 오래 두고 마실 수 있어요.4. 아쉬운 점✔️ 다른 브랜드보다 조금 가격이 있는 편이에요.✔️ 플라스틱 병이 많다 보니 환경 측면에서는 다소 아쉬워요.✔️ 20개 묶음이 생각보다 부피가 커서 보관 공간이 필요해요.5. 재구매 의사재구매 의사 100%예요.사실 이번이 처음이 아니라 벌써 여러 번 재구매했어요.아들이 다른 물은 손도 안 대서, 이제는 그냥 자동으로 삼다수를 주문하게 됐어요.물맛이 안정적이고 변함없다는 점이 가장 믿음이 가요.6. 총평삼다수는 단순히 ‘물’이 아니라, 매일 마셔도 질리지 않는 신뢰감 있는 브랜드예요.물맛이 깔끔하고 잡맛이 전혀 없어서 누구나 부담 없이 즐길 수 있어요.여행 갈 때도, 운동할 때도, 집에서도 늘 함께하고 있죠.♡‘제주삼다수 그린, 500ml, 20개’의 솔직한 리뷰가 도움이 되시길 바라며, 늘 믿고 마실 수 있는 깨끗한 물을 찾는 분들께 이 제품을 추천드려요!♡</t>
+          <t>제주삼다수 그린 무라벨, 1L, 9개 구매후기~제품 소개제주삼다수 그린 무라벨은 제주도에서 나오는 청정한 물로, 무라벨 디자인 덕분에 재활용이 용이하다는 점이 큰 특징이에요.기존의 라벨이 없어서 환경 보호에도 기여할 수 있다는 점이 매력적이죠.이 제품은 1L 용량으로, 가벼운 무게 덕분에 휴대하기도 편리해요. 또한, 물의 성분은 미네랄이 풍부하여 건강에도 좋답니다.장점제주삼다수 그린 무라벨의 가장 큰 장점은 무엇보다도 청량감이에요.물을 마셨을 때 느껴지는 상쾌함이 정말 뛰어나고, 잡맛이 전혀 없어서 순수한 물맛을 즐길 수 있어요.그리고 무라벨 디자인 덕분에 재활용이 간편하다는 점도 큰 장점이에요.환경을 생각하는 소비자들에게는 더욱 매력적으로 다가올 것 같아요.또한, 가격도 합리적이라서 가성비가 좋다는 생각이 들어요.단점하지만, 단점도 몇 가지 있더라고요.첫 번째로는, 한 번에 9개를 구매하다 보니 보관 공간이 부족할 수 있다는 점이에요.집에 공간이 넉넉하지 않다면, 여러 개를 쟁여놓기에는 불편할 수 있어요.두 번째로는, 뚜껑이 조금 단단하게 닫혀 있어서 처음 열 때 힘이 필요하다는 점이 아쉬웠어요.물이 흘러내리지 않도록 잘 설계되어 있지만, 처음 사용할 때는 조금 불편할 수 있답니다.활용도제주삼다수 그린 무라벨은 다양한 상황에서 활용할 수 있어요.운동할 때, 외출할 때, 혹은 집에서 간편하게 마시기에도 좋답니다.특히 여름철에는 시원한 물이 필수인데, 이 제품은 그 청량감 덕분에 더위를 식혀주기에 안성맞춤이에요.또한, 요리할 때도 사용하면 좋고, 아이들 간식으로도 손색이 없답니다.물을 많이 마시는 것이 건강에 좋다는 점을 고려하면, 이 제품은 정말 유용하게 활용할 수 있어요.구매 후기마지막으로, 9개를 구매한 후 느낀 전반적인 후기를 말씀드릴게요.처음에는 가격이 조금 부담스러웠지만, 품질과 맛을 고려했을 때 충분히 만족스러웠어요.특히, 물맛이 정말 좋고, 환경을 생각하는 소비자로서 무라벨 제품을 선택한 것이 뿌듯했답니다.앞으로도 계속 구매할 의향이 있어요.*도움이 되셨다면 밑에 있는 "도움이 돼요" 눌러주세욤♡ *</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -2117,7 +2125,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>운명개척자</t>
+          <t>이*성</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2125,22 +2133,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2025.10.20</t>
+          <t>2025.10.25</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 60개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 24개</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>#언제 어디서나 깔끔하게 마시는 생수 — 제주삼다수 그린 무라벨 후기물은 매일 마시는 만큼, 결국 ‘편하고 깔끔한 제품’이 가장 오래갑니다. 여러 브랜드를 써봤지만, 저는 결국 제주삼다수 그린 무라벨(500ml × 60개)로 정착했습니다. 물맛이 부드럽고, 무라벨이라 정리와 분리수거까지 간편해서 만족도가 높아요.#무라벨이라 더 깔끔하고 편하다이 제품은 말 그대로 ‘라벨이 없는 삼다수’입니다. 분리수거할 때 하나하나 라벨을 떼어낼 필요가 없고, 투명한 병만 모아두면 끝이라 깔끔합니다. 병 디자인도 단정하고 투명해서 냉장고에 가지런히 정리해두면 보기 좋고, 여러 개를 꺼내도 묻거나 끈적이지 않아 위생적이에요.#삼다수만의 깔끔한 물맛삼다수는 예전부터 물맛이 부드럽기로 유명하죠. 미네랄 밸런스가 안정돼 있어서 텁텁함 없이 목넘김이 깨끗하고, 공복에 마셔도 속이 편합니다. 운동 후, 러닝 후, 혹은 커피 내릴 때 사용해도 맛이 깔끔하게 살아나요. 다른 생수 브랜드와 비교해도 물맛의 균일함이 확실히 느껴집니다.#500ml — 딱 필요한 순간에 맞는 크기500ml 용량은 들고 다니기에도, 냉장고에 보관하기에도 가장 실용적입니다. 너무 크지 않아 한 번에 마시기 좋고, 여름철 외출용이나 운동용으로도 최적이에요. 요즘처럼 계절이 바뀌는 시기엔 시원하게 냉장고에 몇 병 넣어두고, 나머지는 상온에 보관해도 좋습니다.#이제 여름이 끝났다면, 차 트렁크에 한 묶음 비치 추천이건 진짜 강추입니다. 저는 여름 내내 시원하게 마시려고 냉장고에 두었는데, 이제는 트렁크에 한 묶음 실어두는 습관이 생겼습니다. 운전 중 목이 마를 때 바로 꺼내 마실 수 있고, 괜히 편의점 들러서 음료 사는 일도 줄었어요. 무의식적으로 사던 음료 값이 쌓이면 꽤 되는데, 삼다수를 트렁크에 두면 그 지출이 자연스럽게 줄어듭니다. 무엇보다 깨끗한 물이라 언제 마셔도 부담이 없고, 운전 중에도 딱 좋습니다.#이런 분들께 추천드립니다-깔끔한 물맛과 위생을 중요하게 생각하는 분-운동이나 외출 시 생수를 자주 마시는 분-분리수거 간편한 무라벨 생수를 찾는 분-운전 중에도 깔끔하게 물을 챙기고 싶은 분제주삼다수 그린 무라벨 500ml는 단순한 생수가 아니라, ‘매일을 더 효율적으로 만들어주는 습관’ 같은 제품입니다. 냉장고에도, 차 트렁크에도 한 묶음씩 두면 어느새 물 챙기는 일이 생활의 일부가 될 거예요. 깨끗한 물맛, 간편한 관리, 그리고 합리적인 선택 — 세 가지를 한 번에 만족시키는 생수입니다.</t>
+          <t>제주삼다수 그린 무라벨 2L, 24개 실사용 후기이번에 집에 생수를 쟁여두려고 제주삼다수 그린 무라벨 2L 24개 세트를 주문했어요.늘 마시던 삼다수인데 라벨 없는 버전이라 깔끔하고 환경에도 도움이 될 것 같아서 선택했어요.박스가 도착했을 때 첫인상은 “와, 무겁다!”였어요. 2L짜리 24개라 택배 기사님도 힘들어 보이셨고, 저도 옮길 때 허리 조심했어요그래도 한 번 사두면 한동안은 물 걱정 없어서 마음은 든든했어요.물을 처음 따서 마셨을 때, 역시 삼다수답게 깔끔하고 부드러운 맛이에요.특유의 깨끗한 목넘김이 있고, 다른 생수처럼 입안에 남는 맛이 전혀 없어요.저는 커피 내릴 때나 밥 지을 때도 삼다수를 쓰는데, 밥맛도 깔끔하고 좋아요.무라벨 제품이라 정리할 때 정말 편해요.예전엔 생수병 라벨을 일일이 떼느라 번거로웠는데, 이건 그런 수고가 없어요.보관할 때도 병이 전부 같은 디자인이라 냉장고 안이 한결 깔끔해 보여요.한 가지 단점이라면 2L라서 무겁고, 냉장고에 넣기엔 좀 커요.저는 미리 따서 작은 물병에 옮겨 담아 냉장고에 보관해요.그리고 박스가 크다 보니 처음 개봉할 때 자리 차지를 꽤 해서,보관할 공간은 미리 확보해 두는 게 좋아요.그래도 전반적으로 아주 만족이에요.물맛은 믿을 수 있고, 환경 생각한 무라벨 디자인까지 마음에 들어서다음에도 똑같이 재구매하려고요.가격 대비 양도 많고, 맛도 좋고, 편리한 생수 세트!한줄 요약:깔끔한 물맛 + 환경 생각한 무라벨 + 넉넉한 수량, 무게만 감수하면 재구매각입니다</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2149,13 +2157,17 @@
           <t>최고</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>한*진</t>
+        </is>
+      </c>
       <c r="C48" t="n">
         <v>5</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2025.11.15</t>
+          <t>2025.11.18</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2166,11 +2178,11 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨 2L 30개 구매 후기입니다. 집에서 생수 소비가 많아서 대용량으로 주문했어요. 566,373개 리뷰에 별점 만점이라 믿고 샀습니다.배송받고 보니 6개씩 묶음 포장이 튼튼하게 되어 있어서 첫인상부터 좋았습니다. 무라벨 제품이라 분리수거할 때 라벨 뜯을 필요 없이 바로 버릴 수 있어서 환경적으로도 만족스러웠어요. 제주 한라산 이미지가 병에 직접 인쇄되어 있어 깔끔하고 세련된 느낌이었습니다.마셔보니 역시 제주삼다수답게 깨끗하고 부드러운 맛이었습니다. 미네랄 함량이 적당해서 물 특유의 텁텁함 없이 목 넘김이 시원하더라고요. 요리할 때나 커피 내릴 때도 사용했는데 음식 맛을 해치지 않고 깔끔했어요. 2L 용량이라 냉장고에 넣어두고 온 가족이 마시기 딱 좋았고, 30개 대용량이라 한 달은 거뜬히 쓸 수 있을 것 같습니다.장점은 믿을 수 있는 제주 청정수 품질과 무라벨로 분리수거 편리함, 30개 대용량 가성비입니다. 단점은 2L 페트병이 좀 무거워서 여성분들이 옮기기 조금 힘들 수 있다는 점? 하지만 품질과 가격 면에서 매우 만족스럽습니다. 생수 자주 드시는 분들께 강추합니다!</t>
+          <t>⭕ 내돈또산 리뷰 ⭕✅ 깔끔하고 부드러운 물맛✅ 대용량으로 편리하게 사용✅ 무라벨로 간편한 분리배출❤ 또 구매예정 ❤＊┈┈┈┈＊┈┈┈┈＊┈┈┈┈＊┈┈┈┈＊⭐⭐ 건조한 계절이라 물을 더 많이 마시게 되는 요즘 삼다수 그린무라벨 제품을 정말 만족스럽게 사용하고 있어요.⭐⭐ 대용량이라 한 번에 넉넉히 마실 수 있고, 2L 통째로 냉장고에 넣어 시원하게 보관해두었다가 필요할 때 바로 꺼내 마시기에도 아주 편해요.⭐⭐ 오랜 기간 삼다수를 마셔왔지만, 이 제품은 특히 물맛의 변화 없이 늘 깔끔하고 부드러워서 믿고 선택하게 돼요. 잡맛 없이 산뜻하게 넘어가는 느낌이라 하루 종일 부담 없이 마실 수 있어 더 좋아요.⭐⭐ 무엇보다 ‘그린무라벨’이라는 이름처럼 라벨이 없어 분리배출할 때 훨씬 간편한 점이 마음에 들어요. 따로 라벨을 떼어낼 필요 없이 병을 헹군 후 바로 찌그러뜨려 버리기만 하면 되니 재활용 과정이 한층 수월해졌어요. 작은 부분이지만 환경을 고려한 선택을 하고 있다는 느낌도 들어 더 만족스러워요 .⭐⭐ 12개 세트라 재구매 주기도 길어 번거롭지 않고, 수분 보충용으로 집에 넉넉히 쌓아두기에도 좋구요. 편리함, 맛, 실용성 모두 갖춘 믿을 수 있는 생수라 앞으로도 꾸준히 구매할 예정이예요.</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2181,7 +2193,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>김*혜</t>
+          <t>마산아지매</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2189,26 +2201,22 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2025.10.18</t>
+          <t>2025.10.22</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>물맛좋은 제주삼다수~</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>✔️배송로켓배송이라 하루만에안전하게잘도착함!!✔️장점제주삼다수 그린 무라벨 2L 제품을 구매해본 무라벨 생수인데, 기대 이상으로 만족스러워서 리뷰 남깁니다. 일단 삼다수 자체는 워낙에 유명한 생수 브랜드라 품질에 대한 신뢰는 이미 있었고, 이번에 환경을 생각해서 무라벨 제품을 선택해봤는데, 정말 잘한 선택이었다고 생각해요.첫 번째로 무라벨이라는 점이 정말 편리하고 마음에 듭니다. 기존에는 라벨을 따로 떼고 분리수거하는 번거로움이 있었는데, 이 제품은 그런 불필요한 과정을 생략할 수 있어서 너무 좋아요.특히 2L 대용량 제품을 자주 마시는 저희 집에서는 플라스틱 쓰레기가 꽤 많이 나왔는데, 무라벨 제품을 사용하면서 분리수거도 훨씬 간편해졌고, 환경을 조금이나마 덜 해치는 것 같아 기분도 좋습니다. 제품에 최소한의 정보는 각인 형식으로 병 자체에 인쇄되어 있어 깔끔하면서도 세련된 느낌을 줍니다.물맛은 역시 삼다수답게 깔끔하고 부드러워요. 미네랄 함량도 적당해서 위나 장에 자극 없이 마실 수 있고, 물 특유의 냄새나 잡미 없이 정말 깨끗한 맛입니다. 저는 커피를 내려 마시거나 요리할 때도 사용하는데, 물맛이 좋아서 그런지 음식 맛이나 커피의 풍미도 더 살아나는 느낌입니다. 특히 냉장고에 차게 넣어두었다가 꺼내 마시면 청량감이 느껴져서 더 시원하고 개운합니다.패키지 구성도 만족스러웠어요. 2L짜리 12개입이 한 박스에 포장되어 오는데, 박스가 튼튼하고 제품이 흔들리지 않도록 잘 정리되어 있어 배송 중 파손 걱정도 없었습니다. 또한 정기적으로 구매하면 음용수 걱정도 덜 수 있어서 너무 편리합니다. 요즘은 생수를 정기배송으로 구매하는 가정도 많은데, 이 제품은 품질도 좋고 환경을 생각한 무라벨이라 더더욱 추천하고 싶어요.전체적으로 보면, 물맛, 환경 친화성, 편리함, 가격까지 모든 면에서 균형이 잘 맞는 제품입니다. 앞으로도 꾸준히 이 제품을 애용할 예정이고, 주변에도 추천하고 싶습니다. 일상 속에서 실천할 수 있는 작은 친환경 선택이 바로 이런 소비라고 생각해요. 삼다수 그린 무라벨은 물 한 병을 마시는 일이 더 의미 있게 느껴지는 좋은 제품입니다.✔️단점딱히없네요내돈내산 찐리뷰^^솔직한 후기가 도움이 되셨다면밑에 "도움이돼요"버튼을눌러주시면 행운이 올꺼예요❤️</t>
+          <t>안녕하세요!!제주삼다수 무라벨 500미리 제품에 대한실제 후기를 남겨드리고자 합니다.해당 제품을 구매하게 된 계기는요일단 전에는 정수기로 물을 먹었었는데욧정수기가.... 좋은 성분까지 다 걸러내서죽은 물이라고 하는 내용을 본 뒤로부터는....웬지  먹기가 꺼려지더라구요그래서 그 뒤부터는 그냥 생수를 구매해서 먹고 있답니다.집에 생수가 다 떨어져서 다시 또 구매를 하게 되었네요해당 상품의 장점 :1. 일단 무라벨이라서 재활용하기 좋아요2. 500미리 용량으로 휴대용으로 들고 다니기 좋은 용량입니다.3. 청정 제주에서 깨끗하고 안전한 물이어서 좋아요4. 미네랄성분이 들어있어 좋아요해당 상품의 단점 :1. 가격이 타사에 비해 좀 비싸요해당 제품은 그래도 인지도도 높기도 하고 일단 제주도 깊은 곳에서깨끗하게 여과되어 나온 제품이라서 더 좋은거 같아요그래서 믿고 마시는 물입니다.사실 다른 제품들도 물의 종류가 정말 많기는 하지만솔직히 믿을 만한 제품이... 거의 없잖아요그냥 제주도 깨끗한 물로 2만번의 수질검사를 거쳐나온 물이니 안심하면서 먹는 물이기도 해요특히 미네랄 성분이 균형적으로 담겨져 있어서너무 좋은거 같아요앞으로도 게속 구매해서 먹을 계획인데요무라벨이라서 저는 가격이 더 저렴할 줄 알았는데라벨보다 무라벨이 가격이 조금 더 있더라구요그래도 버리기에도 편하고 재활용을 할 수 있어환경보호에도 도움을 줄 수 있어서 너무 좋은거 같아요특히 저희 아이가 매번 학교에 가지고 다니는데휴대용으로도 편하게 들고 다닐 수 있는 용량이어서무엇보다 더 만족합니다.다음에 또 재구매할께요</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -2219,7 +2227,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>전*애</t>
+          <t>리뷰별</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2227,22 +2235,26 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2025.10.17</t>
+          <t>2025.10.22</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+          <t>제주삼다수 그린, 500ml, 20개</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>깔끔한 물맛 아들 원픽이라 재구매해요</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[ 제주삼다수 그린 무라벨 330 mL 리뷰 ]ㅇ 구매 이유- 정수기를 사용했는데 코디분과도 시간 약속하는게 어렵고 누군가 집에 방문하는게 불편해 생수를 사먹기 시작했습니다!요즘엔 플라스틱 사용과 분리배출에 대한 부담이 커져서 무라벨 제품이 눈에 들어왔고, 제주삼다수 브랜드 신뢰도도 있고, 들고다니기 편할 것 같아 구매하게 되었습니다!ㅇ 장점1. 외출용으로 딱 좋은 크기- 330 mL는 한 손에 잡히는 크기고, 운동 가방이나 점심 도시락가방에 넣기도 부담이 없습니다. 무겁지도 않고 마시다가 절반 정도 남아도 휴대하기 좋습니다.2. 분리배출이 수월한 무라벨- 라벨이 없으니까 플라스틱 병과 라벨을 나누는 번거로움이 줄고, 그냥 뚜껑만 떼고 병을 씻어서 버리면 돼서 분리수거가 한결 간편합니다.게다가 환경을 생각한 선택이라는 느낌이 들어서 마음이 좋아요.3. 맛과 품질- 삼다수 본래의 깔끔한 물 맛이 잘 살아 있습니다. 미네랄 감이 너무 강하지 않고 깔끔하게 목 넘김이 괜찮아요.4. 브랜드 신뢰 + 유통 안정성- 제주삼다수가 워낙 유명하다 보니까 “이상한 물이 올까?” 걱정은 덜했고, 배송도 비교적 안정적이었습니다.ㅇ 단점1. 미세 플라스틱- 미세 플라스틱은 병뚜껑을 딸때 마다 떨어진다고 합니다..미세 플라스틱을 생각하면 조금 찜찜하지만 최대한 빨리 마시려고 해요!!ㅇ 총평- 집에서도 사무실에서도 야외에서도 간편하고 무게감 없이 들고 마시기 편합니다.또한 제주삼다수 브랜드에 대한 신뢰도가 있기에 앞으로도 삼다수는 쭈-욱 사먹을것 같아요!!ㅇ 재구매의사 1000% 있습니다.ㅇ 제 리뷰가 조금이나마 도움이 되었길 바랍니다!</t>
+          <t>‘제주삼다수 그린, 500ml, 20개’를 마셔본 솔직리뷰1. 구매한 이유저희 집은 예전부터 생수를 자주 사두는 편이에요.그런데 여러 브랜드를 시도해봤지만, 아들이 유독 삼다수만 찾더라고요.물맛이 다 거기서 거기 같다고 생각했는데, 아들은 “삼다수가 제일 깔끔하고 미세하게 달라요”라며 꼭 이 브랜드만 고집했어요.그래서 이번에도 어김없이 제주삼다수 그린 500ml, 20개 세트를 다시 구매하게 됐어요.2. 사용후기역시 삼다수는 마실 때마다 물이 부드럽고, 입안에 남는 잔맛이 없어요.냉장고에 넣어두면 한 병 꺼내 마시기 딱 좋고, 운동 갈 때나 출근길에도 휴대하기 편해서 자주 챙기게 돼요.병 디자인도 군더더기 없이 깔끔하고, 뚜껑이 단단히 닫혀 있어서 이동 중에 새는 일도 없어요.무엇보다 미세한 잡맛이 전혀 없다는 게 삼다수의 가장 큰 장점 같아요.특히 여름철에 얼려뒀다가 녹여 마시면 청량감이 정말 뛰어나요.3. 장점✅ 제주 천연암반수라 그런지 물맛이 정말 맑고 깨끗해요.✅ 500ml 용량이 들고 다니기 딱 좋은 사이즈예요.✅ 병뚜껑이 견고해서 이동할 때 새지 않아요.✅ 물맛이 부드러워 아이부터 어른까지 모두 잘 마셔요.✅ 대량 구성이라 한 번 사두면 꽤 오래 두고 마실 수 있어요.4. 아쉬운 점✔️ 다른 브랜드보다 조금 가격이 있는 편이에요.✔️ 플라스틱 병이 많다 보니 환경 측면에서는 다소 아쉬워요.✔️ 20개 묶음이 생각보다 부피가 커서 보관 공간이 필요해요.5. 재구매 의사재구매 의사 100%예요.사실 이번이 처음이 아니라 벌써 여러 번 재구매했어요.아들이 다른 물은 손도 안 대서, 이제는 그냥 자동으로 삼다수를 주문하게 됐어요.물맛이 안정적이고 변함없다는 점이 가장 믿음이 가요.6. 총평삼다수는 단순히 ‘물’이 아니라, 매일 마셔도 질리지 않는 신뢰감 있는 브랜드예요.물맛이 깔끔하고 잡맛이 전혀 없어서 누구나 부담 없이 즐길 수 있어요.여행 갈 때도, 운동할 때도, 집에서도 늘 함께하고 있죠.♡‘제주삼다수 그린, 500ml, 20개’의 솔직한 리뷰가 도움이 되시길 바라며, 늘 믿고 마실 수 있는 깨끗한 물을 찾는 분들께 이 제품을 추천드려요!♡</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2253,7 +2265,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>김*라</t>
+          <t>운명개척자</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2261,26 +2273,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2025.10.26</t>
+          <t>2025.10.20</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 30개</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>믿고 마시는 삼다수 최고입니다~~~^^</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 500ml, 60개</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨 2L 30개제주의 청정함을 담은 물 - 삼다수요즘 물 선택도 참 신중하게 하게 되죠.특히 가족이 함께 마시는 물이라면, 더 깨끗하고 믿을 수 있는 브랜드를 고르게 되는데요.저희집은 몇년째 제주 삼다수만 마시고 있어요!마시는 물 중에서도 삼다수 물이 최고잖아요^^✅ 청정 제주에서 온 믿음의 물제주삼다수는 이름만 들어도 ‘청정함’이 떠오르죠.‘제주의 청정함을 담은 물’이라는 슬로건처럼, 제주 화산암반층을 통해 자연 정화된 깨끗한 물이에요.잡맛 없이 깔끔하고, 매일 마셔도 질리지 않는 맛이 특징이에요.✅환경을 생각한 ‘무라벨’ 패키지요즘 환경을 생각하는 분들이 많잖아요.이 제품은 라벨이 없는 ‘그린 무라벨’ 버전으로, 분리수거도 훨씬 간편합니다!플라스틱 사용을 줄여서 환경 보호에도 한 걸음 더 가까워질 수 있답니다✅넉넉한 용량, 가족 모두 함께!2L짜리 물 30개입 구성이라,가정에서는 물론 사무실이나 행사용으로도 정말 좋아요.한 달 내내 든든하게 마실 수 있는 양이에요.제주 삼다수 물은 믿고 마실 수 있는 물이에요^^무라벨이러 분리수거 할때 번거롭게 일일이 라벨도 제거 하지않고버릴 수 있어 너무 편리해요.매일 마시는데 라벨제거까지 하면 너무 귀찮고 힘들잖아요물이 담긴 병도 짱짱해서 걱정 없답니다~~~~~!!</t>
+          <t>#언제 어디서나 깔끔하게 마시는 생수 — 제주삼다수 그린 무라벨 후기물은 매일 마시는 만큼, 결국 ‘편하고 깔끔한 제품’이 가장 오래갑니다. 여러 브랜드를 써봤지만, 저는 결국 제주삼다수 그린 무라벨(500ml × 60개)로 정착했습니다. 물맛이 부드럽고, 무라벨이라 정리와 분리수거까지 간편해서 만족도가 높아요.#무라벨이라 더 깔끔하고 편하다이 제품은 말 그대로 ‘라벨이 없는 삼다수’입니다. 분리수거할 때 하나하나 라벨을 떼어낼 필요가 없고, 투명한 병만 모아두면 끝이라 깔끔합니다. 병 디자인도 단정하고 투명해서 냉장고에 가지런히 정리해두면 보기 좋고, 여러 개를 꺼내도 묻거나 끈적이지 않아 위생적이에요.#삼다수만의 깔끔한 물맛삼다수는 예전부터 물맛이 부드럽기로 유명하죠. 미네랄 밸런스가 안정돼 있어서 텁텁함 없이 목넘김이 깨끗하고, 공복에 마셔도 속이 편합니다. 운동 후, 러닝 후, 혹은 커피 내릴 때 사용해도 맛이 깔끔하게 살아나요. 다른 생수 브랜드와 비교해도 물맛의 균일함이 확실히 느껴집니다.#500ml — 딱 필요한 순간에 맞는 크기500ml 용량은 들고 다니기에도, 냉장고에 보관하기에도 가장 실용적입니다. 너무 크지 않아 한 번에 마시기 좋고, 여름철 외출용이나 운동용으로도 최적이에요. 요즘처럼 계절이 바뀌는 시기엔 시원하게 냉장고에 몇 병 넣어두고, 나머지는 상온에 보관해도 좋습니다.#이제 여름이 끝났다면, 차 트렁크에 한 묶음 비치 추천이건 진짜 강추입니다. 저는 여름 내내 시원하게 마시려고 냉장고에 두었는데, 이제는 트렁크에 한 묶음 실어두는 습관이 생겼습니다. 운전 중 목이 마를 때 바로 꺼내 마실 수 있고, 괜히 편의점 들러서 음료 사는 일도 줄었어요. 무의식적으로 사던 음료 값이 쌓이면 꽤 되는데, 삼다수를 트렁크에 두면 그 지출이 자연스럽게 줄어듭니다. 무엇보다 깨끗한 물이라 언제 마셔도 부담이 없고, 운전 중에도 딱 좋습니다.#이런 분들께 추천드립니다-깔끔한 물맛과 위생을 중요하게 생각하는 분-운동이나 외출 시 생수를 자주 마시는 분-분리수거 간편한 무라벨 생수를 찾는 분-운전 중에도 깔끔하게 물을 챙기고 싶은 분제주삼다수 그린 무라벨 500ml는 단순한 생수가 아니라, ‘매일을 더 효율적으로 만들어주는 습관’ 같은 제품입니다. 냉장고에도, 차 트렁크에도 한 묶음씩 두면 어느새 물 챙기는 일이 생활의 일부가 될 거예요. 깨끗한 물맛, 간편한 관리, 그리고 합리적인 선택 — 세 가지를 한 번에 만족시키는 생수입니다.</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2291,7 +2299,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>박*영</t>
+          <t>김*혜</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2299,26 +2307,26 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2025.10.15</t>
+          <t>2025.10.18</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 30개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>믿을 수 있는 브랜드의 생수를 경제적으로 구매하면서 환</t>
+          <t>물맛좋은 제주삼다수~</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t># 제주삼다수 그린 무라벨 2L 30개 리뷰##  제품 정보- **제품명**: 제주삼다수 그린 무라벨- **용량**: 2L × 30개- **타입**: 무라벨 생수- **수원지**: 제주시 조천읍- **원수원**: 암반대수층지하수##  제품 특징### 대한민국 생수 1등 브랜드제주삼다수는 국내 먹는샘물 부동의 1위 브랜드로, 제주개발공사에서 생산하는 믿을 수 있는 제품입니다.### 친환경 무라벨 디자인라벨을 제거하여 플라스틱 사용을 줄이고 분리수거가 더욱 간편해진 친환경 제품입니다. 무색병, 무색뚜껑, 무라벨의 이른바 3無(삼무) 제품입니다.### 천연 화산 암반수한라산의 수많은 천연 화산층을 통과하며 만들어진 순수한 화산 암반수를 담아 깔끔한 목넘김과 부드러운 청량감을 선사합니다.### 대용량 구성2L × 30개로 가정이나 사무실에서 장기간 사용하기에 적합한 넉넉한 구성입니다.##  활용 방법### 일상에서 활용- 가정용 식수로 사용- 운동 후 수분 보충- 요리 및 밥 짓기에 활용- 커피나 차를 우려낼 때 사용- 사무실이나 회사에서 직원들과 함께 사용### 보관 팁- 직사광선을 피해 서늘한 곳에 보관하세요- 개봉 후에는 냉장 보관하고 빨리 드세요- 장기 보관 시 유통기한을 확인하세요## ✨ 장점### 환경 보호- 라벨 제거로 플라스틱 사용 절감- 분리수거가 매우 간편함- 친환경 소비에 동참할 수 있음- 무색병, 무색뚜껑으로 재활용 효율 향상### 깔끔한 맛- 상쾌한 맛과 깨끗한 느낌- 부드러운 목넘김- 천연 화산 암반수의 순수함- 청량감이 뛰어남### 경제적인 대용량- 한 번에 많이 구매하여 경제적- 자주 구매할 필요가 없어 편리함- 배송비 부담 감소- 30개 구성으로 장기간 사용 가능### 심플한 디자인- 깔끔한 무라벨 디자인- 어디에 두어도 깔끔한 외관- 냉장고 안에서도 공간 효율적##  추천 대상### 추천하는 분들- 가족 구성원이 많은 가정- 물을 자주 많이 마시는 분- 친환경 제품을 선호하는 분- 분리수거를 간편하게 하고 싶은 분- 대용량으로 경제적으로 구매하고 싶은 분- 사무실이나 회사에서 사용할 생수를 찾는 분### 이런 분들에게 특히 좋아요- 환경 보호에 관심이 많은 분- 깔끔하고 상쾌한 물맛을 선호하는 분- 배송을 자주 받기 번거로운 분- 믿을 수 있는 브랜드의 생수를 원하는 분##  구성- 2L × 30개 (총 60L)- 넉넉한 대용량으로 한 달 이상 사용 가능##  환경 보호 효과### 친환경 패키징제주삼다수는 2017년부터 페트병의 재활용 효율을 높이기 위해 페트병을 단일 재질의 무색병으로 전환했으며, 용기 뚜껑은 친환경 합성수지를 사용하고 있습니다.### 지속 가능한 소비무라벨 제품 사용으로 플라스틱 폐기물을 줄이고 재활용을 촉진하여 지속 가능한 환경을 만드는 데 기여할 수 있습니다.##  제주삼다수의 특별함### 청정 제주의 물제주 화산 암반대수층을 통과하며 자연적으로 여과된 깨끗한 물로, 미네랄이 적절히 함유되어 있습니다.### 엄격한 품질 관리제주개발공사에서 직접 생산하고 관리하여 안전하고 깨끗한 물을 제공합니다.## ⭐ 종합 평가**평점: 4.9/5**제주삼다수 그린 무라벨 2L 30개는 대한민국 생수 1등 브랜드의 신뢰성과 친환경성을 동시에 갖춘 제품입니다.상쾌한 맛과 깨끗한 느낌으로 물을 마실 때마다 기분이 좋으며, 무라벨 디자인으로 분리수거가 간편하고 환경 보호에도 동참할 수 있습니다. 2L 대용량 30개 구성으로 가족이나 친구들과 함께 나눠 마시기에 딱 좋고, 경제적이면서도 편리합니다.750,904개의 리뷰에서 4.9점이라는 압도적인 평점을 받고 있어 품질과 만족도가 검증된 제품입니다. 천연 화산 암반수의 순수함과 부드러운 청량감으로 일상에서 꾸준히 마시기 좋습니다.**결론**: 믿을 수 있는 브랜드의 생수를 경제적으로 구매하면서 환경 보호에도 동참하고 싶다면 강력히 추천하는 제품입니다. 깔끔한 맛과 친환경성, 경제성을 모두 갖춘 최고의 선택입니다.</t>
+          <t>✔️배송로켓배송이라 하루만에안전하게잘도착함!!✔️장점제주삼다수 그린 무라벨 2L 제품을 구매해본 무라벨 생수인데, 기대 이상으로 만족스러워서 리뷰 남깁니다. 일단 삼다수 자체는 워낙에 유명한 생수 브랜드라 품질에 대한 신뢰는 이미 있었고, 이번에 환경을 생각해서 무라벨 제품을 선택해봤는데, 정말 잘한 선택이었다고 생각해요.첫 번째로 무라벨이라는 점이 정말 편리하고 마음에 듭니다. 기존에는 라벨을 따로 떼고 분리수거하는 번거로움이 있었는데, 이 제품은 그런 불필요한 과정을 생략할 수 있어서 너무 좋아요.특히 2L 대용량 제품을 자주 마시는 저희 집에서는 플라스틱 쓰레기가 꽤 많이 나왔는데, 무라벨 제품을 사용하면서 분리수거도 훨씬 간편해졌고, 환경을 조금이나마 덜 해치는 것 같아 기분도 좋습니다. 제품에 최소한의 정보는 각인 형식으로 병 자체에 인쇄되어 있어 깔끔하면서도 세련된 느낌을 줍니다.물맛은 역시 삼다수답게 깔끔하고 부드러워요. 미네랄 함량도 적당해서 위나 장에 자극 없이 마실 수 있고, 물 특유의 냄새나 잡미 없이 정말 깨끗한 맛입니다. 저는 커피를 내려 마시거나 요리할 때도 사용하는데, 물맛이 좋아서 그런지 음식 맛이나 커피의 풍미도 더 살아나는 느낌입니다. 특히 냉장고에 차게 넣어두었다가 꺼내 마시면 청량감이 느껴져서 더 시원하고 개운합니다.패키지 구성도 만족스러웠어요. 2L짜리 12개입이 한 박스에 포장되어 오는데, 박스가 튼튼하고 제품이 흔들리지 않도록 잘 정리되어 있어 배송 중 파손 걱정도 없었습니다. 또한 정기적으로 구매하면 음용수 걱정도 덜 수 있어서 너무 편리합니다. 요즘은 생수를 정기배송으로 구매하는 가정도 많은데, 이 제품은 품질도 좋고 환경을 생각한 무라벨이라 더더욱 추천하고 싶어요.전체적으로 보면, 물맛, 환경 친화성, 편리함, 가격까지 모든 면에서 균형이 잘 맞는 제품입니다. 앞으로도 꾸준히 이 제품을 애용할 예정이고, 주변에도 추천하고 싶습니다. 일상 속에서 실천할 수 있는 작은 친환경 선택이 바로 이런 소비라고 생각해요. 삼다수 그린 무라벨은 물 한 병을 마시는 일이 더 의미 있게 느껴지는 좋은 제품입니다.✔️단점딱히없네요내돈내산 찐리뷰^^솔직한 후기가 도움이 되셨다면밑에 "도움이돼요"버튼을눌러주시면 행운이 올꺼예요❤️</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2327,17 +2335,13 @@
           <t>최고</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>함마</t>
-        </is>
-      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
         <v>5</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2025.10.14</t>
+          <t>2025.11.15</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2348,11 +2352,11 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>물은 원래 삼다수파였는데무라벨 나온 거 알고 바로 갈아탔어요ㅋㅋ요즘 분리수거 할 때라벨 떼는 거 귀찮은 거 저만 그런 거 아니죠?무라벨은 진짜 그런 점에서 완전 꿀이에요뚜껑 따고 그냥 통째로 버리면 끝~아무것도 안 붙어 있어서 깔끔하고디자인도 뭔가 더 친환경 느낌나요무라벨인데도 삼다수 특유의 물맛은 그대로!깔끔하고 부드럽게 넘어가요잡맛 1도 없고목 넘김이 너무 좋아서 물 마시는 양도 늘었어요ㅋㅋ요즘 물 많이 마시려고 노력 중인데삼다수니까 믿고 마십니다솔직히 물이 다 거기서 거기 같아도은근히 차이 느껴지더라구요~삼다수는 진짜 ‘물맛’이 있어요깨끗하고, 밸런스가 딱 좋아요텁텁함도 없고 미네랄 워터 특유의 약간 쓴맛도 없고그냥 딱 ‘좋은 물’ 느낌ㅋㅋㅋㅋ플라스틱 재질도 너무 얇지 않아서들고 마시기 불편하지도 않아요무라벨이라 쓰레기 덜 생기는 기분도 들고환경 보호에 아주 살짝 보탬 된 느낌까지!진짜 생활 속 작은 실천이랄까~이런 거 하나하나 모이면 큰 변화 되겠죠? ㅋㅋ그리고 삼다수는 역시 2L 사이즈가 제일 효율적이에요하루에 이 정도면 충분히 마실 수 있고냉장고 문 칸에도 딱 잘 들어감!한 번 개봉하면 2~3일 안에 비우게 되더라구요가족끼리 같이 마시기에도 딱 좋고요운동하고 난 후, 샤워 후, 아침에 일어나서어느 타이밍에 마셔도시원하고 깔끔한 물맛이라 만족도 높아요그리고 라벨이 없으니까뭔가 병 자체도 더 고급져 보여요ㅋㅋ가끔 친구들 놀러 오면이게 뭐냐고 다 물어봄ㅋㅋ 무라벨이 신기하대요요즘 진짜 이런 무라벨 제품들 많이 나오는데물에서는 삼다수가 제일 선두 주자 같음!딴 생수도 무라벨 많긴 한데삼다수는 맛 차이가 나요 진심이거 먹다가 딴 생수 마시면은근 차이 느껴져서 다시 삼다수 찾게 됨ㅋㅋ저는 이제 그냥 무조건 무라벨 삼다수만 사요환경에도 좋고, 내 입에도 딱 좋고물 자주 안 마시던 분들도이거 사면 물 섭취량 늘어날 걸요?병 예쁘고 마시기 좋고 맛도 깔끔하니까그냥 자꾸 손이 가요 ㅋㅋㅋㅋ애들도 물 잘 안 마시다가이건 깔끔하다고 잘 마시더라구요물통에 따르기도 좋고피크닉 갈 때 몇 병 챙겨가도 부담 없어요플라스틱 병인데도 너무 약하지 않아서차에 넣어도 터질 걱정 없이 잘 들고 다닐 수 있어요저는 집에 항상 몇 병씩 쟁여놓고 있어요없으면 불안한 그런 필수템이 됐달까?진짜 물 하나 바꿨을 뿐인데생활 퀄리티가 은근 올라가는 기분~무라벨 삼다수는 그냥 추천이 아니라이건 생활 필수템입니다 여러분ㅋㅋ분리수거 스트레스 없고깔끔하고 맛있는 물 마시고 싶은 분들!이건 진짜 고민할 필요도 없이그냥 바로 장바구니로 직행하세요</t>
+          <t>제주삼다수 그린 무라벨 2L 30개 구매 후기입니다. 집에서 생수 소비가 많아서 대용량으로 주문했어요. 566,373개 리뷰에 별점 만점이라 믿고 샀습니다.배송받고 보니 6개씩 묶음 포장이 튼튼하게 되어 있어서 첫인상부터 좋았습니다. 무라벨 제품이라 분리수거할 때 라벨 뜯을 필요 없이 바로 버릴 수 있어서 환경적으로도 만족스러웠어요. 제주 한라산 이미지가 병에 직접 인쇄되어 있어 깔끔하고 세련된 느낌이었습니다.마셔보니 역시 제주삼다수답게 깨끗하고 부드러운 맛이었습니다. 미네랄 함량이 적당해서 물 특유의 텁텁함 없이 목 넘김이 시원하더라고요. 요리할 때나 커피 내릴 때도 사용했는데 음식 맛을 해치지 않고 깔끔했어요. 2L 용량이라 냉장고에 넣어두고 온 가족이 마시기 딱 좋았고, 30개 대용량이라 한 달은 거뜬히 쓸 수 있을 것 같습니다.장점은 믿을 수 있는 제주 청정수 품질과 무라벨로 분리수거 편리함, 30개 대용량 가성비입니다. 단점은 2L 페트병이 좀 무거워서 여성분들이 옮기기 조금 힘들 수 있다는 점? 하지만 품질과 가격 면에서 매우 만족스럽습니다. 생수 자주 드시는 분들께 강추합니다!</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2363,7 +2367,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>coucou</t>
+          <t>전*애</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2371,22 +2375,18 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2025.10.14</t>
+          <t>2025.10.17</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>역시 생수는 삼다수</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>생수는 어떤 브랜드 사도 거기서 거기겠지 싶어서 예전엔 그냥 배송 빠른 걸로 사곤 했는데, 제주삼다수 무라벨 버전 써보고 나서는 아예 정착했어요. 일단 물맛이 정말 깔끔하고 텁텁함 없이 부드러워요. 그냥 생수가 아니라 진짜 맑은 물 마시는 느낌이라서 하루에 물을 잘 안 마시던 저도 자연스럽게 손이 가더라고요. 특히 냉장고에 넣어뒀을 때 차갑게 마시면 더 맛있고, 미지근하게 마셔도 잡맛이 없어서 운동 전에나 식사 중간중간에도 부담 없이 잘 마시고 있어요. 집에 손님 왔을 때도 따로 설명 안 해도 다들 물맛 좋다고 하더라고요.그리고 이 제품은 무엇보다 무라벨이라는 게 진짜 최고 장점이에요. 다른 생수는 한 병 다 마시면 라벨 뜯고, 뚜껑 분리하고, 본체 따로 버리고 이걸 매번 반복해야 해서 은근 귀찮았거든요. 그런데 삼다수 무라벨은 그냥 통째로 압축해서 플라스틱으로 버리면 끝이라 분리수거 스트레스가 진짜 확 줄었어요. 쓰레기봉투도 덜 차고, 비닐도 안 생기니까 환경적인 면에서도 만족스럽고요. 재활용 분리수거날에 분류할 필요도 없어서 바쁠 때 특히 편리해요. 라벨에 남는 끈적임이나 테이프 자국도 없으니까 깔끔하게 정리되는 것도 마음에 들어요.2리터 사이즈라 냉장고에 넣어두기도 좋고, 집에서 두고 마시기 딱 적당한 용량이에요. 작은 생수병 여러 개 쌓아두는 것보다 공간도 덜 차지하고 보기에도 정돈된 느낌이라 좋더라고요. 가족이랑 같이 마시기도 좋고, 요리하거나 차 우릴 때도 쓰기 편해서 다양하게 활용하고 있어요. 가격도 다른 브랜드 대비 괜찮아서 대량으로 사놓고 두고 마시기 좋아요.저는 이거 한 번 먹어보고 만족해서 계속 재구매 중인데, 리뷰 많은 이유가 있는 제품 같아요. 물맛, 편의성, 환경까지 다 챙기고 싶을 때 선택하기 딱 좋고, 앞으로도 생수 살 때는 그냥 고민 안 하고 이걸로 고정하려고요. 주변에도 추천할 만큼 만족도 높은 생수라 후회 없는 선택이에요!</t>
+          <t>[ 제주삼다수 그린 무라벨 330 mL 리뷰 ]ㅇ 구매 이유- 정수기를 사용했는데 코디분과도 시간 약속하는게 어렵고 누군가 집에 방문하는게 불편해 생수를 사먹기 시작했습니다!요즘엔 플라스틱 사용과 분리배출에 대한 부담이 커져서 무라벨 제품이 눈에 들어왔고, 제주삼다수 브랜드 신뢰도도 있고, 들고다니기 편할 것 같아 구매하게 되었습니다!ㅇ 장점1. 외출용으로 딱 좋은 크기- 330 mL는 한 손에 잡히는 크기고, 운동 가방이나 점심 도시락가방에 넣기도 부담이 없습니다. 무겁지도 않고 마시다가 절반 정도 남아도 휴대하기 좋습니다.2. 분리배출이 수월한 무라벨- 라벨이 없으니까 플라스틱 병과 라벨을 나누는 번거로움이 줄고, 그냥 뚜껑만 떼고 병을 씻어서 버리면 돼서 분리수거가 한결 간편합니다.게다가 환경을 생각한 선택이라는 느낌이 들어서 마음이 좋아요.3. 맛과 품질- 삼다수 본래의 깔끔한 물 맛이 잘 살아 있습니다. 미네랄 감이 너무 강하지 않고 깔끔하게 목 넘김이 괜찮아요.4. 브랜드 신뢰 + 유통 안정성- 제주삼다수가 워낙 유명하다 보니까 “이상한 물이 올까?” 걱정은 덜했고, 배송도 비교적 안정적이었습니다.ㅇ 단점1. 미세 플라스틱- 미세 플라스틱은 병뚜껑을 딸때 마다 떨어진다고 합니다..미세 플라스틱을 생각하면 조금 찜찜하지만 최대한 빨리 마시려고 해요!!ㅇ 총평- 집에서도 사무실에서도 야외에서도 간편하고 무게감 없이 들고 마시기 편합니다.또한 제주삼다수 브랜드에 대한 신뢰도가 있기에 앞으로도 삼다수는 쭈-욱 사먹을것 같아요!!ㅇ 재구매의사 1000% 있습니다.ㅇ 제 리뷰가 조금이나마 도움이 되었길 바랍니다!</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>한*진</t>
+          <t>김*라</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2409,18 +2409,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2025.11.08</t>
+          <t>2025.10.26</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 2L, 30개</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>믿고 마시는 삼다수 최고입니다~~~^^</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>❤ 내돈 내산, N번째 구매 후기 ❤⭕ 총평 ⭕✅ 깔끔한 물맛:물 비린내 없이 부드럽고 청량한  맛✅ 편리한 배송서비스:별도 포장없이도 찌그러짐 없이 안전한 배송✅ 환경과 실용성 굿!!:무라벨이라 재활용 편리, 유통기한 넉넉⭐⭐ 제주삼다수는 꾸준히 믿고 구입하게되는 아이템이에요.정수기를 처분한 이후로 여러가지 생수를 먹어보며 비교해 봤는데,결국 제주 화산암반수인 삼다수로 돌아왔어요.이번이 N번째 구매인데, 매번 만족스러워요.⭐⭐ 문앞 배송이라 무거운 생수를 들고 올 필요도 덜고,배송기사님이 문 앞에 세로로 쌓아주셔서통헹에 방해되지 않게 배려해주시는 세심함까지^^⭐⭐ 한 번 주문할 때마다 12병씩 주문하는데도물을 많이 먹는 집이라 금방 소진돼요.그만큼 자주 마셔도 질리지 않고,물 비린내 없이 깔끔하고 청량한 맛이예요.그냥 마셔도 좋고, 커피나 차로 마실 때도 맛이 깔끔해요.⭐⭐ 무라벨 제품이라 분리수거도훨씬 편하고,환경까지 생각한 포인트도 만족스러워요.⭐⭐ 유통기한도 넉넉해서 보관장소만 확보되면 대량으로 구입해두고 싶어요.깔끔한 물 맛, 편리한 배송, 친환경적인 포장...내돈내산 N번째 구입에는 이유가 있어요.전 앞으로도 재구매 의사 100프로예요.</t>
+          <t>제주삼다수 그린 무라벨 2L 30개제주의 청정함을 담은 물 - 삼다수요즘 물 선택도 참 신중하게 하게 되죠.특히 가족이 함께 마시는 물이라면, 더 깨끗하고 믿을 수 있는 브랜드를 고르게 되는데요.저희집은 몇년째 제주 삼다수만 마시고 있어요!마시는 물 중에서도 삼다수 물이 최고잖아요^^✅ 청정 제주에서 온 믿음의 물제주삼다수는 이름만 들어도 ‘청정함’이 떠오르죠.‘제주의 청정함을 담은 물’이라는 슬로건처럼, 제주 화산암반층을 통해 자연 정화된 깨끗한 물이에요.잡맛 없이 깔끔하고, 매일 마셔도 질리지 않는 맛이 특징이에요.✅환경을 생각한 ‘무라벨’ 패키지요즘 환경을 생각하는 분들이 많잖아요.이 제품은 라벨이 없는 ‘그린 무라벨’ 버전으로, 분리수거도 훨씬 간편합니다!플라스틱 사용을 줄여서 환경 보호에도 한 걸음 더 가까워질 수 있답니다✅넉넉한 용량, 가족 모두 함께!2L짜리 물 30개입 구성이라,가정에서는 물론 사무실이나 행사용으로도 정말 좋아요.한 달 내내 든든하게 마실 수 있는 양이에요.제주 삼다수 물은 믿고 마실 수 있는 물이에요^^무라벨이러 분리수거 할때 번거롭게 일일이 라벨도 제거 하지않고버릴 수 있어 너무 편리해요.매일 마시는데 라벨제거까지 하면 너무 귀찮고 힘들잖아요물이 담긴 병도 짱짱해서 걱정 없답니다~~~~~!!</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -2435,7 +2439,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Udidi</t>
+          <t>박*영</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2443,26 +2447,26 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2025.10.13</t>
+          <t>2025.10.15</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 30개</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>깨끗하고 순수한 맛, 친환경적인 착한 생수</t>
+          <t>믿을 수 있는 브랜드의 생수를 경제적으로 구매하면서 환</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>평소 물을 자주 마시는 편이라 여러 브랜드의 생수를 접해봤지만, 제주삼다수만큼 깨끗하고 순수한 맛을 가진 물은 없다고 생각합니다. 이번에 구매한 제주삼다수 그린 무라벨은 기존의 훌륭한 품질에 친환경적인 장점까지 더해져 더욱 만족스러운 경험을 선사했습니다. 이 물은 단순한 음료를 넘어, 저의 건강과 환경까지 생각하게 해주는 훌륭한 선택이 되었습니다.이 제품의 가장 큰 장점은 바로 '무라벨'이라는 친환경적인 혁신입니다. 겉면에 라벨이 없어 분리수거를 할 때 라벨을 뜯는 번거로움이 완전히 사라졌습니다. 이제는 마신 후 뚜껑만 분리하면 바로 분리수거함에 넣을 수 있어 매우 편리합니다. 이런 작은 변화가 환경 보호에 기여한다는 생각에 물을 마실 때마다 뿌듯한 마음이 듭니다. 투명하고 깔끔한 보틀 디자인 자체도 미니멀한 감성을 더해주어 좋습니다.또한, 최상의 맛과 순수한 품질은 여전합니다. 한 모금 마시는 순간, 혀끝에 닿는 부드러움과 깔끔함이 남다릅니다. 불순물이 전혀 느껴지지 않는 순수한 맛은 마실 때마다 기분 좋은 상쾌함을 줍니다. 제주 화산암반층이 오랜 시간 동안 자연적으로 걸러낸 물이라 그런지, 인공적인 정수 과정을 거친 물과는 차원이 다른 깨끗한 맛을 느낄 수 있습니다. 특유의 쌉쌀하거나 비린 맛이 전혀 없어 물을 잘 마시지 않는 사람도 부담 없이 마시기 좋습니다.이 물은 단순히 목마름을 해소하는 것을 넘어, 몸속까지 깨끗해지는 듯한 느낌을 줍니다. 저는 주로 실온 상태로 마시거나, 냉장고에 넣어 시원하게 마시는데, 어떤 온도에서도 변함없이 훌륭한 맛을 유지합니다. 넉넉한 용량으로 구매해두면 며칠 동안 물 걱정 없이 지낼 수 있어 편리하고, 요리할 때도 이 물을 사용하면 음식 본연의 맛을 더욱 살려주는 효과가 있습니다. 밥을 짓거나 차를 끓일 때 사용하면 그 풍미가 한층 더 깊어지는 것을 느낄 수 있습니다.이 제주삼다수 그린 무라벨은 맛과 품질은 물론, 사용의 편리함과 환경까지 생각한 완벽한 제품입니다. 믿고 마실 수 있는 깨끗한 물을 찾고 있거나, 친환경적인 소비를 지향하는 분들께 이 제품을 강력하게 추천합니다. 작은 변화가 가져다주는 큰 만족감과 가치를 직접 경험해보시길 바랍니다.</t>
+          <t># 제주삼다수 그린 무라벨 2L 30개 리뷰##  제품 정보- **제품명**: 제주삼다수 그린 무라벨- **용량**: 2L × 30개- **타입**: 무라벨 생수- **수원지**: 제주시 조천읍- **원수원**: 암반대수층지하수##  제품 특징### 대한민국 생수 1등 브랜드제주삼다수는 국내 먹는샘물 부동의 1위 브랜드로, 제주개발공사에서 생산하는 믿을 수 있는 제품입니다.### 친환경 무라벨 디자인라벨을 제거하여 플라스틱 사용을 줄이고 분리수거가 더욱 간편해진 친환경 제품입니다. 무색병, 무색뚜껑, 무라벨의 이른바 3無(삼무) 제품입니다.### 천연 화산 암반수한라산의 수많은 천연 화산층을 통과하며 만들어진 순수한 화산 암반수를 담아 깔끔한 목넘김과 부드러운 청량감을 선사합니다.### 대용량 구성2L × 30개로 가정이나 사무실에서 장기간 사용하기에 적합한 넉넉한 구성입니다.##  활용 방법### 일상에서 활용- 가정용 식수로 사용- 운동 후 수분 보충- 요리 및 밥 짓기에 활용- 커피나 차를 우려낼 때 사용- 사무실이나 회사에서 직원들과 함께 사용### 보관 팁- 직사광선을 피해 서늘한 곳에 보관하세요- 개봉 후에는 냉장 보관하고 빨리 드세요- 장기 보관 시 유통기한을 확인하세요## ✨ 장점### 환경 보호- 라벨 제거로 플라스틱 사용 절감- 분리수거가 매우 간편함- 친환경 소비에 동참할 수 있음- 무색병, 무색뚜껑으로 재활용 효율 향상### 깔끔한 맛- 상쾌한 맛과 깨끗한 느낌- 부드러운 목넘김- 천연 화산 암반수의 순수함- 청량감이 뛰어남### 경제적인 대용량- 한 번에 많이 구매하여 경제적- 자주 구매할 필요가 없어 편리함- 배송비 부담 감소- 30개 구성으로 장기간 사용 가능### 심플한 디자인- 깔끔한 무라벨 디자인- 어디에 두어도 깔끔한 외관- 냉장고 안에서도 공간 효율적##  추천 대상### 추천하는 분들- 가족 구성원이 많은 가정- 물을 자주 많이 마시는 분- 친환경 제품을 선호하는 분- 분리수거를 간편하게 하고 싶은 분- 대용량으로 경제적으로 구매하고 싶은 분- 사무실이나 회사에서 사용할 생수를 찾는 분### 이런 분들에게 특히 좋아요- 환경 보호에 관심이 많은 분- 깔끔하고 상쾌한 물맛을 선호하는 분- 배송을 자주 받기 번거로운 분- 믿을 수 있는 브랜드의 생수를 원하는 분##  구성- 2L × 30개 (총 60L)- 넉넉한 대용량으로 한 달 이상 사용 가능##  환경 보호 효과### 친환경 패키징제주삼다수는 2017년부터 페트병의 재활용 효율을 높이기 위해 페트병을 단일 재질의 무색병으로 전환했으며, 용기 뚜껑은 친환경 합성수지를 사용하고 있습니다.### 지속 가능한 소비무라벨 제품 사용으로 플라스틱 폐기물을 줄이고 재활용을 촉진하여 지속 가능한 환경을 만드는 데 기여할 수 있습니다.##  제주삼다수의 특별함### 청정 제주의 물제주 화산 암반대수층을 통과하며 자연적으로 여과된 깨끗한 물로, 미네랄이 적절히 함유되어 있습니다.### 엄격한 품질 관리제주개발공사에서 직접 생산하고 관리하여 안전하고 깨끗한 물을 제공합니다.## ⭐ 종합 평가**평점: 4.9/5**제주삼다수 그린 무라벨 2L 30개는 대한민국 생수 1등 브랜드의 신뢰성과 친환경성을 동시에 갖춘 제품입니다.상쾌한 맛과 깨끗한 느낌으로 물을 마실 때마다 기분이 좋으며, 무라벨 디자인으로 분리수거가 간편하고 환경 보호에도 동참할 수 있습니다. 2L 대용량 30개 구성으로 가족이나 친구들과 함께 나눠 마시기에 딱 좋고, 경제적이면서도 편리합니다.750,904개의 리뷰에서 4.9점이라는 압도적인 평점을 받고 있어 품질과 만족도가 검증된 제품입니다. 천연 화산 암반수의 순수함과 부드러운 청량감으로 일상에서 꾸준히 마시기 좋습니다.**결론**: 믿을 수 있는 브랜드의 생수를 경제적으로 구매하면서 환경 보호에도 동참하고 싶다면 강력히 추천하는 제품입니다. 깔끔한 맛과 친환경성, 경제성을 모두 갖춘 최고의 선택입니다.</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -2473,7 +2477,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>채니유니</t>
+          <t>함마</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2481,26 +2485,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2025.10.13</t>
+          <t>2025.10.14</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>깨끗한 한 모금, 환경까지 생각한 선택</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>요즘 일상에서 물은 단순한 음료가 아니라 습관이 된 건강관리죠. 저는 하루에 1.5리터 이상 물을 마시려고 노력하는데, 그때마다 찾는 게 바로 제주삼다수 그린 무라벨이에요. 330ml 용량이라 들고 다니기 부담 없고, 무라벨이라 깔끔하게 정리돼서 집 냉장고에 쫙 넣어두면 보기에도 참 단정해요.우선 제주삼다수 특유의 깨끗한 맛은 역시 믿고 마실 수 있죠. 입안에 남는 잡맛이 전혀 없이 깔끔하고 부드러워요. 물맛이 이렇게 다를 수 있나 싶을 정도로 목 넘김이 매끄러워요. 특히 운동 후나 아침 공복에 마시면 속이 편하고, 몸이 맑아지는 느낌이 들어요. 제주 화산암반수를 그대로 담아낸 물이라 그런지 하루 종일 부담 없이 마실 수 있답니다.무라벨 디자인은 정말 편리해요. 플라스틱 분리수거할 때 일일이 라벨을 떼는 수고가 없고, 환경을 생각하는 마음까지 담긴 느낌이라 더 만족스러워요. 깔끔한 투명병이라 대량으로 쌓아놔도 산뜻하고, 손님 맞이용으로 내놓기에도 좋아요.330ml는 휴대용으로 딱이에요. 가방 안에 넣어도 무겁지 않고, 아이가 들고 다니기에도 부담 없어요. 저희 집은 등하교용으로 아이 물병 대신 챙겨주기도 하고, 차 안에 두고 마시기도 해요. 일반 500ml보다 작아서 금방 마실 수 있고, 남기지 않아 낭비도 없어요. 외출할 때마다 하나씩 챙겨 나가면 그때그때 신선한 물을 마실 수 있어서 위생적이에요.무엇보다 40개입 대용량 세트라 가성비가 좋아요. 냉장고 문 쪽이나 선반에 나란히 넣어두면 시원하게 바로 꺼내 마실 수 있고, 손님이 오셨을 때도 병째로 내놓기 편해요. 라벨이 없으니 더 깔끔하고 고급스럽게 보여서 식탁 위에 두어도 보기 좋아요.요즘은 환경을 생각하는 소비가 필수가 되었잖아요. 그 점에서 제주삼다수 그린 무라벨은 실용성과 친환경성을 모두 갖춘 제품이에요. 매일 마시는 물이니까 더 깔끔하게, 더 건강하게 선택하고 싶다면 이 제품이 정답이에요.깨끗한 제주 삼다수의 맛과 환경을 아우른 현명한 선택, 앞으로도 계속 이 제품으로 쟁여둘 생각이에요.이 글이 도움이되셨으면 도움이돼요 꾹~ 눌러주세요. 감사합니다.^^</t>
+          <t>물은 원래 삼다수파였는데무라벨 나온 거 알고 바로 갈아탔어요ㅋㅋ요즘 분리수거 할 때라벨 떼는 거 귀찮은 거 저만 그런 거 아니죠?무라벨은 진짜 그런 점에서 완전 꿀이에요뚜껑 따고 그냥 통째로 버리면 끝~아무것도 안 붙어 있어서 깔끔하고디자인도 뭔가 더 친환경 느낌나요무라벨인데도 삼다수 특유의 물맛은 그대로!깔끔하고 부드럽게 넘어가요잡맛 1도 없고목 넘김이 너무 좋아서 물 마시는 양도 늘었어요ㅋㅋ요즘 물 많이 마시려고 노력 중인데삼다수니까 믿고 마십니다솔직히 물이 다 거기서 거기 같아도은근히 차이 느껴지더라구요~삼다수는 진짜 ‘물맛’이 있어요깨끗하고, 밸런스가 딱 좋아요텁텁함도 없고 미네랄 워터 특유의 약간 쓴맛도 없고그냥 딱 ‘좋은 물’ 느낌ㅋㅋㅋㅋ플라스틱 재질도 너무 얇지 않아서들고 마시기 불편하지도 않아요무라벨이라 쓰레기 덜 생기는 기분도 들고환경 보호에 아주 살짝 보탬 된 느낌까지!진짜 생활 속 작은 실천이랄까~이런 거 하나하나 모이면 큰 변화 되겠죠? ㅋㅋ그리고 삼다수는 역시 2L 사이즈가 제일 효율적이에요하루에 이 정도면 충분히 마실 수 있고냉장고 문 칸에도 딱 잘 들어감!한 번 개봉하면 2~3일 안에 비우게 되더라구요가족끼리 같이 마시기에도 딱 좋고요운동하고 난 후, 샤워 후, 아침에 일어나서어느 타이밍에 마셔도시원하고 깔끔한 물맛이라 만족도 높아요그리고 라벨이 없으니까뭔가 병 자체도 더 고급져 보여요ㅋㅋ가끔 친구들 놀러 오면이게 뭐냐고 다 물어봄ㅋㅋ 무라벨이 신기하대요요즘 진짜 이런 무라벨 제품들 많이 나오는데물에서는 삼다수가 제일 선두 주자 같음!딴 생수도 무라벨 많긴 한데삼다수는 맛 차이가 나요 진심이거 먹다가 딴 생수 마시면은근 차이 느껴져서 다시 삼다수 찾게 됨ㅋㅋ저는 이제 그냥 무조건 무라벨 삼다수만 사요환경에도 좋고, 내 입에도 딱 좋고물 자주 안 마시던 분들도이거 사면 물 섭취량 늘어날 걸요?병 예쁘고 마시기 좋고 맛도 깔끔하니까그냥 자꾸 손이 가요 ㅋㅋㅋㅋ애들도 물 잘 안 마시다가이건 깔끔하다고 잘 마시더라구요물통에 따르기도 좋고피크닉 갈 때 몇 병 챙겨가도 부담 없어요플라스틱 병인데도 너무 약하지 않아서차에 넣어도 터질 걱정 없이 잘 들고 다닐 수 있어요저는 집에 항상 몇 병씩 쟁여놓고 있어요없으면 불안한 그런 필수템이 됐달까?진짜 물 하나 바꿨을 뿐인데생활 퀄리티가 은근 올라가는 기분~무라벨 삼다수는 그냥 추천이 아니라이건 생활 필수템입니다 여러분ㅋㅋ분리수거 스트레스 없고깔끔하고 맛있는 물 마시고 싶은 분들!이건 진짜 고민할 필요도 없이그냥 바로 장바구니로 직행하세요</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>박*영</t>
+          <t>coucou</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2025.10.13</t>
+          <t>2025.10.14</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2529,16 +2529,16 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>역시 생수는 삼다수</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨 2L x 12개리얼 사용후기 + 장점 6가지 + 단점 6가지 + 총평요즘 환경 생각해서 무라벨 생수 많이 찾으시죠?저도 그런 이유로 선택한 게 바로 제주삼다수 그린 무라벨 2L x 12개입이에요.직접 받아보고, 마셔보고 느낀 점들을 솔직하게 정리해봤어요.✅ 장점 6가지♻️ 무라벨이라 분리수거 너무 편해요!따로 라벨 뜯을 필요 없고, 바로 플라스틱으로 분리! 환경 생각할 수 있어 마음도 뿌듯했어요.역시 삼다수답게 물맛이 깔끔해요삼다수 특유의 잡미 없는 청량한 물맛! 하루 종일 부담 없이 마실 수 있어요.2L 대용량 x 12개라 넉넉하게 사용 가능생수 떨어질 걱정 없고, 장 보러 자주 안 나가도 돼서 너무 좋아요.배송 상태 GOOD!두 번 시켰는데 모두 찌그러지거나 새는 거 없이 깔끔하게 왔어요. 박스도 튼튼했어요.라벨 없어서 냉장고에 넣으면 훨씬 깔끔해요여러 병 넣어도 보기 지저분하지 않고 미니멀한 주방 분위기에도 딱이에요!️ 제주 천연 암반수로 믿고 마셔요믿을 수 있는 원수지 덕분에 가족들도 안심하고 마실 수 있어서 더 좋았어요.❌ 단점 6가지️ 성분/유통기한 정보는 박스에만 있어요병에 라벨이 없다 보니 유통기한이나 정보 확인이 불편하긴 해요.2L는 크고 무거워요특히 손목이 약한 어르신이나 아이들이 따르기엔 조금 불편할 수 있어요.냉장고 공간을 많이 차지해요큰 병 여러 개 보관하려면 냉장고 안 정리를 꽤 해야 해요.️ 병에 손잡이가 없어요따를 때 미끄럽거나 놓치기 쉬워서 조심해야 해요. 간혹 흘릴 때도 있었어요.포장 박스 디자인이 다소 밋밋해요가게 디스플레이용이나 선물용으론 시각적인 매력이 조금 부족할 수 있어요.시즌별로 가격 차이가 있어요프로모션 없을 땐 가격이 좀 나가서, 세일할 때 쟁여두는 게 좋겠더라고요.총평 – "환경과 실용성을 모두 잡은 생수!"제주삼다수 그린 무라벨은 정말 환경 생각하시는 분들께 딱이에요!무라벨이라 편리하고, 2L 대용량 구성도 실속 있어서 가족 단위나 사무실에서도 활용하기 좋아요.깔끔한 물맛과 제주 천연암반수의 믿음까지 더해져서 만족감은 굉장히 높았어요.아쉬운 점도 몇 가지 있었지만, 전반적으로 보면 **장점이 훨씬 더 많았고 재구매 의사 100%**입니다!무엇보다도, 매일 쓰는 생수로 작은 실천을 할 수 있다는 게 마음에 들었어요.“지구를 위한 작은 선택, 무라벨 생수로 시작해보세요!”✔️ 제주삼다수 그린 무라벨 2L x 12개, 진심으로 추천드립니다!</t>
+          <t>생수는 어떤 브랜드 사도 거기서 거기겠지 싶어서 예전엔 그냥 배송 빠른 걸로 사곤 했는데, 제주삼다수 무라벨 버전 써보고 나서는 아예 정착했어요. 일단 물맛이 정말 깔끔하고 텁텁함 없이 부드러워요. 그냥 생수가 아니라 진짜 맑은 물 마시는 느낌이라서 하루에 물을 잘 안 마시던 저도 자연스럽게 손이 가더라고요. 특히 냉장고에 넣어뒀을 때 차갑게 마시면 더 맛있고, 미지근하게 마셔도 잡맛이 없어서 운동 전에나 식사 중간중간에도 부담 없이 잘 마시고 있어요. 집에 손님 왔을 때도 따로 설명 안 해도 다들 물맛 좋다고 하더라고요.그리고 이 제품은 무엇보다 무라벨이라는 게 진짜 최고 장점이에요. 다른 생수는 한 병 다 마시면 라벨 뜯고, 뚜껑 분리하고, 본체 따로 버리고 이걸 매번 반복해야 해서 은근 귀찮았거든요. 그런데 삼다수 무라벨은 그냥 통째로 압축해서 플라스틱으로 버리면 끝이라 분리수거 스트레스가 진짜 확 줄었어요. 쓰레기봉투도 덜 차고, 비닐도 안 생기니까 환경적인 면에서도 만족스럽고요. 재활용 분리수거날에 분류할 필요도 없어서 바쁠 때 특히 편리해요. 라벨에 남는 끈적임이나 테이프 자국도 없으니까 깔끔하게 정리되는 것도 마음에 들어요.2리터 사이즈라 냉장고에 넣어두기도 좋고, 집에서 두고 마시기 딱 적당한 용량이에요. 작은 생수병 여러 개 쌓아두는 것보다 공간도 덜 차지하고 보기에도 정돈된 느낌이라 좋더라고요. 가족이랑 같이 마시기도 좋고, 요리하거나 차 우릴 때도 쓰기 편해서 다양하게 활용하고 있어요. 가격도 다른 브랜드 대비 괜찮아서 대량으로 사놓고 두고 마시기 좋아요.저는 이거 한 번 먹어보고 만족해서 계속 재구매 중인데, 리뷰 많은 이유가 있는 제품 같아요. 물맛, 편의성, 환경까지 다 챙기고 싶을 때 선택하기 딱 좋고, 앞으로도 생수 살 때는 그냥 고민 안 하고 이걸로 고정하려고요. 주변에도 추천할 만큼 만족도 높은 생수라 후회 없는 선택이에요!</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>양*연</t>
+          <t>Udidi</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2562,17 +2562,21 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 24개</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>깨끗하고 순수한 맛, 친환경적인 착한 생수</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>내돈내산으로 구입 후, 실제 제품 사용 후기입니다. 개인차가 있을 수 있으니 참고만 부탁드립니다.총 평 ⭐⭐⭐⭐⭐✔️구매평 요약우리나라 생수는 이제는 다 깨끗하다고 하지만 예전 뉴스를 본 이후로는 삼다수밖에 못 먹겠어요.. 가격이 좀 비싸서 아쉽지만 마음 놓고 먹는게 더 중요하겠죠. 벌써 3-4번째 재구매 제품입니다.✔️구매평 상세제주삼다수는 연간 20,000번 이상의 수질 검사를 하고 있고 잠재 오염원 원천 차단하여 취수원 주변 토지를 매입하기까지 했답니다. (축구장 약 100개 규모래요)pH 7.8의 약알칼리성의 연수로 부드러운 물맛이라 물 비린맛이 전혀 없어요! 저는 물 맛에 정말 예민한 편인데 미지근한 상태에서도 비린맛이 없는거 보면 다 잘 드실것 같아요.보통 저희는 정수 필터를 써서 물을 먹긴 하지만 비상시를 위해서 생수를 항상 구매하고 있어요.그리고 예전에 뉴스에서 생수 상태 관련 기사를 보고 제주삼다수 말고 다른 타사 제품은 구매를 안하게 되네요...이제 다 깨끗하다고 하지만 이렇게 이미지가 중요한가봐요 ㅠㅠㅠㅠ 가격이 저렴하지 않지만 그래도 생수는 믿고 마실 수 있는 제품으로 구매하는 게 낫죠!게다가 페트병도 무색캡, 무라벨, 무색병이라 너무 좋아요 ㅎㅎㅎ 라벨 제거하는게 너무 귀찮았는데 깔끔하고 좋네요! 몇 년째 만족하고 사용하는 제품입니다 ㅎㅎㅎ제 리뷰가 도움이 되셨다면 도움이 돼요 한 번 씩 눌러주시면 감사하겠습니다!☑️라벨 유무: 무라벨☑️음료수 종류: 생수☑️수원지: 국내산☑️쿠팡상품번호: 7666070794 - 23438581398구매일자 : 2025년 10월 9일 목요일배송일자 : 2025년 10월 10일 금요일</t>
+          <t>평소 물을 자주 마시는 편이라 여러 브랜드의 생수를 접해봤지만, 제주삼다수만큼 깨끗하고 순수한 맛을 가진 물은 없다고 생각합니다. 이번에 구매한 제주삼다수 그린 무라벨은 기존의 훌륭한 품질에 친환경적인 장점까지 더해져 더욱 만족스러운 경험을 선사했습니다. 이 물은 단순한 음료를 넘어, 저의 건강과 환경까지 생각하게 해주는 훌륭한 선택이 되었습니다.이 제품의 가장 큰 장점은 바로 '무라벨'이라는 친환경적인 혁신입니다. 겉면에 라벨이 없어 분리수거를 할 때 라벨을 뜯는 번거로움이 완전히 사라졌습니다. 이제는 마신 후 뚜껑만 분리하면 바로 분리수거함에 넣을 수 있어 매우 편리합니다. 이런 작은 변화가 환경 보호에 기여한다는 생각에 물을 마실 때마다 뿌듯한 마음이 듭니다. 투명하고 깔끔한 보틀 디자인 자체도 미니멀한 감성을 더해주어 좋습니다.또한, 최상의 맛과 순수한 품질은 여전합니다. 한 모금 마시는 순간, 혀끝에 닿는 부드러움과 깔끔함이 남다릅니다. 불순물이 전혀 느껴지지 않는 순수한 맛은 마실 때마다 기분 좋은 상쾌함을 줍니다. 제주 화산암반층이 오랜 시간 동안 자연적으로 걸러낸 물이라 그런지, 인공적인 정수 과정을 거친 물과는 차원이 다른 깨끗한 맛을 느낄 수 있습니다. 특유의 쌉쌀하거나 비린 맛이 전혀 없어 물을 잘 마시지 않는 사람도 부담 없이 마시기 좋습니다.이 물은 단순히 목마름을 해소하는 것을 넘어, 몸속까지 깨끗해지는 듯한 느낌을 줍니다. 저는 주로 실온 상태로 마시거나, 냉장고에 넣어 시원하게 마시는데, 어떤 온도에서도 변함없이 훌륭한 맛을 유지합니다. 넉넉한 용량으로 구매해두면 며칠 동안 물 걱정 없이 지낼 수 있어 편리하고, 요리할 때도 이 물을 사용하면 음식 본연의 맛을 더욱 살려주는 효과가 있습니다. 밥을 짓거나 차를 끓일 때 사용하면 그 풍미가 한층 더 깊어지는 것을 느낄 수 있습니다.이 제주삼다수 그린 무라벨은 맛과 품질은 물론, 사용의 편리함과 환경까지 생각한 완벽한 제품입니다. 믿고 마실 수 있는 깨끗한 물을 찾고 있거나, 친환경적인 소비를 지향하는 분들께 이 제품을 강력하게 추천합니다. 작은 변화가 가져다주는 큰 만족감과 가치를 직접 경험해보시길 바랍니다.</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -2583,7 +2587,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>정*애</t>
+          <t>채니유니</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2591,26 +2595,26 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2025.10.19</t>
+          <t>2025.10.13</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>제품 좋아서 자주 삽니다</t>
+          <t>깨끗한 한 모금, 환경까지 생각한 선택</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>우선, 무라벨이라는 점이 정말 큰 장점입니다. 라벨이 없는 덕분에 분리수거가 훨씬 간편해졌고, 환경을 생각한 제품이라는 느낌이 강하게 들었습니다. 평소 플라스틱 사용과 분리배출 문제에 대해 고민이 많았는데, 이런 제품이 나오니 조금이나마 환경에 기여할 수 있다는 점에서 만족도가 높았습니다.또한 삼다수답게 물맛은 깔끔하고 부드러워서 누구나 부담 없이 마시기 좋은 제품입니다. 물병 디자인도 심플하고 세련된 느낌이라, 집에서 마실 때뿐만 아니라 외출하거나 운동할 때 들고 다니기에도 좋습니다. 무라벨 디자인 덕분에 깔끔한 인상을 주는 것도 마음에 들었습니다.가격도 합리적이라 대량으로 구매해두고 마시기에 적합했습니다. 특히 건강을 위해 수분 섭취를 꾸준히 하는데, 이렇게 좋은 품질의 물을 편리하게 접할 수 있다는 점에서 재구매 의사가 강하게 들었습니다. 다만 한 가지 아쉬운 점이 있다면, 무라벨 제품임에도 재활용률을 높이기 위해 소비자들이 제대로 분리배출을 해야 한다는 점인데, 이런 부분이 더 많이 홍보된다면 더 많은 사람들이 무라벨 제품을 선택할 것 같습니다.전반적으로 삼다수 그린 무라벨은 품질, 디자인, 환경적 가치를 모두 충족시켜주는 훌륭한 선택이라고 느꼈습니다. 앞으로도 계속 사용하고 싶을 만큼 만족스러운 제품입니다.또 구입할게요~~</t>
+          <t>요즘 일상에서 물은 단순한 음료가 아니라 습관이 된 건강관리죠. 저는 하루에 1.5리터 이상 물을 마시려고 노력하는데, 그때마다 찾는 게 바로 제주삼다수 그린 무라벨이에요. 330ml 용량이라 들고 다니기 부담 없고, 무라벨이라 깔끔하게 정리돼서 집 냉장고에 쫙 넣어두면 보기에도 참 단정해요.우선 제주삼다수 특유의 깨끗한 맛은 역시 믿고 마실 수 있죠. 입안에 남는 잡맛이 전혀 없이 깔끔하고 부드러워요. 물맛이 이렇게 다를 수 있나 싶을 정도로 목 넘김이 매끄러워요. 특히 운동 후나 아침 공복에 마시면 속이 편하고, 몸이 맑아지는 느낌이 들어요. 제주 화산암반수를 그대로 담아낸 물이라 그런지 하루 종일 부담 없이 마실 수 있답니다.무라벨 디자인은 정말 편리해요. 플라스틱 분리수거할 때 일일이 라벨을 떼는 수고가 없고, 환경을 생각하는 마음까지 담긴 느낌이라 더 만족스러워요. 깔끔한 투명병이라 대량으로 쌓아놔도 산뜻하고, 손님 맞이용으로 내놓기에도 좋아요.330ml는 휴대용으로 딱이에요. 가방 안에 넣어도 무겁지 않고, 아이가 들고 다니기에도 부담 없어요. 저희 집은 등하교용으로 아이 물병 대신 챙겨주기도 하고, 차 안에 두고 마시기도 해요. 일반 500ml보다 작아서 금방 마실 수 있고, 남기지 않아 낭비도 없어요. 외출할 때마다 하나씩 챙겨 나가면 그때그때 신선한 물을 마실 수 있어서 위생적이에요.무엇보다 40개입 대용량 세트라 가성비가 좋아요. 냉장고 문 쪽이나 선반에 나란히 넣어두면 시원하게 바로 꺼내 마실 수 있고, 손님이 오셨을 때도 병째로 내놓기 편해요. 라벨이 없으니 더 깔끔하고 고급스럽게 보여서 식탁 위에 두어도 보기 좋아요.요즘은 환경을 생각하는 소비가 필수가 되었잖아요. 그 점에서 제주삼다수 그린 무라벨은 실용성과 친환경성을 모두 갖춘 제품이에요. 매일 마시는 물이니까 더 깔끔하게, 더 건강하게 선택하고 싶다면 이 제품이 정답이에요.깨끗한 제주 삼다수의 맛과 환경을 아우른 현명한 선택, 앞으로도 계속 이 제품으로 쟁여둘 생각이에요.이 글이 도움이되셨으면 도움이돼요 꾹~ 눌러주세요. 감사합니다.^^</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -2621,7 +2625,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>김*라</t>
+          <t>박*영</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2629,26 +2633,26 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2025.10.12</t>
+          <t>2025.10.13</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>끝까지 맑고 부드러운, 믿을 수 있는 제주삼다수~!</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>평소 물을 자주 마시는 편이라 여러 브랜드를 번갈아 써봤지만, 제주 삼다수 그린 무라벨은 확실히 다릅니다.입에 닿는 순간 느껴지는 부드러움과 깔끔함이 인공적인 느낌이 없고, 삼다수 특유의 미네랄 밸런스가 살아있어요.냉장고에 넣어두어도 플라스틱 냄새가 거의 없고, 끝맛이 맑고 시원하게 남는다고 생각했어요~무라벨 디자인이라 분리수거가 훨씬 편하고, 투명한 병이 매끈하지만 미끄럽지 않아 손에 잘 잡혀요.캠핑이나 가족용 대용량으로도 좋지만, 개인적으로는 반려묘가 아플 때 특히 도움이 되었어요.구토가 심해서 걱정됐는데, 수분 보충용으로 삼다수를 대신 줬더니 잘 마시고 훨씬 안정되더라구요.깨끗한 수질과 자연 미네랄 덕분인지, 사람이나 동물 모두 안심하고 마실 수 있는 느낌이에요.장점)1. 무라벨 제품이라 분리수거가 간편하고 친환경적임2. 물맛이 부드럽고 끝맛이 깔끔함3. 미네랄 밸런스가 좋아 수분 보충에 효과적임4. 병 그립감이 좋아 미끄러지지 않아 따르기 편함단점)1. 대용량이라 휴대성은 다소 떨어짐2. 박스 포장이 약해 배송 중 눌릴 수 있음깨끗한 맛과 믿을 수 있는 품질 덕분에 꾸준히 재구매 하고 있습니다.* 저의 리뷰가 도움이 되셨다면 하단에 [ 도움이 돼요] 부탁드립니다^^⭐️ 한국에 거주하고 계시는 외국인분들을 위해 간략하게 후기 번역 참고!English / 日本語 / 中文 / Русский / Bahasa Indonesia-------------------------------------------------------------Jeju Samdasoo Green No-Label Water has a clean and soft taste that feels pure and natural.Its eco-friendly, label-free design makes recycling easy, and the bottle is comfortable to hold.Even when refrigerated, there&amp;rsquo;s no plastic smell, and the freshness lasts until the last sip.It&amp;rsquo;s gentle enough for pets too, making it a safe choice for the whole family.If my review was helpful, please click [Help] below!^^-------------------------------------------------------------済州サムダスグリーンムラベルウォーターは、自然で柔らかい味が魅力です。ムラベルのエコデザインで分別が簡単、ボトルも持ちやすく使用感が良いです。ぬるまく食べても水の特有のにおいがなく、着実に食べています。ペットもやさしく食べられ、家族全員で安心して飲める水です。このレビューが参考になったら、下の[参考]をタップします。^^-------------------------------------------------------------济州三多水的无标签版本口感顺滑清爽，是一款天然安全的饮品。环保的无标签设计使其易于回收，防滑设计带来舒适的握感。即使不冷藏，也能保持其清爽纯净的口感。宠物也能安全饮用，全家人都可以放心享用。如果您觉得我的评论有帮助，请点击下方的[有用]。^^-------------------------------------------------------------Вода Jeju Samdasoo Green Labelless Water отличается мягким,чистым вкусом благодаря отсутствию искусственных добавок.Экологичная упаковка без этикеток удобна в использовании и легко перерабатывается.Она сохраняет свой освежающий вкус даже без хранения в холодильнике.Она безопасна для домашних животных и подходит для всей семьи.Если мой отзыв оказался вам полезен, нажмите [Полезно] ниже.^^-------------------------------------------------------------Air Jeju Samdasoo Green No-Label memiliki rasa yang lembut dan bersih, terasa alami tanpa rasa buatan.Desain ramah lingkungan tanpa label membuat daur ulang lebih mudah, dan botolnya nyaman digenggam.Tidak ada bau plastik meski disimpan di kulkas, rasa segarnya tetap bertahan hingga tetes terakhir.Aman juga untuk hewan peliharaan, cocok untuk seluruh keluarga.Jika ulasan saya bermanfaat, silakan klik [Bermanfaat] di bawah ini.^^</t>
+          <t>제주삼다수 그린 무라벨 2L x 12개리얼 사용후기 + 장점 6가지 + 단점 6가지 + 총평요즘 환경 생각해서 무라벨 생수 많이 찾으시죠?저도 그런 이유로 선택한 게 바로 제주삼다수 그린 무라벨 2L x 12개입이에요.직접 받아보고, 마셔보고 느낀 점들을 솔직하게 정리해봤어요.✅ 장점 6가지♻️ 무라벨이라 분리수거 너무 편해요!따로 라벨 뜯을 필요 없고, 바로 플라스틱으로 분리! 환경 생각할 수 있어 마음도 뿌듯했어요.역시 삼다수답게 물맛이 깔끔해요삼다수 특유의 잡미 없는 청량한 물맛! 하루 종일 부담 없이 마실 수 있어요.2L 대용량 x 12개라 넉넉하게 사용 가능생수 떨어질 걱정 없고, 장 보러 자주 안 나가도 돼서 너무 좋아요.배송 상태 GOOD!두 번 시켰는데 모두 찌그러지거나 새는 거 없이 깔끔하게 왔어요. 박스도 튼튼했어요.라벨 없어서 냉장고에 넣으면 훨씬 깔끔해요여러 병 넣어도 보기 지저분하지 않고 미니멀한 주방 분위기에도 딱이에요!️ 제주 천연 암반수로 믿고 마셔요믿을 수 있는 원수지 덕분에 가족들도 안심하고 마실 수 있어서 더 좋았어요.❌ 단점 6가지️ 성분/유통기한 정보는 박스에만 있어요병에 라벨이 없다 보니 유통기한이나 정보 확인이 불편하긴 해요.2L는 크고 무거워요특히 손목이 약한 어르신이나 아이들이 따르기엔 조금 불편할 수 있어요.냉장고 공간을 많이 차지해요큰 병 여러 개 보관하려면 냉장고 안 정리를 꽤 해야 해요.️ 병에 손잡이가 없어요따를 때 미끄럽거나 놓치기 쉬워서 조심해야 해요. 간혹 흘릴 때도 있었어요.포장 박스 디자인이 다소 밋밋해요가게 디스플레이용이나 선물용으론 시각적인 매력이 조금 부족할 수 있어요.시즌별로 가격 차이가 있어요프로모션 없을 땐 가격이 좀 나가서, 세일할 때 쟁여두는 게 좋겠더라고요.총평 – "환경과 실용성을 모두 잡은 생수!"제주삼다수 그린 무라벨은 정말 환경 생각하시는 분들께 딱이에요!무라벨이라 편리하고, 2L 대용량 구성도 실속 있어서 가족 단위나 사무실에서도 활용하기 좋아요.깔끔한 물맛과 제주 천연암반수의 믿음까지 더해져서 만족감은 굉장히 높았어요.아쉬운 점도 몇 가지 있었지만, 전반적으로 보면 **장점이 훨씬 더 많았고 재구매 의사 100%**입니다!무엇보다도, 매일 쓰는 생수로 작은 실천을 할 수 있다는 게 마음에 들었어요.“지구를 위한 작은 선택, 무라벨 생수로 시작해보세요!”✔️ 제주삼다수 그린 무라벨 2L x 12개, 진심으로 추천드립니다!</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -2659,7 +2663,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>진*준</t>
+          <t>양*연</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2667,26 +2671,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2025.10.25</t>
+          <t>2025.10.13</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>깔끔하고 환경까지 생각한 대용량 생수 세트</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 2L, 24개</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>⭐️⭐️⭐️⭐️⭐ (5/5)제주삼다수 그린 무라벨 2 L 12병 세트는 청정 제주 자연의 물맛과 무라벨 친환경 포장을 결합한 실속형 대용량 생수예요. 가족이 함께 쓰기에도 충분하고, 2 L 사이즈라 정수기나 냉장고에 바로 준비해 두기에도 편리해요먼저 무라벨 포장 덕분에 분리배출이 훨씬 간편했어요. 라벨 떼기 귀찮았던 과거 기억이 있는데 이 제품은 아예 라벨이 없어서 꺼내 쓰고 버릴 때도 마음이 가볍더라고요. 검색 정보에서도 “무라벨” 표시가 강조되어 있어요.  ￼물맛은 역시 삼다수답게 잡미 없이 깔끔하고 부드러운 목 넘김이 인상적이었어요. 마신 뒤 입안에 남는 물맛이 거의 없어서, 운동 후나 식사 직후에도 물만으로 깔끔하게 마무리되더라고요.또한 대용량 12병 구성이라 가정용 비축용·사무실 비치용으로 안성맞춤이에요. 특히 냉장고에 2 L 병을 두고 손쉬운 수분 보충이 가능하고, 가격 대비 양이 넉넉하다는 리뷰가 많아요.  ￼다만 보관이나 냉동 시엔 병의 크기 때문에 통로·냉장실 공간을 조금 차지한다는 점은 참고했으면 해요. 하지만 그 외에는 품질, 맛, 실용성 모두 만족스러워서 “매일 마시는 물인데 좀 더 깔끔하고 환경까지 생각하고 싶다”는 분께 특히 추천드릴만해요도움이 되셨다면 ‘도움돼요’ 눌러주세요</t>
+          <t>내돈내산으로 구입 후, 실제 제품 사용 후기입니다. 개인차가 있을 수 있으니 참고만 부탁드립니다.총 평 ⭐⭐⭐⭐⭐✔️구매평 요약우리나라 생수는 이제는 다 깨끗하다고 하지만 예전 뉴스를 본 이후로는 삼다수밖에 못 먹겠어요.. 가격이 좀 비싸서 아쉽지만 마음 놓고 먹는게 더 중요하겠죠. 벌써 3-4번째 재구매 제품입니다.✔️구매평 상세제주삼다수는 연간 20,000번 이상의 수질 검사를 하고 있고 잠재 오염원 원천 차단하여 취수원 주변 토지를 매입하기까지 했답니다. (축구장 약 100개 규모래요)pH 7.8의 약알칼리성의 연수로 부드러운 물맛이라 물 비린맛이 전혀 없어요! 저는 물 맛에 정말 예민한 편인데 미지근한 상태에서도 비린맛이 없는거 보면 다 잘 드실것 같아요.보통 저희는 정수 필터를 써서 물을 먹긴 하지만 비상시를 위해서 생수를 항상 구매하고 있어요.그리고 예전에 뉴스에서 생수 상태 관련 기사를 보고 제주삼다수 말고 다른 타사 제품은 구매를 안하게 되네요...이제 다 깨끗하다고 하지만 이렇게 이미지가 중요한가봐요 ㅠㅠㅠㅠ 가격이 저렴하지 않지만 그래도 생수는 믿고 마실 수 있는 제품으로 구매하는 게 낫죠!게다가 페트병도 무색캡, 무라벨, 무색병이라 너무 좋아요 ㅎㅎㅎ 라벨 제거하는게 너무 귀찮았는데 깔끔하고 좋네요! 몇 년째 만족하고 사용하는 제품입니다 ㅎㅎㅎ제 리뷰가 도움이 되셨다면 도움이 돼요 한 번 씩 눌러주시면 감사하겠습니다!☑️라벨 유무: 무라벨☑️음료수 종류: 생수☑️수원지: 국내산☑️쿠팡상품번호: 7666070794 - 23438581398구매일자 : 2025년 10월 9일 목요일배송일자 : 2025년 10월 10일 금요일</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>곰곰</t>
+          <t>한*진</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2705,26 +2705,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2025.10.10</t>
+          <t>2025.11.08</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 1L, 18개</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>역시 삼다수</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>최근에 제주 삼다수 그린 무라벨 1L 제품을 구매해서 며칠 동안 마셔봤습니다. 평소 생수를 자주 사두는 편이라 여러 브랜드를 번갈아 써봤는데, 이번에는 환경도 생각하고 싶어서 ‘무라벨’ 제품을 선택하게 됐습니다. 삼다수는 워낙 익숙하고 신뢰가 가는 브랜드라서 별 고민 없이 구입했어요.우선 첫인상은 패키징이 굉장히 깔끔하고 실용적이었습니다. 라벨이 전혀 없으니 분리수거할 때 정말 편하고, 냉장고에 여러 병을 보관해도 깔끔해 보입니다. 라벨 제거할 필요가 없어서 쓰레기도 덜 나오고, 단순한 외관이 오히려 고급스럽게 느껴졌습니다. 병의 강도도 적당히 단단해서 물을 따를 때나 들고 마실 때 찌그러지지 않아 만족스러웠습니다.맛은 역시 삼다수답게 깔끔하고 부드럽습니다. 특유의 맑은 물맛이 느껴지고, 목넘김이 굉장히 부드러워서 밥 먹을 때나 운동 후 마시기에도 좋았습니다. 무라벨이라고 해서 품질이 달라질까 걱정했는데, 그런 차이는 전혀 없었고 오히려 더 신선하게 느껴졌습니다. 냉장고에 넣어뒀다가 차갑게 마시면 청량감이 확실히 살아나서 일반 정수기 물보다 훨씬 개운했습니다.1리터 용량은 생각보다 딱 적당한 크기였습니다. 500ml는 금방 다 마셔서 아쉬운데, 2리터는 들고 다니기 불편하잖아요. 1리터는 하루에 한 병 정도 마시기 딱 좋아서 가정용이나 사무실용으로 정말 편리했습니다.한 가지 아쉬운 점을 꼽자면, 무라벨이라 정보 확인이 불편한 부분이 있습니다. 유통기한이나 제조일자가 병목 부분에 작게 인쇄돼 있어서 처음에는 잘 안 보였어요. 그래도 한두 번 익숙해지면 크게 문제 될 정도는 아닙니다.가격은 일반 삼다수보다 살짝 비싼 편이지만, 환경을 고려한 제품이라는 점과 편의성을 생각하면 충분히 납득할 수 있는 수준이었습니다. 특히 요즘처럼 플라스틱 쓰레기가 문제되는 시기에, 무라벨 제품을 선택했다는 점에서 뿌듯함도 있었습니다.전반적으로 이번 구매는 매우 만족스러웠습니다. 물맛은 여전히 삼다수답게 깔끔하고, 무라벨 덕분에 환경적인 부담도 줄었으며, 실사용 시 편의성까지 잘 챙긴 제품이었습니다. 앞으로도 냉장고에 이 제품은 꾸준히 채워둘 것 같습니다. 깔끔한 맛, 환경을 생각한 선택, 그리고 실용적인 용량 — 세 가지를 모두 만족시키는 생수였습니다.</t>
+          <t>❤ 내돈 내산, N번째 구매 후기 ❤⭕ 총평 ⭕✅ 깔끔한 물맛:물 비린내 없이 부드럽고 청량한  맛✅ 편리한 배송서비스:별도 포장없이도 찌그러짐 없이 안전한 배송✅ 환경과 실용성 굿!!:무라벨이라 재활용 편리, 유통기한 넉넉⭐⭐ 제주삼다수는 꾸준히 믿고 구입하게되는 아이템이에요.정수기를 처분한 이후로 여러가지 생수를 먹어보며 비교해 봤는데,결국 제주 화산암반수인 삼다수로 돌아왔어요.이번이 N번째 구매인데, 매번 만족스러워요.⭐⭐ 문앞 배송이라 무거운 생수를 들고 올 필요도 덜고,배송기사님이 문 앞에 세로로 쌓아주셔서통헹에 방해되지 않게 배려해주시는 세심함까지^^⭐⭐ 한 번 주문할 때마다 12병씩 주문하는데도물을 많이 먹는 집이라 금방 소진돼요.그만큼 자주 마셔도 질리지 않고,물 비린내 없이 깔끔하고 청량한 맛이예요.그냥 마셔도 좋고, 커피나 차로 마실 때도 맛이 깔끔해요.⭐⭐ 무라벨 제품이라 분리수거도훨씬 편하고,환경까지 생각한 포인트도 만족스러워요.⭐⭐ 유통기한도 넉넉해서 보관장소만 확보되면 대량으로 구입해두고 싶어요.깔끔한 물 맛, 편리한 배송, 친환경적인 포장...내돈내산 N번째 구입에는 이유가 있어요.전 앞으로도 재구매 의사 100프로예요.</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -2735,7 +2731,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>홍*표</t>
+          <t>정*애</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -2743,7 +2739,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2025.10.10</t>
+          <t>2025.10.19</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2751,14 +2747,18 @@
           <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>제품 좋아서 자주 삽니다</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨 2L × 12병 — 사용 후기요즘 환경 생각도 하게 되고, 하루에 물을 많이 마시다 보니 좋은 생수를 찾게 되었어요.여러 브랜드를 써보다가 다시 돌아온 게 바로 “제주삼다수 그린 무라벨”이에요.결론부터 말하자면, 정말 깔끔하고 믿을 수 있는 생수입니다.매일 마셔도 질리지 않고, 마실 때마다 물이 ‘깨끗하다’는 느낌이 확 들어요.✅ 첫인상 &amp; 포장 상태배송은 박스 포장으로 안전하게 왔어요.2L 생수 12병이라 무게가 꽤 나갔는데, 병이 찌그러지거나 새는 부분 없이 잘 도착했습니다.무라벨 디자인이라 처음 봤을 때 정말 깔끔하고 미니멀한 인상이었어요.요즘 분리수거할 때 라벨 떼는 게 은근 귀찮은데, 이 제품은 그런 번거로움이 전혀 없어요.뚜껑만 분리해서 버리면 되니까 재활용하기에도 훨씬 편합니다.✅ 물맛 &amp; 품질삼다수는 역시 물맛이 부드럽고 깔끔해요.입에 닿는 순간 이물감이나 석회 느낌이 전혀 없고, 그냥 ‘맑은 물’ 그대로의 맛이에요.냉장고에 넣어둔 차가운 물을 마셔도 목이 얼얼하지 않고,상온 상태로 마셔도 깔끔함이 유지됩니다.삼다수만의 미네랄 밸런스 덕분인지, 다른 생수에 비해 목 넘김이 확실히 부드러워요.물을 자주 마시는 분이라면 차이를 바로 느끼실 거예요.✅ 실사용 후기저는 주로 아침에 일어나서 한 컵, 식사 중간, 자기 전에도 물을 마시는 편인데이 삼다수는 냄새나 텁텁함이 전혀 없어서 ‘그냥 물인데 맛있다’는 느낌이 들어요.커피 내릴 때, 차를 탈 때, 요리용으로 사용할 때도 정말 잘 어울립니다.특히 밥 지을 때 삼다수로 하면 밥맛이 더 깔끔하고 잡내가 줄어요.하루 물 섭취량을 챙기기에도 좋고, 큰 병이라 가족 단위로 두고 마시기에도 충분한 용량이에요.✅ 무라벨의 장점무라벨 제품은 한 번 써보면 다시 라벨 붙은 생수로 돌아가기 힘들어요.분리수거할 때 진짜 편하고, 환경적인 만족감도 있습니다.투명한 병 안에 맑은 물이 그대로 보여서 인테리어적으로도 깔끔해요.라벨이 없으니까 손에 닿는 촉감도 더 부드럽고, 시각적으로도 정돈된 느낌이에요.“불필요한 걸 덜어낸 미니멀리즘의 완성”이라는 말이 딱 맞는 것 같아요.✅ 아쉬운 점- 2L라서 한 병은 크고 무거워요. 이동이나 냉장 보관할 땐 조금 번거로워요.- 가끔 박스 안 병 중에 살짝 찌그러진 게 섞여 있을 때가 있었지만, 내용물엔 문제 없었어요.- 브랜드 로고가 작게 새겨져 있어서, 다른 생수랑 섞여 있으면 헷갈릴 수 있어요.그래도 이건 아주 사소한 부분이라 단점이라기보단 참고사항 정도예요.총평제주삼다수 그린 무라벨은 단순한 생수가 아니라,**매일의 작은 습관을 더 깔끔하고 편안하게 만들어주는 제품**이에요.하루에 몇 번이고 손이 가는 물이기 때문에,그만큼 깔끔함과 신뢰감이 중요하다고 생각하는데 삼다수는 그 기준을 딱 맞춰줍니다.라벨이 없다는 이유만으로도 생활이 훨씬 편해지고,환경을 생각하는 마음까지 더해져서 더 기분 좋게 사용할 수 있어요.⭐ 평가물맛: ★★★★★환경편의성: ★★★★★가성비: ★★★★☆포장상태: ★★★★★총점: 4.8 / 5한 줄 요약“깨끗한 제주 물의 청량함, 환경까지 생각한 진짜 깔끔한 생수매일 마셔도 질리지 않고, 마음까지 맑아집니다.”</t>
+          <t>우선, 무라벨이라는 점이 정말 큰 장점입니다. 라벨이 없는 덕분에 분리수거가 훨씬 간편해졌고, 환경을 생각한 제품이라는 느낌이 강하게 들었습니다. 평소 플라스틱 사용과 분리배출 문제에 대해 고민이 많았는데, 이런 제품이 나오니 조금이나마 환경에 기여할 수 있다는 점에서 만족도가 높았습니다.또한 삼다수답게 물맛은 깔끔하고 부드러워서 누구나 부담 없이 마시기 좋은 제품입니다. 물병 디자인도 심플하고 세련된 느낌이라, 집에서 마실 때뿐만 아니라 외출하거나 운동할 때 들고 다니기에도 좋습니다. 무라벨 디자인 덕분에 깔끔한 인상을 주는 것도 마음에 들었습니다.가격도 합리적이라 대량으로 구매해두고 마시기에 적합했습니다. 특히 건강을 위해 수분 섭취를 꾸준히 하는데, 이렇게 좋은 품질의 물을 편리하게 접할 수 있다는 점에서 재구매 의사가 강하게 들었습니다. 다만 한 가지 아쉬운 점이 있다면, 무라벨 제품임에도 재활용률을 높이기 위해 소비자들이 제대로 분리배출을 해야 한다는 점인데, 이런 부분이 더 많이 홍보된다면 더 많은 사람들이 무라벨 제품을 선택할 것 같습니다.전반적으로 삼다수 그린 무라벨은 품질, 디자인, 환경적 가치를 모두 충족시켜주는 훌륭한 선택이라고 느꼈습니다. 앞으로도 계속 사용하고 싶을 만큼 만족스러운 제품입니다.또 구입할게요~~</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>홍*표</t>
+          <t>김*라</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -2777,22 +2777,26 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2025.10.10</t>
+          <t>2025.10.12</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>끝까지 맑고 부드러운, 믿을 수 있는 제주삼다수~!</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨 2L × 12병 실사용 후기물을 고를 때는 늘 고민이 돼요.매일 마시는 거니까, 단순히 '싸고 양 많은 물'보다는 조금 더 깔끔하고 믿을 수 있는 브랜드를 찾게 되죠.그래서 이번에는 이름만 들어도 신뢰가 가는 “제주삼다수 그린 무라벨”을 선택했습니다.결론부터 말하자면, ‘역시 삼다수’라는 말이 절로 나왔어요.✅ **첫인상 &amp; 포장**택배 박스를 열었을 때 깔끔한 무라벨 생수가 한눈에 보였어요.요즘 환경 문제도 신경 쓰이다 보니, 라벨이 없다는 점이 정말 마음에 들더라고요.라벨을 일일이 떼어내는 번거로움도 없고, 재활용 분리수거도 훨씬 편했습니다.제품 포장도 단단하게 되어 있어서, 2L짜리 무게감 있는 병들이 흔들리지 않게 잘 도착했어요.✅ **물맛 &amp; 품질**제주삼다수는 이미 여러 번 마셔봤지만,이번 ‘그린 무라벨’ 버전은 유난히 더 깔끔하고 순한 느낌이 들었어요.특유의 미네랄 향이나 이물감이 없고, 입에 닿는 순간 부드럽게 넘어갑니다.찬물로 마셔도 목이 얼얼하지 않고, 미지근한 상태로 마셔도 텁텁함이 없어요.하루 종일 책상에 두고 수시로 마시기에도 부담이 없고, 커피나 차를 탈 때도 물맛이 방해되지 않아요.✅ **사용감 &amp; 편의성**2L 대용량이라 가정용으로 쓰기 정말 좋아요.한 병으로 하루 정도는 충분히 커버되고, 냉장고 문칸에 세워두기에도 적당한 크기입니다.라벨이 없으니까 병이 미끄럽지 않을까 걱정했는데,표면에 살짝 질감이 있어서 손에 잡을 때 안정감이 느껴졌어요.특히 분리수거할 때, 그냥 병뚜껑만 분리해서 버리면 끝이라 정말 편했습니다.매번 라벨 벗기고 잔여 접착제 떼던 그 번거로움이 사라지니까,이것만으로도 재구매 의사가 확실히 생겼어요.✅ **환경적 만족감**무라벨이라 단순히 깔끔해 보이는 걸 넘어서,‘조금이라도 환경에 덜 부담을 주고 있다’는 작은 보람이 생겨요.투명한 병 속 깨끗한 물이 보일 때마다, 뭔가 정갈한 기분이 든다고 할까요.특히 요즘 재활용 분리수거 스트레스가 많은데,라벨이 없는 생수는 그 자체로 편리함과 마음의 여유를 줍니다.⚠ **아쉬운 점**- 아무래도 2L짜리라 무게가 있어서 옮길 때는 살짝 힘들어요.- 가끔 배송 상황에 따라 병이 눌려 있거나 살짝 찌그러진 경우가 있었지만, 내용물엔 문제 없었어요.- 무라벨이라 브랜드 표기가 작게 되어 있어서,여러 생수를 섞어 두면 어떤 게 삼다수인지 헷갈릴 수 있어요.**총평**“제주삼다수 그린 무라벨 2L × 12개”는 단순한 생수가 아니라**일상 속에서 편리함과 깔끔함을 함께 주는 제품**이에요.마시는 순간 입안이 정리되는 느낌이 나고,라벨이 없는 투명한 병을 보고 있으면 괜히 기분이 맑아집니다.매일 마셔도 질리지 않는 깔끔한 물맛 덕분에,이젠 다른 브랜드보다 자연스럽게 삼다수를 찾게 되었어요.⭐ **평가**물맛 : ★★★★★환경편의성 : ★★★★★가성비 : ★★★★☆총점 : 4.8 / 5**한 줄 요약:**“깨끗함이 보이는 물, 환경까지 생각한 진짜 깔끔한 생수매일 마셔도 질리지 않고, 마음까지 맑아지는 느낌이에요.”</t>
+          <t>평소 물을 자주 마시는 편이라 여러 브랜드를 번갈아 써봤지만, 제주 삼다수 그린 무라벨은 확실히 다릅니다.입에 닿는 순간 느껴지는 부드러움과 깔끔함이 인공적인 느낌이 없고, 삼다수 특유의 미네랄 밸런스가 살아있어요.냉장고에 넣어두어도 플라스틱 냄새가 거의 없고, 끝맛이 맑고 시원하게 남는다고 생각했어요~무라벨 디자인이라 분리수거가 훨씬 편하고, 투명한 병이 매끈하지만 미끄럽지 않아 손에 잘 잡혀요.캠핑이나 가족용 대용량으로도 좋지만, 개인적으로는 반려묘가 아플 때 특히 도움이 되었어요.구토가 심해서 걱정됐는데, 수분 보충용으로 삼다수를 대신 줬더니 잘 마시고 훨씬 안정되더라구요.깨끗한 수질과 자연 미네랄 덕분인지, 사람이나 동물 모두 안심하고 마실 수 있는 느낌이에요.장점)1. 무라벨 제품이라 분리수거가 간편하고 친환경적임2. 물맛이 부드럽고 끝맛이 깔끔함3. 미네랄 밸런스가 좋아 수분 보충에 효과적임4. 병 그립감이 좋아 미끄러지지 않아 따르기 편함단점)1. 대용량이라 휴대성은 다소 떨어짐2. 박스 포장이 약해 배송 중 눌릴 수 있음깨끗한 맛과 믿을 수 있는 품질 덕분에 꾸준히 재구매 하고 있습니다.* 저의 리뷰가 도움이 되셨다면 하단에 [ 도움이 돼요] 부탁드립니다^^⭐️ 한국에 거주하고 계시는 외국인분들을 위해 간략하게 후기 번역 참고!English / 日本語 / 中文 / Русский / Bahasa Indonesia-------------------------------------------------------------Jeju Samdasoo Green No-Label Water has a clean and soft taste that feels pure and natural.Its eco-friendly, label-free design makes recycling easy, and the bottle is comfortable to hold.Even when refrigerated, there&amp;rsquo;s no plastic smell, and the freshness lasts until the last sip.It&amp;rsquo;s gentle enough for pets too, making it a safe choice for the whole family.If my review was helpful, please click [Help] below!^^-------------------------------------------------------------済州サムダスグリーンムラベルウォーターは、自然で柔らかい味が魅力です。ムラベルのエコデザインで分別が簡単、ボトルも持ちやすく使用感が良いです。ぬるまく食べても水の特有のにおいがなく、着実に食べています。ペットもやさしく食べられ、家族全員で安心して飲める水です。このレビューが参考になったら、下の[参考]をタップします。^^-------------------------------------------------------------济州三多水的无标签版本口感顺滑清爽，是一款天然安全的饮品。环保的无标签设计使其易于回收，防滑设计带来舒适的握感。即使不冷藏，也能保持其清爽纯净的口感。宠物也能安全饮用，全家人都可以放心享用。如果您觉得我的评论有帮助，请点击下方的[有用]。^^-------------------------------------------------------------Вода Jeju Samdasoo Green Labelless Water отличается мягким,чистым вкусом благодаря отсутствию искусственных добавок.Экологичная упаковка без этикеток удобна в использовании и легко перерабатывается.Она сохраняет свой освежающий вкус даже без хранения в холодильнике.Она безопасна для домашних животных и подходит для всей семьи.Если мой отзыв оказался вам полезен, нажмите [Полезно] ниже.^^-------------------------------------------------------------Air Jeju Samdasoo Green No-Label memiliki rasa yang lembut dan bersih, terasa alami tanpa rasa buatan.Desain ramah lingkungan tanpa label membuat daur ulang lebih mudah, dan botolnya nyaman digenggam.Tidak ada bau plastik meski disimpan di kulkas, rasa segarnya tetap bertahan hingga tetes terakhir.Aman juga untuk hewan peliharaan, cocok untuk seluruh keluarga.Jika ulasan saya bermanfaat, silakan klik [Bermanfaat] di bawah ini.^^</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66">
@@ -2803,7 +2807,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>김*태</t>
+          <t>곰곰</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2811,22 +2815,22 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2025.10.22</t>
+          <t>2025.10.10</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 1L, 18개</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>믿고 마시는 생수</t>
+          <t>역시 삼다수</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>✨구매동기요즘 진짜 집에서 대용량 생수 꼭 필요하잖아요? 저도 정수기 없이 그냥 생수로만 버티고 있는데, 라벨 떼는 게 너무 귀찮고 분리수거할 때도 손이 많이 가더라고요. 그러다 무라벨 삼다수를 알게 돼서 바로 시켜봤어요. 환경도 생각하고 싶고, 내 손도 덜 쓰고 싶어서요.✨제품설명쓸데없는 라벨 없이 심플해서 분리수거 엄청 쉬워요제주 화산암반수라 그런지 확실히 물맛이 깔끔하고 순해요2L라 냉장고에 몇 병 넣어두면 온 가족이 마음껏 마실 수 있어요비닐도 따로 없고, 그냥 뚜껑만 잘 분리하면 끝환경까지 신경 쓴 느낌이라 플라스틱 줄이는데 도움돼서 더 뿌듯해요​✨사용후기삼다수는 원래 믿고 마시는 브랜드라 맛은 당연히 좋아요. 무라벨이라 디자인도 군더더기 없이 깔끔하고, 병 모양도 기존이랑 비슷해서 들고 마시기 편하더라고요.특히 분리수거할 때 라벨 안 떼도 돼서 번거로움이 싹 사라졌어요. 가족끼리 많이 마시니까 2L가 딱 적당하고, 가격도 괜찮은 편이에요. 냉장고에 미리 넣어두고 차갑게 먹으면 진짜 더 맛있어요.환경 생각하면서 편하게 쓸 수 있어서 앞으로 생수는 이걸로 정착하려고요. 여름엔 캠핑 갈 때도 딱이고요.결론은, 번거로움 없이 깔끔하게 마시고 싶은 분이나 친환경 실천하고 싶은 분들은 강추합니다! 확실히 만족해요</t>
+          <t>최근에 제주 삼다수 그린 무라벨 1L 제품을 구매해서 며칠 동안 마셔봤습니다. 평소 생수를 자주 사두는 편이라 여러 브랜드를 번갈아 써봤는데, 이번에는 환경도 생각하고 싶어서 ‘무라벨’ 제품을 선택하게 됐습니다. 삼다수는 워낙 익숙하고 신뢰가 가는 브랜드라서 별 고민 없이 구입했어요.우선 첫인상은 패키징이 굉장히 깔끔하고 실용적이었습니다. 라벨이 전혀 없으니 분리수거할 때 정말 편하고, 냉장고에 여러 병을 보관해도 깔끔해 보입니다. 라벨 제거할 필요가 없어서 쓰레기도 덜 나오고, 단순한 외관이 오히려 고급스럽게 느껴졌습니다. 병의 강도도 적당히 단단해서 물을 따를 때나 들고 마실 때 찌그러지지 않아 만족스러웠습니다.맛은 역시 삼다수답게 깔끔하고 부드럽습니다. 특유의 맑은 물맛이 느껴지고, 목넘김이 굉장히 부드러워서 밥 먹을 때나 운동 후 마시기에도 좋았습니다. 무라벨이라고 해서 품질이 달라질까 걱정했는데, 그런 차이는 전혀 없었고 오히려 더 신선하게 느껴졌습니다. 냉장고에 넣어뒀다가 차갑게 마시면 청량감이 확실히 살아나서 일반 정수기 물보다 훨씬 개운했습니다.1리터 용량은 생각보다 딱 적당한 크기였습니다. 500ml는 금방 다 마셔서 아쉬운데, 2리터는 들고 다니기 불편하잖아요. 1리터는 하루에 한 병 정도 마시기 딱 좋아서 가정용이나 사무실용으로 정말 편리했습니다.한 가지 아쉬운 점을 꼽자면, 무라벨이라 정보 확인이 불편한 부분이 있습니다. 유통기한이나 제조일자가 병목 부분에 작게 인쇄돼 있어서 처음에는 잘 안 보였어요. 그래도 한두 번 익숙해지면 크게 문제 될 정도는 아닙니다.가격은 일반 삼다수보다 살짝 비싼 편이지만, 환경을 고려한 제품이라는 점과 편의성을 생각하면 충분히 납득할 수 있는 수준이었습니다. 특히 요즘처럼 플라스틱 쓰레기가 문제되는 시기에, 무라벨 제품을 선택했다는 점에서 뿌듯함도 있었습니다.전반적으로 이번 구매는 매우 만족스러웠습니다. 물맛은 여전히 삼다수답게 깔끔하고, 무라벨 덕분에 환경적인 부담도 줄었으며, 실사용 시 편의성까지 잘 챙긴 제품이었습니다. 앞으로도 냉장고에 이 제품은 꾸준히 채워둘 것 같습니다. 깔끔한 맛, 환경을 생각한 선택, 그리고 실용적인 용량 — 세 가지를 모두 만족시키는 생수였습니다.</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -2841,7 +2845,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>리뷰별</t>
+          <t>홍*표</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -2854,17 +2858,13 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 60개</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>물맛은 단연 제주삼다수가 젤 좋아요</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>제주삼다수 그린, 500ml, 60개를 마셔본 솔직리뷰1. 구매한 이유생수를 고를 때 가장 중요하게 생각하는 건 ‘물맛’이에요.여러 브랜드를 마셔봤지만 결국 다시 돌아오게 되는 건 제주삼다수예요.이번에는 가정용으로 대용량 60개 세트를 구매했어요.가격은 다른 생수보다 조금 비싸지만, 그만큼의 가치가 있다고 생각해요.500ml 용량이라 외출할 때나 운동할 때 들고 다니기도 딱 좋고, 가족 모두가 함께 마시기에도 적당한 크기예요.2. 사용후기배송이 빠르고 박스 포장도 깔끔하게 왔어요.삼다수는 마실 때마다 느끼지만 정말 물맛이 부드럽고 깨끗해요.입안에서 맑고 청량한 느낌이 나면서도 텁텁함이 전혀 없어요.다른 브랜드 생수는 가끔 미묘하게 금속성 맛이 나거나 플라스틱 냄새가 날 때도 있는데, 삼다수는 그런 게 전혀 없어요.특히 냉장고에 차게 보관해뒀다가 마시면 목넘김이 정말 부드럽고, 아무리 많이 마셔도 질리지 않아요.청정 제주 지하 암반수라 그런지 자연 그대로의 미네랄 밸런스가 느껴져요.아이부터 어른까지 온 가족이 매일 마시기에 가장 믿을 수 있는 생수예요.3. 장점✅ 물맛이 정말 깨끗하고 부드러워요.다른 생수와 비교하면 확실히 차이가 느껴져요.✅ 청정 제주도 지하수로 만든 믿을 수 있는 품질이에요.✅ 500ml 용량이라 휴대성이 좋고, 한 번에 마시기 딱 좋은 크기예요.✅ 박스 단위로 넉넉하게 구성돼 있어 장기 보관이나 대가족용으로 좋아요.✅ 브랜드 신뢰도와 품질이 워낙 좋아 안심하고 마실 수 있어요.4. 아쉬운 점✔️ 가격이 다른 생수 브랜드에 비해 다소 비싼 편이에요.✔️ 무라벨 제품이라 날짜를 확인하거나 다른 제품과 구분하기 힘들때도 있어요✔️ 워낙 인기가 많아 가끔 품절일 때가 있어서 바로 주문이 안 될 때도 있어요.5. 재구매 의사있어요.삼다수는 가격이 조금 높더라도 그만큼의 품질이 충분히 보장되는 생수라고 생각해요.가족 모두 만족하고, 특히 물맛에 예민한 어머니도 삼다수만 찾으세요.매번 다른 브랜드를 시도해봐도 결국 다시 돌아오는 건 삼다수라 앞으로도 계속 재구매할 예정이에요.6. 총평제주삼다수 그린은 단연 생수 중 최고라고 할 수 있어요.맑고 청량한 물맛, 믿을 수 있는 품질, 그리고 제주도의 깨끗한 자연이 담긴 느낌까지 모두 만족스러워요.가격이 조금 비싸지만, 건강을 생각하면 그만큼의 값어치는 충분하다고 생각해요.♡제주삼다수 그린 500ml의 솔직한 리뷰가 도움이 되시길 바라며, 매일 깨끗하고 상쾌한 물을 마시고 싶다면 이 제품을 추천드려요!♡</t>
+          <t>제주삼다수 그린 무라벨 2L × 12병 — 사용 후기요즘 환경 생각도 하게 되고, 하루에 물을 많이 마시다 보니 좋은 생수를 찾게 되었어요.여러 브랜드를 써보다가 다시 돌아온 게 바로 “제주삼다수 그린 무라벨”이에요.결론부터 말하자면, 정말 깔끔하고 믿을 수 있는 생수입니다.매일 마셔도 질리지 않고, 마실 때마다 물이 ‘깨끗하다’는 느낌이 확 들어요.✅ 첫인상 &amp; 포장 상태배송은 박스 포장으로 안전하게 왔어요.2L 생수 12병이라 무게가 꽤 나갔는데, 병이 찌그러지거나 새는 부분 없이 잘 도착했습니다.무라벨 디자인이라 처음 봤을 때 정말 깔끔하고 미니멀한 인상이었어요.요즘 분리수거할 때 라벨 떼는 게 은근 귀찮은데, 이 제품은 그런 번거로움이 전혀 없어요.뚜껑만 분리해서 버리면 되니까 재활용하기에도 훨씬 편합니다.✅ 물맛 &amp; 품질삼다수는 역시 물맛이 부드럽고 깔끔해요.입에 닿는 순간 이물감이나 석회 느낌이 전혀 없고, 그냥 ‘맑은 물’ 그대로의 맛이에요.냉장고에 넣어둔 차가운 물을 마셔도 목이 얼얼하지 않고,상온 상태로 마셔도 깔끔함이 유지됩니다.삼다수만의 미네랄 밸런스 덕분인지, 다른 생수에 비해 목 넘김이 확실히 부드러워요.물을 자주 마시는 분이라면 차이를 바로 느끼실 거예요.✅ 실사용 후기저는 주로 아침에 일어나서 한 컵, 식사 중간, 자기 전에도 물을 마시는 편인데이 삼다수는 냄새나 텁텁함이 전혀 없어서 ‘그냥 물인데 맛있다’는 느낌이 들어요.커피 내릴 때, 차를 탈 때, 요리용으로 사용할 때도 정말 잘 어울립니다.특히 밥 지을 때 삼다수로 하면 밥맛이 더 깔끔하고 잡내가 줄어요.하루 물 섭취량을 챙기기에도 좋고, 큰 병이라 가족 단위로 두고 마시기에도 충분한 용량이에요.✅ 무라벨의 장점무라벨 제품은 한 번 써보면 다시 라벨 붙은 생수로 돌아가기 힘들어요.분리수거할 때 진짜 편하고, 환경적인 만족감도 있습니다.투명한 병 안에 맑은 물이 그대로 보여서 인테리어적으로도 깔끔해요.라벨이 없으니까 손에 닿는 촉감도 더 부드럽고, 시각적으로도 정돈된 느낌이에요.“불필요한 걸 덜어낸 미니멀리즘의 완성”이라는 말이 딱 맞는 것 같아요.✅ 아쉬운 점- 2L라서 한 병은 크고 무거워요. 이동이나 냉장 보관할 땐 조금 번거로워요.- 가끔 박스 안 병 중에 살짝 찌그러진 게 섞여 있을 때가 있었지만, 내용물엔 문제 없었어요.- 브랜드 로고가 작게 새겨져 있어서, 다른 생수랑 섞여 있으면 헷갈릴 수 있어요.그래도 이건 아주 사소한 부분이라 단점이라기보단 참고사항 정도예요.총평제주삼다수 그린 무라벨은 단순한 생수가 아니라,**매일의 작은 습관을 더 깔끔하고 편안하게 만들어주는 제품**이에요.하루에 몇 번이고 손이 가는 물이기 때문에,그만큼 깔끔함과 신뢰감이 중요하다고 생각하는데 삼다수는 그 기준을 딱 맞춰줍니다.라벨이 없다는 이유만으로도 생활이 훨씬 편해지고,환경을 생각하는 마음까지 더해져서 더 기분 좋게 사용할 수 있어요.⭐ 평가물맛: ★★★★★환경편의성: ★★★★★가성비: ★★★★☆포장상태: ★★★★★총점: 4.8 / 5한 줄 요약“깨끗한 제주 물의 청량함, 환경까지 생각한 진짜 깔끔한 생수매일 마셔도 질리지 않고, 마음까지 맑아집니다.”</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -2879,7 +2879,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>나무아빠</t>
+          <t>홍*표</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2025.10.09</t>
+          <t>2025.10.10</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2898,11 +2898,11 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>ㅇ1. 제주삼다수 그린 무라벨 2L 12개 – 사용 후기안녕하세요. 돌 지난 아기를 양육 중이며 살림을 도맡아 하고 있는 30대 후반 남성입니다.아이 분유를 위해 물 선택에는 늘 신중한 편인데, 그중에서도 제주삼다수 그린 무라벨 2L 제품은 오랜 기간 꾸준히 믿고 사용해온 생수입니다.✅ 배송 및 가성비무엇보다 쿠팡에서 주문했을 때의 배송 속도와 가성비가 압도적으로 좋습니다. 오전에 주문하면 오후에 바로 도착할 정도로 빠른 편이라, 갑자기 물이 떨어졌을 때도 전혀 불안하지 않습니다. 여러 용량을 비교해봤지만 2L × 12개 세트가 가격 대비 효율이 가장 좋아요. 가정용으로 두고 사용하기에도 부담이 없고, 아이 분유나 요리용으로도 충분히 활용 가능합니다.✅ 맛과 품질 안정성삼다수는 이미 물맛으로는 정평이 나 있죠. 잡맛이 전혀 없고 깔끔하며, 마실 때마다 일정한 품질이 유지되는 점이 가장 마음에 듭니다. 특히 분유포트를 매일 사용하는 입장에서는 물의 잔류물 여부가 굉장히 중요합니다. 여러 브랜드 생수를 써봤지만, 어떤 물은 포트 바닥에 하얀 침전물이 남는 경우가 있었어요. 하지만 삼다수는 그런 현상이 거의 없어서 안심하고 사용할 수 있습니다. 아이가 마시는 분유용 물로는 이만한 제품이 없다고 느낍니다.✅ 무라벨의 편리함이 제품이 ‘그린 무라벨’ 버전이라 환경적인 측면에서도 좋고, 분리수거 시 라벨을 제거할 필요가 없어 훨씬 간편합니다. 육아하면서 나오는 쓰레기 정리도 꽤나 번거로운데, 이런 사소한 부분에서의 편의성이 체감될 정도로 큽니다.✅ 아기를 위한 물로서의 신뢰감아이가 돌이 지나면서 분유나 이유식용 물을 따로 신경 쓰게 되는데, 삼다수는 안정적이고 불순물이 적은 느낌이라 꾸준히 재구매하고 있습니다. 실제로 분유포트 안에 물을 오래 두어도 냄새나 침전이 거의 생기지 않아 청소 주기가 길어졌어요. 이런 점에서 ‘아이용 물’로 삼다수를 선택한 건 정말 잘한 결정이라 생각합니다.✔ 마무리하며결론적으로, 제주삼다수 무라벨 2L는 맛, 위생, 편의성, 배송 속도 어느 하나 부족함이 없는 제품입니다. 분유나 아기용 물로 고민 중이시라면 이 제품이 가장 무난하면서도 신뢰할 만한 선택이에요.읽어주셔서 감사합니다. 도움이 되셨다면 ‘도움이 돼요’ 부탁드립니다.</t>
+          <t>제주삼다수 그린 무라벨 2L × 12병 실사용 후기물을 고를 때는 늘 고민이 돼요.매일 마시는 거니까, 단순히 '싸고 양 많은 물'보다는 조금 더 깔끔하고 믿을 수 있는 브랜드를 찾게 되죠.그래서 이번에는 이름만 들어도 신뢰가 가는 “제주삼다수 그린 무라벨”을 선택했습니다.결론부터 말하자면, ‘역시 삼다수’라는 말이 절로 나왔어요.✅ **첫인상 &amp; 포장**택배 박스를 열었을 때 깔끔한 무라벨 생수가 한눈에 보였어요.요즘 환경 문제도 신경 쓰이다 보니, 라벨이 없다는 점이 정말 마음에 들더라고요.라벨을 일일이 떼어내는 번거로움도 없고, 재활용 분리수거도 훨씬 편했습니다.제품 포장도 단단하게 되어 있어서, 2L짜리 무게감 있는 병들이 흔들리지 않게 잘 도착했어요.✅ **물맛 &amp; 품질**제주삼다수는 이미 여러 번 마셔봤지만,이번 ‘그린 무라벨’ 버전은 유난히 더 깔끔하고 순한 느낌이 들었어요.특유의 미네랄 향이나 이물감이 없고, 입에 닿는 순간 부드럽게 넘어갑니다.찬물로 마셔도 목이 얼얼하지 않고, 미지근한 상태로 마셔도 텁텁함이 없어요.하루 종일 책상에 두고 수시로 마시기에도 부담이 없고, 커피나 차를 탈 때도 물맛이 방해되지 않아요.✅ **사용감 &amp; 편의성**2L 대용량이라 가정용으로 쓰기 정말 좋아요.한 병으로 하루 정도는 충분히 커버되고, 냉장고 문칸에 세워두기에도 적당한 크기입니다.라벨이 없으니까 병이 미끄럽지 않을까 걱정했는데,표면에 살짝 질감이 있어서 손에 잡을 때 안정감이 느껴졌어요.특히 분리수거할 때, 그냥 병뚜껑만 분리해서 버리면 끝이라 정말 편했습니다.매번 라벨 벗기고 잔여 접착제 떼던 그 번거로움이 사라지니까,이것만으로도 재구매 의사가 확실히 생겼어요.✅ **환경적 만족감**무라벨이라 단순히 깔끔해 보이는 걸 넘어서,‘조금이라도 환경에 덜 부담을 주고 있다’는 작은 보람이 생겨요.투명한 병 속 깨끗한 물이 보일 때마다, 뭔가 정갈한 기분이 든다고 할까요.특히 요즘 재활용 분리수거 스트레스가 많은데,라벨이 없는 생수는 그 자체로 편리함과 마음의 여유를 줍니다.⚠ **아쉬운 점**- 아무래도 2L짜리라 무게가 있어서 옮길 때는 살짝 힘들어요.- 가끔 배송 상황에 따라 병이 눌려 있거나 살짝 찌그러진 경우가 있었지만, 내용물엔 문제 없었어요.- 무라벨이라 브랜드 표기가 작게 되어 있어서,여러 생수를 섞어 두면 어떤 게 삼다수인지 헷갈릴 수 있어요.**총평**“제주삼다수 그린 무라벨 2L × 12개”는 단순한 생수가 아니라**일상 속에서 편리함과 깔끔함을 함께 주는 제품**이에요.마시는 순간 입안이 정리되는 느낌이 나고,라벨이 없는 투명한 병을 보고 있으면 괜히 기분이 맑아집니다.매일 마셔도 질리지 않는 깔끔한 물맛 덕분에,이젠 다른 브랜드보다 자연스럽게 삼다수를 찾게 되었어요.⭐ **평가**물맛 : ★★★★★환경편의성 : ★★★★★가성비 : ★★★★☆총점 : 4.8 / 5**한 줄 요약:**“깨끗함이 보이는 물, 환경까지 생각한 진짜 깔끔한 생수매일 마셔도 질리지 않고, 마음까지 맑아지는 느낌이에요.”</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>김*중</t>
+          <t>진*준</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2921,7 +2921,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2025.10.08</t>
+          <t>2025.10.25</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2931,16 +2931,16 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>생수는 삼다수죠!!!⭐️</t>
+          <t>깔끔하고 환경까지 생각한 대용량 생수 세트</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>물 하나도 괜찮은 게 많지만, 그중에서도 **‘제주삼다수 그린 무라벨 2L’**은 정말 믿고 마실 수 있는 제품이에요. 워낙 유명한 브랜드라 사실 설명이 필요 없을 정도지만, 실제로 대용량 무라벨 제품을 써보니 확실히 다른 점이 많아서 후기 남겨요우선 가장 큰 장점은 무라벨이라는 점이에요. 예전엔 물병 마실 때마다 라벨을 일일이 뜯어내서 분리수거해야 해서 은근히 번거로웠는데, 이건 그런 수고가 전혀 없어요. 그냥 바로 압축해서 페트병으로 버리면 끝이라서 너무 편해요. 특히 2L 대용량이라 집에서 정수기 대신 물 보관용으로 쓰거나, 냉장고에 넣어두고 바로바로 따라 마시기 좋아요. 환경 생각해서 라벨 없앤 제품이라 분리수거할 때 깔끔하고 죄책감도 덜해요.맛은 역시 삼다수 특유의 깔끔하고 부드러운 물맛! 그냥 생수지만 확실히 미네랄 밸런스가 잘 잡혀 있어서 목 넘김이 굉장히 부드럽고 텁텁함이 없어요. 특히 차갑게 냉장 보관했을 때는 진짜 산뜻해서 여름에도 물 많이 마시게 돼요. 아기 분유 탈 때나 요리용으로도 사용 중인데, 잡맛이나 냄새 전혀 없고 안정감 있는 물맛이라 안심돼요.패키지도 마음에 들어요. 무색 투명한 페트병이라 깨끗하고, 병 디자인이 단단하면서도 잡기 편하게 되어 있어서 손에 쏙 들어와요. 2L는 크기상 무게가 좀 있지만, 손잡이 부분이 약간 들어가 있어서 따를 때 미끄럽지 않아요. 물 따라 마실 때 흘림 없이 안정적으로 따를 수 있는 것도 장점이에요.또 하나 좋은 점은 대용량 12개입 구성이라는 점! 한 번 주문해두면 꽤 오래 쓸 수 있어서 무거운 물을 자주 사 올 필요가 없어요. 쿠팡 로켓배송으로 받으니까 무거운 걸 들고 올 필요도 없고, 상자 포장도 꼼꼼하게 되어 와서 새 제품 상태 그대로 왔어요. 병에 눌림이나 새는 거 전혀 없었어요.요즘엔 카페나 회사, 가정에서도 다들 무라벨 제품 선호하잖아요. 환경을 위해서라도 꼭 필요한 변화라고 생각하는데, 삼다수는 그걸 가장 깔끔하게 실천한 브랜드 같아요. 브랜드 신뢰도는 말할 것도 없고, 물맛·품질·편의성 모두 만족스러워요.총평:•	깔끔한 물맛, 잡맛 없음•	무라벨이라 분리수거 편하고 친환경적•	2L 대용량이라 가정용·요리용·분유용으로 좋음•	병 디자인도 튼튼하고 실용적•	배송 빠르고 포장 상태 완벽한 번 쓰면 다른 라벨 달린 생수는 불편해서 못 쓰게 될 정도예요. 환경도 생각하고, 실용성도 챙기고, 물맛까지 좋은 완벽한 생수! 앞으로도 계속 재구매 예정이에요⭐️⭐️⭐️⭐️⭐️ 5점 만점 중 5점! 완전 추천합니다!</t>
+          <t>⭐️⭐️⭐️⭐️⭐ (5/5)제주삼다수 그린 무라벨 2 L 12병 세트는 청정 제주 자연의 물맛과 무라벨 친환경 포장을 결합한 실속형 대용량 생수예요. 가족이 함께 쓰기에도 충분하고, 2 L 사이즈라 정수기나 냉장고에 바로 준비해 두기에도 편리해요먼저 무라벨 포장 덕분에 분리배출이 훨씬 간편했어요. 라벨 떼기 귀찮았던 과거 기억이 있는데 이 제품은 아예 라벨이 없어서 꺼내 쓰고 버릴 때도 마음이 가볍더라고요. 검색 정보에서도 “무라벨” 표시가 강조되어 있어요.  ￼물맛은 역시 삼다수답게 잡미 없이 깔끔하고 부드러운 목 넘김이 인상적이었어요. 마신 뒤 입안에 남는 물맛이 거의 없어서, 운동 후나 식사 직후에도 물만으로 깔끔하게 마무리되더라고요.또한 대용량 12병 구성이라 가정용 비축용·사무실 비치용으로 안성맞춤이에요. 특히 냉장고에 2 L 병을 두고 손쉬운 수분 보충이 가능하고, 가격 대비 양이 넉넉하다는 리뷰가 많아요.  ￼다만 보관이나 냉동 시엔 병의 크기 때문에 통로·냉장실 공간을 조금 차지한다는 점은 참고했으면 해요. 하지만 그 외에는 품질, 맛, 실용성 모두 만족스러워서 “매일 마시는 물인데 좀 더 깔끔하고 환경까지 생각하고 싶다”는 분께 특히 추천드릴만해요도움이 되셨다면 ‘도움돼요’ 눌러주세요</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>채니유니</t>
+          <t>김*태</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2959,26 +2959,26 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2025.10.07</t>
+          <t>2025.10.22</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>깔끔하고 가벼운 한 병, 환경까지 생각한 무라벨 삼다수</t>
+          <t>믿고 마시는 생수</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>요즘 물 소비량이 많아서 찾던 중, 환경까지 생각한 제주삼다수 그린 무라벨 330ml 40개 세트를 구매했어요. 실제로 써보니 편의성과 깔끔함, 그리고 친환경까지 모두 만족스러웠어요.먼저 무라벨이라서 너무 편해요. 분리수거할 때 라벨 뜯을 필요가 없어서 시간 절약되고, 재활용할 때도 훨씬 간단해요. 병이 투명하고 심플해서 냉장고에 정리해두면 보기에도 깔끔하고 산뜻합니다.330ml 용량은 정말 딱이에요. 한 번에 마시기 좋은 크기라 남김없이 마실 수 있고, 무겁지도 않아서 들고 다니기 좋습니다. 운동할 때, 출근길에, 외출 시에도 부담 없이 챙길 수 있어요. 아이들 도시락 물로 넣어줘도 크기가 적당해서 좋더라고요.물맛은 역시 제주삼다수답게 부드럽고 깔끔해요. 미네랄 밸런스가 좋아서 텁텁하지 않고 목 넘김이 아주 부드러워요. 냉장고에 시원하게 넣어두면 한 병 꺼내 마실 때마다 청량감이 확 올라와요.40개입 대용량 구성이라 가정용으로도 사무실용으로도 충분해요. 여름철엔 시원하게 냉장고에 넣어두고, 겨울엔 상온 보관으로도 좋아요. 캠핑이나 여행 갈 때 한 박스 챙기면 물 걱정이 전혀 없어요.특히 무라벨이라 환경을 생각하는 마음까지 더해지니 마실 때마다 기분이 좋아집니다. 작은 실천이지만 지구를 위한 선택이라는 점에서 만족감이 크더라고요.정리하자면✔️ 무라벨이라 분리수거 간편하고 친환경적✔️ 330ml 소용량으로 휴대성 우수✔️ 깔끔하고 부드러운 물맛✔️ 40개입 대용량으로 가성비 좋음✔️ 집, 사무실, 캠핑 등 어디서나 활용 가능깨끗한 물, 편한 소비, 환경까지 생각한다면 이 제품 정말 추천드려요.이 글이 도움이 되셨으면도움이돼요 꾹 눌러주세요 감사합니다.^^</t>
+          <t>✨구매동기요즘 진짜 집에서 대용량 생수 꼭 필요하잖아요? 저도 정수기 없이 그냥 생수로만 버티고 있는데, 라벨 떼는 게 너무 귀찮고 분리수거할 때도 손이 많이 가더라고요. 그러다 무라벨 삼다수를 알게 돼서 바로 시켜봤어요. 환경도 생각하고 싶고, 내 손도 덜 쓰고 싶어서요.✨제품설명쓸데없는 라벨 없이 심플해서 분리수거 엄청 쉬워요제주 화산암반수라 그런지 확실히 물맛이 깔끔하고 순해요2L라 냉장고에 몇 병 넣어두면 온 가족이 마음껏 마실 수 있어요비닐도 따로 없고, 그냥 뚜껑만 잘 분리하면 끝환경까지 신경 쓴 느낌이라 플라스틱 줄이는데 도움돼서 더 뿌듯해요​✨사용후기삼다수는 원래 믿고 마시는 브랜드라 맛은 당연히 좋아요. 무라벨이라 디자인도 군더더기 없이 깔끔하고, 병 모양도 기존이랑 비슷해서 들고 마시기 편하더라고요.특히 분리수거할 때 라벨 안 떼도 돼서 번거로움이 싹 사라졌어요. 가족끼리 많이 마시니까 2L가 딱 적당하고, 가격도 괜찮은 편이에요. 냉장고에 미리 넣어두고 차갑게 먹으면 진짜 더 맛있어요.환경 생각하면서 편하게 쓸 수 있어서 앞으로 생수는 이걸로 정착하려고요. 여름엔 캠핑 갈 때도 딱이고요.결론은, 번거로움 없이 깔끔하게 마시고 싶은 분이나 친환경 실천하고 싶은 분들은 강추합니다! 확실히 만족해요</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2989,7 +2989,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>윤*미</t>
+          <t>리뷰별</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -2997,22 +2997,26 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2025.10.07</t>
+          <t>2025.10.10</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 500ml, 60개</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>물맛은 단연 제주삼다수가 젤 좋아요</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>삼다수 무라벨은 대한민국 제주 청정 자연에서 온 생수로, 깨끗하고 신선한 물맛을 그대로 느낄 수 있는 제품입니다. 무엇보다 무라벨이라는 점이 큰 장점인데요, 기존의 플라스틱 라벨을 없애 환경 보호에 기여하는 친환경 제품이라는 점에서 많은 소비자들의 관심을 받고 있어요. 라벨이 없기 때문에 재활용 과정에서 플라스틱 분리 수거가 훨씬 용이해져, 플라스틱 폐기물 감축에 실질적인 도움을 줍니다. 이는 환경을 생각하는 요즘 소비 트렌드에 딱 맞는 친환경 아이템으로, 작은 실천 하나가 지구 보호에 큰 변화를 만든다는 메시지를 담고 있어요.삼다수 자체의 청정함은 이미 널리 인정받고 있죠. 제주도 화산암반수층에서 취수한 물로, 자연 정화 과정을 거쳐 미네랄 밸런스가 뛰어나고 목 넘김이 부드러워 남녀노소 누구나 부담 없이 마실 수 있습니다. 깨끗한 물맛과 품질을 유지하면서도, 무라벨 디자인 덕분에 더욱 깔끔하고 심플한 외관을 자랑해 어디서든 세련된 느낌을 줍니다.또한 삼다수 무라벨은 휴대가 편리한 다양한 용량으로 출시되어, 운동할 때나 여행, 사무실 등 일상 어디서나 간편하게 수분 보충이 가능해요. 무라벨 디자인으로 인해 라벨을 뜯고 버리는 번거로움이 줄어들고, 플라스틱 쓰레기 줄이기에 동참하는 실천이 자연스러워집니다.친환경 제품임에도 불구하고 기존 삼다수의 품질과 맛을 그대로 유지하고 있기 때문에, 환경 보호와 개인 건강을 동시에 챙기고 싶은 분들에게 안성맞춤이에요. 무라벨 생수를 선택하는 것은 단순히 물을 마시는 행위를 넘어, 지속 가능한 지구를 위한 작은 실천이기도 합니다.요약하면, 삼다수 무라벨은 깨끗한 제주 자연의 물맛과 뛰어난 품질을 유지하면서, 플라스틱 라벨 제거로 환경 보호에 기여하는 친환경 생수입니다. 깔끔한 디자인과 실용성까지 갖춰 일상 속에서 건강과 환경 모두를 생각하는 현명한 소비를 가능하게 해주는 제품이에요.</t>
+          <t>제주삼다수 그린, 500ml, 60개를 마셔본 솔직리뷰1. 구매한 이유생수를 고를 때 가장 중요하게 생각하는 건 ‘물맛’이에요.여러 브랜드를 마셔봤지만 결국 다시 돌아오게 되는 건 제주삼다수예요.이번에는 가정용으로 대용량 60개 세트를 구매했어요.가격은 다른 생수보다 조금 비싸지만, 그만큼의 가치가 있다고 생각해요.500ml 용량이라 외출할 때나 운동할 때 들고 다니기도 딱 좋고, 가족 모두가 함께 마시기에도 적당한 크기예요.2. 사용후기배송이 빠르고 박스 포장도 깔끔하게 왔어요.삼다수는 마실 때마다 느끼지만 정말 물맛이 부드럽고 깨끗해요.입안에서 맑고 청량한 느낌이 나면서도 텁텁함이 전혀 없어요.다른 브랜드 생수는 가끔 미묘하게 금속성 맛이 나거나 플라스틱 냄새가 날 때도 있는데, 삼다수는 그런 게 전혀 없어요.특히 냉장고에 차게 보관해뒀다가 마시면 목넘김이 정말 부드럽고, 아무리 많이 마셔도 질리지 않아요.청정 제주 지하 암반수라 그런지 자연 그대로의 미네랄 밸런스가 느껴져요.아이부터 어른까지 온 가족이 매일 마시기에 가장 믿을 수 있는 생수예요.3. 장점✅ 물맛이 정말 깨끗하고 부드러워요.다른 생수와 비교하면 확실히 차이가 느껴져요.✅ 청정 제주도 지하수로 만든 믿을 수 있는 품질이에요.✅ 500ml 용량이라 휴대성이 좋고, 한 번에 마시기 딱 좋은 크기예요.✅ 박스 단위로 넉넉하게 구성돼 있어 장기 보관이나 대가족용으로 좋아요.✅ 브랜드 신뢰도와 품질이 워낙 좋아 안심하고 마실 수 있어요.4. 아쉬운 점✔️ 가격이 다른 생수 브랜드에 비해 다소 비싼 편이에요.✔️ 무라벨 제품이라 날짜를 확인하거나 다른 제품과 구분하기 힘들때도 있어요✔️ 워낙 인기가 많아 가끔 품절일 때가 있어서 바로 주문이 안 될 때도 있어요.5. 재구매 의사있어요.삼다수는 가격이 조금 높더라도 그만큼의 품질이 충분히 보장되는 생수라고 생각해요.가족 모두 만족하고, 특히 물맛에 예민한 어머니도 삼다수만 찾으세요.매번 다른 브랜드를 시도해봐도 결국 다시 돌아오는 건 삼다수라 앞으로도 계속 재구매할 예정이에요.6. 총평제주삼다수 그린은 단연 생수 중 최고라고 할 수 있어요.맑고 청량한 물맛, 믿을 수 있는 품질, 그리고 제주도의 깨끗한 자연이 담긴 느낌까지 모두 만족스러워요.가격이 조금 비싸지만, 건강을 생각하면 그만큼의 값어치는 충분하다고 생각해요.♡제주삼다수 그린 500ml의 솔직한 리뷰가 도움이 되시길 바라며, 매일 깨끗하고 상쾌한 물을 마시고 싶다면 이 제품을 추천드려요!♡</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -3023,7 +3027,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>김*영</t>
+          <t>나무아빠</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3031,22 +3035,22 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2025.10.07</t>
+          <t>2025.10.09</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 1L, 18개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>《  제주삼다수 그린 무라벨, 1L, 18개  》1L 용은 단체로 여행갈 때 좀 더 편하게 들고갈 수 있어요2L는 집에서 마시고 500ml, 330ml 작은 사이즈는작은 사이즈대로 크기별로 삼다수 잘 마시고 있어요물이 떨어질때쯤 항상 구매 재구매해서 먹고 있어요골드박스 조금이라도 저렴할 때 자주 사놓기도 하고무라벨이 더 좋네요재활용하기 편하니깐요 ^^여름이라 물이 자주 마셔서더 빠른시일내 주문하게 되네요( 더운 여름날은 시원한 물이 바로 나오는정수기가 갖고 싶어지긴 하네요 ㅎ )물 맛은 언제나 괜찮고타사제품 맛이 다르면서 정말 입에 안 맞는 물도 있는데제주 삼다수는 언제나 옳네요 ^^물 맛이 좋아요♡제주 삼다수~정수기 없이 식수로 생수를 항상 사먹고 있어요언제나 제주 삼다수~ 구매해서 떨어지기전에항상 집에 있어야하지요골드박스에 몇천원이라도 저렴하게 뜨면쟁여놓고 구매하는 편이고라벨 비닐이 없는 생수통을 선호하는 편입니다물 맛은 언제나 좋으며생수마다 물맛이 다르긴 하네요 ㅎ삼다수 물 맛은 언제나 괜찮고 좋은 느낌을 받아요제조일자는 언제나 최근이라 더 믿고 마실 수 있어요페트병 재활용하기는 최고로 쉽고 좋으며분리수거 아주 잘 되고 있지요가끔 빈 생수통을 잘 말려서 연필, 색연필 꽂이로도사용했네요빈 생수통도 잘 말려두면 학교 준비물로 쓰일 때도 있어서몇 개씩은 보관중입니다계속 쭉 구매해서 잘 마실께요</t>
+          <t>ㅇ1. 제주삼다수 그린 무라벨 2L 12개 – 사용 후기안녕하세요. 돌 지난 아기를 양육 중이며 살림을 도맡아 하고 있는 30대 후반 남성입니다.아이 분유를 위해 물 선택에는 늘 신중한 편인데, 그중에서도 제주삼다수 그린 무라벨 2L 제품은 오랜 기간 꾸준히 믿고 사용해온 생수입니다.✅ 배송 및 가성비무엇보다 쿠팡에서 주문했을 때의 배송 속도와 가성비가 압도적으로 좋습니다. 오전에 주문하면 오후에 바로 도착할 정도로 빠른 편이라, 갑자기 물이 떨어졌을 때도 전혀 불안하지 않습니다. 여러 용량을 비교해봤지만 2L × 12개 세트가 가격 대비 효율이 가장 좋아요. 가정용으로 두고 사용하기에도 부담이 없고, 아이 분유나 요리용으로도 충분히 활용 가능합니다.✅ 맛과 품질 안정성삼다수는 이미 물맛으로는 정평이 나 있죠. 잡맛이 전혀 없고 깔끔하며, 마실 때마다 일정한 품질이 유지되는 점이 가장 마음에 듭니다. 특히 분유포트를 매일 사용하는 입장에서는 물의 잔류물 여부가 굉장히 중요합니다. 여러 브랜드 생수를 써봤지만, 어떤 물은 포트 바닥에 하얀 침전물이 남는 경우가 있었어요. 하지만 삼다수는 그런 현상이 거의 없어서 안심하고 사용할 수 있습니다. 아이가 마시는 분유용 물로는 이만한 제품이 없다고 느낍니다.✅ 무라벨의 편리함이 제품이 ‘그린 무라벨’ 버전이라 환경적인 측면에서도 좋고, 분리수거 시 라벨을 제거할 필요가 없어 훨씬 간편합니다. 육아하면서 나오는 쓰레기 정리도 꽤나 번거로운데, 이런 사소한 부분에서의 편의성이 체감될 정도로 큽니다.✅ 아기를 위한 물로서의 신뢰감아이가 돌이 지나면서 분유나 이유식용 물을 따로 신경 쓰게 되는데, 삼다수는 안정적이고 불순물이 적은 느낌이라 꾸준히 재구매하고 있습니다. 실제로 분유포트 안에 물을 오래 두어도 냄새나 침전이 거의 생기지 않아 청소 주기가 길어졌어요. 이런 점에서 ‘아이용 물’로 삼다수를 선택한 건 정말 잘한 결정이라 생각합니다.✔ 마무리하며결론적으로, 제주삼다수 무라벨 2L는 맛, 위생, 편의성, 배송 속도 어느 하나 부족함이 없는 제품입니다. 분유나 아기용 물로 고민 중이시라면 이 제품이 가장 무난하면서도 신뢰할 만한 선택이에요.읽어주셔서 감사합니다. 도움이 되셨다면 ‘도움이 돼요’ 부탁드립니다.</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -3057,7 +3061,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>제이현</t>
+          <t>김*중</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -3065,26 +3069,26 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2025.10.07</t>
+          <t>2025.10.08</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>정수기 없는 시절 필수템!</t>
+          <t>생수는 삼다수죠!!!⭐️</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>제가 요즘 가장 자주 찾는 생수가 바로 제주삼다수 그린무라벨 2리터입니다. 처음에는 단순히 삼다수니까 믿고 구매했는데, 마셔보니 왜 많은 분들이 삼다수를 고집하는지 알겠더라고요. 특히 이 제품은 무라벨 제품이라서 정말 마음에 들었습니다. 평소에 분리수거할 때 라벨을 따로 떼는 일이 꽤 번거로웠는데, 이 제품은 그런 수고로움이 없어서 아주 편하더라고요. 환경까지 생각한 실용적인 제품이라 만족도가 높습니다.맛은 말할 것도 없이 깔끔하고 부드러워요. 생수에서 가끔 느껴지는 불쾌한 잡맛이 전혀 없고, 마실 때마다 제주 화산암반수 특유의 청량함이 느껴집니다. 저는 커피를 내려 마실 때도 이 물을 사용하는데, 물 맛이 깔끔하니까 커피 본연의 맛도 더 잘 살아나는 느낌이에요.용량도 2리터라서 딱 좋습니다. 하루에 물을 많이 마시는 편인데, 작은 생수병은 금방 다 마시고 새로 꺼내야 해서 불편하거든요. 이건 냉장고에 한 병 넣어두면 하루 종일 충분히 마실 수 있어서 효율적이에요. 병 디자인도 아주 심플하고, 라벨이 없다 보니 더 미니멀한 느낌이라 마음에 들었습니다.요즘 환경 문제가 대두되면서 무라벨 제품에 대한 관심이 많아졌잖아요. 저도 작은 실천이지만 이런 친환경 제품을 선택함으로써 지구를 위해 조금이나마 도움이 되고 있다는 생각에 기분이 좋더라고요. 앞으로도 계속 그린무라벨 제품을 구매할 예정입니다.정리하자면, 제주삼다수 그린무라벨 2리터 생수는 맛과 실용성은 물론이고 환경까지 고려한 정말 만족스러운 제품입니다. 한 번 드셔보시면 왜 많은 분들이 이 제품을 선택하는지 바로 느끼실 거예요. 저는 이제 이 생수로 정착했습니다.</t>
+          <t>물 하나도 괜찮은 게 많지만, 그중에서도 **‘제주삼다수 그린 무라벨 2L’**은 정말 믿고 마실 수 있는 제품이에요. 워낙 유명한 브랜드라 사실 설명이 필요 없을 정도지만, 실제로 대용량 무라벨 제품을 써보니 확실히 다른 점이 많아서 후기 남겨요우선 가장 큰 장점은 무라벨이라는 점이에요. 예전엔 물병 마실 때마다 라벨을 일일이 뜯어내서 분리수거해야 해서 은근히 번거로웠는데, 이건 그런 수고가 전혀 없어요. 그냥 바로 압축해서 페트병으로 버리면 끝이라서 너무 편해요. 특히 2L 대용량이라 집에서 정수기 대신 물 보관용으로 쓰거나, 냉장고에 넣어두고 바로바로 따라 마시기 좋아요. 환경 생각해서 라벨 없앤 제품이라 분리수거할 때 깔끔하고 죄책감도 덜해요.맛은 역시 삼다수 특유의 깔끔하고 부드러운 물맛! 그냥 생수지만 확실히 미네랄 밸런스가 잘 잡혀 있어서 목 넘김이 굉장히 부드럽고 텁텁함이 없어요. 특히 차갑게 냉장 보관했을 때는 진짜 산뜻해서 여름에도 물 많이 마시게 돼요. 아기 분유 탈 때나 요리용으로도 사용 중인데, 잡맛이나 냄새 전혀 없고 안정감 있는 물맛이라 안심돼요.패키지도 마음에 들어요. 무색 투명한 페트병이라 깨끗하고, 병 디자인이 단단하면서도 잡기 편하게 되어 있어서 손에 쏙 들어와요. 2L는 크기상 무게가 좀 있지만, 손잡이 부분이 약간 들어가 있어서 따를 때 미끄럽지 않아요. 물 따라 마실 때 흘림 없이 안정적으로 따를 수 있는 것도 장점이에요.또 하나 좋은 점은 대용량 12개입 구성이라는 점! 한 번 주문해두면 꽤 오래 쓸 수 있어서 무거운 물을 자주 사 올 필요가 없어요. 쿠팡 로켓배송으로 받으니까 무거운 걸 들고 올 필요도 없고, 상자 포장도 꼼꼼하게 되어 와서 새 제품 상태 그대로 왔어요. 병에 눌림이나 새는 거 전혀 없었어요.요즘엔 카페나 회사, 가정에서도 다들 무라벨 제품 선호하잖아요. 환경을 위해서라도 꼭 필요한 변화라고 생각하는데, 삼다수는 그걸 가장 깔끔하게 실천한 브랜드 같아요. 브랜드 신뢰도는 말할 것도 없고, 물맛·품질·편의성 모두 만족스러워요.총평:•	깔끔한 물맛, 잡맛 없음•	무라벨이라 분리수거 편하고 친환경적•	2L 대용량이라 가정용·요리용·분유용으로 좋음•	병 디자인도 튼튼하고 실용적•	배송 빠르고 포장 상태 완벽한 번 쓰면 다른 라벨 달린 생수는 불편해서 못 쓰게 될 정도예요. 환경도 생각하고, 실용성도 챙기고, 물맛까지 좋은 완벽한 생수! 앞으로도 계속 재구매 예정이에요⭐️⭐️⭐️⭐️⭐️ 5점 만점 중 5점! 완전 추천합니다!</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -3095,7 +3099,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>장미9</t>
+          <t>채니유니</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3108,17 +3112,17 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>최고죠 ㅎㅎ</t>
+          <t>깔끔하고 가벼운 한 병, 환경까지 생각한 무라벨 삼다수</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[구매이유]집에 정수기가 없어서 물을 사먹는데 삼다수가 제일 맛이 좋은것 같아서 구매해서 먹고있어요[후기]1. 물맛이 좋아요물이 다 무맛으로 크게 차이 없을 수 있지만 미묘하게 느끼는 사람들은 느끼는 그런 맛이 있는것 같아요.제가 느낀 삼다수는 상쾌하고 비린맛이 없고 깔끔한 맛이 좋은것 같아요. 가끔 대형마트에서 사오는 저렴한 제품이랑 섞어서 먹는데 확실히 두개는 다른 느낌이 있어서 삼다수가 더 깔끔하고 좋은것 같아서 우리집에 아이들은 삼다수 위주로 주고있어요2. 수원지가 믿음직해요아직 때묻지 않은 지역이 제주도라고 생각되요.깨끗한 화산암반수를 마실수 있는 수원지이다 보니 믿음이 가는 물인것 같아요.우리나라 대부분이 화산지역이지만 그래도 제주도는 특별히 화산지대이다보니 물이 더욱 더 깨끗할 거라는 믿음과 사실이 있을것 같아요.3. 무라벨 병이라 친환경적이에요.요즘 분리수거가 까다로워져서 라벨도 떼어내고 버려야 하는경우가 있는데 그런점에서 무라벨이라서 아주 좋은것 같아요.]4. 물에 대한 믿음이 있다보니 우리집에 아이들은 삼다수만 주고있어요가격이 다른 물보다 비싼 이유가 있을거라고 생각하고 우리아이들에게는 깨끗한 물만 주고싶어서 삼다수만 주고있어요어른들은 이곳저곳에서 아무 물이나 마시니 집에서도 끓여도 먹고 다른 싼 제품 물 먹는데 아이들은 비싸더라도 태어났을때부터 분유물부터 삼다수만 쓰게 되더라고요계속 아이들은 삼다수를 줄거 같아요.</t>
+          <t>요즘 물 소비량이 많아서 찾던 중, 환경까지 생각한 제주삼다수 그린 무라벨 330ml 40개 세트를 구매했어요. 실제로 써보니 편의성과 깔끔함, 그리고 친환경까지 모두 만족스러웠어요.먼저 무라벨이라서 너무 편해요. 분리수거할 때 라벨 뜯을 필요가 없어서 시간 절약되고, 재활용할 때도 훨씬 간단해요. 병이 투명하고 심플해서 냉장고에 정리해두면 보기에도 깔끔하고 산뜻합니다.330ml 용량은 정말 딱이에요. 한 번에 마시기 좋은 크기라 남김없이 마실 수 있고, 무겁지도 않아서 들고 다니기 좋습니다. 운동할 때, 출근길에, 외출 시에도 부담 없이 챙길 수 있어요. 아이들 도시락 물로 넣어줘도 크기가 적당해서 좋더라고요.물맛은 역시 제주삼다수답게 부드럽고 깔끔해요. 미네랄 밸런스가 좋아서 텁텁하지 않고 목 넘김이 아주 부드러워요. 냉장고에 시원하게 넣어두면 한 병 꺼내 마실 때마다 청량감이 확 올라와요.40개입 대용량 구성이라 가정용으로도 사무실용으로도 충분해요. 여름철엔 시원하게 냉장고에 넣어두고, 겨울엔 상온 보관으로도 좋아요. 캠핑이나 여행 갈 때 한 박스 챙기면 물 걱정이 전혀 없어요.특히 무라벨이라 환경을 생각하는 마음까지 더해지니 마실 때마다 기분이 좋아집니다. 작은 실천이지만 지구를 위한 선택이라는 점에서 만족감이 크더라고요.정리하자면✔️ 무라벨이라 분리수거 간편하고 친환경적✔️ 330ml 소용량으로 휴대성 우수✔️ 깔끔하고 부드러운 물맛✔️ 40개입 대용량으로 가성비 좋음✔️ 집, 사무실, 캠핑 등 어디서나 활용 가능깨끗한 물, 편한 소비, 환경까지 생각한다면 이 제품 정말 추천드려요.이 글이 도움이 되셨으면도움이돼요 꾹 눌러주세요 감사합니다.^^</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -3133,7 +3137,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>김*인</t>
+          <t>윤*미</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3141,22 +3145,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2025.10.06</t>
+          <t>2025.10.07</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>생수를 거의 매일 마시는 편이라 집에 항상 대용량 생수를 쟁여두는데, 여러 브랜드를 써본 끝에 결국 다시 돌아오게 되는 건 역시 ‘제주삼다수’예요. 이번에는 환경까지 고려해 무라벨 제품으로 주문해봤는데, 결론부터 말하자면 만족도가 아주 높았습니다.우선 물맛부터 이야기하자면, 삼다수는 특유의 깔끔하고 부드러운 맛이 확실히 느껴집니다. 입안에서 이질감 없이 자연스럽게 넘어가고, 미묘하게 느껴지는 미네랄감 덕분에 밋밋하지 않아요. 냉장고에 넣어 차갑게 마시면 청량감이 뛰어나고, 상온에서도 텁텁함 없이 산뜻해서 하루 수분 섭취용으로도, 커피나 차를 탈 때도 좋습니다. 특히 물을 끓였을 때도 잡맛이 없어서 아기 분유나 요리용으로 쓰기에도 안심이 되더라고요.무라벨 디자인도 생각보다 훨씬 편리했습니다. 분리수거할 때 일일이 라벨을 떼어낼 필요가 없고, 용기 자체가 깔끔해서 보기에도 좋아요. 환경을 생각하는 작은 실천이지만, 매번 생수를 소비하는 입장에서 이런 부분이 은근히 큰 만족을 줍니다. 페트병 자체도 단단하고 뒤틀림이 적어서 장시간 보관해도 안정감이 있고, 물을 따를 때 흐르거나 쏟아지는 일도 없었어요.용량은 2L라서 냉장고 문 쪽에도 딱 맞고, 가족이 함께 먹어도 이틀 정도는 충분히 버텨서 자주 갈아 끼우지 않아도 되는 점이 좋았습니다. 12개 묶음이라 한번 주문해두면 오래 사용할 수 있어 경제적이고, 가격 대비 용량도 만족스러워요. 무게가 제법 나가니 택배로 바로 문앞까지 배송받는 편리함도 큰 장점입니다.전반적으로 물맛, 품질, 환경, 편리함까지 모두 갖춘 생수라 앞으로도 계속 재구매할 예정입니다. 집은 물론 사무실, 운동용, 캠핑용으로도 다 활용 가능하고, 특히 건강과 물의 질에 민감한 분들께 강력 추천드려요. **“물은 물이지만, 매일 마실 물이라면 삼다수”**라는 말이 딱 맞는 제품입니다.</t>
+          <t>삼다수 무라벨은 대한민국 제주 청정 자연에서 온 생수로, 깨끗하고 신선한 물맛을 그대로 느낄 수 있는 제품입니다. 무엇보다 무라벨이라는 점이 큰 장점인데요, 기존의 플라스틱 라벨을 없애 환경 보호에 기여하는 친환경 제품이라는 점에서 많은 소비자들의 관심을 받고 있어요. 라벨이 없기 때문에 재활용 과정에서 플라스틱 분리 수거가 훨씬 용이해져, 플라스틱 폐기물 감축에 실질적인 도움을 줍니다. 이는 환경을 생각하는 요즘 소비 트렌드에 딱 맞는 친환경 아이템으로, 작은 실천 하나가 지구 보호에 큰 변화를 만든다는 메시지를 담고 있어요.삼다수 자체의 청정함은 이미 널리 인정받고 있죠. 제주도 화산암반수층에서 취수한 물로, 자연 정화 과정을 거쳐 미네랄 밸런스가 뛰어나고 목 넘김이 부드러워 남녀노소 누구나 부담 없이 마실 수 있습니다. 깨끗한 물맛과 품질을 유지하면서도, 무라벨 디자인 덕분에 더욱 깔끔하고 심플한 외관을 자랑해 어디서든 세련된 느낌을 줍니다.또한 삼다수 무라벨은 휴대가 편리한 다양한 용량으로 출시되어, 운동할 때나 여행, 사무실 등 일상 어디서나 간편하게 수분 보충이 가능해요. 무라벨 디자인으로 인해 라벨을 뜯고 버리는 번거로움이 줄어들고, 플라스틱 쓰레기 줄이기에 동참하는 실천이 자연스러워집니다.친환경 제품임에도 불구하고 기존 삼다수의 품질과 맛을 그대로 유지하고 있기 때문에, 환경 보호와 개인 건강을 동시에 챙기고 싶은 분들에게 안성맞춤이에요. 무라벨 생수를 선택하는 것은 단순히 물을 마시는 행위를 넘어, 지속 가능한 지구를 위한 작은 실천이기도 합니다.요약하면, 삼다수 무라벨은 깨끗한 제주 자연의 물맛과 뛰어난 품질을 유지하면서, 플라스틱 라벨 제거로 환경 보호에 기여하는 친환경 생수입니다. 깔끔한 디자인과 실용성까지 갖춰 일상 속에서 건강과 환경 모두를 생각하는 현명한 소비를 가능하게 해주는 제품이에요.</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -3167,7 +3171,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>김*자</t>
+          <t>김*영</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3175,26 +3179,22 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2025.10.06</t>
+          <t>2025.10.07</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>무라벨로 환경걱정까지 없어지는 삼다수</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 1L, 18개</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>저는 물 마시는 걸 하루의 중요한 루틴으로 생각해요. 아침에 일어나서 한 잔, 점심 후에 한 잔, 저녁 산책하고 나서도 한 잔씩 마시면 몸이 개운해지거든요. 하지만 예전에 사던 생수병은 라벨 때문에 재활용이 정말 귀찮았어요. 라벨을 떼려면 손에 끈적한 접착제가 묻고, 물에 젖어서 미끄러워지니 제대로 안 떨어지더라고요. 결국 병이 더러워져서 씻기도 힘들고, 쌓아두다 보면 부엌이 어수선해졌어요. 환경 걱정도 되고, 스트레스가 쌓이니 물 마시는 게 즐겁지 않았죠. 수도물을 끓여 마셔봤지만 맛이 밍밍하고 냄새가 나서 자꾸 손이 안 갔어요. 그러다 보니 물을 덜 마시게 되고, 피부가 건조하거나 변비가 생기는 날이 많아졌어요. 매일 물 충분히 마셨는지 확인하는 게 습관이 됐지만, 그 과정 자체가 좀 피곤했어요.그러다 무라벨 생수라는 걸 알게 됐어요. 처음엔 라벨 없으면 병이 쉽게 더러워질까, 제주삼다수가 정말 맛있을까 걱정했지만, 후기가 좋아서 한번 사봤어요. 라벨 떼는 수고 없이 깨끗하고 부드러운 물을 편리하게 마실 수 있어서 정말 잘한 선택이었어요.이 제품의 가장 큰 장점은 무라벨이라 재활용이 간단하다는 거예요. 투명한 페트병에 제주삼다수 로고만 살짝 새겨져 있어서 헹구고 바로 분리수거하면 끝이에요. 이제 라벨 처리 시간 아끼니 부엌 정리가 훨씬 쉬워졌어요. 아침에 급하게 물 챙길 때도 손이 더러워질 걱정 없이 병을 쥘 수 있어서 편하고, 퇴근 후 집에 와서 병 바로 씻어서 재사용하거나 버리기 쉬워요. 플라스틱 쓰레기 줄이는 데 도움 되는 기분이라 마실 때마다 뿌듯해요. 예전엔 라벨 때문에 병이 쌓여서 부엌이 지저분했는데, 이제는 깔끔해져서 집안 분위기가 한결 나아졌어요. 그린 라벨이라는 이름처럼 환경에 신경 쓴 제품이라 더 마음에 들었어요.2L 용량에 12개 세트는 우리 같은 소가족에 딱 맞아요. 한 병이 2L라서 하루에 나눠 마시기 적당하고, 12개면 보름 넘게 넉넉히 써요. 병이 너무 크지도 작지도 않아서 냉장고에 세워두기 좋고, 무게도 2kg 정도로 들기 부담 없어요. 무라벨이라 병 표면이 매끄러워 먼지가 덜 쌓이고, 물티슈로 닦으면 금방 깨끗해져요. 배송 올 때 상자가 튼튼해서 병이 깨지지 않고 안전하게 왔고, 상자 열고 바로 냉장고에 넣기 편했어요. 차갑게 마시면 더 시원하고, 상온으로 두어도 맛이 그대로예요. 칼로리가 거의 없고 미네랄이 적당히 들어가서 속도 편안해요. 약알칼리성(pH 7.7 정도)이라 소화도 잘 된다고 하더라고요.이 물은 제주산 화산 암반수로 만들어져서 믿음이 가요. 한라산 천연 화산층을 통과한 청정 지하수라 순수하고 깨끗한 느낌이 들어요. 수입 생수는 맛이 다르거나 불순물이 걱정됐는데, 이건 국내산이라 안심되고 부드러워요. 물맛이 가볍고 청량해서 마실 때마다 제주 자연이 떠오르는 기분이에요. 미네랄 함량이 적절해서 목 넘김이 좋아 일반 생수보다 더 상쾌해요. 차갑게 마시거나 상온으로 두고 남편이랑 나눠 마셔도 맛이 한결같아요. 여름에 산책 후 한 모금 마시면 갈증이 싹 풀리고, 매일 마시다 보니 피부가 촉촉해지고 변비도 덜한 것 같아요. 무라벨이라 플라스틱 쓰레기 줄이는 데 기여하는 느낌이 들어서, 환경 생각하는 마음도 커졌어요.제주삼다수 그린 무라벨은 여러모로 유용해요. 주로 마시는 용도로 쓰지만, 요리할 때도 자주 써요. 남편이 좋아하는 된장찌개나 미역국 끓일 때 이 물 넣으면 국물이 부드럽고 잡내가 없더라고요. 라벨 없으니 병을 요리에 바로 써도 깔끔해서 좋아요. 약 먹을 때 물통에 덜어서 챙기거나, 손주들 올 때 2L 병으로 나눠 마시기 편했어요. 화분에 물 주거나 세탁기 청소할 때도 썼는데, 물이 깨끗해서 안심됐어요. 병이 재사용하기 쉬워서 플라스틱 쓰레기 걱정이 줄었어요. 12개 세트라 가격도 합리적이고, 가성비가 좋아서 다음엔 정기 배송 해볼까 생각 중이에요. 처음엔 병이 살짝 미끄러워서 잡기 불편했지만, 금방 익숙해졌어요. 너무 차가우면 입이 시릴 때가 있는데, 상온으로 두면 부드럽게 마실 수 있어요.라벨 떼는 게 귀찮으셨다면 제주삼다수 그린 무라벨, 2L, 12개를 꼭 한번 사보세요. 편리함, 신선한 맛, 환경까지 생각한 제품이라 정말 만족스러워요. 우리 부부 일상에 딱 맞는 물이에요</t>
+          <t>《  제주삼다수 그린 무라벨, 1L, 18개  》1L 용은 단체로 여행갈 때 좀 더 편하게 들고갈 수 있어요2L는 집에서 마시고 500ml, 330ml 작은 사이즈는작은 사이즈대로 크기별로 삼다수 잘 마시고 있어요물이 떨어질때쯤 항상 구매 재구매해서 먹고 있어요골드박스 조금이라도 저렴할 때 자주 사놓기도 하고무라벨이 더 좋네요재활용하기 편하니깐요 ^^여름이라 물이 자주 마셔서더 빠른시일내 주문하게 되네요( 더운 여름날은 시원한 물이 바로 나오는정수기가 갖고 싶어지긴 하네요 ㅎ )물 맛은 언제나 괜찮고타사제품 맛이 다르면서 정말 입에 안 맞는 물도 있는데제주 삼다수는 언제나 옳네요 ^^물 맛이 좋아요♡제주 삼다수~정수기 없이 식수로 생수를 항상 사먹고 있어요언제나 제주 삼다수~ 구매해서 떨어지기전에항상 집에 있어야하지요골드박스에 몇천원이라도 저렴하게 뜨면쟁여놓고 구매하는 편이고라벨 비닐이 없는 생수통을 선호하는 편입니다물 맛은 언제나 좋으며생수마다 물맛이 다르긴 하네요 ㅎ삼다수 물 맛은 언제나 괜찮고 좋은 느낌을 받아요제조일자는 언제나 최근이라 더 믿고 마실 수 있어요페트병 재활용하기는 최고로 쉽고 좋으며분리수거 아주 잘 되고 있지요가끔 빈 생수통을 잘 말려서 연필, 색연필 꽂이로도사용했네요빈 생수통도 잘 말려두면 학교 준비물로 쓰일 때도 있어서몇 개씩은 보관중입니다계속 쭉 구매해서 잘 마실께요</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
@@ -3205,7 +3205,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>박*영</t>
+          <t>제이현</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3213,22 +3213,22 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2025.11.11</t>
+          <t>2025.10.07</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>제주삼다수 그린, 500ml, 20개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>환경도 생각하고, 건강도 챙길 수 있는 좋은 선택</t>
+          <t>정수기 없는 시절 필수템!</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>제주삼다수는 늘 믿고 마시는 생수라 이번에도 고민 없이 구매했습니다. 특히 이번에 구매한 "그린" 버전은 플라스틱 캡이 없어서 더 환경친화적인 제품이라 좋았습니다. 작은 변화지만 이런 노력이 모이면 환경 보호에 도움이 될 거라는 점에서 더욱 마음에 들었어요.500ml 사이즈라 외출할 때나 운동할 때 휴대하기 딱 좋고, 물맛도 역시 제주삼다수답게 아주 깔끔합니다. 너무 차가우면 목에 부담을 주는 경우도 있는데 이 제품은 미지근해도 맛이 부드러워서 자주 손이 갔어요. 무엇보다 20개 묶음으로 구매하니 가격도 합리적이고, 배송도 생각보다 빨라서 좋았습니다.좋았던 점- 환경을 생각한 친환경 디자인이 인상적이었습니다.- 휴대하기 간편한 500ml 사이즈라 어느 상황에서든 편리했습니다.- 늘 마셔도 질리지 않는 끔하고 부드러운 물맛환경도 생각하고, 건강도 챙길 수 있는 좋은 선택이었다고 생각합니다. 앞으로도 재구매할 예정이고 , 이번에도 만족스러웠어요. 고민하시는 분들께 자신 있게 추천드립니다.</t>
+          <t>제가 요즘 가장 자주 찾는 생수가 바로 제주삼다수 그린무라벨 2리터입니다. 처음에는 단순히 삼다수니까 믿고 구매했는데, 마셔보니 왜 많은 분들이 삼다수를 고집하는지 알겠더라고요. 특히 이 제품은 무라벨 제품이라서 정말 마음에 들었습니다. 평소에 분리수거할 때 라벨을 따로 떼는 일이 꽤 번거로웠는데, 이 제품은 그런 수고로움이 없어서 아주 편하더라고요. 환경까지 생각한 실용적인 제품이라 만족도가 높습니다.맛은 말할 것도 없이 깔끔하고 부드러워요. 생수에서 가끔 느껴지는 불쾌한 잡맛이 전혀 없고, 마실 때마다 제주 화산암반수 특유의 청량함이 느껴집니다. 저는 커피를 내려 마실 때도 이 물을 사용하는데, 물 맛이 깔끔하니까 커피 본연의 맛도 더 잘 살아나는 느낌이에요.용량도 2리터라서 딱 좋습니다. 하루에 물을 많이 마시는 편인데, 작은 생수병은 금방 다 마시고 새로 꺼내야 해서 불편하거든요. 이건 냉장고에 한 병 넣어두면 하루 종일 충분히 마실 수 있어서 효율적이에요. 병 디자인도 아주 심플하고, 라벨이 없다 보니 더 미니멀한 느낌이라 마음에 들었습니다.요즘 환경 문제가 대두되면서 무라벨 제품에 대한 관심이 많아졌잖아요. 저도 작은 실천이지만 이런 친환경 제품을 선택함으로써 지구를 위해 조금이나마 도움이 되고 있다는 생각에 기분이 좋더라고요. 앞으로도 계속 그린무라벨 제품을 구매할 예정입니다.정리하자면, 제주삼다수 그린무라벨 2리터 생수는 맛과 실용성은 물론이고 환경까지 고려한 정말 만족스러운 제품입니다. 한 번 드셔보시면 왜 많은 분들이 이 제품을 선택하는지 바로 느끼실 거예요. 저는 이제 이 생수로 정착했습니다.</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>hSue</t>
+          <t>장미9</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3251,26 +3251,26 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2025.10.06</t>
+          <t>2025.10.07</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>작은 병이라서 2리터짜리 큰 병보다 깔끔한 거 같아요</t>
+          <t>최고죠 ㅎㅎ</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>예전에는 2리터짜리 큰 생수를 사다 마셨는데빨리 못 마실 때도 있고 관리가 안 되는 거 같아서.. 제일 작은 330ml짜리로 갈아 탔어요작은 병이라 마시기에도 부담없고 남길 일도 별로 없어서 자기 전이나 외출하고 들어 오기 전 깔끔하게 비우고 버리면 되어서 좋더라고요따지고보면 2리터 큰 용량으로 구입하면 쬐금 더 저렴하기는 하지만, 바로바로 비워지니까 관리가 잘 되어서 좋은 거 같습니다외출할 때도 적은 용량이 좋아요500ml는 가방에 넣으면 부피도 커지구 무겁고, 손에 들고 이동하기에도 살짝 부담이 있었거든요330ml는 손바닥 안에 들어오는 느낌이라 손에 쥐고 걸으면서 마시기도 무리가 없어요가방 지퍼를 닫을 때 병 목 부분이 걸리적거리는 일도 덜했고요회사 사무실에서도 옆에 하나 두면 일하는 동안 중간중간 꺼내 마시기 좋았어요그리고 무라벨이기 때문에 시선을 뺏길일이 없어 집중하는데 방해도 되지 않고 그렇네요투명한 병에 브랜드명이 각인되어 있어서 시각적으로도 정리된 느낌이었어요어수선해 보이지 않아 마음에 들었음보관할 때도 선반에 투명하게 같은 병이 가지런히 서 있으면 잡동사니가 줄어든 듯한 안정감이 있더라구요그리고 병에 물방울이 맺혀도 라벨이 젖어 손에 붙는 일이 없고, 마신 뒤에는 병만 쓱 눌러서 부피를 줄이고 재활용 통에 넣으면 끝이에요마음에 들어서 다음에도 무라벨 330mL로 구입하려구요</t>
+          <t>[구매이유]집에 정수기가 없어서 물을 사먹는데 삼다수가 제일 맛이 좋은것 같아서 구매해서 먹고있어요[후기]1. 물맛이 좋아요물이 다 무맛으로 크게 차이 없을 수 있지만 미묘하게 느끼는 사람들은 느끼는 그런 맛이 있는것 같아요.제가 느낀 삼다수는 상쾌하고 비린맛이 없고 깔끔한 맛이 좋은것 같아요. 가끔 대형마트에서 사오는 저렴한 제품이랑 섞어서 먹는데 확실히 두개는 다른 느낌이 있어서 삼다수가 더 깔끔하고 좋은것 같아서 우리집에 아이들은 삼다수 위주로 주고있어요2. 수원지가 믿음직해요아직 때묻지 않은 지역이 제주도라고 생각되요.깨끗한 화산암반수를 마실수 있는 수원지이다 보니 믿음이 가는 물인것 같아요.우리나라 대부분이 화산지역이지만 그래도 제주도는 특별히 화산지대이다보니 물이 더욱 더 깨끗할 거라는 믿음과 사실이 있을것 같아요.3. 무라벨 병이라 친환경적이에요.요즘 분리수거가 까다로워져서 라벨도 떼어내고 버려야 하는경우가 있는데 그런점에서 무라벨이라서 아주 좋은것 같아요.]4. 물에 대한 믿음이 있다보니 우리집에 아이들은 삼다수만 주고있어요가격이 다른 물보다 비싼 이유가 있을거라고 생각하고 우리아이들에게는 깨끗한 물만 주고싶어서 삼다수만 주고있어요어른들은 이곳저곳에서 아무 물이나 마시니 집에서도 끓여도 먹고 다른 싼 제품 물 먹는데 아이들은 비싸더라도 태어났을때부터 분유물부터 삼다수만 쓰게 되더라고요계속 아이들은 삼다수를 줄거 같아요.</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>허니슈크림</t>
+          <t>김*인</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3294,21 +3294,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>330mL 용량도 적당하고 무라벨이라 더 좋은 거같아요</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>요즘 외출이 잦아지면서 생수를 작은 걸로 바꿔봤어요. 집에서는 끓인 물을 주로 마시지만, 준비가 안 되어 있거나 급하게 나가야 할 때는 작은 병이 훨씬 편하더라고요라벨이 없는 투명 병이라 보기에도 단정하고, 마시고 나서 분리수거할 때 라벨을 따로 떼지 않아도 되는 게 실제로 편해요우선 크기가 마음에 들어요. 330ml라서 한 손에 쥐기 부담이 없고, 가방에 넣었을 때 무게가 크게 느껴지지 않아요500ml는 반쯤 남기기 쉬웠는데, 330은 양이 적당하더하고요차 컵홀더에도 잘 맞궁~ 병 둘레가 손에 안정적으로 감겨서 걸으면서 마시기에도 좋구요라벨이 없다는 점은 쓰기 전에는 큰 차이를 못 느꼈는데, 쓰고 보니 깔끔하고 더 편해요병 표면에 물방울이 맺혀도 라벨이 젖어 손에 달라붙는 일이 없고, 재활용 분리할 때도 병만 눌러서 부피 줄여 바로 넣으면 끝이라 마무리도 간단함아이랑 같이 다닐 때도 이 사이즈가 맞아요. 2리터는 당연히 들고 다닐 수 없고, 500ml도 좀 부담스러운데 산책하면서 한두 모금씩 마시고, 놀이터에서 잠깐 뛰다 와서 또 한 모금 마시면 적당히 비워져요삼다수라 수질도 괜찮은 거 같고 상온이어도 꿀꺽 넘어가고, 냉장고에서 바로 꺼내면 더 시원하게 느껴져요330mL 용량도 적당하고 무라벨이라 더 좋은 거 같습니다!!괜찮아서 앞으로도 계속 이걸로 구입하려구요굿입니당~</t>
+          <t>생수를 거의 매일 마시는 편이라 집에 항상 대용량 생수를 쟁여두는데, 여러 브랜드를 써본 끝에 결국 다시 돌아오게 되는 건 역시 ‘제주삼다수’예요. 이번에는 환경까지 고려해 무라벨 제품으로 주문해봤는데, 결론부터 말하자면 만족도가 아주 높았습니다.우선 물맛부터 이야기하자면, 삼다수는 특유의 깔끔하고 부드러운 맛이 확실히 느껴집니다. 입안에서 이질감 없이 자연스럽게 넘어가고, 미묘하게 느껴지는 미네랄감 덕분에 밋밋하지 않아요. 냉장고에 넣어 차갑게 마시면 청량감이 뛰어나고, 상온에서도 텁텁함 없이 산뜻해서 하루 수분 섭취용으로도, 커피나 차를 탈 때도 좋습니다. 특히 물을 끓였을 때도 잡맛이 없어서 아기 분유나 요리용으로 쓰기에도 안심이 되더라고요.무라벨 디자인도 생각보다 훨씬 편리했습니다. 분리수거할 때 일일이 라벨을 떼어낼 필요가 없고, 용기 자체가 깔끔해서 보기에도 좋아요. 환경을 생각하는 작은 실천이지만, 매번 생수를 소비하는 입장에서 이런 부분이 은근히 큰 만족을 줍니다. 페트병 자체도 단단하고 뒤틀림이 적어서 장시간 보관해도 안정감이 있고, 물을 따를 때 흐르거나 쏟아지는 일도 없었어요.용량은 2L라서 냉장고 문 쪽에도 딱 맞고, 가족이 함께 먹어도 이틀 정도는 충분히 버텨서 자주 갈아 끼우지 않아도 되는 점이 좋았습니다. 12개 묶음이라 한번 주문해두면 오래 사용할 수 있어 경제적이고, 가격 대비 용량도 만족스러워요. 무게가 제법 나가니 택배로 바로 문앞까지 배송받는 편리함도 큰 장점입니다.전반적으로 물맛, 품질, 환경, 편리함까지 모두 갖춘 생수라 앞으로도 계속 재구매할 예정입니다. 집은 물론 사무실, 운동용, 캠핑용으로도 다 활용 가능하고, 특히 건강과 물의 질에 민감한 분들께 강력 추천드려요. **“물은 물이지만, 매일 마실 물이라면 삼다수”**라는 말이 딱 맞는 제품입니다.</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80">
@@ -3319,7 +3315,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>쿠팡실구매자</t>
+          <t>김*자</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3327,7 +3323,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2025.10.05</t>
+          <t>2025.10.06</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3337,16 +3333,16 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>N번 시킴</t>
+          <t>무라벨로 환경걱정까지 없어지는 삼다수</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>-구매후기-솔직히 꾸둔히 매번 한달에 두번정도는 시키는 것 같아요…마트가서 물사서 오기엔 부모님은 안될 것 같아서 ㅜㅜ 그냥 쿠팡으로 바로 주문합니다!제가 차로 가서 사지 않는 한…물은 너무 무거워서 그냥 쿠팡으로 이렇게 주문할 것 같아요!!쿠팡의 장점이 전날 구매하면 담날 문앞에 오는 게 정말 최대 장점이라고 생각이 듭니다!그죠? 다들 아실꺼라 생각이 듭니당^^삼다수는~~제주특별자치도개발공사가 생산하고 광동제약이 판매하는 생 수. '국민 생수'로 불릴 정도로 국내에서는 가장 인지도가 높은 생수 브랜드입니다!용량은 대중적인 2L와 500mL가 있고, 2018년 10월 즈음에 1L와 330mL 제품이 추가로 출시되었다고해요!!정 식 명칭은 제주 삼다수로, 화산암반이 필터 역할을 해내는 화산 암반수라고 합니다~~~무기물질 함량 (mg/L)칼슘(Ca): 2.5~4.0칼륨(K): 1.5~3.4나트륨(Na): 4.0~7.2마그네슘(Mg): 1.7~3.5불소(F): 불검출 (불소는 2.0mg/L 이하가 '먹는 샘물'의 수질 기준이에요)이외에도 극미량의 바나듐이 포함되어 있다고 합니다.유럽 지역의 유명 생수들보다 석회질(칼슘) 비중이 상당히 낮아요.또한 본토에서 생산되는 거의 대부분의 생수보다도 석회질이 적다고 해요!또 외국에서 흔히 유통되는 총미네랄함량(TDS)가 높은 생수와 는 반대로, 원래부터 석회가 없는 맑은 물을 채수하여 사용하기 때문에 단물 중에서도 TDS가 가장 낮은 축에 속하는 생수라고 합니다~^^늘 먹는 물이지만 알고 먹으니 더 좋은 거 같네요~제 리뷰가 도움이 되셨으면 좋겠습니다^__^제 리뷰가 도움이 되셨다면 ‘도움이 되요’ 꾸욱 부탁드려요*^^*</t>
+          <t>저는 물 마시는 걸 하루의 중요한 루틴으로 생각해요. 아침에 일어나서 한 잔, 점심 후에 한 잔, 저녁 산책하고 나서도 한 잔씩 마시면 몸이 개운해지거든요. 하지만 예전에 사던 생수병은 라벨 때문에 재활용이 정말 귀찮았어요. 라벨을 떼려면 손에 끈적한 접착제가 묻고, 물에 젖어서 미끄러워지니 제대로 안 떨어지더라고요. 결국 병이 더러워져서 씻기도 힘들고, 쌓아두다 보면 부엌이 어수선해졌어요. 환경 걱정도 되고, 스트레스가 쌓이니 물 마시는 게 즐겁지 않았죠. 수도물을 끓여 마셔봤지만 맛이 밍밍하고 냄새가 나서 자꾸 손이 안 갔어요. 그러다 보니 물을 덜 마시게 되고, 피부가 건조하거나 변비가 생기는 날이 많아졌어요. 매일 물 충분히 마셨는지 확인하는 게 습관이 됐지만, 그 과정 자체가 좀 피곤했어요.그러다 무라벨 생수라는 걸 알게 됐어요. 처음엔 라벨 없으면 병이 쉽게 더러워질까, 제주삼다수가 정말 맛있을까 걱정했지만, 후기가 좋아서 한번 사봤어요. 라벨 떼는 수고 없이 깨끗하고 부드러운 물을 편리하게 마실 수 있어서 정말 잘한 선택이었어요.이 제품의 가장 큰 장점은 무라벨이라 재활용이 간단하다는 거예요. 투명한 페트병에 제주삼다수 로고만 살짝 새겨져 있어서 헹구고 바로 분리수거하면 끝이에요. 이제 라벨 처리 시간 아끼니 부엌 정리가 훨씬 쉬워졌어요. 아침에 급하게 물 챙길 때도 손이 더러워질 걱정 없이 병을 쥘 수 있어서 편하고, 퇴근 후 집에 와서 병 바로 씻어서 재사용하거나 버리기 쉬워요. 플라스틱 쓰레기 줄이는 데 도움 되는 기분이라 마실 때마다 뿌듯해요. 예전엔 라벨 때문에 병이 쌓여서 부엌이 지저분했는데, 이제는 깔끔해져서 집안 분위기가 한결 나아졌어요. 그린 라벨이라는 이름처럼 환경에 신경 쓴 제품이라 더 마음에 들었어요.2L 용량에 12개 세트는 우리 같은 소가족에 딱 맞아요. 한 병이 2L라서 하루에 나눠 마시기 적당하고, 12개면 보름 넘게 넉넉히 써요. 병이 너무 크지도 작지도 않아서 냉장고에 세워두기 좋고, 무게도 2kg 정도로 들기 부담 없어요. 무라벨이라 병 표면이 매끄러워 먼지가 덜 쌓이고, 물티슈로 닦으면 금방 깨끗해져요. 배송 올 때 상자가 튼튼해서 병이 깨지지 않고 안전하게 왔고, 상자 열고 바로 냉장고에 넣기 편했어요. 차갑게 마시면 더 시원하고, 상온으로 두어도 맛이 그대로예요. 칼로리가 거의 없고 미네랄이 적당히 들어가서 속도 편안해요. 약알칼리성(pH 7.7 정도)이라 소화도 잘 된다고 하더라고요.이 물은 제주산 화산 암반수로 만들어져서 믿음이 가요. 한라산 천연 화산층을 통과한 청정 지하수라 순수하고 깨끗한 느낌이 들어요. 수입 생수는 맛이 다르거나 불순물이 걱정됐는데, 이건 국내산이라 안심되고 부드러워요. 물맛이 가볍고 청량해서 마실 때마다 제주 자연이 떠오르는 기분이에요. 미네랄 함량이 적절해서 목 넘김이 좋아 일반 생수보다 더 상쾌해요. 차갑게 마시거나 상온으로 두고 남편이랑 나눠 마셔도 맛이 한결같아요. 여름에 산책 후 한 모금 마시면 갈증이 싹 풀리고, 매일 마시다 보니 피부가 촉촉해지고 변비도 덜한 것 같아요. 무라벨이라 플라스틱 쓰레기 줄이는 데 기여하는 느낌이 들어서, 환경 생각하는 마음도 커졌어요.제주삼다수 그린 무라벨은 여러모로 유용해요. 주로 마시는 용도로 쓰지만, 요리할 때도 자주 써요. 남편이 좋아하는 된장찌개나 미역국 끓일 때 이 물 넣으면 국물이 부드럽고 잡내가 없더라고요. 라벨 없으니 병을 요리에 바로 써도 깔끔해서 좋아요. 약 먹을 때 물통에 덜어서 챙기거나, 손주들 올 때 2L 병으로 나눠 마시기 편했어요. 화분에 물 주거나 세탁기 청소할 때도 썼는데, 물이 깨끗해서 안심됐어요. 병이 재사용하기 쉬워서 플라스틱 쓰레기 걱정이 줄었어요. 12개 세트라 가격도 합리적이고, 가성비가 좋아서 다음엔 정기 배송 해볼까 생각 중이에요. 처음엔 병이 살짝 미끄러워서 잡기 불편했지만, 금방 익숙해졌어요. 너무 차가우면 입이 시릴 때가 있는데, 상온으로 두면 부드럽게 마실 수 있어요.라벨 떼는 게 귀찮으셨다면 제주삼다수 그린 무라벨, 2L, 12개를 꼭 한번 사보세요. 편리함, 신선한 맛, 환경까지 생각한 제품이라 정말 만족스러워요. 우리 부부 일상에 딱 맞는 물이에요</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -3357,7 +3353,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>연*민</t>
+          <t>hSue</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -3365,22 +3361,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2025.10.05</t>
+          <t>2025.10.06</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>생수는 역시 삼다수!!</t>
+          <t>작은 병이라서 2리터짜리 큰 병보다 깔끔한 거 같아요</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>저는 평소 제품을 구매할 때 리뷰를 꼼꼼히 보는 편이라 솔직하게 작성해볼게요.제 리뷰가 구매 결정에 도움이 되길 바랍니다!!1. 구매한 이유는요평소에는 정수기를 사용해 물을 먹지만 이사때문에 정수기를 잠시동안 사용하지 못하게되는 기간이 생겨서 생수를 구입하게 되었어요. 연휴기간 동안에 놀러갈 때도 챙겨가려고 겸사겸사 12병을 구입했는데요. 해외여행을 다니면서 여러가지 국내외 생수들을 많이 마셔봤는데 그럴때마다 항상 느끼는거는 제주 삼다수가 가장 물맛이 좋더라구요. 그래서 이번에도 고민없이 제주 삼다수로 구입했습니다.2. 먹어본 후기예요저는 생수를 구입할때마다 항상 제주 삼다수만 마시고 있는데요. 제주 삼다수가 물 맛이 가장 깔끔해서 목넘김이 좋고 삼다수를 마시면 속도 편한 느낌이더라구요. 그래서 항상 제주 삼다수를 애용하고 있습니다.제주도에 가면 편의점에서 사도 육지보다 삼다수가 훨씬 저렴하던데 이럴땐 제주도에 사는게 부러울따름입니다ㅋㅋㅋ그리고 병에 붙어있는 라벨을 떼는것도 힘들고 번거로운데 이번에 구입한 생수는 무라벨이라서 버릴때도 라벨을 따로 제거할 필요 없이 간편하게 분리수거도 할 수 있다는 점도 마음에 드는 점입니다.3. 총평이에요깔끔한 물맛에 깔끔한 목넘김!!! 간편한 분리수거까지 매번 느끼는거지만 역시 제주 삼다수입니다!!리뷰가 조금이라도 도움이 되셨다면 &lt;도움이 돼요!&gt;를 눌러주시면 감사하겠습니다!!</t>
+          <t>예전에는 2리터짜리 큰 생수를 사다 마셨는데빨리 못 마실 때도 있고 관리가 안 되는 거 같아서.. 제일 작은 330ml짜리로 갈아 탔어요작은 병이라 마시기에도 부담없고 남길 일도 별로 없어서 자기 전이나 외출하고 들어 오기 전 깔끔하게 비우고 버리면 되어서 좋더라고요따지고보면 2리터 큰 용량으로 구입하면 쬐금 더 저렴하기는 하지만, 바로바로 비워지니까 관리가 잘 되어서 좋은 거 같습니다외출할 때도 적은 용량이 좋아요500ml는 가방에 넣으면 부피도 커지구 무겁고, 손에 들고 이동하기에도 살짝 부담이 있었거든요330ml는 손바닥 안에 들어오는 느낌이라 손에 쥐고 걸으면서 마시기도 무리가 없어요가방 지퍼를 닫을 때 병 목 부분이 걸리적거리는 일도 덜했고요회사 사무실에서도 옆에 하나 두면 일하는 동안 중간중간 꺼내 마시기 좋았어요그리고 무라벨이기 때문에 시선을 뺏길일이 없어 집중하는데 방해도 되지 않고 그렇네요투명한 병에 브랜드명이 각인되어 있어서 시각적으로도 정리된 느낌이었어요어수선해 보이지 않아 마음에 들었음보관할 때도 선반에 투명하게 같은 병이 가지런히 서 있으면 잡동사니가 줄어든 듯한 안정감이 있더라구요그리고 병에 물방울이 맺혀도 라벨이 젖어 손에 붙는 일이 없고, 마신 뒤에는 병만 쓱 눌러서 부피를 줄이고 재활용 통에 넣으면 끝이에요마음에 들어서 다음에도 무라벨 330mL로 구입하려구요</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -3395,7 +3391,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>위쏭빠레z</t>
+          <t>허니슈크림</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3403,22 +3399,22 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2025.11.16</t>
+          <t>2025.10.06</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>물은 삼다수가 입맛에 딱 !!</t>
+          <t>330mL 용량도 적당하고 무라벨이라 더 좋은 거같아요</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>❓️구매이유ㅡ 생수를 사먹기 시작한지 꽤 됐는데많은 생수 종류중에 개인적인 입맛에는삼다수 물이 가장 좋아서 사놓고 마시는중인데 몇 통 남지 않아서 또 구매했습니다~➡️배송ㅡ 찌그러진 부분 없이 잘 배송왔습니다❤️장점ㅡ1)다른 생수들과 가격을 비교했을땐 삼다수가 좀 비싼 편인데도 마시다 보면 삼다수 물맛이 제일 좋은거 같아요!비린맛도 없고 깔끔해서 오랜기간 꾸준히 마실수 있게된거 같아요 ㅎㅎ2)요즘 무라벨 나와서 겉 라벨도 깔끔하고 보기 좋은거같아요~ 생수 한번 구매하면 무거워서 사오기 부담 스러운데 쿠팡으로 편하게 주문 가능한것도 너무좋습니다^^♦️단점ㅡ 단점은 없습니다!✨️재구매의사✨️ㅡ 열심히 마시고 몇통 남지 않을때또 재구매 할 생각입니다~!⭕️추천ㅡ 깔끔하고 비린맛 없이 목넘김이 좋은 생수를선호하신다면 삼다수 생수 추천드립니다!저렴한 생수 물 맛보다 꾸준히 마시다보면좀더 비싸도 그 값을 하는거 같아요ㅎㅎㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡ제가 쓴 **내돈내산 후기** 가 도움이 되셨다면❤️도움이 돼요 ❤️ 눌러주시면 감사하겠습니다 (⁎˃ᴗ˂⁎)~bb✨</t>
+          <t>요즘 외출이 잦아지면서 생수를 작은 걸로 바꿔봤어요. 집에서는 끓인 물을 주로 마시지만, 준비가 안 되어 있거나 급하게 나가야 할 때는 작은 병이 훨씬 편하더라고요라벨이 없는 투명 병이라 보기에도 단정하고, 마시고 나서 분리수거할 때 라벨을 따로 떼지 않아도 되는 게 실제로 편해요우선 크기가 마음에 들어요. 330ml라서 한 손에 쥐기 부담이 없고, 가방에 넣었을 때 무게가 크게 느껴지지 않아요500ml는 반쯤 남기기 쉬웠는데, 330은 양이 적당하더하고요차 컵홀더에도 잘 맞궁~ 병 둘레가 손에 안정적으로 감겨서 걸으면서 마시기에도 좋구요라벨이 없다는 점은 쓰기 전에는 큰 차이를 못 느꼈는데, 쓰고 보니 깔끔하고 더 편해요병 표면에 물방울이 맺혀도 라벨이 젖어 손에 달라붙는 일이 없고, 재활용 분리할 때도 병만 눌러서 부피 줄여 바로 넣으면 끝이라 마무리도 간단함아이랑 같이 다닐 때도 이 사이즈가 맞아요. 2리터는 당연히 들고 다닐 수 없고, 500ml도 좀 부담스러운데 산책하면서 한두 모금씩 마시고, 놀이터에서 잠깐 뛰다 와서 또 한 모금 마시면 적당히 비워져요삼다수라 수질도 괜찮은 거 같고 상온이어도 꿀꺽 넘어가고, 냉장고에서 바로 꺼내면 더 시원하게 느껴져요330mL 용량도 적당하고 무라벨이라 더 좋은 거 같습니다!!괜찮아서 앞으로도 계속 이걸로 구입하려구요굿입니당~</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -3433,7 +3429,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>다시올거제</t>
+          <t>박*영</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3441,22 +3437,22 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2025.10.04</t>
+          <t>2025.11.11</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 24개</t>
+          <t>제주삼다수 그린, 500ml, 20개</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>삼다수라 믿고 마셔요</t>
+          <t>환경도 생각하고, 건강도 챙길 수 있는 좋은 선택</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨 2리터는 환경과 편의성을 동시에 고려한 프리미엄 먹는샘물이에요. 우선 가장 눈에 띄는 장점은 ‘무라벨’이라는 점이에요.일반 생수병은 일일이 라벨을 제거해야 분리배출이 가능한데, 이 제품은 라벨이 아예 없어 재활용 과정이 훨씬 간편해요.분리수거할 때 불필요한 수고를 덜 수 있고, 환경 보호에도 긍정적인 역할을 할 수 있다는 점에서 만족스러워요. 요즘은 환경을 생각하는 소비 트렌드가 커지고 있는데, 그에 맞춰 나온 제품이라 더 가치 있게 느껴져요.물 맛 역시 삼다수만의 깨끗하고 청량한 특성이 잘 살아 있어요. 제주의 청정 지하 암반수에서 얻은 물이라 미네랄 밸런스가 좋아 목 넘김이 부드럽고 깔끔해요.특유의 텁텁함이나 미네랄 성분의 과한 맛이 없어, 누구나 부담 없이 마실 수 있다는 점이 장점이에요. 특히 식사와 함께 마셔도 음식 맛을 해치지 않고, 운동 후에 마시면 갈증 해소가 빠르고 개운해요.2리터 대용량 사이즈라는 점도 실용적이에요. 가정에서 식구들이 함께 마시기 좋고, 대용량이라 냉장고에 두고 필요할 때마다 따라 마시면 경제적이에요.캠핑이나 야외활동에 챙겨가도 여러 명이 함께 나눠 마시기 좋고, 별도로 작은 생수를 여러 개 들고 다니는 번거로움을 줄일 수 있어요. 병 자체도 단단하고 잡기 편하게 디자인되어 있어 사용성이 좋아요.또한 무라벨이지만 심플한 외관 덕분에 깔끔한 느낌이 나고, 주방이나 식탁 위에 두었을 때도 거슬리지 않아요. 기능적으로나 디자인적으로 모두 만족도가 높은 제품이에요.제주삼다수 그린 무라벨 2리터는 친환경적이면서도 맛, 편의성, 실용성을 모두 잡은 생수라고 할 수 있어요. 환경 보호에 동참하면서도 삼다수 특유의 깨끗한 맛을 원하는 분들에게 적극 추천해요.♡♡♡도움이 돼요 눌러주시면 감사하겠습니다</t>
+          <t>제주삼다수는 늘 믿고 마시는 생수라 이번에도 고민 없이 구매했습니다. 특히 이번에 구매한 "그린" 버전은 플라스틱 캡이 없어서 더 환경친화적인 제품이라 좋았습니다. 작은 변화지만 이런 노력이 모이면 환경 보호에 도움이 될 거라는 점에서 더욱 마음에 들었어요.500ml 사이즈라 외출할 때나 운동할 때 휴대하기 딱 좋고, 물맛도 역시 제주삼다수답게 아주 깔끔합니다. 너무 차가우면 목에 부담을 주는 경우도 있는데 이 제품은 미지근해도 맛이 부드러워서 자주 손이 갔어요. 무엇보다 20개 묶음으로 구매하니 가격도 합리적이고, 배송도 생각보다 빨라서 좋았습니다.좋았던 점- 환경을 생각한 친환경 디자인이 인상적이었습니다.- 휴대하기 간편한 500ml 사이즈라 어느 상황에서든 편리했습니다.- 늘 마셔도 질리지 않는 끔하고 부드러운 물맛환경도 생각하고, 건강도 챙길 수 있는 좋은 선택이었다고 생각합니다. 앞으로도 재구매할 예정이고 , 이번에도 만족스러웠어요. 고민하시는 분들께 자신 있게 추천드립니다.</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -3471,7 +3467,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>구*형</t>
+          <t>쿠팡실구매자</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3479,22 +3475,22 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2025.10.04</t>
+          <t>2025.10.05</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>운동장 걸을 때 가지고 나가기 좋아요</t>
+          <t>N번 시킴</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>요즘 운동을 좀 해보려고 밤마다 운동장에 가서 걷고 있습니다걷다 보면 목이 마른데, 갖고 다니다가 물 마시고 싶을 때 먹으려고 구입했어요생수야 편의점에서 사 마셔도 되지만.. 안 사도 되는 걸 사려니까 왠지 아깝더라고요용량도 작은 사이즈 330mL여서 한 손에 쥐었을 때 가볍고, 걸으면서 들고 다니기도 편합니다가볍게 가지고 다니다가 마시기에도 좋구요330ml 용량이 제일 마음에 들어요걷기 시작할 때 한 모금, 중간에 한두 모금, 마무리 할 때 마무리로 싹 비우고 분리수거 통에 버리고 오면 딱 맞아요500ml를 들고 다니면 무게가 살짝 신경 쓰이고 반 정도 남기는 날이 많았는데, 330ml는 부담이 없어서 금방 비우게 되어라고요무라벨이라는 점도 편해요손에 땀도 나고 생수병에 물이 맺히면 손에 비닐이 달아붙는 느낌니 질척거려서 별로였는데, 들고 다니기도 편하고버릴 때도 라벨을 따로 떼지 않아도 되니까 편해서 좋아요병을 손으로 쓱 눌러서 부피 줄여 분리수거함에 넣으면 끝이라 마무리도 간편해요걷는 동안에 병 그립감도 안정적임병 둘레가 한 손에 툭 감겨서 약간 아령 같기도 하네요물병 두개를 들고 나가면 왠지 아령처럼 들고 파워 워킹이 가능할 거 같기도 한데, 굳이 그렇게까지 해 보지는 않았네요 ㅎㅎ통이 약간 사각이어서 운동장 벤치에 잠깐 눕혀 놔도 굴러가지 않고, 운동할 때 가지고 나가기 완전 딱이에요!</t>
+          <t>-구매후기-솔직히 꾸둔히 매번 한달에 두번정도는 시키는 것 같아요…마트가서 물사서 오기엔 부모님은 안될 것 같아서 ㅜㅜ 그냥 쿠팡으로 바로 주문합니다!제가 차로 가서 사지 않는 한…물은 너무 무거워서 그냥 쿠팡으로 이렇게 주문할 것 같아요!!쿠팡의 장점이 전날 구매하면 담날 문앞에 오는 게 정말 최대 장점이라고 생각이 듭니다!그죠? 다들 아실꺼라 생각이 듭니당^^삼다수는~~제주특별자치도개발공사가 생산하고 광동제약이 판매하는 생 수. '국민 생수'로 불릴 정도로 국내에서는 가장 인지도가 높은 생수 브랜드입니다!용량은 대중적인 2L와 500mL가 있고, 2018년 10월 즈음에 1L와 330mL 제품이 추가로 출시되었다고해요!!정 식 명칭은 제주 삼다수로, 화산암반이 필터 역할을 해내는 화산 암반수라고 합니다~~~무기물질 함량 (mg/L)칼슘(Ca): 2.5~4.0칼륨(K): 1.5~3.4나트륨(Na): 4.0~7.2마그네슘(Mg): 1.7~3.5불소(F): 불검출 (불소는 2.0mg/L 이하가 '먹는 샘물'의 수질 기준이에요)이외에도 극미량의 바나듐이 포함되어 있다고 합니다.유럽 지역의 유명 생수들보다 석회질(칼슘) 비중이 상당히 낮아요.또한 본토에서 생산되는 거의 대부분의 생수보다도 석회질이 적다고 해요!또 외국에서 흔히 유통되는 총미네랄함량(TDS)가 높은 생수와 는 반대로, 원래부터 석회가 없는 맑은 물을 채수하여 사용하기 때문에 단물 중에서도 TDS가 가장 낮은 축에 속하는 생수라고 합니다~^^늘 먹는 물이지만 알고 먹으니 더 좋은 거 같네요~제 리뷰가 도움이 되셨으면 좋겠습니다^__^제 리뷰가 도움이 되셨다면 ‘도움이 되요’ 꾸욱 부탁드려요*^^*</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -3509,7 +3505,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>리뷰어8641</t>
+          <t>연*민</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3517,18 +3513,22 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2025.10.04</t>
+          <t>2025.10.05</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>생수는 역시 삼다수!!</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>삼다수 맛있고 신선해서 좋습니다. 삼다수 한 개당 2L로 컵에 담아 몇 잔 정도 먹을 수 있는 양으로 딱 좋았습니다.냉장고에 넣어두고 시원하게 먹거나 얼음을 넣어 더 시원하게 넣어서 먹기에도 좋구요.바깥에 꺼내놓은 삼다수로 적당하게 미지근하게 먹기에도 좋아요~ 외부에 꺼내놓은 후 음식 요리할 때 삼다수 넣어서 국물요리해서 먹으면 굉장히 맛있고 좋습니다~ 삼다수가 들어가 있는 용기가 굉장히 튼튼하기에 오랜 시간 두고 보관해도 튼튼하게 보관할 수 있어서 좋았습니다~ 삼다수 뚜껑도 굉장히 튼튼하고 잘 열리고 잘 닫혀서 열고 닫기 ㅕㄴ하고 보관할 때도 좋습니다. 한번에 모두 먹지 않고 중간 중간 먹다가 잠근 후 나중에 먹어도 신선하게 삼다수 그대로의 맛을 먹을 수 있어서 좋았습니다.그리고 삼다수가 굉장히 신선하고 깨끗해서 좋았어요 삼다수를 보면 깔끔하고 깨끗한 투명한 색으로 먹는 동안 맛있고 깔끔한 맛을 느낄 수 있어서 더 좋았습니다. 양도 총 18개가 와서 두고 먹기에 좋습니다. 하루에 한 병정도 먹으면 2~3주 정도 먹을 수 있어서 더 좋은 것 같아요. 무라벨이기에 따로 라벨 떼지 않고 그대로 분리수거가 가능하기 때문에 더 좋은 것 같습니다. 페트병은 튼튼하고 무라벨이라서 먹은 후 바로 페트병, 플라스틱으로 분리수거 후 버리면 되기에 편리하고 간편하고 너무 좋습니다. 삼다수 물은 물 맛, 향, 용기 모두 전반적으로 마음에 들어서 계속 먹게 되고 찾게 되는 것 같습니다~</t>
+          <t>저는 평소 제품을 구매할 때 리뷰를 꼼꼼히 보는 편이라 솔직하게 작성해볼게요.제 리뷰가 구매 결정에 도움이 되길 바랍니다!!1. 구매한 이유는요평소에는 정수기를 사용해 물을 먹지만 이사때문에 정수기를 잠시동안 사용하지 못하게되는 기간이 생겨서 생수를 구입하게 되었어요. 연휴기간 동안에 놀러갈 때도 챙겨가려고 겸사겸사 12병을 구입했는데요. 해외여행을 다니면서 여러가지 국내외 생수들을 많이 마셔봤는데 그럴때마다 항상 느끼는거는 제주 삼다수가 가장 물맛이 좋더라구요. 그래서 이번에도 고민없이 제주 삼다수로 구입했습니다.2. 먹어본 후기예요저는 생수를 구입할때마다 항상 제주 삼다수만 마시고 있는데요. 제주 삼다수가 물 맛이 가장 깔끔해서 목넘김이 좋고 삼다수를 마시면 속도 편한 느낌이더라구요. 그래서 항상 제주 삼다수를 애용하고 있습니다.제주도에 가면 편의점에서 사도 육지보다 삼다수가 훨씬 저렴하던데 이럴땐 제주도에 사는게 부러울따름입니다ㅋㅋㅋ그리고 병에 붙어있는 라벨을 떼는것도 힘들고 번거로운데 이번에 구입한 생수는 무라벨이라서 버릴때도 라벨을 따로 제거할 필요 없이 간편하게 분리수거도 할 수 있다는 점도 마음에 드는 점입니다.3. 총평이에요깔끔한 물맛에 깔끔한 목넘김!!! 간편한 분리수거까지 매번 느끼는거지만 역시 제주 삼다수입니다!!리뷰가 조금이라도 도움이 되셨다면 &lt;도움이 돼요!&gt;를 눌러주시면 감사하겠습니다!!</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>김*진</t>
+          <t>다시올거제</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3551,22 +3551,22 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2025.10.03</t>
+          <t>2025.10.04</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 1L, 18개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 24개</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1리터라 들기도편하고 물맛은 최고에요</t>
+          <t>삼다수라 믿고 마셔요</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[구매이유]집에 정수기가 없어서 물을 사먹는데 삼다수가 제일 맛이 좋은것 같아서 구매해서 먹고있어요[후기]1. 물맛이 좋아요물이 다 무맛으로 크게 차이 없을 수 있지만 미묘하게 느끼는 사람들은 느끼는 그런 맛이 있는것 같아요.제가 느낀 삼다수는 상쾌하고 비린맛이 없고 깔끔한 맛이 좋은것 같아요. 가끔 대형마트에서 사오는 저렴한 제품이랑 섞어서 먹는데 확실히 두개는 다른 느낌이 있어서 삼다수가 더 깔끔하고 좋은것 같아서 우리집에 아이들은 삼다수 위주로 주고있어요2. 수원지가 믿음직해요아직 때묻지 않은 지역이 제주도라고 생각되요.깨끗한 화산암반수를 마실수 있는 수원지이다 보니 믿음이 가는 물인것 같아요.우리나라 대부분이 화산지역이지만 그래도 제주도는 특별히 화산지대이다보니 물이 더욱 더 깨끗할 거라는 믿음과 사실이 있을것 같아요.3. 무라벨 병이라 친환경적이에요.요즘 분리수거가 까다로워져서 라벨도 떼어내고 버려야 하는경우가 있는데 그런점에서 무라벨이라서 아주 좋은것 같아요.]4. 물에 대한 믿음이 있다보니 우리집에 아이들은 삼다수만 주고있어요가격이 다른 물보다 비싼 이유가 있을거라고 생각하고 우리아이들에게는 깨끗한 물만 주고싶어서 삼다수만 주고있어요어른들은 이곳저곳에서 아무 물이나 마시니 집에서도 끓여도 먹고 다른 싼 제품 물 먹는데 아이들은 비싸더라도 태어났을때부터 분유물부터 삼다수만 쓰게 되더라고요계속 아이들은 삼다수를 줄거 같아요.</t>
+          <t>제주삼다수 그린 무라벨 2리터는 환경과 편의성을 동시에 고려한 프리미엄 먹는샘물이에요. 우선 가장 눈에 띄는 장점은 ‘무라벨’이라는 점이에요.일반 생수병은 일일이 라벨을 제거해야 분리배출이 가능한데, 이 제품은 라벨이 아예 없어 재활용 과정이 훨씬 간편해요.분리수거할 때 불필요한 수고를 덜 수 있고, 환경 보호에도 긍정적인 역할을 할 수 있다는 점에서 만족스러워요. 요즘은 환경을 생각하는 소비 트렌드가 커지고 있는데, 그에 맞춰 나온 제품이라 더 가치 있게 느껴져요.물 맛 역시 삼다수만의 깨끗하고 청량한 특성이 잘 살아 있어요. 제주의 청정 지하 암반수에서 얻은 물이라 미네랄 밸런스가 좋아 목 넘김이 부드럽고 깔끔해요.특유의 텁텁함이나 미네랄 성분의 과한 맛이 없어, 누구나 부담 없이 마실 수 있다는 점이 장점이에요. 특히 식사와 함께 마셔도 음식 맛을 해치지 않고, 운동 후에 마시면 갈증 해소가 빠르고 개운해요.2리터 대용량 사이즈라는 점도 실용적이에요. 가정에서 식구들이 함께 마시기 좋고, 대용량이라 냉장고에 두고 필요할 때마다 따라 마시면 경제적이에요.캠핑이나 야외활동에 챙겨가도 여러 명이 함께 나눠 마시기 좋고, 별도로 작은 생수를 여러 개 들고 다니는 번거로움을 줄일 수 있어요. 병 자체도 단단하고 잡기 편하게 디자인되어 있어 사용성이 좋아요.또한 무라벨이지만 심플한 외관 덕분에 깔끔한 느낌이 나고, 주방이나 식탁 위에 두었을 때도 거슬리지 않아요. 기능적으로나 디자인적으로 모두 만족도가 높은 제품이에요.제주삼다수 그린 무라벨 2리터는 친환경적이면서도 맛, 편의성, 실용성을 모두 잡은 생수라고 할 수 있어요. 환경 보호에 동참하면서도 삼다수 특유의 깨끗한 맛을 원하는 분들에게 적극 추천해요.♡♡♡도움이 돼요 눌러주시면 감사하겠습니다</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>김*혜</t>
+          <t>위쏭빠레z</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2025.10.03</t>
+          <t>2025.11.16</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3599,16 +3599,16 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>물맛좋고 친환경 삼다수~</t>
+          <t>물은 삼다수가 입맛에 딱 !!</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>✔️배송로켓배송이라 하루만에안전하게잘도착함!!✔️장점제주삼다수 그린 무라벨 2L짜리 12개 세트를 구매해서 사용해본 후기를 남깁니다. 일단 결론부터 말씀드리자면, 정말 만족스러운 제품이었습니다. 생수 구매 시 고려해야 할 점이 많지만, 이 제품은 물맛, 용기 디자인, 친환경 포장 등 여러 면에서 기대 이상이었어요.먼저 물맛에 대해 말씀드리면, 역시 ‘삼다수’라는 이름에 걸맞게 매우 깔끔하고 부드러운 맛을 느낄 수 있었습니다. 입안에 남는 미네랄 특유의 텁텁함이 없고, 깔끔하게 넘어가며 마실수록 개운한 느낌이 듭니다. 제주도의 천연 암반수답게 신뢰감도 가고요. 장시간 보관해도 물맛이 변하지 않아서 냉장고에 여러 병을 넣어두고 수시로 꺼내 마시기 좋았습니다.특히 인상 깊었던 점은 ‘무라벨’이라는 점입니다. 환경을 생각한 선택이기도 하고, 실제로 쓰레기를 분리수거할 때 라벨을 일일이 떼어내는 번거로움이 없어서 편리했어요. 최근 환경 문제에 대한 관심이 많아졌는데, 삼다수가 이렇게 친환경적인 방향으로 제품을 출시했다는 점이 인상 깊었습니다. 병 자체에도 각인된 로고와 정보가 깔끔하게 정리되어 있어서, 라벨이 없다고 해도 전혀 허전하거나 제품 정보가 부족하다는 느낌은 들지 않았어요.2L 용량은 가족 단위나 다인 가구에게 특히 유용한 사이즈입니다. 저희 집은 4인 가족인데, 하루에 1병 정도 소비하게 되더라고요. 물 소비량이 많은 집이라면 12병 세트는 금방 소진될 수도 있겠지만, 그만큼 묶음으로 저렴하게 구매할 수 있어 가성비도 뛰어납니다. 배송도 빠르고 포장도 안전하게 와서 박스를 열었을 때 병에 눌림이나 손상 없이 깔끔하게 받았어요.추가로, 무라벨이라 재활용할 때 더 간편한 점, 미관상 깔끔해 보여 주방이나 거실에 두었을 때도 깔끔하게 정리된 느낌을 주는 점 등이 모두 장점이었습니다. 그리고 병 자체도 잡기 편한 그립감이 있어 물을 따르거나 마실 때 불편함이 없었습니다.전체적으로 보면, 제주삼다수 그린 무라벨 2L는 ‘물맛 + 환경 + 실용성’ 삼박자를 모두 갖춘 제품이라고 생각합니다. 앞으로 생수는 계속 무라벨 제품으로 구매하게 될 것 같아요. 삼다수를 평소에 즐겨 마셨던 분이라면, 이 제품도 분명 만족하실 겁니다. 건강을 생각하는 사람, 환경을 생각하는 사람 모두에게 추천드립니다.✔️단점딱히없네요내돈내산 찐리뷰^^솔직한 후기가 도움이 되셨다면밑에 "도움이돼요"버튼을눌러주시면 행운이 올꺼예요❤️</t>
+          <t>❓️구매이유ㅡ 생수를 사먹기 시작한지 꽤 됐는데많은 생수 종류중에 개인적인 입맛에는삼다수 물이 가장 좋아서 사놓고 마시는중인데 몇 통 남지 않아서 또 구매했습니다~➡️배송ㅡ 찌그러진 부분 없이 잘 배송왔습니다❤️장점ㅡ1)다른 생수들과 가격을 비교했을땐 삼다수가 좀 비싼 편인데도 마시다 보면 삼다수 물맛이 제일 좋은거 같아요!비린맛도 없고 깔끔해서 오랜기간 꾸준히 마실수 있게된거 같아요 ㅎㅎ2)요즘 무라벨 나와서 겉 라벨도 깔끔하고 보기 좋은거같아요~ 생수 한번 구매하면 무거워서 사오기 부담 스러운데 쿠팡으로 편하게 주문 가능한것도 너무좋습니다^^♦️단점ㅡ 단점은 없습니다!✨️재구매의사✨️ㅡ 열심히 마시고 몇통 남지 않을때또 재구매 할 생각입니다~!⭕️추천ㅡ 깔끔하고 비린맛 없이 목넘김이 좋은 생수를선호하신다면 삼다수 생수 추천드립니다!저렴한 생수 물 맛보다 꾸준히 마시다보면좀더 비싸도 그 값을 하는거 같아요ㅎㅎㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡㅡ제가 쓴 **내돈내산 후기** 가 도움이 되셨다면❤️도움이 돼요 ❤️ 눌러주시면 감사하겠습니다 (⁎˃ᴗ˂⁎)~bb✨</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -3619,7 +3619,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>진*현</t>
+          <t>구*형</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2025.10.02</t>
+          <t>2025.10.04</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3637,16 +3637,16 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>아이들 외출용으로 딱이예요 ㅎㅎ</t>
+          <t>운동장 걸을 때 가지고 나가기 좋아요</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨 330ml 40개 세트를 받아보니 기대 이상으로 만족스러웠습니다 우선 330ml라는 용량이 한 번에 마시기에 알맞고 휴대하기에도 편리해서 일상에서 다양하게 활용할 수 있더라고요 500ml는 가끔 다 못 마시는 경우가 있었는데 이 제품은 한 번에 시원하게 마시기 딱 좋습니다 가방에 넣어도 부담 없고 아이가 학교에 가져가기도 딱 적당해서 요즘 매일 챙기고 있습니다무엇보다 마음에 드는 건 무라벨이라는 점이에요 라벨을 따로 떼어낼 필요가 없으니 정리와 분리배출이 훨씬 간단해졌습니다 환경을 생각하는 마음까지 전해지는 제품이라 만족감이 더 커요 깔끔한 투명 병 디자인이라 냉장고에 정리해두면 보기에도 시원하고 깔끔해서 눈으로도 기분이 좋아집니다물맛은 역시 삼다수답게 언제 마셔도 변함없이 깔끔하고 부드러워요 목 넘김이 편안하고 시원함이 오래 느껴져서 가족 모두가 즐겨 마십니다 특히 냉장고에 차갑게 두었다가 꺼내 마시면 청량감이 확 살아나서 운동 후나 외출 후에 더욱 좋습니다 잡맛이나 이질감 없이 언제나 신선한 느낌을 주는 게 삼다수의 장점인 것 같아요배송도 빠르게 잘 도착했고 포장도 깔끔하게 되어 있어 처음 열었을 때 기분이 좋았습니다 병의 상태도 모두 정돈되어 있었고 투명하게 빛나는 물이 보이니 더 믿음이 갔습니다 덕분에 받아보자마자 바로 냉장고에 정리해두고 매일 시원하게 꺼내 마실 수 있었어요이 제품은 특히 이동할 때나 나들이, 캠핑 같은 야외활동에서도 활용도가 높습니다 330ml라서 들고 다니기에 편하고 한 번에 비우기 좋다 보니 버려지는 물 없이 알차게 마실 수 있었습니다 회사에서 책상 옆에 두고 틈틈이 마시기에도 좋아서 수분 보충에 정말 유용해요 가족 모두가 상황에 맞게 쓰기 좋은 사이즈라 다 함께 만족하고 있습니다가격도 합리적이고 품질은 확실히 믿을 수 있어서 앞으로도 꾸준히 주문할 예정입니다 한 번 쟁여두면 든든하게 오래 두고 마실 수 있고 유통기한도 넉넉해서 안심하고 보관할 수 있더라고요 무라벨 생수의 장점을 제대로 느낄 수 있는 제품이라 이제는 계속 이 제품만 구매할 것 같아요</t>
+          <t>요즘 운동을 좀 해보려고 밤마다 운동장에 가서 걷고 있습니다걷다 보면 목이 마른데, 갖고 다니다가 물 마시고 싶을 때 먹으려고 구입했어요생수야 편의점에서 사 마셔도 되지만.. 안 사도 되는 걸 사려니까 왠지 아깝더라고요용량도 작은 사이즈 330mL여서 한 손에 쥐었을 때 가볍고, 걸으면서 들고 다니기도 편합니다가볍게 가지고 다니다가 마시기에도 좋구요330ml 용량이 제일 마음에 들어요걷기 시작할 때 한 모금, 중간에 한두 모금, 마무리 할 때 마무리로 싹 비우고 분리수거 통에 버리고 오면 딱 맞아요500ml를 들고 다니면 무게가 살짝 신경 쓰이고 반 정도 남기는 날이 많았는데, 330ml는 부담이 없어서 금방 비우게 되어라고요무라벨이라는 점도 편해요손에 땀도 나고 생수병에 물이 맺히면 손에 비닐이 달아붙는 느낌니 질척거려서 별로였는데, 들고 다니기도 편하고버릴 때도 라벨을 따로 떼지 않아도 되니까 편해서 좋아요병을 손으로 쓱 눌러서 부피 줄여 분리수거함에 넣으면 끝이라 마무리도 간편해요걷는 동안에 병 그립감도 안정적임병 둘레가 한 손에 툭 감겨서 약간 아령 같기도 하네요물병 두개를 들고 나가면 왠지 아령처럼 들고 파워 워킹이 가능할 거 같기도 한데, 굳이 그렇게까지 해 보지는 않았네요 ㅎㅎ통이 약간 사각이어서 운동장 벤치에 잠깐 눕혀 놔도 굴러가지 않고, 운동할 때 가지고 나가기 완전 딱이에요!</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>이*성</t>
+          <t>리뷰어8641</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -3665,18 +3665,18 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2025.10.02</t>
+          <t>2025.10.04</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>평소에 생수를 많이 마시는 편이라 여러 브랜드를 마셔봤는데, 결국 다시 돌아오게 되는 건 늘 제주삼다수 그린이에요. 이름만 들어도 믿음이 가는 제품이고, 실제로 마셔보면 다른 생수들과는 확실히 차별화된 깔끔함이 느껴집니다.우선 맛에서 오는 만족감이 큽니다. 물은 다 비슷하다고 생각할 수 있지만, 삼다수는 입안에 남는 잔여감이 없고 아주 부드럽게 넘어가는 특징이 있어요. 다른 물은 가끔 미네랄 맛이 강하거나, 끝 맛이 텁텁하게 남을 때가 있는데, 삼다수는 그런 게 없어서 하루 종일 마셔도 질리지 않습니다. 특히 차갑게 냉장고에 넣어 두었다가 꺼내 마시면 목 넘김이 시원하고 청량감이 훨씬 살아나요.또한 제주의 화산암반수에서 취수한 물이라 그런지 믿고 마실 수 있다는 안정감도 큽니다. 불필요한 미네랄이나 이물감이 거의 없고, 물맛이 일정하게 유지되는 것도 장점이에요. 건강을 위해서 물을 많이 마셔야 하는데, 삼다수는 맛이 깔끔하니 자연스럽게 물 섭취량도 늘어나더라고요.패키징도 신경을 쓴 느낌이 좋습니다. 그린 라벨이라 디자인이 심플하고 환경 친화적인 느낌이 나서 마음에 들어요. 병 모양도 잡기 편하고 휴대하기 좋아서 사무실, 운동, 여행 어디에든 들고 다니기 편리합니다. 큰 용량은 집에서 두고 마시기 좋고, 작은 용량은 외출할 때 챙기기 딱이죠.저는 특히 운동 후나 더운 여름날에 이 삼다수를 자주 마시는데, 땀으로 갈증 날 때 삼다수를 들이키면 확실히 몸이 빠르게 해갈되는 느낌을 받습니다. 커피나 음료수 대신 삼다수를 마시면서 몸이 더 가벼워지고 피부도 좋아진 것 같아 만족하고 있어요.정리하자면, 제주삼다수 그린은 부드러운 맛, 믿을 수 있는 품질, 깔끔한 패키징까지 모두 갖춘 최고의 생수라고 생각합니다. 그냥 물이라고 하기엔 마실수록 차이가 느껴지고, 매일 마시기에도 전혀 부담이 없는 생수라 앞으로도 꾸준히 구매할 예정입니다.❤  저도 물건을 구매할떄                                 ❤❤  리뷰에 의존하고 물건을 구매하기에               ❤❤  제가 직접 사용해보고 느낀점을 최대한           ❤❤  솔직하게 리뷰하려고 하고있어요                   ❤❤  저의 리뷰가 구매하시는데에 도움이 되셨기를   ❤❤  바라며 도움이되셨다면                               ❤❤  도움되요를 꾹~ 눌러주세요                         ❤. ⠀⠀⣀⣴⣾⣿⣷⣦⣀⠀⠀⠀⠀⣀⣴⣾⣿⣿⣷⣦⣀⠀⣼⣿⣿⣿⣿⣿⣿⣿⣿⣧⠀⠀⣼⣿⣿⣿⣿⣿⣿⣿⣿⣧⣾⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣷⣾⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣷⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⢿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⡿⠀⢻⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⡟⠀⠀⠙⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⠋⠀⠀⠀⠀⠻⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⠟⠀⠀⠀⠀⠀⠙⢿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⡿⠋⠀⠀⠀⠀⠀⠀⠀⠙⣿⣿⣿⣿⣿⣿⣿⣿⠋⠀ ⠀⠀⠀⠀⠀⠀⠀⠀⠻⣿⣿⣿⣿⠟⠀ ⠀⠀⠀⠀⠀⠀⠀⠀⠀⠙⢿⡿⠋⠀</t>
+          <t>삼다수 맛있고 신선해서 좋습니다. 삼다수 한 개당 2L로 컵에 담아 몇 잔 정도 먹을 수 있는 양으로 딱 좋았습니다.냉장고에 넣어두고 시원하게 먹거나 얼음을 넣어 더 시원하게 넣어서 먹기에도 좋구요.바깥에 꺼내놓은 삼다수로 적당하게 미지근하게 먹기에도 좋아요~ 외부에 꺼내놓은 후 음식 요리할 때 삼다수 넣어서 국물요리해서 먹으면 굉장히 맛있고 좋습니다~ 삼다수가 들어가 있는 용기가 굉장히 튼튼하기에 오랜 시간 두고 보관해도 튼튼하게 보관할 수 있어서 좋았습니다~ 삼다수 뚜껑도 굉장히 튼튼하고 잘 열리고 잘 닫혀서 열고 닫기 ㅕㄴ하고 보관할 때도 좋습니다. 한번에 모두 먹지 않고 중간 중간 먹다가 잠근 후 나중에 먹어도 신선하게 삼다수 그대로의 맛을 먹을 수 있어서 좋았습니다.그리고 삼다수가 굉장히 신선하고 깨끗해서 좋았어요 삼다수를 보면 깔끔하고 깨끗한 투명한 색으로 먹는 동안 맛있고 깔끔한 맛을 느낄 수 있어서 더 좋았습니다. 양도 총 18개가 와서 두고 먹기에 좋습니다. 하루에 한 병정도 먹으면 2~3주 정도 먹을 수 있어서 더 좋은 것 같아요. 무라벨이기에 따로 라벨 떼지 않고 그대로 분리수거가 가능하기 때문에 더 좋은 것 같습니다. 페트병은 튼튼하고 무라벨이라서 먹은 후 바로 페트병, 플라스틱으로 분리수거 후 버리면 되기에 편리하고 간편하고 너무 좋습니다. 삼다수 물은 물 맛, 향, 용기 모두 전반적으로 마음에 들어서 계속 먹게 되고 찾게 되는 것 같습니다~</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -3691,7 +3691,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>김*순</t>
+          <t>김*진</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -3699,22 +3699,26 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2025.10.02</t>
+          <t>2025.10.03</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 1L, 18개</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1리터라 들기도편하고 물맛은 최고에요</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>제주 삼다수 2L 무라벨 12개 구매 리뷰구매제품 정보•	제품명: 제주 삼다수 그린 무라벨 2L, 12개입•	구매일자: 2025년 10월•	만족도: ⭐️⭐️⭐️⭐️⭐️ (5/5)⸻⭐️ 장점•	⭐️ 깨끗하고 담백한 맛: 오래 두고 마셔도 변질 없는 깔끔한 물맛•	⭐️ 무라벨 포장: 분리수거 편리, 깔끔한 투명 병 디자인•	⭐️ 넉넉한 용량: 2L 대용량이라 온 가족이 함께 두고 마시기 좋음•	⭐️ 휴대성: 캠핑, 나들이, 운동 후 갈증 해소에 딱 알맞음•	⭐️ 안심 품질: 믿고 마실 수 있는 제주 청정 지하수⸻❗️ 단점•	❗️ 2L 용량이라 개인 휴대용으로는 무겁다•	❗️ 택배 배송 시 무게감이 있어 옮길 때 조금 힘들다⸻✅ 구매이유평소에 물을 많이 마셔서 생수를 대량으로 구비해두는 편인데, 삼다수는 늘 믿고 선택하는 제품입니다. 특히 이번에 무라벨 제품이라 분리수거가 훨씬 편리해져서 환경적인 장점까지 있어 구입했습니다.⸻✅ 사용후기받자마자 포장이 깔끔하게 되어 있어 믿음이 갔습니다.냉장고에 넣어두고 마셔보니 물맛이 정말 깨끗하고 목 넘김이 부드럽습니다. 삼다수 특유의 시원하면서도 무겁지 않은 담백한 맛이 그대로 느껴집니다.특히 가족이 함께 생활하다 보니 2L 대용량은 집에서 두고 마시기 딱 좋습니다. 캠핑이나 나들이 갈 때 차에 싣고 다니기도 편리하고, 운동 후 시원하게 한 잔 마시면 갈증이 확 풀립니다.⸻✅ 총평삼다수는 이름 그대로 믿고 마실 수 있는 생수라 늘 만족스럽습니다.이번 무라벨 제품은 환경까지 생각한 점이 마음에 들고, 앞으로도 꾸준히 재구매할 예정입니다.깨끗한 맛 + 환경친화적인 무라벨 = 최고의 생수 선택⸻⬇️⬇️⬇️⬇️⬇️⬇️⬇️⬇️⬇️⬇️⬇️⬇️⬇️⬇️⬇️이 리뷰가 구매에 조금이라도 도움이 되셨다면,아래에 있는 &lt;&lt;&lt;&lt;&lt;도움이 돼요&gt;&gt;&gt;&gt;&gt; 버튼을꼭 한번 눌러주세요!!! ૮( ྀིʃƪ´ ˘ ` ) ྀིა여러분의 한 번의 클릭이 정말 큰 힘이 됩니다 :)끝까지 정성껏 읽어주셔서 진심으로 감사드립니다.오늘도 건강한 하루 보내세요! ❤️</t>
+          <t>[구매이유]집에 정수기가 없어서 물을 사먹는데 삼다수가 제일 맛이 좋은것 같아서 구매해서 먹고있어요[후기]1. 물맛이 좋아요물이 다 무맛으로 크게 차이 없을 수 있지만 미묘하게 느끼는 사람들은 느끼는 그런 맛이 있는것 같아요.제가 느낀 삼다수는 상쾌하고 비린맛이 없고 깔끔한 맛이 좋은것 같아요. 가끔 대형마트에서 사오는 저렴한 제품이랑 섞어서 먹는데 확실히 두개는 다른 느낌이 있어서 삼다수가 더 깔끔하고 좋은것 같아서 우리집에 아이들은 삼다수 위주로 주고있어요2. 수원지가 믿음직해요아직 때묻지 않은 지역이 제주도라고 생각되요.깨끗한 화산암반수를 마실수 있는 수원지이다 보니 믿음이 가는 물인것 같아요.우리나라 대부분이 화산지역이지만 그래도 제주도는 특별히 화산지대이다보니 물이 더욱 더 깨끗할 거라는 믿음과 사실이 있을것 같아요.3. 무라벨 병이라 친환경적이에요.요즘 분리수거가 까다로워져서 라벨도 떼어내고 버려야 하는경우가 있는데 그런점에서 무라벨이라서 아주 좋은것 같아요.]4. 물에 대한 믿음이 있다보니 우리집에 아이들은 삼다수만 주고있어요가격이 다른 물보다 비싼 이유가 있을거라고 생각하고 우리아이들에게는 깨끗한 물만 주고싶어서 삼다수만 주고있어요어른들은 이곳저곳에서 아무 물이나 마시니 집에서도 끓여도 먹고 다른 싼 제품 물 먹는데 아이들은 비싸더라도 태어났을때부터 분유물부터 삼다수만 쓰게 되더라고요계속 아이들은 삼다수를 줄거 같아요.</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -3725,7 +3729,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>많이사봤다</t>
+          <t>김*혜</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -3733,22 +3737,26 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2025.11.23</t>
+          <t>2025.10.03</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 36개</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>물맛좋고 친환경 삼다수~</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>재구매 상품입니다~[ 제주삼다수, 라벨형 2L ]- 사람의 발길이 닿지 않는,한라산 1,450m 지대에 내린 빗물이화산암반층을 18년간 거치며한 방울 한 방울 걸러지고건강한 미네랄은 더해진제주의 화산암반수.▪︎ 2025년 11월 22일 주문 ~ 11월 23일 배송완료.▪︎ 소비기한(또는 유통기한)2026-10-01 이거나 그 이후인 상품▪︎ 출시이후 27년 동안, 단 한번도 수질 변화 없는- 믿을 수 있는 물.▪︎ 연간 2만 번의 철저한 수질검사로- 깐깐한 물.▪︎ 취수원 주변 토지매입으로 잠재 오염까지 차단한- 빈틈없는 물.▪︎ 106개의 관측망이 빈틈없이 지키는- 안전한 물.▪︎ 지하 420m 제주 화산암반층에 부존하는- 청정한 물.▪︎ 미네랄 성분이 균형적으로 함유된- 건강한 물.------------------------------------------------아버지께서 다른 물은 안드시고 삼다수만 드세요.이번에도 주문을 부탁하셔서 사드렸습니다.저는 수원지가 여러군데인 회사는 거르는데,여기도 하나의 수원지라 믿을 수 있습니다.만족합니다~ (๑**๑)    ((o(*&gt;ω&lt;*)o))</t>
+          <t>✔️배송로켓배송이라 하루만에안전하게잘도착함!!✔️장점제주삼다수 그린 무라벨 2L짜리 12개 세트를 구매해서 사용해본 후기를 남깁니다. 일단 결론부터 말씀드리자면, 정말 만족스러운 제품이었습니다. 생수 구매 시 고려해야 할 점이 많지만, 이 제품은 물맛, 용기 디자인, 친환경 포장 등 여러 면에서 기대 이상이었어요.먼저 물맛에 대해 말씀드리면, 역시 ‘삼다수’라는 이름에 걸맞게 매우 깔끔하고 부드러운 맛을 느낄 수 있었습니다. 입안에 남는 미네랄 특유의 텁텁함이 없고, 깔끔하게 넘어가며 마실수록 개운한 느낌이 듭니다. 제주도의 천연 암반수답게 신뢰감도 가고요. 장시간 보관해도 물맛이 변하지 않아서 냉장고에 여러 병을 넣어두고 수시로 꺼내 마시기 좋았습니다.특히 인상 깊었던 점은 ‘무라벨’이라는 점입니다. 환경을 생각한 선택이기도 하고, 실제로 쓰레기를 분리수거할 때 라벨을 일일이 떼어내는 번거로움이 없어서 편리했어요. 최근 환경 문제에 대한 관심이 많아졌는데, 삼다수가 이렇게 친환경적인 방향으로 제품을 출시했다는 점이 인상 깊었습니다. 병 자체에도 각인된 로고와 정보가 깔끔하게 정리되어 있어서, 라벨이 없다고 해도 전혀 허전하거나 제품 정보가 부족하다는 느낌은 들지 않았어요.2L 용량은 가족 단위나 다인 가구에게 특히 유용한 사이즈입니다. 저희 집은 4인 가족인데, 하루에 1병 정도 소비하게 되더라고요. 물 소비량이 많은 집이라면 12병 세트는 금방 소진될 수도 있겠지만, 그만큼 묶음으로 저렴하게 구매할 수 있어 가성비도 뛰어납니다. 배송도 빠르고 포장도 안전하게 와서 박스를 열었을 때 병에 눌림이나 손상 없이 깔끔하게 받았어요.추가로, 무라벨이라 재활용할 때 더 간편한 점, 미관상 깔끔해 보여 주방이나 거실에 두었을 때도 깔끔하게 정리된 느낌을 주는 점 등이 모두 장점이었습니다. 그리고 병 자체도 잡기 편한 그립감이 있어 물을 따르거나 마실 때 불편함이 없었습니다.전체적으로 보면, 제주삼다수 그린 무라벨 2L는 ‘물맛 + 환경 + 실용성’ 삼박자를 모두 갖춘 제품이라고 생각합니다. 앞으로 생수는 계속 무라벨 제품으로 구매하게 될 것 같아요. 삼다수를 평소에 즐겨 마셨던 분이라면, 이 제품도 분명 만족하실 겁니다. 건강을 생각하는 사람, 환경을 생각하는 사람 모두에게 추천드립니다.✔️단점딱히없네요내돈내산 찐리뷰^^솔직한 후기가 도움이 되셨다면밑에 "도움이돼요"버튼을눌러주시면 행운이 올꺼예요❤️</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3759,7 +3767,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>김민지</t>
+          <t>진*현</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -3767,26 +3775,26 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2025.10.01</t>
+          <t>2025.10.02</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>제주삼다수 그린, 330ml, 80개</t>
+          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>컵홀더에 쏙 작고 물맛도 좋아요!</t>
+          <t>아이들 외출용으로 딱이예요 ㅎㅎ</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>삼다수 330ml 후기 입니다~!요즘 집에서 물은 항상 삼다수를 두고 마시는데,이번에는 쿠팡로켓배송으로 330ml짜리를 주문해봤어요.큰 생수통은 무겁고 잘 안 들게 되는데,작은 사이즈는 아이도 부담 없이 들 수 있고 외출할 때 챙기기에도 좋아서 골라봤거든요.전날 밤에 주문했는데 아침에 문 앞에 도착해 있어서 역시 로켓배송은 늘 만족스럽더라구요 ㅎㅎㅎ***포장 상태도 깔끔했어요.작은 병들이 여러 개 묶여 있었는데 흔들림 없이 단단하게 잘 고정돼 있었어요.집에 들여놓고 보니 사이즈가 생각보다 아담해서 손에 쏙 들어오더라구요.제 손바닥 길이랑 비슷해서 아이가 들기에도 전혀 부담이 없을 정도였어요.그래서 그런지 아이가 혼자 하나씩 들고 다니면서 다 마셔버려요.보통 500ml는 남길 때가 많은데 330ml는 딱 적당해서 남김이 없어요.***무라벨, 무색캡 제품이라 더 깔끔했어요.환경 생각해서 나온 그린 에디션인데,굳이 라벨을 떼어낼 필요도 없으니까 분리수거가 훨씬 편해요.그냥 투명 페트병 그대로 버리면 되니 신경 쓸 게 줄었어요.병도 투명하고 단순해서 보기에도 산뜻한 느낌이 나더라구요.***맛은 역시 삼다수답게 깔끔해요.잡맛이 전혀 없고 그냥 맑은 물이라 부담 없이 벌컥벌컥 마시게 돼요.아침에 일어나서 바로 한 병 마시면 속도 편하고,외출할 때 가방에 넣어두면 중간에 목마를 때 요긴하게 꺼내 먹을 수 있어요.특히 아이가 물맛에 민감한 편인데 삼다수는 거부감 없이 잘 마셔서 늘 안심하고 구입하게 돼요.***활용도도 높아요.저는 집에서 약 먹을 때도 자주 쓰고, 남편은 출근길에 하나 챙겨가요.크기가 작아서 가방에 넣어도 무겁지 않고,아이 소풍 갈 때도 챙겨주기 딱이에요.유모차 컵홀더에도 쏙 들어가서 외출 시에는 무조건 챙기게 되는 아이템이 됐네요.결론적으로 삼다수 330ml는집에서나 밖에서나 딱 쓰임새가 많고, 양이 적당해서 남길 일이 없으니 정말 실속 있어요.쿠팡로켓배송 덕분에 무겁게 들고 오지 않아도 현관 앞에서 바로 받을 수 있고,무라벨이라 분리수거도 편리해서 여러모로 만족스럽습니다.앞으로도 계속 재구매할 것 같아요~!❤️❤️제 리뷰가 도움이 되셨다면 &lt;도움이돼요&gt; 눌러주세요❤️❤️</t>
+          <t>제주삼다수 그린 무라벨 330ml 40개 세트를 받아보니 기대 이상으로 만족스러웠습니다 우선 330ml라는 용량이 한 번에 마시기에 알맞고 휴대하기에도 편리해서 일상에서 다양하게 활용할 수 있더라고요 500ml는 가끔 다 못 마시는 경우가 있었는데 이 제품은 한 번에 시원하게 마시기 딱 좋습니다 가방에 넣어도 부담 없고 아이가 학교에 가져가기도 딱 적당해서 요즘 매일 챙기고 있습니다무엇보다 마음에 드는 건 무라벨이라는 점이에요 라벨을 따로 떼어낼 필요가 없으니 정리와 분리배출이 훨씬 간단해졌습니다 환경을 생각하는 마음까지 전해지는 제품이라 만족감이 더 커요 깔끔한 투명 병 디자인이라 냉장고에 정리해두면 보기에도 시원하고 깔끔해서 눈으로도 기분이 좋아집니다물맛은 역시 삼다수답게 언제 마셔도 변함없이 깔끔하고 부드러워요 목 넘김이 편안하고 시원함이 오래 느껴져서 가족 모두가 즐겨 마십니다 특히 냉장고에 차갑게 두었다가 꺼내 마시면 청량감이 확 살아나서 운동 후나 외출 후에 더욱 좋습니다 잡맛이나 이질감 없이 언제나 신선한 느낌을 주는 게 삼다수의 장점인 것 같아요배송도 빠르게 잘 도착했고 포장도 깔끔하게 되어 있어 처음 열었을 때 기분이 좋았습니다 병의 상태도 모두 정돈되어 있었고 투명하게 빛나는 물이 보이니 더 믿음이 갔습니다 덕분에 받아보자마자 바로 냉장고에 정리해두고 매일 시원하게 꺼내 마실 수 있었어요이 제품은 특히 이동할 때나 나들이, 캠핑 같은 야외활동에서도 활용도가 높습니다 330ml라서 들고 다니기에 편하고 한 번에 비우기 좋다 보니 버려지는 물 없이 알차게 마실 수 있었습니다 회사에서 책상 옆에 두고 틈틈이 마시기에도 좋아서 수분 보충에 정말 유용해요 가족 모두가 상황에 맞게 쓰기 좋은 사이즈라 다 함께 만족하고 있습니다가격도 합리적이고 품질은 확실히 믿을 수 있어서 앞으로도 꾸준히 주문할 예정입니다 한 번 쟁여두면 든든하게 오래 두고 마실 수 있고 유통기한도 넉넉해서 안심하고 보관할 수 있더라고요 무라벨 생수의 장점을 제대로 느낄 수 있는 제품이라 이제는 계속 이 제품만 구매할 것 같아요</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3797,7 +3805,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>김*혜</t>
+          <t>이*성</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -3805,7 +3813,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2025.09.29</t>
+          <t>2025.10.02</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3813,18 +3821,14 @@
           <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>물맛좋고 버리기도 간편해요~굿굿</t>
-        </is>
-      </c>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>✔️배송로켓배송이라 하루만에안전하게잘도착함!!✔️장점제주삼다수 그린 무라벨 2L, 12개입 제품을 구입해 사용해본 후기입니다. 평소 생수를 자주 마시는 편이라 여러 브랜드의 생수를 번갈아 마셔봤지만, 그 중에서도 제주삼다수는 믿고 마시는 브랜드 중 하나입니다. 특히 이번에 구매한 무라벨 제품은 환경을 생각하는 마음이 느껴져 더욱 만족스러웠습니다.가장 먼저 좋았던 점은 무라벨이라는 점입니다. 재활용할 때 라벨을 일일이 떼어낼 필요가 없어서 편리하고, 분리수거도 훨씬 깔끔하게 할 수 있었어요. 환경 보호에 대한 실천이 어렵지 않게 느껴져, 이런 제품이 많아졌으면 좋겠다는 생각이 들었습니다.물맛도 여전히 깔끔하고 부드럽습니다. 제주도의 깨끗한 지하수에서 추출된 삼다수는 입안에 남는 잔맛 없이 산뜻하게 넘어가며, 특히 찬물로 마셨을 때 그 청량감이 두드러져요. 하루 수분 섭취량을 채우기에 딱 좋은 용량이고, 냉장고에 넣어두면 꺼내 마시기에도 간편해요.또한 2L 용량 12개입 구성이라 가성비도 뛰어나고, 무거운 생수를 직접 마트에서 들고 오지 않아도 되어 정말 편리했습니다. 배송도 빠르고 안전하게 포장되어 왔으며, 병이 찌그러지거나 새는 일 없이 깔끔하게 도착했어요.가정에서 식수로 마시기에도 좋고, 요리할 때 사용해도 안심되는 품질입니다. 무엇보다 일상 속에서 친환경 실천을 할 수 있다는 점에서 만족도가 높은 제품입니다. 앞으로도 계속 재구매 의사가 있으며, 주위에도 추천하고 싶은 생수입니다.✔️단점딱히없네요내돈내산 찐리뷰^^솔직한 후기가 도움이 되셨다면밑에 "도움이돼요"버튼을눌러주시면 행운이 올꺼예요❤️</t>
+          <t>평소에 생수를 많이 마시는 편이라 여러 브랜드를 마셔봤는데, 결국 다시 돌아오게 되는 건 늘 제주삼다수 그린이에요. 이름만 들어도 믿음이 가는 제품이고, 실제로 마셔보면 다른 생수들과는 확실히 차별화된 깔끔함이 느껴집니다.우선 맛에서 오는 만족감이 큽니다. 물은 다 비슷하다고 생각할 수 있지만, 삼다수는 입안에 남는 잔여감이 없고 아주 부드럽게 넘어가는 특징이 있어요. 다른 물은 가끔 미네랄 맛이 강하거나, 끝 맛이 텁텁하게 남을 때가 있는데, 삼다수는 그런 게 없어서 하루 종일 마셔도 질리지 않습니다. 특히 차갑게 냉장고에 넣어 두었다가 꺼내 마시면 목 넘김이 시원하고 청량감이 훨씬 살아나요.또한 제주의 화산암반수에서 취수한 물이라 그런지 믿고 마실 수 있다는 안정감도 큽니다. 불필요한 미네랄이나 이물감이 거의 없고, 물맛이 일정하게 유지되는 것도 장점이에요. 건강을 위해서 물을 많이 마셔야 하는데, 삼다수는 맛이 깔끔하니 자연스럽게 물 섭취량도 늘어나더라고요.패키징도 신경을 쓴 느낌이 좋습니다. 그린 라벨이라 디자인이 심플하고 환경 친화적인 느낌이 나서 마음에 들어요. 병 모양도 잡기 편하고 휴대하기 좋아서 사무실, 운동, 여행 어디에든 들고 다니기 편리합니다. 큰 용량은 집에서 두고 마시기 좋고, 작은 용량은 외출할 때 챙기기 딱이죠.저는 특히 운동 후나 더운 여름날에 이 삼다수를 자주 마시는데, 땀으로 갈증 날 때 삼다수를 들이키면 확실히 몸이 빠르게 해갈되는 느낌을 받습니다. 커피나 음료수 대신 삼다수를 마시면서 몸이 더 가벼워지고 피부도 좋아진 것 같아 만족하고 있어요.정리하자면, 제주삼다수 그린은 부드러운 맛, 믿을 수 있는 품질, 깔끔한 패키징까지 모두 갖춘 최고의 생수라고 생각합니다. 그냥 물이라고 하기엔 마실수록 차이가 느껴지고, 매일 마시기에도 전혀 부담이 없는 생수라 앞으로도 꾸준히 구매할 예정입니다.❤  저도 물건을 구매할떄                                 ❤❤  리뷰에 의존하고 물건을 구매하기에               ❤❤  제가 직접 사용해보고 느낀점을 최대한           ❤❤  솔직하게 리뷰하려고 하고있어요                   ❤❤  저의 리뷰가 구매하시는데에 도움이 되셨기를   ❤❤  바라며 도움이되셨다면                               ❤❤  도움되요를 꾹~ 눌러주세요                         ❤. ⠀⠀⣀⣴⣾⣿⣷⣦⣀⠀⠀⠀⠀⣀⣴⣾⣿⣿⣷⣦⣀⠀⣼⣿⣿⣿⣿⣿⣿⣿⣿⣧⠀⠀⣼⣿⣿⣿⣿⣿⣿⣿⣿⣧⣾⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣷⣾⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣷⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⢿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⡿⠀⢻⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⡟⠀⠀⠙⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⠋⠀⠀⠀⠀⠻⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⠟⠀⠀⠀⠀⠀⠙⢿⣿⣿⣿⣿⣿⣿⣿⣿⣿⣿⡿⠋⠀⠀⠀⠀⠀⠀⠀⠙⣿⣿⣿⣿⣿⣿⣿⣿⠋⠀ ⠀⠀⠀⠀⠀⠀⠀⠀⠻⣿⣿⣿⣿⠟⠀ ⠀⠀⠀⠀⠀⠀⠀⠀⠀⠙⢿⡿⠋⠀</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3835,7 +3839,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>강*연</t>
+          <t>김*순</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -3843,26 +3847,22 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2025.11.09</t>
+          <t>2025.10.02</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 60개</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>여러번 주문하고 있어요. 생수는 역시 삼다수!</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>안녕하세요^^몇번 째 주문하는지 몰라요.처음에 다른 제품 먹었는데 결국 삼다수 주문하더라고요.집에 정수기가 있지만 편하고 물맛이 좋아남편 출근할 때 들고 가고 있네요.제주 삼다수 그린 무라벨 500ml 정말 만족스럽게 마시고 있어요.우선 무라벨이라 분리수거할 때 너무 편해요.라벨을 일일이 떼는 번거로움이 없어서 환경도 지키고시간도 절약할 수 있어 좋았어요.물맛도 역시 제주 삼다수답게 깔끔하고 부드러워요.잡맛이 전혀 없고, 미세한 단맛이 느껴져서하루 종일 마셔도 질리지 않아요.특히 사무실이나 운동 갈 때 들고 다니기 좋은 크기라휴대성도 최고예요.디자인도 심플해서 더 깨끗해 보이고,여러 병을 한 번에 쌓아두어도 보기 좋아요.앞으로 생수는 삼다수 그린 무라벨로 꾸준히 구매할 생각이에요.환경 생각하면서 맛과 편리함까지 챙길 수 있는 최고의 선택이에요.✔️ 휴대하기 좋다✔️ 라벨이 없어 분리수거가 편하다✔️ 물맛이 좋다⭐️도움이되셨다면 도움이 돼요 버튼 꾹!  부탁드립니다.감사합니다 ˃̵͈̑ᴗ˂̵͈̑</t>
+          <t>제주 삼다수 2L 무라벨 12개 구매 리뷰구매제품 정보•	제품명: 제주 삼다수 그린 무라벨 2L, 12개입•	구매일자: 2025년 10월•	만족도: ⭐️⭐️⭐️⭐️⭐️ (5/5)⸻⭐️ 장점•	⭐️ 깨끗하고 담백한 맛: 오래 두고 마셔도 변질 없는 깔끔한 물맛•	⭐️ 무라벨 포장: 분리수거 편리, 깔끔한 투명 병 디자인•	⭐️ 넉넉한 용량: 2L 대용량이라 온 가족이 함께 두고 마시기 좋음•	⭐️ 휴대성: 캠핑, 나들이, 운동 후 갈증 해소에 딱 알맞음•	⭐️ 안심 품질: 믿고 마실 수 있는 제주 청정 지하수⸻❗️ 단점•	❗️ 2L 용량이라 개인 휴대용으로는 무겁다•	❗️ 택배 배송 시 무게감이 있어 옮길 때 조금 힘들다⸻✅ 구매이유평소에 물을 많이 마셔서 생수를 대량으로 구비해두는 편인데, 삼다수는 늘 믿고 선택하는 제품입니다. 특히 이번에 무라벨 제품이라 분리수거가 훨씬 편리해져서 환경적인 장점까지 있어 구입했습니다.⸻✅ 사용후기받자마자 포장이 깔끔하게 되어 있어 믿음이 갔습니다.냉장고에 넣어두고 마셔보니 물맛이 정말 깨끗하고 목 넘김이 부드럽습니다. 삼다수 특유의 시원하면서도 무겁지 않은 담백한 맛이 그대로 느껴집니다.특히 가족이 함께 생활하다 보니 2L 대용량은 집에서 두고 마시기 딱 좋습니다. 캠핑이나 나들이 갈 때 차에 싣고 다니기도 편리하고, 운동 후 시원하게 한 잔 마시면 갈증이 확 풀립니다.⸻✅ 총평삼다수는 이름 그대로 믿고 마실 수 있는 생수라 늘 만족스럽습니다.이번 무라벨 제품은 환경까지 생각한 점이 마음에 들고, 앞으로도 꾸준히 재구매할 예정입니다.깨끗한 맛 + 환경친화적인 무라벨 = 최고의 생수 선택⸻⬇️⬇️⬇️⬇️⬇️⬇️⬇️⬇️⬇️⬇️⬇️⬇️⬇️⬇️⬇️이 리뷰가 구매에 조금이라도 도움이 되셨다면,아래에 있는 &lt;&lt;&lt;&lt;&lt;도움이 돼요&gt;&gt;&gt;&gt;&gt; 버튼을꼭 한번 눌러주세요!!! ૮( ྀིʃƪ´ ˘ ` ) ྀིა여러분의 한 번의 클릭이 정말 큰 힘이 됩니다 :)끝까지 정성껏 읽어주셔서 진심으로 감사드립니다.오늘도 건강한 하루 보내세요! ❤️</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>김*찬</t>
+          <t>많이사봤다</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -3881,18 +3881,18 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2025.11.17</t>
+          <t>2025.11.23</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 36개</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>환경 때문에 무라벨 제품을 찾아보다가 삼다수 무라벨을 알게 되어 주문했어요.결론부터 말하면 정말 만족입니다!✔️ 깔끔한 패키지라벨이 없으니까 보기에도 훨씬 깔끔하고, 분리수거할 때 바로 배출하면 돼서 너무 편해요. 라벨 뜯는 번거로움이 없다는 게 이렇게 좋은 건지 처음 알았어요.✔️ 2L 용량이라 경제적2L라서 냉장고에 넣어두면 하루 종일 마시기 충분하고, 작은 병보다 훨씬 경제적이에요. 집에서 물 많이 마시는 분들한테 딱입니다.✔️ 친환경 포인트라벨이 없어서 플라스틱 쓰레기 줄이는 데 조금이라도 도움이 되는 느낌이라 뿌듯해요. 패키지 안의 음각 로고도 심플해서 마음에 들었어요.아쉬운 점2L는 휴대용으로는 당연히 어렵고, 병이 큰 만큼 잡고 따를 때 조금 무거워요. 하지만 집에서 두고 마실 용도라면 전혀 문제 없었어요.총평필요한 기능에 충실하고, 환경까지 생각한 제품이라 앞으로도 꾸준히 구매할 것 같아요. 라벨 없는 삼다수, 편리함 + 친환경 + 맛 세 가지 모두 만족!</t>
+          <t>재구매 상품입니다~[ 제주삼다수, 라벨형 2L ]- 사람의 발길이 닿지 않는,한라산 1,450m 지대에 내린 빗물이화산암반층을 18년간 거치며한 방울 한 방울 걸러지고건강한 미네랄은 더해진제주의 화산암반수.▪︎ 2025년 11월 22일 주문 ~ 11월 23일 배송완료.▪︎ 소비기한(또는 유통기한)2026-10-01 이거나 그 이후인 상품▪︎ 출시이후 27년 동안, 단 한번도 수질 변화 없는- 믿을 수 있는 물.▪︎ 연간 2만 번의 철저한 수질검사로- 깐깐한 물.▪︎ 취수원 주변 토지매입으로 잠재 오염까지 차단한- 빈틈없는 물.▪︎ 106개의 관측망이 빈틈없이 지키는- 안전한 물.▪︎ 지하 420m 제주 화산암반층에 부존하는- 청정한 물.▪︎ 미네랄 성분이 균형적으로 함유된- 건강한 물.------------------------------------------------아버지께서 다른 물은 안드시고 삼다수만 드세요.이번에도 주문을 부탁하셔서 사드렸습니다.저는 수원지가 여러군데인 회사는 거르는데,여기도 하나의 수원지라 믿을 수 있습니다.만족합니다~ (๑**๑)    ((o(*&gt;ω&lt;*)o))</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>정*애</t>
+          <t>김민지</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -3915,26 +3915,26 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2025.09.26</t>
+          <t>2025.10.01</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
+          <t>제주삼다수 그린, 330ml, 80개</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>자주 구입합니다~~</t>
+          <t>컵홀더에 쏙 작고 물맛도 좋아요!</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>이번에 집에서 마실 생수를 넉넉하게 준비하려고 제주삼다수 그린 무라벨 2L, 18개입을 주문했습니다. 결론부터 말씀드리면 정말 만족스러운 구매였어요.우선 배송이 정말 빨랐습니다. 워낙 무게가 있는 상품이라 혹시라도 박스가 찢어지거나 물병이 눌려 올까 걱정했는데, 튼튼하게 포장되어 도착해서 전혀 문제없었습니다. 박스를 열었을 때 깔끔하게 정돈된 상태 그대로라 마음이 놓였어요.그리고 이 제품의 가장 큰 장점 중 하나는 역시 무라벨이라는 점입니다. 그동안 일반 생수는 마실 때마다 라벨을 일일이 떼어내고 분리수거해야 해서 번거로웠는데, 이 제품은 그 과정이 필요 없으니 훨씬 편합니다. 깔끔한 투명 용기라서 냉장고에 넣어두면 보기에도 정돈된 느낌이 들고, 환경까지 생각한 제품이라 만족도가 높습니다.맛은 역시 믿고 마시는 제주 삼다수! 물 특유의 잡맛이나 미네랄스러운 텁텁함이 전혀 없이 부드럽고 깔끔합니다. 목 넘김이 시원하고 부담이 없어 아이부터 어른까지 온 가족이 매일 마시기에 딱 좋아요. 하루 중 수시로 물을 많이 마시는 편인데, 삼다수는 늘 일정한 품질이라 안심됩니다.또한 2L 대용량이라 가정에서 식사할 때마다 꺼내 두면 여러 명이 함께 나눠 마시기 좋습니다. 작은 페트병보다 훨씬 경제적이고, 쓰레기도 줄어드니 일석이조입니다. 18개 세트라 양도 넉넉해서 한 번 주문해 두면 당분간은 생수 걱정 없이 지낼 수 있어 든든합니다. 여름철이나 손님이 자주 오는 집이라면 꼭 필요한 구성 같아요.가격 대비로도 충분히 만족스럽습니다. 마트에서 들고 오기엔 무겁고 번거로운데, 이렇게 집 앞까지 배송되니 편리하고 합리적이에요.정리하자면,•	 빠르고 안전한 배송, 튼튼한 포장•	 깔끔하고 부드러운 물맛, 온 가족이 마시기 적합•	♻️ 환경까지 고려한 무라벨, 분리수거 간편•	 가정용으로 안성맞춤인 2L × 18개 대용량앞으로도 꾸준히 재구매할 예정이고, 생수 고민하는 분들께 자신 있게 추천드릴 만한 제품입니다.</t>
+          <t>삼다수 330ml 후기 입니다~!요즘 집에서 물은 항상 삼다수를 두고 마시는데,이번에는 쿠팡로켓배송으로 330ml짜리를 주문해봤어요.큰 생수통은 무겁고 잘 안 들게 되는데,작은 사이즈는 아이도 부담 없이 들 수 있고 외출할 때 챙기기에도 좋아서 골라봤거든요.전날 밤에 주문했는데 아침에 문 앞에 도착해 있어서 역시 로켓배송은 늘 만족스럽더라구요 ㅎㅎㅎ***포장 상태도 깔끔했어요.작은 병들이 여러 개 묶여 있었는데 흔들림 없이 단단하게 잘 고정돼 있었어요.집에 들여놓고 보니 사이즈가 생각보다 아담해서 손에 쏙 들어오더라구요.제 손바닥 길이랑 비슷해서 아이가 들기에도 전혀 부담이 없을 정도였어요.그래서 그런지 아이가 혼자 하나씩 들고 다니면서 다 마셔버려요.보통 500ml는 남길 때가 많은데 330ml는 딱 적당해서 남김이 없어요.***무라벨, 무색캡 제품이라 더 깔끔했어요.환경 생각해서 나온 그린 에디션인데,굳이 라벨을 떼어낼 필요도 없으니까 분리수거가 훨씬 편해요.그냥 투명 페트병 그대로 버리면 되니 신경 쓸 게 줄었어요.병도 투명하고 단순해서 보기에도 산뜻한 느낌이 나더라구요.***맛은 역시 삼다수답게 깔끔해요.잡맛이 전혀 없고 그냥 맑은 물이라 부담 없이 벌컥벌컥 마시게 돼요.아침에 일어나서 바로 한 병 마시면 속도 편하고,외출할 때 가방에 넣어두면 중간에 목마를 때 요긴하게 꺼내 먹을 수 있어요.특히 아이가 물맛에 민감한 편인데 삼다수는 거부감 없이 잘 마셔서 늘 안심하고 구입하게 돼요.***활용도도 높아요.저는 집에서 약 먹을 때도 자주 쓰고, 남편은 출근길에 하나 챙겨가요.크기가 작아서 가방에 넣어도 무겁지 않고,아이 소풍 갈 때도 챙겨주기 딱이에요.유모차 컵홀더에도 쏙 들어가서 외출 시에는 무조건 챙기게 되는 아이템이 됐네요.결론적으로 삼다수 330ml는집에서나 밖에서나 딱 쓰임새가 많고, 양이 적당해서 남길 일이 없으니 정말 실속 있어요.쿠팡로켓배송 덕분에 무겁게 들고 오지 않아도 현관 앞에서 바로 받을 수 있고,무라벨이라 분리수거도 편리해서 여러모로 만족스럽습니다.앞으로도 계속 재구매할 것 같아요~!❤️❤️제 리뷰가 도움이 되셨다면 &lt;도움이돼요&gt; 눌러주세요❤️❤️</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>토여사</t>
+          <t>김*혜</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -3953,26 +3953,26 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2025.10.03</t>
+          <t>2025.09.29</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 1L, 18개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[부드러운 물 맛과 목 넘김+환경까지 생각하는 삼다수]</t>
+          <t>물맛좋고 버리기도 간편해요~굿굿</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>✅내.돈.내.산✅➡️제조일 : 2025.09.09➡️소비기한 : 2027.09.08안녕하세요!!다른 건 아무거나 잘 먹는데 유일하게 생수는 아무거나 못 마시는 1인입니다.그렇다보니 제 입맛에 맞는 생수 찾는다고 시중에 나온 브랜드는 다 마셔봤어요까탈스러운 제 입맛에 잘 맞는 생수 중에 하나라서 1L 제품 구입해봤어요.때마침 가격도 1L 무라벨 생수 중에서 제일 저렴해서 완전 득템!!⭕장점⭕➊무라벨에 페트병이 잘 찌그러져서 분리 배출 시 완전 편리함➋다른 1L 생수들은 통통(?)한 편인데 유일하게 이 생수는 위로 길고 슬림한 디자인이라서 그립감이 좋음➌페트병이 타 브랜드들과는 다르게 엄청 가벼움 (플라스틱 사용량을 최소화했다고 함)➍삼다수는 미네랄 함량이 비교적 낮아 부드러운 물인 [연수]에 속해서 물 맛이 깔끔하고 목 넘김이 좋고 미지근하게 마셔도 물맛이 좋음 (평소에 생수 밖에 꺼내 놓고 미지근하게 마시는 걸 좋아함)❌단점❌없어요!!⭐총평⭐1L 사이즈의 삼다수는 첫 구입이었는데 일단 물 맛은 이미 보증된 브랜드라서 믿고 주문했는데 [페트병 경량화/무라벨+무색캡+무색병]까지 재활용 취우수 등급을 취득!!환경까지 생각하는 브랜드 인 거 같아서 자주 재구입해서 마셔야겠어요.✍️제 솔직 후기가 [생수] 뭐 살지 고민 될 때 작은 도움이 되는 후기가 되길 바랍니다.</t>
+          <t>✔️배송로켓배송이라 하루만에안전하게잘도착함!!✔️장점제주삼다수 그린 무라벨 2L, 12개입 제품을 구입해 사용해본 후기입니다. 평소 생수를 자주 마시는 편이라 여러 브랜드의 생수를 번갈아 마셔봤지만, 그 중에서도 제주삼다수는 믿고 마시는 브랜드 중 하나입니다. 특히 이번에 구매한 무라벨 제품은 환경을 생각하는 마음이 느껴져 더욱 만족스러웠습니다.가장 먼저 좋았던 점은 무라벨이라는 점입니다. 재활용할 때 라벨을 일일이 떼어낼 필요가 없어서 편리하고, 분리수거도 훨씬 깔끔하게 할 수 있었어요. 환경 보호에 대한 실천이 어렵지 않게 느껴져, 이런 제품이 많아졌으면 좋겠다는 생각이 들었습니다.물맛도 여전히 깔끔하고 부드럽습니다. 제주도의 깨끗한 지하수에서 추출된 삼다수는 입안에 남는 잔맛 없이 산뜻하게 넘어가며, 특히 찬물로 마셨을 때 그 청량감이 두드러져요. 하루 수분 섭취량을 채우기에 딱 좋은 용량이고, 냉장고에 넣어두면 꺼내 마시기에도 간편해요.또한 2L 용량 12개입 구성이라 가성비도 뛰어나고, 무거운 생수를 직접 마트에서 들고 오지 않아도 되어 정말 편리했습니다. 배송도 빠르고 안전하게 포장되어 왔으며, 병이 찌그러지거나 새는 일 없이 깔끔하게 도착했어요.가정에서 식수로 마시기에도 좋고, 요리할 때 사용해도 안심되는 품질입니다. 무엇보다 일상 속에서 친환경 실천을 할 수 있다는 점에서 만족도가 높은 제품입니다. 앞으로도 계속 재구매 의사가 있으며, 주위에도 추천하고 싶은 생수입니다.✔️단점딱히없네요내돈내산 찐리뷰^^솔직한 후기가 도움이 되셨다면밑에 "도움이돼요"버튼을눌러주시면 행운이 올꺼예요❤️</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3983,7 +3983,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>윤*리</t>
+          <t>강*연</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -3991,26 +3991,26 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2025.09.24</t>
+          <t>2025.11.09</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
+          <t>제주삼다수 그린 무라벨, 500ml, 60개</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>환경도 생각하는 무라벨 물</t>
+          <t>여러번 주문하고 있어요. 생수는 역시 삼다수!</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>제주 삼다수는 우리나라 먹는샘물 브랜드 중에서도 가장 많은 사람들이 선택하는 제품답게, 실제로 마셔보면 왜 이렇게 오랜 시간 동안 꾸준히 사랑받는지 바로 알 수 있습니다. 제가 직접 여러 브랜드의 생수를 마셔본 경험이 있는데, 삼다수만의 깨끗하고 부드러운 맛은 다른 제품들과 확실히 차별화되는 부분이 있습니다. 물은 단순히 갈증을 해소하는 용도뿐 아니라, 매일매일 몸속에 들어가 건강과 직결되기 때문에 그 품질이 무엇보다 중요하다고 생각하는데, 삼다수는 그 점에서 매우 만족스러운 제품입니다.삼다수의 가장 큰 장점은 바로 **청정 제주에서 비롯된 원수(原水)**입니다. 용암층을 따라 천연적으로 정화된 물을 그대로 담아낸 제품이라서 그런지, 마실 때 잡맛이나 불순물이 전혀 느껴지지 않고 굉장히 순수하고 맑은 느낌이 납니다. 일반 수돗물이나 일부 저가 생수에서는 느껴지는 특유의 염소맛이나 금속성 맛이 전혀 없고, 목 넘김이 정말 부드럽습니다. 그래서 물을 잘 안 마시는 분들도 삼다수는 거부감 없이 꿀꺽꿀꺽 마실 수 있을 거라 생각합니다.저는 주로 0.5L 소용량 페트병을 구매하는데, 이 크기가 정말 편리합니다. 가방에 넣고 다니기에도 적당하고, 운동할 때나 외출할 때, 심지어 집 안에서 물을 자주 챙겨 마실 때도 부담 없는 용량이라서 딱 좋습니다. 2L 대용량은 주로 집에서 가족이 함께 마시기에 적합하다면, 0.5L는 개인이 이동하면서 수분을 보충하기에 최고의 사이즈입니다. 사진 속처럼 한 번에 묶음으로 사서 쟁여두면 언제든지 꺼내 쓰기 좋고, 유통기한도 길어서 비상용으로 보관하기에도 안심이 됩니다.또한 삼다수는 환경을 생각한 패키징에도 신경을 많이 쓴 제품입니다. 최근 출시된 그린 에디션은 라벨을 최소화하고 분리배출이 편리하도록 제작되어, 물을 다 마신 후에도 재활용하기 쉽습니다. 요즘처럼 환경문제가 중요하게 여겨지는 시대에 이런 작은 부분까지 배려한 점은 소비자로서 굉장히 긍정적으로 느껴졌습니다.마시는 순간부터 끝까지 깔끔한 맛이 유지된다는 점도 빼놓을 수 없습니다. 특히 차갑게 냉장고에 넣어 두었다가 꺼내 마시면, 다른 어떤 음료보다도 더 상쾌하게 갈증을 해소해줍니다. 저는 커피를 즐겨 마시는 편인데, 커피를 마신 뒤 입안을 헹구는 용도로 삼다수를 마시면 입안이 산뜻해지고 잔여 맛이 깔끔하게 사라져서 좋았습니다. 또한 삼다수는 요리할 때 사용해도 음식 맛을 해치지 않고, 밥을 지을 때 넣으면 밥알이 훨씬 더 투명하고 윤기 있게 지어지는 장점도 있었습니다.종합적으로 볼 때, 삼다수는 단순히 ‘물’이 아니라 신뢰할 수 있는 품질과 청정한 자연의 이미지를 그대로 담은 브랜드라고 할 수 있습니다. 매일 마셔도 질리지 않고, 언제 어디서나 안심하고 마실 수 있다는 점에서 저는 앞으로도 꾸준히 구매할 예정입니다. 외출할 때 가방 속에 한 병씩 넣어 다니는 습관이 생겼을 정도로, 제 생활 속에서 없어서는 안 될 필수품이 되어버렸습니다.결론적으로, 제주 삼다수는 맛과 품질, 편의성, 환경까지 고려한 완벽한 생수라고 생각합니다. 물을 많이 마셔야 건강에 좋다는 것은 누구나 알지만, 매일 마시는 물이기 때문에 더더욱 좋은 제품을 고르는 게 중요합니다. 그런 점에서 삼다수는 최선의 선택이라고 자신 있게 추천할 수 있습니다.</t>
+          <t>안녕하세요^^몇번 째 주문하는지 몰라요.처음에 다른 제품 먹었는데 결국 삼다수 주문하더라고요.집에 정수기가 있지만 편하고 물맛이 좋아남편 출근할 때 들고 가고 있네요.제주 삼다수 그린 무라벨 500ml 정말 만족스럽게 마시고 있어요.우선 무라벨이라 분리수거할 때 너무 편해요.라벨을 일일이 떼는 번거로움이 없어서 환경도 지키고시간도 절약할 수 있어 좋았어요.물맛도 역시 제주 삼다수답게 깔끔하고 부드러워요.잡맛이 전혀 없고, 미세한 단맛이 느껴져서하루 종일 마셔도 질리지 않아요.특히 사무실이나 운동 갈 때 들고 다니기 좋은 크기라휴대성도 최고예요.디자인도 심플해서 더 깨끗해 보이고,여러 병을 한 번에 쌓아두어도 보기 좋아요.앞으로 생수는 삼다수 그린 무라벨로 꾸준히 구매할 생각이에요.환경 생각하면서 맛과 편리함까지 챙길 수 있는 최고의 선택이에요.✔️ 휴대하기 좋다✔️ 라벨이 없어 분리수거가 편하다✔️ 물맛이 좋다⭐️도움이되셨다면 도움이 돼요 버튼 꾹!  부탁드립니다.감사합니다 ˃̵͈̑ᴗ˂̵͈̑</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>김*태</t>
+          <t>정*애</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -4029,26 +4029,26 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2025.09.25</t>
+          <t>2025.09.26</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>믿고 마실 수 있는 생수</t>
+          <t>자주 구입합니다~~</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>✨구매동기저는 집에서 생수를 사서 먹는 편인데결국에는 삼다수를 선택해서 구매를 하게되더라구요 ㅎㅎ삼다수가 젤 믿을만한 물이기도 하고물맛도 깔끔하니 좋은 편이라 안심하고 사용할 수 있더라구요!그래서 2L 짜리로 12개를 두고 구매를 하면 집에서 꽤 오랫동안먹을 수 있더라구요 그래서 12개 짜리로 구매를 했습니다~~~✨제품설명- 제주 한라산 단 하나의 수원지에서 전하는 제주의 생명력을 담은 물- 사람의 발길이 닿지 않는 한라산 화산암반층에서 걸러진 물- 27년간 단 한 번도 수질변화가 없는 물- 깐깐한 수질검사를 통해 걸러진 물- 106개의 관측망이 지키는 빈틈 없는 물- 미네랄 성분이 균형적으로 들어간 건강한 물✨제품후기용기의 무게를 더 가볍게 만들었다고 하는데확실히 이전보다 가벼운 느낌이 들었던 것 같아요한 번에 6개를 들었을 때 좀 체감이 되었습니다용기에서도 품질과 친환경을 생각한다는 느낌을 받았답니다~그래고 무색병, 무색캡, 무라벨의 제품이다보니확실히 지구 환경을 더 지킨다는 생각이 들다보니물을 구매할 때도 이걸 고려해서 사게 되더라구요!삼다수는 믿을 만한 물이고또 환경까지 생각하는 물이라서 자주 마시게된느 것 같아요!한 번도 수질에 대해서 말이 나온 적 없는생수이다보니 언제든지 편하게 마실 수 있어서좋은 것 같습니다. 저는 자주 구매해서 마실 것 같아요~~</t>
+          <t>이번에 집에서 마실 생수를 넉넉하게 준비하려고 제주삼다수 그린 무라벨 2L, 18개입을 주문했습니다. 결론부터 말씀드리면 정말 만족스러운 구매였어요.우선 배송이 정말 빨랐습니다. 워낙 무게가 있는 상품이라 혹시라도 박스가 찢어지거나 물병이 눌려 올까 걱정했는데, 튼튼하게 포장되어 도착해서 전혀 문제없었습니다. 박스를 열었을 때 깔끔하게 정돈된 상태 그대로라 마음이 놓였어요.그리고 이 제품의 가장 큰 장점 중 하나는 역시 무라벨이라는 점입니다. 그동안 일반 생수는 마실 때마다 라벨을 일일이 떼어내고 분리수거해야 해서 번거로웠는데, 이 제품은 그 과정이 필요 없으니 훨씬 편합니다. 깔끔한 투명 용기라서 냉장고에 넣어두면 보기에도 정돈된 느낌이 들고, 환경까지 생각한 제품이라 만족도가 높습니다.맛은 역시 믿고 마시는 제주 삼다수! 물 특유의 잡맛이나 미네랄스러운 텁텁함이 전혀 없이 부드럽고 깔끔합니다. 목 넘김이 시원하고 부담이 없어 아이부터 어른까지 온 가족이 매일 마시기에 딱 좋아요. 하루 중 수시로 물을 많이 마시는 편인데, 삼다수는 늘 일정한 품질이라 안심됩니다.또한 2L 대용량이라 가정에서 식사할 때마다 꺼내 두면 여러 명이 함께 나눠 마시기 좋습니다. 작은 페트병보다 훨씬 경제적이고, 쓰레기도 줄어드니 일석이조입니다. 18개 세트라 양도 넉넉해서 한 번 주문해 두면 당분간은 생수 걱정 없이 지낼 수 있어 든든합니다. 여름철이나 손님이 자주 오는 집이라면 꼭 필요한 구성 같아요.가격 대비로도 충분히 만족스럽습니다. 마트에서 들고 오기엔 무겁고 번거로운데, 이렇게 집 앞까지 배송되니 편리하고 합리적이에요.정리하자면,•	 빠르고 안전한 배송, 튼튼한 포장•	 깔끔하고 부드러운 물맛, 온 가족이 마시기 적합•	♻️ 환경까지 고려한 무라벨, 분리수거 간편•	 가정용으로 안성맞춤인 2L × 18개 대용량앞으로도 꾸준히 재구매할 예정이고, 생수 고민하는 분들께 자신 있게 추천드릴 만한 제품입니다.</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>서현석</t>
+          <t>토여사</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -4067,22 +4067,22 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2025.11.24</t>
+          <t>2025.10.03</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 1L, 18개</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>병도 튼튼하고 라벨 안때도되서 편해요!!</t>
+          <t>[부드러운 물 맛과 목 넘김+환경까지 생각하는 삼다수]</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>✅ “물 마시는 게 더 즐거워졌어요”박스를 열자마자 ‘무라벨’이라는 문구가 눈에 들어와서“오, 분리배출이 쉬우니까 마음이 가벼워지겠다!” 싶었습니다.생수는 그냥 마시는 것 같지만 작은 변화 하나가사용 경험을 꽤 바꿔주는 것 같아요.2L 페트병 크기도 부담스럽지 않고,병 모양이 깔끔해서 냉장고 문이나 식탁 옆에 두어도 어울렸습니다.첫 모금을 했을 때 물맛이 특별히 “우와”라긴 어렵지만,일반 생수 대비 안정감 있는 담백함이 있어서“아, 이거 괜찮다”는 느낌이 들었어요.✅ 무라벨의 실생활 변화 체감일반 생수를 마신 뒤 병을 버릴 때 라벨을 떼야 하고그게 은근 귀찮았는데,이 제품은 라벨이 없거나 최소화돼 있어서 병 버릴 때 손이 덜 갔어요.특히 어린아이 있는 집이나 사무실에서 여러 병이 나올 때“라벨 따기”라는 작은 수고가 없어진 게 체감상 꽤 큰 변화였습니다.그리고 병을 눌러서 버릴 때 라벨 때문에 움푹 들어가거나찢어지는 느낌이 적어서 압축 배출도 깔끔하게 되고,환경 측면에서도 마음이 놓였어요.✅ 사용 중 느껴진 물맛과 용량의 장점2L라는 용량은 꽤 여유 있어서하루에 마시는 수량을 여유 있게 확보할 수 있었고,냉장고 문 안쪽 넣기에도 딱 좋았어요.마실 때 자주 꺼내야 하는 번거로움이 줄어들고“아마 이 한 병이면 오늘은 괜찮겠다”는 안도감이 들었지요.물맛 자체도 부드럽고 끝맛이 깔끔해서식사 후나 운동 후에 마실 때 더욱 만족스러웠어요.특히 한여름에 냉장고에서 차갑게 꺼냈을 때첫 모금의 시원함이 더 생생했던 게 기억에 남습니다.✅ 실사용 중 아쉬웠던 부분물론 작은 아쉬움도 있었어요.라벨이 없다는 건 심플하고 좋은데 라벨이 있던 생수처럼제품 정보가 바로 눈에 띄지 않는 점은 조금 아쉬웠습니다.</t>
+          <t>✅내.돈.내.산✅➡️제조일 : 2025.09.09➡️소비기한 : 2027.09.08안녕하세요!!다른 건 아무거나 잘 먹는데 유일하게 생수는 아무거나 못 마시는 1인입니다.그렇다보니 제 입맛에 맞는 생수 찾는다고 시중에 나온 브랜드는 다 마셔봤어요까탈스러운 제 입맛에 잘 맞는 생수 중에 하나라서 1L 제품 구입해봤어요.때마침 가격도 1L 무라벨 생수 중에서 제일 저렴해서 완전 득템!!⭕장점⭕➊무라벨에 페트병이 잘 찌그러져서 분리 배출 시 완전 편리함➋다른 1L 생수들은 통통(?)한 편인데 유일하게 이 생수는 위로 길고 슬림한 디자인이라서 그립감이 좋음➌페트병이 타 브랜드들과는 다르게 엄청 가벼움 (플라스틱 사용량을 최소화했다고 함)➍삼다수는 미네랄 함량이 비교적 낮아 부드러운 물인 [연수]에 속해서 물 맛이 깔끔하고 목 넘김이 좋고 미지근하게 마셔도 물맛이 좋음 (평소에 생수 밖에 꺼내 놓고 미지근하게 마시는 걸 좋아함)❌단점❌없어요!!⭐총평⭐1L 사이즈의 삼다수는 첫 구입이었는데 일단 물 맛은 이미 보증된 브랜드라서 믿고 주문했는데 [페트병 경량화/무라벨+무색캡+무색병]까지 재활용 취우수 등급을 취득!!환경까지 생각하는 브랜드 인 거 같아서 자주 재구입해서 마셔야겠어요.✍️제 솔직 후기가 [생수] 뭐 살지 고민 될 때 작은 도움이 되는 후기가 되길 바랍니다.</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -4097,7 +4097,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>호도</t>
+          <t>김*찬</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2025.09.22</t>
+          <t>2025.11.17</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4113,18 +4113,14 @@
           <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>물맛과 분리수거 편의성, 두 마리 토끼를 잡은 생수</t>
-        </is>
-      </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>물 좀 마셔본 사람이라면 제주삼다수 그린 무라벨, 2L, 12개 조합이 얼마나 완벽한 ‘생수 종결템’인지 알 거다. 일단 물맛. 이건 삼다수라는 브랜드가 보증하는 부분인데, 역시나 타의 추종을 불허한다. 화산암반수 특유의 그 깔끔하고 부드러운 목넘김은 진짜 독보적이다. 물 비린내나 잡미가 전혀 없고, 마셨을 때 입안에 남는 그 청량함이 일품이다. 내가 정수기도 써보고, 다른 브랜드 생수도 여러 종류 마셔봤지만 결국 삼다수로 회귀하는 이유가 바로 이 ‘기본기’에 있다. 어떤 음식과 먹어도, 운동 후에 마셔도 물맛 자체가 거슬리는 법이 없다.이 제품의 진짜 핵심은 ‘그린 무라벨’에 있다. 솔직히 분리수거할 때마다 생수병 라벨 뜯는 거, 은근히 귀찮고 스트레스다. 손톱으로 긁어서 뜯다가 잘 안 뜯기면 짜증이 확 나는데, 이 제품은 그 원천적인 번거로움을 완벽하게 제거했다. 그냥 다 마시고 가볍게 헹궈서 찌그러뜨린 뒤 바로 버리면 끝. 이 사소한 차이가 삶의 질을 수직 상승시킨다. 환경을 생각한다는 명분도 좋지만, 그보다 소비자 입장에서 압도적으로 편하다는 게 가장 큰 매력 포인트다.2L짜리 12개 묶음 구성도 칭찬할 만하다. 나처럼 집에서 물 소비량이 많은 사람에겐 이보다 더 든든한 구성이 없다. 한번 주문해두면 한동안 물 걱정 없이 쟁여두고 마실 수 있다. 배송받았을 때 포장도 튼튼하고, 병 디자인 자체도 군더더기 없이 깔끔해서 창고나 베란다에 쌓아둬도 지저분해 보이지 않는다. 뚜껑 색깔이 연두색이라 무라벨임에도 삼다수 제품인 걸 직관적으로 알 수 있는 점도 소소한 디테일.단점이라면, 역시 가격. 다른 생수에 비해 가격대가 살짝 있는 편이라 부담을 느낄 수는 있다. 그리고 1~2인 가구라면 12개 묶음이 보관 공간을 꽤 차지한다는 점도 고려해야 한다. 하지만 압도적인 물맛과 라벨을 뜯을 필요가 없는 편리함을 경험하고 나면 충분히 납득 가능한 비용이라고 생각된다. 이건 단순한 생수가 아니라, 시간과 노력을 아껴주는 서비스 상품에 가깝다.특히 평소 분리수거에 진심이거나, 사소한 귀찮음도 줄이고 싶은 사람이라면 이 제품은 최고의 선택이 될 거다. 물맛과 편리함, 두 마리 토끼를 모두 잡고 싶은 스마트한 소비자에게 완전 추천.</t>
+          <t>환경 때문에 무라벨 제품을 찾아보다가 삼다수 무라벨을 알게 되어 주문했어요.결론부터 말하면 정말 만족입니다!✔️ 깔끔한 패키지라벨이 없으니까 보기에도 훨씬 깔끔하고, 분리수거할 때 바로 배출하면 돼서 너무 편해요. 라벨 뜯는 번거로움이 없다는 게 이렇게 좋은 건지 처음 알았어요.✔️ 2L 용량이라 경제적2L라서 냉장고에 넣어두면 하루 종일 마시기 충분하고, 작은 병보다 훨씬 경제적이에요. 집에서 물 많이 마시는 분들한테 딱입니다.✔️ 친환경 포인트라벨이 없어서 플라스틱 쓰레기 줄이는 데 조금이라도 도움이 되는 느낌이라 뿌듯해요. 패키지 안의 음각 로고도 심플해서 마음에 들었어요.아쉬운 점2L는 휴대용으로는 당연히 어렵고, 병이 큰 만큼 잡고 따를 때 조금 무거워요. 하지만 집에서 두고 마실 용도라면 전혀 문제 없었어요.총평필요한 기능에 충실하고, 환경까지 생각한 제품이라 앞으로도 꾸준히 구매할 것 같아요. 라벨 없는 삼다수, 편리함 + 친환경 + 맛 세 가지 모두 만족!</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -5061,7 +5057,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>장*선</t>
+          <t>이*노</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -5069,22 +5065,18 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2025.11.16</t>
+          <t>2024.09.25</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>제주 삼다수 그린 무라벨 500ml 20개</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>5일만에 배송</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
-          <t>급해서 쿠팡에서 주문했는데 5일만에 왔습니다.. 배송기사님이 1개씩 배송은 힘들다며 2개 이상 주문 부탁한다는 문자를 보냈습니다. 순간 1개만 주문한 제가 나쁜사람이 된거같아서 기분이 좋지 않았습니다. 주문하실분들 1개 주문하면 이런 문자 받을 수 있는 점 참고해서 구매하세요,,</t>
+          <t>쿠폰 먹여 알뜰하게 구입했네요. ㅎㅎ삼다수야 생수 중 유명하니 더 설명할건 없겠죠? ^^무라벨이라 여러모로 편리한데 특히, 버릴때 좋아요.</t>
         </is>
       </c>
       <c r="H127" t="n">
@@ -5099,7 +5091,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>이*노</t>
+          <t>장*선</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -5107,18 +5099,22 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2024.09.25</t>
+          <t>2025.11.16</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr"/>
+          <t>제주 삼다수 그린 무라벨 500ml 20개</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5일만에 배송</t>
+        </is>
+      </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>쿠폰 먹여 알뜰하게 구입했네요. ㅎㅎ삼다수야 생수 중 유명하니 더 설명할건 없겠죠? ^^무라벨이라 여러모로 편리한데 특히, 버릴때 좋아요.</t>
+          <t>급해서 쿠팡에서 주문했는데 5일만에 왔습니다.. 배송기사님이 1개씩 배송은 힘들다며 2개 이상 주문 부탁한다는 문자를 보냈습니다. 순간 1개만 주문한 제가 나쁜사람이 된거같아서 기분이 좋지 않았습니다. 주문하실분들 1개 주문하면 이런 문자 받을 수 있는 점 참고해서 구매하세요,,</t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -5338,7 +5334,7 @@
         </is>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -5460,7 +5456,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>한*은</t>
+          <t>김*일</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -5468,22 +5464,22 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2023.02.19</t>
+          <t>2025.11.28</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 30개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>배송</t>
+          <t>제주 삼다수이잖아요!! 좋아요!</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>안녕하세요 저는 물건을 구입하고 평은 잘 하지 않는 편이지만, 쿠팡이고 한두번도 아니고 여러번 같은 곳에 시키는 사람이라서요 맘에 들고 하면은요 근데 이번에는 저희 집 앞 현관에 CCTV가 설치가 되어 배송 배달 모든게 확인이 됩니다. 거기서 물건 매번 시키면서 얼마나 힘들까? 그 마음 잘 알고 미안한 마음으로 늘 주문합니다. (엘베×) 그런데 하필 저희 말고 같은 층에 다른 호에서 시켰습니다. 한번에 올라오기 힘드신점 알겠는데, 하나는 아에 찢어서 왔습니다. 반품 파손으로는 안했습니다 제가 잘 알고 있으니깐요 그 마음을 근데 조금은 그래도 무거워도 텅텅 떨어뜨리지 않고, 정성 스럽게 갔다주시면 감사하겠습니다. 이번에는 조금 실망이 컸어요. 저도 모르게 글을 올립니다. 믿고 힘드시점 알아요 하지만, 모든 분들이 쿠팡을 이용하는 분들은 취소 반품 등 빠른 배송이 빠르게 결단이 되니깐 쿠팡을 이용하시는건데 그 만큼 신뢰가 큰 비중을 합니다. 믿고 배달 시켰는데 또 저런 비슷하게 배달오면은 다시는 재 구입 안할것같아요 앞으로는 좀 더 신경 써주시고 던지기 밑으로 텅 떨어뜨리기 등 안하면 좋겠습니다. 조금은 입장을 바꿔서 한번 더 생각해주시면 감사하겠습니다.</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개제주 삼다수이잖아요!! 좋아요!</t>
         </is>
       </c>
       <c r="H138" t="n">
@@ -5498,7 +5494,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>김*란</t>
+          <t>한*은</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -5506,57 +5502,61 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
+          <t>2023.02.19</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>제주삼다수 그린 무라벨, 2L, 30개</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>배송</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>안녕하세요 저는 물건을 구입하고 평은 잘 하지 않는 편이지만, 쿠팡이고 한두번도 아니고 여러번 같은 곳에 시키는 사람이라서요 맘에 들고 하면은요 근데 이번에는 저희 집 앞 현관에 CCTV가 설치가 되어 배송 배달 모든게 확인이 됩니다. 거기서 물건 매번 시키면서 얼마나 힘들까? 그 마음 잘 알고 미안한 마음으로 늘 주문합니다. (엘베×) 그런데 하필 저희 말고 같은 층에 다른 호에서 시켰습니다. 한번에 올라오기 힘드신점 알겠는데, 하나는 아에 찢어서 왔습니다. 반품 파손으로는 안했습니다 제가 잘 알고 있으니깐요 그 마음을 근데 조금은 그래도 무거워도 텅텅 떨어뜨리지 않고, 정성 스럽게 갔다주시면 감사하겠습니다. 이번에는 조금 실망이 컸어요. 저도 모르게 글을 올립니다. 믿고 힘드시점 알아요 하지만, 모든 분들이 쿠팡을 이용하는 분들은 취소 반품 등 빠른 배송이 빠르게 결단이 되니깐 쿠팡을 이용하시는건데 그 만큼 신뢰가 큰 비중을 합니다. 믿고 배달 시켰는데 또 저런 비슷하게 배달오면은 다시는 재 구입 안할것같아요 앞으로는 좀 더 신경 써주시고 던지기 밑으로 텅 떨어뜨리기 등 안하면 좋겠습니다. 조금은 입장을 바꿔서 한번 더 생각해주시면 감사하겠습니다.</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>좋음</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>김*란</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>4</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>2025.09.09</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>아이 아침마다 물 챙겨줘야해서 구매하였는데ㅎ
 너무 편하</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>아이 아침마다 물 챙겨줘야해서 구매하였는데ㅎ너무 편하고 좋아요ㅎㅎ벌써 한묶음 먹은것같아요ㅎㅎㅎ다 먹으면 또 구매할게요ㅎㅎ</t>
-        </is>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>좋음</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>오*영</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>4</v>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>2025.10.06</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>가정용 생수로 제주삼다수 그린 무라벨 2L 18개 세트 구매했어요.무라벨이라 환경 생각하면서 편리하게 사용할 수 있고, 물맛도 깔끔하고 부드러워 가족 모두 만족합니다.2L 용량이라 요리나 음용용으로 넉넉하고, 18개 세트라 한 번 구매로 오래 사용할 수 있어 실용적이에요.육아맘 입장에서도 아이 음용수로 안심하고 활용 가능한 제품입니다.✔️ 깔끔하고 부드러운 물맛✔️ 환경 생각한 무라벨 디자인✔️ 2L 넉넉한 용량, 18개 세트로 실용적✔️ 가족 모두 음용 가능</t>
         </is>
       </c>
       <c r="H140" t="n">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>로제콘치즈</t>
+          <t>오*영</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -5579,22 +5579,18 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2024.02.11</t>
+          <t>2025.10.06</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>제주삼다수 그린, 500ml, 20개</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>삼다수</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
-          <t>요즘에는 환경오염 때문에 무라벨 생수마시잖아요. 다른 생수보다 조금 비싸지만믿고 먹는 삼다수라 구매해서 마십니다.큐알코드 들어가면 상세정보 알 수 있어요.물에 효소나 비타민 등등 타먹기 편해서생수 구매해서 잘 마시고 있어요.</t>
+          <t>가정용 생수로 제주삼다수 그린 무라벨 2L 18개 세트 구매했어요.무라벨이라 환경 생각하면서 편리하게 사용할 수 있고, 물맛도 깔끔하고 부드러워 가족 모두 만족합니다.2L 용량이라 요리나 음용용으로 넉넉하고, 18개 세트라 한 번 구매로 오래 사용할 수 있어 실용적이에요.육아맘 입장에서도 아이 음용수로 안심하고 활용 가능한 제품입니다.✔️ 깔끔하고 부드러운 물맛✔️ 환경 생각한 무라벨 디자인✔️ 2L 넉넉한 용량, 18개 세트로 실용적✔️ 가족 모두 음용 가능</t>
         </is>
       </c>
       <c r="H141" t="n">
@@ -5609,7 +5605,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>김*희</t>
+          <t>로제콘치즈</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -5617,22 +5613,22 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2025.11.15</t>
+          <t>2024.02.11</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린, 500ml, 20개</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>환경에 도움도 되고 라벨없이 가격또한 착하고 만족요</t>
+          <t>삼다수</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>환경에 도움도 되고 라벨없이 가격또한 착하고 만족요</t>
+          <t>요즘에는 환경오염 때문에 무라벨 생수마시잖아요. 다른 생수보다 조금 비싸지만믿고 먹는 삼다수라 구매해서 마십니다.큐알코드 들어가면 상세정보 알 수 있어요.물에 효소나 비타민 등등 타먹기 편해서생수 구매해서 잘 마시고 있어요.</t>
         </is>
       </c>
       <c r="H142" t="n">
@@ -5681,7 +5677,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>쿠쿠루삥뽕</t>
+          <t>김*희</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -5689,7 +5685,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2025.11.22</t>
+          <t>2025.11.15</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5699,12 +5695,12 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>삼다수 구입 20번째 넘는듯요</t>
+          <t>환경에 도움도 되고 라벨없이 가격또한 착하고 만족요</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>쿠팡이 제일 저렴해서 최근 계속 쿠팡에서 구매해요</t>
+          <t>환경에 도움도 되고 라벨없이 가격또한 착하고 만족요</t>
         </is>
       </c>
       <c r="H144" t="n">
@@ -5719,7 +5715,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>김*순</t>
+          <t>쿠쿠루삥뽕</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -5727,18 +5723,22 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2025.11.24</t>
+          <t>2025.11.22</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 36개</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>삼다수 구입 20번째 넘는듯요</t>
+        </is>
+      </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>무라벨이라 분리수거에 편합니다.생산지가 잘 표시되어 있었습니다</t>
+          <t>쿠팡이 제일 저렴해서 최근 계속 쿠팡에서 구매해요</t>
         </is>
       </c>
       <c r="H145" t="n">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>00</t>
+          <t>김*순</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -5761,18 +5761,18 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2025.11.22</t>
+          <t>2025.11.24</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 36개</t>
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
         <is>
-          <t>매번 잘 마시고 있습니다 작아서 휴대하기도 좋아요</t>
+          <t>무라벨이라 분리수거에 편합니다.생산지가 잘 표시되어 있었습니다</t>
         </is>
       </c>
       <c r="H146" t="n">
@@ -5825,7 +5825,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>박*정</t>
+          <t>00</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -5833,18 +5833,18 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2025.11.18</t>
+          <t>2025.11.22</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
         </is>
       </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr">
         <is>
-          <t>배송도 빠르고, 제품도 좋습니다. 잘! 사용하겠습니다. 감사합니다. =끝=</t>
+          <t>매번 잘 마시고 있습니다 작아서 휴대하기도 좋아요</t>
         </is>
       </c>
       <c r="H148" t="n">
@@ -5859,7 +5859,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>후기후기기</t>
+          <t>박*정</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -5867,22 +5867,18 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2025.11.10</t>
+          <t>2025.11.18</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>항상 재구매 하고있어요!</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
-          <t>#내돈내산리뷰적당한 용량에 낱개로 포장되어있어서 먹기편리합니다!매번 재구매해서 먹고 있어요~</t>
+          <t>배송도 빠르고, 제품도 좋습니다. 잘! 사용하겠습니다. 감사합니다. =끝=</t>
         </is>
       </c>
       <c r="H149" t="n">
@@ -5897,7 +5893,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>장*자</t>
+          <t>후기후기기</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -5905,26 +5901,26 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2021.06.26</t>
+          <t>2025.11.10</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>기존 삼다수랑 맛이 달라요</t>
+          <t>항상 재구매 하고있어요!</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>생수 공장 주위 마을에 지하수가 없어 어려움을 격는 마을이 많다고 하더라고요......쓰레기도 그러고....우리 아이들의 미래가 걱정이긴합니다~ 정수기를 사용하고있는데요 물이 맛이 없거든요...여름에 물 끓여먹음 덥기도하고 빨리 쉬거든요.....아이 유치원에 물 담아주려고 구매했어요 라벨지가 없는데도 기존 삼다수랑 가격이 같네요? 환경을 생각해서 무라벨 구매했어요~^^*집에있는 500미리 삼다수 다 마시고 구매한 라벨지 없는 물을 마셨는데요...물맛이 달라요~ㅠ ㅠ 칼칼한 맛이 없고 밍밍하네요 수원지(동네)가 다른가봐요........??? 이제 안마실래요*오늘(7월10일)보니 경품행사도있고 가격이 좀 내려갔어요~ㅋㅋㅋ 무라벨 다시 뜯어 마셔봐도 미세한 차이가 있어요 기분탓인가요?저만 예민한가요?ㅠ ㅠ 상품평보니 저만 그런가봐요 삼다수니 믿고 마셔야죠</t>
+          <t>#내돈내산리뷰적당한 용량에 낱개로 포장되어있어서 먹기편리합니다!매번 재구매해서 먹고 있어요~</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -5935,7 +5931,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>정*훈</t>
+          <t>장*자</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -5943,7 +5939,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2023.07.24</t>
+          <t>2021.06.26</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5953,16 +5949,16 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>할인 할 때 구매하기 좋은 삼다수?!</t>
+          <t>기존 삼다수랑 맛이 달라요</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>삼다수만 드시는 분들에게 애증의 식수입니다.1년 내내 할인하던 작년과 달리 올해초부터 할인 없이 판매해서인지 온라인이나 오프라인이나 상관없이 더 비싸게 먹는 기분이 들게 만드는데 성공해 정수기 구매를 생각하게 만드는 식수로 돌변한 삼다수입니다.이렇게 이벤트로 구매해서 그나마 싸게 먹는 게 아니라면 다른 식수면 괜찮지 않을까 했지만... 다른 제품을 못 먹을 정도로 삼다수에 길들어지신 분들께는 비싼 가격에도 대처품이 없어서 사먹는 애증의 식수입니다.</t>
+          <t>생수 공장 주위 마을에 지하수가 없어 어려움을 격는 마을이 많다고 하더라고요......쓰레기도 그러고....우리 아이들의 미래가 걱정이긴합니다~ 정수기를 사용하고있는데요 물이 맛이 없거든요...여름에 물 끓여먹음 덥기도하고 빨리 쉬거든요.....아이 유치원에 물 담아주려고 구매했어요 라벨지가 없는데도 기존 삼다수랑 가격이 같네요? 환경을 생각해서 무라벨 구매했어요~^^*집에있는 500미리 삼다수 다 마시고 구매한 라벨지 없는 물을 마셨는데요...물맛이 달라요~ㅠ ㅠ 칼칼한 맛이 없고 밍밍하네요 수원지(동네)가 다른가봐요........??? 이제 안마실래요*오늘(7월10일)보니 경품행사도있고 가격이 좀 내려갔어요~ㅋㅋㅋ 무라벨 다시 뜯어 마셔봐도 미세한 차이가 있어요 기분탓인가요?저만 예민한가요?ㅠ ㅠ 상품평보니 저만 그런가봐요 삼다수니 믿고 마셔야죠</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="152">
@@ -5973,7 +5969,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>김*숙</t>
+          <t>정*훈</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -5981,7 +5977,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2025.11.11</t>
+          <t>2023.07.24</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5991,16 +5987,16 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>물맛이 좋아요</t>
+          <t>할인 할 때 구매하기 좋은 삼다수?!</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>물맛이 좋고 청정한 느낌 어디서나 안심하고 먹을수 있을것 같아요  병도 아주 튼튼합니다</t>
+          <t>삼다수만 드시는 분들에게 애증의 식수입니다.1년 내내 할인하던 작년과 달리 올해초부터 할인 없이 판매해서인지 온라인이나 오프라인이나 상관없이 더 비싸게 먹는 기분이 들게 만드는데 성공해 정수기 구매를 생각하게 만드는 식수로 돌변한 삼다수입니다.이렇게 이벤트로 구매해서 그나마 싸게 먹는 게 아니라면 다른 식수면 괜찮지 않을까 했지만... 다른 제품을 못 먹을 정도로 삼다수에 길들어지신 분들께는 비싼 가격에도 대처품이 없어서 사먹는 애증의 식수입니다.</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -6049,7 +6045,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>적당한리뷰</t>
+          <t>김*숙</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -6057,26 +6053,26 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2023.12.06</t>
+          <t>2025.11.11</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>버리기 편한 삼다수</t>
+          <t>물맛이 좋아요</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>1. 2리터 12개 상품이 품절돼서 주문했습니다.2. 아무런 차이가 없을 줄 알았는데, 자취하는 입장에서 생각보다 체감 차이가 있었습니다.3. 자취하다보면 물은 그냥 페트병째로 마시게되는 경우가 많은데, 500ml 제품은 양이 적어서 페트병이 자주 바뀝니다.4. 그래서 2리터짜리에 비해 청결하다는 장점이 있습니다. 물을 병 째로 마시다보면 입을 자꾸 대게 되기 때문입니다.5. 대신, 그만큼 새 페트병을 계속 가져와야하기 때문에 좀 귀찮습니다.6. 가장 큰 단점은 용량 대비 가격이 2리터 6개보다 훨씬 비쌉니다.7. 하지만 무라벨인데다가 크기도 작아서 버리기는 간편합니다.8. 개인적으로는 2리터짜리가 있다면, 굳이 작은 걸 더 비싸게 살까 싶긴 하네요.✔︎ [후기가 다른 사람에게 도움이 되었어요~] 라는 알림이 오면 다른 분들에게 도움이 된 것 같아 기분이 좋아지더라구요!만약 제 후기가 도움이 되셨다면 아래의 [도움이 돼요] 한 번만 눌러주세요!모두 모두 복 많이 많이 받으시고 건강하세요. 감사합니다.</t>
+          <t>물맛이 좋고 청정한 느낌 어디서나 안심하고 먹을수 있을것 같아요  병도 아주 튼튼합니다</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -6087,7 +6083,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>랑사팡쿠</t>
+          <t>적당한리뷰</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -6095,26 +6091,26 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2025.08.04</t>
+          <t>2023.12.06</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
+          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>물은 좋은데</t>
+          <t>버리기 편한 삼다수</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>배송이 불편하네요.시골에 80넘은 장모님 혼자 계시는데생수 배송 주문했더니대문앞에 딱 놔두고 가셨네요.예전엔 보통 택배 받으면, 어느 택배이건간에늘 지금껏 집안 마당 안쪽 가장자리에 잘 두고 가셨는데여기 놔두는건 처음이네요.배송 기사님들 바쁘고 고마운건 알지만시골집이라 배송에 조금만 더 마음을 써주셨으면 좋겠습니다.그리고 여기다 생수를 두면 요즘같이 무척 더운날에직사광선에 너무 노출되는것도 걱정스럽네요.**제 상품평이 구매에 도움되신다면 아래에 있는 (도움이돼요) 를 눌러주시면 제게 큰 도움이 됩니다. 감사합니다 ^^~</t>
+          <t>1. 2리터 12개 상품이 품절돼서 주문했습니다.2. 아무런 차이가 없을 줄 알았는데, 자취하는 입장에서 생각보다 체감 차이가 있었습니다.3. 자취하다보면 물은 그냥 페트병째로 마시게되는 경우가 많은데, 500ml 제품은 양이 적어서 페트병이 자주 바뀝니다.4. 그래서 2리터짜리에 비해 청결하다는 장점이 있습니다. 물을 병 째로 마시다보면 입을 자꾸 대게 되기 때문입니다.5. 대신, 그만큼 새 페트병을 계속 가져와야하기 때문에 좀 귀찮습니다.6. 가장 큰 단점은 용량 대비 가격이 2리터 6개보다 훨씬 비쌉니다.7. 하지만 무라벨인데다가 크기도 작아서 버리기는 간편합니다.8. 개인적으로는 2리터짜리가 있다면, 굳이 작은 걸 더 비싸게 살까 싶긴 하네요.✔︎ [후기가 다른 사람에게 도움이 되었어요~] 라는 알림이 오면 다른 분들에게 도움이 된 것 같아 기분이 좋아지더라구요!만약 제 후기가 도움이 되셨다면 아래의 [도움이 돼요] 한 번만 눌러주세요!모두 모두 복 많이 많이 받으시고 건강하세요. 감사합니다.</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -6125,7 +6121,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>쿠팡실구매자</t>
+          <t>랑사팡쿠</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -6133,22 +6129,26 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2022.09.03</t>
+          <t>2025.08.04</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>물은 좋은데</t>
+        </is>
+      </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>⭐️구매동기물을 사는데 구매 동기가 필요할까요?살아가는데 있어서 필수적인 조건이잖아요? ㅎㅎ그래서 이번에도 어김없이 구매하게 되었습니다.⭐️배송배송은 도착예상날짜보다 하루 빨리 도착했습니다.자세히 보니 쿠팡맨분들이 배송해주는게 아니라협력택배사에서 따로 가져다 주시더라고요.저희집엔 CJ택배에서 가져다 주시는 것 같았습니다.밤 10시 넘어서 도착완료 문자가 오는 것 보니늦게까지 고생하시면서 가져다 주시는듯 싶습니다.계단 오르락 내리락 힘드실까봐한번에 많이 주문은 못하고맥시멈 12개만 주문 하고 있습니다.앞으로도 잘 부탁드립니다 :)⭐️맛맛은 항상 깔끔합니다.시중에 판매하는 어떤 물은 밍밍하거나 느끼하던데결국 삼다수를 다시 찾는 이유는깔끔한 물 맛, 때문이 아닐까요? ㅎㅎ</t>
+          <t>배송이 불편하네요.시골에 80넘은 장모님 혼자 계시는데생수 배송 주문했더니대문앞에 딱 놔두고 가셨네요.예전엔 보통 택배 받으면, 어느 택배이건간에늘 지금껏 집안 마당 안쪽 가장자리에 잘 두고 가셨는데여기 놔두는건 처음이네요.배송 기사님들 바쁘고 고마운건 알지만시골집이라 배송에 조금만 더 마음을 써주셨으면 좋겠습니다.그리고 여기다 생수를 두면 요즘같이 무척 더운날에직사광선에 너무 노출되는것도 걱정스럽네요.**제 상품평이 구매에 도움되신다면 아래에 있는 (도움이돼요) 를 눌러주시면 제게 큰 도움이 됩니다. 감사합니다 ^^~</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>노*석</t>
+          <t>쿠팡실구매자</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -6167,22 +6167,22 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2025.10.20</t>
+          <t>2022.09.03</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 24개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr">
         <is>
-          <t>● 배송이 빠르고 파손없이 잘 도착해 자주 주문해요.● 무라벨 제품이라 분리수거할 때 훨씬 편하고, 환경을 생각한 부분이 마음에 들어요.● 2L 대용량이라 가족 모두 함께 마시기 좋아요.</t>
+          <t>⭐️구매동기물을 사는데 구매 동기가 필요할까요?살아가는데 있어서 필수적인 조건이잖아요? ㅎㅎ그래서 이번에도 어김없이 구매하게 되었습니다.⭐️배송배송은 도착예상날짜보다 하루 빨리 도착했습니다.자세히 보니 쿠팡맨분들이 배송해주는게 아니라협력택배사에서 따로 가져다 주시더라고요.저희집엔 CJ택배에서 가져다 주시는 것 같았습니다.밤 10시 넘어서 도착완료 문자가 오는 것 보니늦게까지 고생하시면서 가져다 주시는듯 싶습니다.계단 오르락 내리락 힘드실까봐한번에 많이 주문은 못하고맥시멈 12개만 주문 하고 있습니다.앞으로도 잘 부탁드립니다 :)⭐️맛맛은 항상 깔끔합니다.시중에 판매하는 어떤 물은 밍밍하거나 느끼하던데결국 삼다수를 다시 찾는 이유는깔끔한 물 맛, 때문이 아닐까요? ㅎㅎ</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -6227,7 +6227,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>유*인</t>
+          <t>노*석</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -6235,22 +6235,22 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2025.11.02</t>
+          <t>2025.10.20</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 24개</t>
         </is>
       </c>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr">
         <is>
-          <t>삼다수 생수는 2주한번씩 구매합니다~겨울은 보리차 끌여서 생수랑 반반힉 따뜻하게 물을 많이 먹어요~생수는 제주 삼다수 젤 좋아요</t>
+          <t>● 배송이 빠르고 파손없이 잘 도착해 자주 주문해요.● 무라벨 제품이라 분리수거할 때 훨씬 편하고, 환경을 생각한 부분이 마음에 들어요.● 2L 대용량이라 가족 모두 함께 마시기 좋아요.</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>변*우</t>
+          <t>유*인</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -6269,22 +6269,18 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2025.11.04</t>
+          <t>2025.11.02</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 6개</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>물통에 미세구멍</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr">
         <is>
-          <t>가끔 물통에 미세구멍이 생겨 물이 새는 경우가 있음배달시 생긴걸로보임. 주의요망</t>
+          <t>삼다수 생수는 2주한번씩 구매합니다~겨울은 보리차 끌여서 생수랑 반반힉 따뜻하게 물을 많이 먹어요~생수는 제주 삼다수 젤 좋아요</t>
         </is>
       </c>
       <c r="H160" t="n">
@@ -6299,7 +6295,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>권*환</t>
+          <t>변*우</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -6307,22 +6303,22 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2025.10.14</t>
+          <t>2025.11.04</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 30개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 6개</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 30개</t>
+          <t>물통에 미세구멍</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 30개, 꾸준히 재구매 하고 있어요~ 물맛도 나쁘지 않고 재질도 견고하면서 재활용하기 편합니다.</t>
+          <t>가끔 물통에 미세구멍이 생겨 물이 새는 경우가 있음배달시 생긴걸로보임. 주의요망</t>
         </is>
       </c>
       <c r="H161" t="n">
@@ -6375,7 +6371,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>한*민</t>
+          <t>권*환</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -6383,22 +6379,22 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2025.08.11</t>
+          <t>2025.10.14</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 30개</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>최근 두번이나 배송일이 미뤄졌어요</t>
+          <t>제주삼다수 그린 무라벨, 2L, 30개</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>매번 떨어질때 맞춰서 시키는데최근 두번이나 도착일이 미뤄 졌어요한번은 로켓배송에서 일반 배송을 변경 되면서사흘이나 더 미뤄 지는 바람에취소 하고 다시 구매 했더니 익일 도착 했구요.오히려 그 상태 그대로 기다렸다면사흘이나 더 기다려야 할 뻔했구요.이번에는 일요일 도착 인데하루 뮈뤄지더니 월요일에 받았습니다.물 떨어 질 때쯤 너무 빠듯하게 주문 하면곤란 할것 같구요.주문하고 익일날 배송 되고 있는지 체크해서배송 잘 받으세요</t>
+          <t>제주삼다수 그린 무라벨, 2L, 30개, 꾸준히 재구매 하고 있어요~ 물맛도 나쁘지 않고 재질도 견고하면서 재활용하기 편합니다.</t>
         </is>
       </c>
       <c r="H163" t="n">
@@ -6413,7 +6409,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>도전하는자</t>
+          <t>한*민</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -6421,22 +6417,26 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2023.09.01</t>
+          <t>2025.08.11</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>최근 두번이나 배송일이 미뤄졌어요</t>
+        </is>
+      </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>안녕하세요 도전하는자 입니다제주삼다수 그린 생수, 330ml, 40개 구매후기 작성하겠습니다 ^-^★ 구매이유 ★초 1 아이 학교에 보낼 물을 구매했습니다물통에 보내자니 매번 씻어야하고 잃어버리고 오기도 해서아예 물 하나씩 보내고있어요★ 상품에 대하여 ★▶330ml 40개 구매했어요▶20개씩 2개로 왔어요▶아주 많지 않아서 아이가 학교에서 먹기에 충분한 양이에요▶제주 삼다수는 깨끗하기로 유명한 제품이라 믿고 먹고 있어요▶플라스틱에 대한 환경문제가 있지만, 라벨이 없어서 너무 좋아요개인적인 의견으로 각자의 생각이 다를 수 있다는 점 고려하시길 바라며좋은 선택하시길 바랄께요 ~감사합니다</t>
+          <t>매번 떨어질때 맞춰서 시키는데최근 두번이나 도착일이 미뤄 졌어요한번은 로켓배송에서 일반 배송을 변경 되면서사흘이나 더 미뤄 지는 바람에취소 하고 다시 구매 했더니 익일 도착 했구요.오히려 그 상태 그대로 기다렸다면사흘이나 더 기다려야 할 뻔했구요.이번에는 일요일 도착 인데하루 뮈뤄지더니 월요일에 받았습니다.물 떨어 질 때쯤 너무 빠듯하게 주문 하면곤란 할것 같구요.주문하고 익일날 배송 되고 있는지 체크해서배송 잘 받으세요</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>좋은하루82</t>
+          <t>도전하는자</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -6455,26 +6455,22 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2025.09.01</t>
+          <t>2023.09.01</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>수술후, 쭉 사용하는 삼다수예요</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr">
         <is>
-          <t>생수나 정수기물은 먹어야하는데이동시에도 편하게 가지고 다닐수있는생수사용중입니다. 그중에 맛이 장기간에도변함없는 삼다수 이용중입니다.</t>
+          <t>안녕하세요 도전하는자 입니다제주삼다수 그린 생수, 330ml, 40개 구매후기 작성하겠습니다 ^-^★ 구매이유 ★초 1 아이 학교에 보낼 물을 구매했습니다물통에 보내자니 매번 씻어야하고 잃어버리고 오기도 해서아예 물 하나씩 보내고있어요★ 상품에 대하여 ★▶330ml 40개 구매했어요▶20개씩 2개로 왔어요▶아주 많지 않아서 아이가 학교에서 먹기에 충분한 양이에요▶제주 삼다수는 깨끗하기로 유명한 제품이라 믿고 먹고 있어요▶플라스틱에 대한 환경문제가 있지만, 라벨이 없어서 너무 좋아요개인적인 의견으로 각자의 생각이 다를 수 있다는 점 고려하시길 바라며좋은 선택하시길 바랄께요 ~감사합니다</t>
         </is>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166">
@@ -6485,7 +6481,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>이*경</t>
+          <t>좋은하루82</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -6493,22 +6489,22 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2023.02.03</t>
+          <t>2025.09.01</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
+          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>물병 입구에서 이상한 냄새가…</t>
+          <t>수술후, 쭉 사용하는 삼다수예요</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>저만 그런가요…?저는 요 몇년 오로지 삼다수만 배송시켜 먹었는데요옛날엔 크게 느낀 적 없었던 것 같은데최근에 (작년 하반기 쯤 부터..?) 물병 입구에 이상한썩은 냄새같은게 나요 …;; 약간 계란 썩은 내…?저만 먹는 물이라 그냥 컵에 안붓고입을 직접 닿진 않지만 병 째 들고 먹는 편인데요간혹가다 어떤 물병은 냄새가 납니다제가 씽크대 하부 장에 생수를 보관했었는데거기가 좀 습하고 따뜻해서 그런가 싶어서창가(북향이라 햇빛 안들어옴) 마룻바닥에 놓고 먹은지가 최근인데오늘 또 냄새가 나네요 ㅠㅠ첨엔 진짜 제 입냄새인가 하고 충격받았어요…근데 방금 양치했고 매번 병에서 그 냄새가 나는 건 또 아니에요.그리고 컵에 따라마시면 물에서 냄새도 안나고요.물은 냄새가 안나는데 병 입구쪽에서 냄새가 나는 것 같아요.복불복인거 같기도 한데 뭐가 원인인지 모르겠습니다…;</t>
+          <t>생수나 정수기물은 먹어야하는데이동시에도 편하게 가지고 다닐수있는생수사용중입니다. 그중에 맛이 장기간에도변함없는 삼다수 이용중입니다.</t>
         </is>
       </c>
       <c r="H166" t="n">
@@ -6523,7 +6519,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>주*룡</t>
+          <t>이*경</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -6531,26 +6527,26 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2023.06.24</t>
+          <t>2023.02.03</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>믿을 수 있는 생수 ! 제주 삼다수!</t>
+          <t>물병 입구에서 이상한 냄새가…</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>대표 생수 브랜드 제주 삼다수노라벨 제품입니다.다른 브랜드에 비해 비싸긴 하지만믿을 수 있는 생수 브랜드라 게속 사먹고 있습니다.싼 제품의 생수와 달리 병의 손을 잡아도 찌그러 지지않고잘 지지되어 잡기가 수월 합니다.물맛은 뭐 말안해도 될듯합니다. !가격만 조금더 착해지면 좋을거 같아요!</t>
+          <t>저만 그런가요…?저는 요 몇년 오로지 삼다수만 배송시켜 먹었는데요옛날엔 크게 느낀 적 없었던 것 같은데최근에 (작년 하반기 쯤 부터..?) 물병 입구에 이상한썩은 냄새같은게 나요 …;; 약간 계란 썩은 내…?저만 먹는 물이라 그냥 컵에 안붓고입을 직접 닿진 않지만 병 째 들고 먹는 편인데요간혹가다 어떤 물병은 냄새가 납니다제가 씽크대 하부 장에 생수를 보관했었는데거기가 좀 습하고 따뜻해서 그런가 싶어서창가(북향이라 햇빛 안들어옴) 마룻바닥에 놓고 먹은지가 최근인데오늘 또 냄새가 나네요 ㅠㅠ첨엔 진짜 제 입냄새인가 하고 충격받았어요…근데 방금 양치했고 매번 병에서 그 냄새가 나는 건 또 아니에요.그리고 컵에 따라마시면 물에서 냄새도 안나고요.물은 냄새가 안나는데 병 입구쪽에서 냄새가 나는 것 같아요.복불복인거 같기도 한데 뭐가 원인인지 모르겠습니다…;</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -6561,7 +6557,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>김*연</t>
+          <t>주*룡</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -6569,22 +6565,22 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2024.01.06</t>
+          <t>2023.06.24</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>윗부분 눌려 찌그러져있음</t>
+          <t>믿을 수 있는 생수 ! 제주 삼다수!</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>문앞에 놓으실때 너무 쎄게 던져서 쌓아놓는지매번 아래 생수들이 다 찌그러져 있어요ㅠ2리터 여섯개짜리 두묶음(12개)을 살때는 괜찮은데,네묶음(24개)을 살때는 두개위에 두개를 쌓아놓고 가시다보니,아래에 놓인 생수들의 입구가 다 찌그러져 눌려있습니다.입구가 눌려지니 터져서 물이 새어 나왔구요ㅜ처음엔 반품해야하나 망설이다가 그냥 먹었는데,매번 이런씩이니 물병의 문제인가 싶어 다른 생수를 사볼까 합니다.아이*스나 강*평창*로 바꿔보려구요.바꿨는데도 동일하다면 다시 삼다수로 돌아올듯요ㅠ그땐 12개씩만 시켜야겠어요..</t>
+          <t>대표 생수 브랜드 제주 삼다수노라벨 제품입니다.다른 브랜드에 비해 비싸긴 하지만믿을 수 있는 생수 브랜드라 게속 사먹고 있습니다.싼 제품의 생수와 달리 병의 손을 잡아도 찌그러 지지않고잘 지지되어 잡기가 수월 합니다.물맛은 뭐 말안해도 될듯합니다. !가격만 조금더 착해지면 좋을거 같아요!</t>
         </is>
       </c>
       <c r="H168" t="n">
@@ -6599,7 +6595,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>정*원</t>
+          <t>김*연</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -6607,26 +6603,26 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2025.10.16</t>
+          <t>2024.01.06</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>제주삼다수 그린, 500ml, 80개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>요즘 500짜리 시키면. 크기가 작아젔네요.</t>
+          <t>윗부분 눌려 찌그러져있음</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>전에 시켰던동이랑 비교해보니 크기가 작아졌네요. 가격은 더비싸지고  음</t>
+          <t>문앞에 놓으실때 너무 쎄게 던져서 쌓아놓는지매번 아래 생수들이 다 찌그러져 있어요ㅠ2리터 여섯개짜리 두묶음(12개)을 살때는 괜찮은데,네묶음(24개)을 살때는 두개위에 두개를 쌓아놓고 가시다보니,아래에 놓인 생수들의 입구가 다 찌그러져 눌려있습니다.입구가 눌려지니 터져서 물이 새어 나왔구요ㅜ처음엔 반품해야하나 망설이다가 그냥 먹었는데,매번 이런씩이니 물병의 문제인가 싶어 다른 생수를 사볼까 합니다.아이*스나 강*평창*로 바꿔보려구요.바꿨는데도 동일하다면 다시 삼다수로 돌아올듯요ㅠ그땐 12개씩만 시켜야겠어요..</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -6637,7 +6633,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>이*주</t>
+          <t>정*원</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -6645,22 +6641,22 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2025.10.20</t>
+          <t>2025.10.16</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린, 500ml, 80개</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>신선해요</t>
+          <t>요즘 500짜리 시키면. 크기가 작아젔네요.</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>삼다수 물 늘 믿고 구매합니다 물맛도 깔끔하고 좋아요</t>
+          <t>전에 시켰던동이랑 비교해보니 크기가 작아졌네요. 가격은 더비싸지고  음</t>
         </is>
       </c>
       <c r="H170" t="n">
@@ -6713,7 +6709,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>머루하지</t>
+          <t>이*주</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -6721,7 +6717,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2021.12.13</t>
+          <t>2025.10.20</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -6731,16 +6727,16 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>비싸지만 안전한 삼다수</t>
+          <t>신선해요</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>저렴한 탐사수만 이용하다가 삼다수 구매해보았습니다.당연히 금액은 탐사수의 1.8배정도 하는것 같군요.탐사수 구매 시, 저는 사실 평범한 30대 남성이기에 수질 불량 얘기를 많이 접했음에도크게 거부감이 들거나 그러진 않았습니다..와이프가 조금 예민해서 어쩔수없이 삼다수 구매하였습니다.수질 불량 기사가 떴던 사실은 부정할수 없기에 이 부분에 예민하신분은 삼다수 드세요(당연히 지금은 조치가 되었겠죠)저처럼 그런 부분에 조금 무딘분은 그냥 탐사수 드세요..(탐사수 먹어도 배탈난적도 없고, 진짜 무슨 똥물을 퍼마시거나 독극물을 마신거 아니면그정도 문제는 큰 문제는 안될것 같아요)저는 예민한 와이프덕분에 삼다수 먹겠네요.아무튼 모두 삼다수 탐사수 아이시스 뭘 드시던 행복하세요.</t>
+          <t>삼다수 물 늘 믿고 구매합니다 물맛도 깔끔하고 좋아요</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -6751,7 +6747,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>정*훈</t>
+          <t>머루하지</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -6759,26 +6755,26 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2022.10.12</t>
+          <t>2021.12.13</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 24개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>빠른 배송의 식수?</t>
+          <t>비싸지만 안전한 삼다수</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>항상 먹는 제품이면서 빠른 배송을 원할 때 구매하는 제품입니다.주문한지 1일만에 도착했어요.거의 22시간?! 배송예정일보다 빠르게 도착해서 좋았습니다.무라벨과 라벨 타입 중 비교해서 가성비 좋은 제품을 구입하는데 이번에는 무라벨이 더 가성비 좋았어요.</t>
+          <t>저렴한 탐사수만 이용하다가 삼다수 구매해보았습니다.당연히 금액은 탐사수의 1.8배정도 하는것 같군요.탐사수 구매 시, 저는 사실 평범한 30대 남성이기에 수질 불량 얘기를 많이 접했음에도크게 거부감이 들거나 그러진 않았습니다..와이프가 조금 예민해서 어쩔수없이 삼다수 구매하였습니다.수질 불량 기사가 떴던 사실은 부정할수 없기에 이 부분에 예민하신분은 삼다수 드세요(당연히 지금은 조치가 되었겠죠)저처럼 그런 부분에 조금 무딘분은 그냥 탐사수 드세요..(탐사수 먹어도 배탈난적도 없고, 진짜 무슨 똥물을 퍼마시거나 독극물을 마신거 아니면그정도 문제는 큰 문제는 안될것 같아요)저는 예민한 와이프덕분에 삼다수 먹겠네요.아무튼 모두 삼다수 탐사수 아이시스 뭘 드시던 행복하세요.</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -6789,7 +6785,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>서*남</t>
+          <t>정*훈</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -6797,18 +6793,22 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2025.10.17</t>
+          <t>2022.10.12</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 2L, 24개</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>빠른 배송의 식수?</t>
+        </is>
+      </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>2L용량이랑 같이 구매했습니다. 다른 생수보다 가격도 비싸 재구매는 ...</t>
+          <t>항상 먹는 제품이면서 빠른 배송을 원할 때 구매하는 제품입니다.주문한지 1일만에 도착했어요.거의 22시간?! 배송예정일보다 빠르게 도착해서 좋았습니다.무라벨과 라벨 타입 중 비교해서 가성비 좋은 제품을 구입하는데 이번에는 무라벨이 더 가성비 좋았어요.</t>
         </is>
       </c>
       <c r="H174" t="n">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>이*희</t>
+          <t>서*남</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -6831,18 +6831,18 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2025.10.19</t>
+          <t>2025.10.17</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr">
         <is>
-          <t>뚜껑이 찌그러지고 비닐이 조금 찢어져서 배달왔어요</t>
+          <t>2L용량이랑 같이 구매했습니다. 다른 생수보다 가격도 비싸 재구매는 ...</t>
         </is>
       </c>
       <c r="H175" t="n">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>박*선</t>
+          <t>이*희</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -6899,7 +6899,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2021.09.17</t>
+          <t>2025.10.19</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6907,18 +6907,14 @@
           <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>빠르게 잘 도착했어요</t>
-        </is>
-      </c>
+      <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr">
         <is>
-          <t>무 라벨 찾다가 구매하게된 생수에요깔끔하고 좋네요그러나 유통기한 찾다가 눈 빠지는줄요시력이 안좋아서 돋보기 쓰고 찾았다는여딸애가 봐도 글씨가 넘 작데요분명 나이드신분들도 드실텐데굳이 이런걸 작게 표시할 필요가 있을까 싶네요</t>
+          <t>뚜껑이 찌그러지고 비닐이 조금 찢어져서 배달왔어요</t>
         </is>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -6929,7 +6925,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>안*덕</t>
+          <t>박*선</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -6937,22 +6933,26 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2025.10.17</t>
+          <t>2021.09.17</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>제주삼다수 그린, 500ml, 80개</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>빠르게 잘 도착했어요</t>
+        </is>
+      </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>무겁지만 꼼꼼히 잘 포장해주시면 감사하겠습니다</t>
+          <t>무 라벨 찾다가 구매하게된 생수에요깔끔하고 좋네요그러나 유통기한 찾다가 눈 빠지는줄요시력이 안좋아서 돋보기 쓰고 찾았다는여딸애가 봐도 글씨가 넘 작데요분명 나이드신분들도 드실텐데굳이 이런걸 작게 표시할 필요가 있을까 싶네요</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>어*</t>
+          <t>안*덕</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -6971,18 +6971,18 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2025.10.02</t>
+          <t>2025.10.17</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 30개</t>
+          <t>제주삼다수 그린, 500ml, 80개</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr">
         <is>
-          <t>배송 안전하게 잘 도착했는데집 문 앞이 아닌 계단 중간에 내려 놓으셨더라구요다른 사람 지나다녀야하는데.. 그부분이 좀 아쉽네요</t>
+          <t>무겁지만 꼼꼼히 잘 포장해주시면 감사하겠습니다</t>
         </is>
       </c>
       <c r="H179" t="n">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>이*덕</t>
+          <t>어*</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -7005,22 +7005,18 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2025.08.22</t>
+          <t>2025.10.02</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>폭염이 극심하니 먹는 생수만 늘어 나네요,</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 2L, 30개</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr">
         <is>
-          <t>기존에 마시던 물맛은 쉽개 바꾸지 못하네요 하던 버릇대로가야죠</t>
+          <t>배송 안전하게 잘 도착했는데집 문 앞이 아닌 계단 중간에 내려 놓으셨더라구요다른 사람 지나다녀야하는데.. 그부분이 좀 아쉽네요</t>
         </is>
       </c>
       <c r="H180" t="n">
@@ -7069,7 +7065,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>고*민</t>
+          <t>이*덕</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -7077,7 +7073,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2025.09.25</t>
+          <t>2025.08.22</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -7087,12 +7083,12 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>대한민국 남바원 생수</t>
+          <t>폭염이 극심하니 먹는 생수만 늘어 나네요,</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>그냥 유명하고 믿음직해서 계속 마시고 있습니다.물맛 나쁘지 않습니다.가끔 몇 병은 살짝 찌그러져서 몸통이 살짝 휘어 있긴 합니다.</t>
+          <t>기존에 마시던 물맛은 쉽개 바꾸지 못하네요 하던 버릇대로가야죠</t>
         </is>
       </c>
       <c r="H182" t="n">
@@ -7107,7 +7103,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>박*호</t>
+          <t>고*민</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -7115,18 +7111,22 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2025.10.03</t>
+          <t>2025.09.25</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 24개</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>대한민국 남바원 생수</t>
+        </is>
+      </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>물맛이 뭐 그렇지요전 이 제품이 더 좋게 느껴져서구매해서 먹고 있는데괜찮은거 같습니다.</t>
+          <t>그냥 유명하고 믿음직해서 계속 마시고 있습니다.물맛 나쁘지 않습니다.가끔 몇 병은 살짝 찌그러져서 몸통이 살짝 휘어 있긴 합니다.</t>
         </is>
       </c>
       <c r="H183" t="n">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>정*근</t>
+          <t>박*호</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -7149,22 +7149,18 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2025.10.04</t>
+          <t>2025.10.03</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 60개</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>잘 마시고 있습니다</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 2L, 24개</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr">
         <is>
-          <t>매번 구입해서 먹는데 물 중에서 제일 조은 것 같습니다</t>
+          <t>물맛이 뭐 그렇지요전 이 제품이 더 좋게 느껴져서구매해서 먹고 있는데괜찮은거 같습니다.</t>
         </is>
       </c>
       <c r="H184" t="n">
@@ -7217,7 +7213,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>최*림</t>
+          <t>정*근</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -7225,22 +7221,22 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2025.08.17</t>
+          <t>2025.10.04</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
+          <t>제주삼다수 그린 무라벨, 500ml, 60개</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>잘받았습니다</t>
+          <t>잘 마시고 있습니다</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>외출시 들고다니기 좋아서 330ml를 자주구입합니다. 그런데 이번에받은건 용기가 찐따입니다. 네모가 아니라 옆으로 살짝 긴 마름모네요. 용기가 잘못만들어진거를 쿠팡서 싸게파나봅니다. 잡을때마다 어색한느낌....</t>
+          <t>매번 구입해서 먹는데 물 중에서 제일 조은 것 같습니다</t>
         </is>
       </c>
       <c r="H186" t="n">
@@ -7255,7 +7251,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>임젬마</t>
+          <t>최*림</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -7263,22 +7259,26 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2022.08.07</t>
+          <t>2025.08.17</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>제주삼다수 그린, 500ml, 80개</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>잘받았습니다</t>
+        </is>
+      </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>재구매했습니다. 늘 삼다수는 쟁여두고 먹고 있습니다. 항상 삼다수만 먹어요. 분리수거시 포장비닐 뜯어서 버리는 것도 번거롭긴 하지만....그런 거 생각하면 비닐 없는 무라벨 용기에 담긴 걸 사는 것도 좋을 듯합니다. 곧 친환경 패트, 재생패트도 곧 출시 된다고 하니 기대해도 될듯합니다. 삼다수 원수가 함양되는 지역은 한라산 국립공원 내 해발 1200~1500m 청정지역이라는 것을 과학적으로 밝혀냈으며 함양된 후 18~20년 이상 걸려서 내려온 물이 취수가 되는 것으로 확인했으며, 천연 화산지질 여과체를 통해 나쁜 물질은 걸러내고 좋은 미네랄은 녹여낸다는 것이 삼다수의 장점"이라고 합니다. 그래서 삼다수, 삼다수 하나 봅니다.</t>
+          <t>외출시 들고다니기 좋아서 330ml를 자주구입합니다. 그런데 이번에받은건 용기가 찐따입니다. 네모가 아니라 옆으로 살짝 긴 마름모네요. 용기가 잘못만들어진거를 쿠팡서 싸게파나봅니다. 잡을때마다 어색한느낌....</t>
         </is>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -7289,7 +7289,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>정*지</t>
+          <t>임젬마</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -7297,22 +7297,22 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2021.08.28</t>
+          <t>2022.08.07</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 30개</t>
+          <t>제주삼다수 그린, 500ml, 80개</t>
         </is>
       </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr">
         <is>
-          <t>그동안 수질 부적합 생수를 먹고 있었더라구요 ㅠㅠ!!부랴부랴.. 삼다수 주문 했어요~윗 부분이 찌그러져서 왔지만 괜찮아요물맛만 좋으면 됐죠 삼다수만큼은 제발.. 제발 깨끗함..변치않길바랍니다 ㅠㅠㅠㅠ</t>
+          <t>재구매했습니다. 늘 삼다수는 쟁여두고 먹고 있습니다. 항상 삼다수만 먹어요. 분리수거시 포장비닐 뜯어서 버리는 것도 번거롭긴 하지만....그런 거 생각하면 비닐 없는 무라벨 용기에 담긴 걸 사는 것도 좋을 듯합니다. 곧 친환경 패트, 재생패트도 곧 출시 된다고 하니 기대해도 될듯합니다. 삼다수 원수가 함양되는 지역은 한라산 국립공원 내 해발 1200~1500m 청정지역이라는 것을 과학적으로 밝혀냈으며 함양된 후 18~20년 이상 걸려서 내려온 물이 취수가 되는 것으로 확인했으며, 천연 화산지질 여과체를 통해 나쁜 물질은 걸러내고 좋은 미네랄은 녹여낸다는 것이 삼다수의 장점"이라고 합니다. 그래서 삼다수, 삼다수 하나 봅니다.</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -7323,7 +7323,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>권*환</t>
+          <t>정*지</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2025.09.03</t>
+          <t>2021.08.28</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -7339,14 +7339,10 @@
           <t>제주삼다수 그린 무라벨, 2L, 30개</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>제주삼다수 그린무라벨 2L, 30개</t>
-        </is>
-      </c>
+      <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr">
         <is>
-          <t>제주삼다수 그린무라벨 2L, 30개, 제주삼다수 브랜드라 믿고 마실수 있고 무라벨이라 재활용 분리수거하기 편해요</t>
+          <t>그동안 수질 부적합 생수를 먹고 있었더라구요 ㅠㅠ!!부랴부랴.. 삼다수 주문 했어요~윗 부분이 찌그러져서 왔지만 괜찮아요물맛만 좋으면 됐죠 삼다수만큼은 제발.. 제발 깨끗함..변치않길바랍니다 ㅠㅠㅠㅠ</t>
         </is>
       </c>
       <c r="H189" t="n">
@@ -7361,7 +7357,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>이*희</t>
+          <t>권*환</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -7369,22 +7365,22 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2025.09.14</t>
+          <t>2025.09.03</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 30개</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>삼다수~</t>
+          <t>제주삼다수 그린무라벨 2L, 30개</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>부모님댁 여름에는 삼다수를 보내드립니다.더운 날씨에는 물 끓이는게 만만치 않으니.무거운 물 배달해 주시느라 택배기사님 애쓰셨어요~</t>
+          <t>제주삼다수 그린무라벨 2L, 30개, 제주삼다수 브랜드라 믿고 마실수 있고 무라벨이라 재활용 분리수거하기 편해요</t>
         </is>
       </c>
       <c r="H190" t="n">
@@ -7399,7 +7395,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>치챠르</t>
+          <t>이*희</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -7407,18 +7403,22 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2025.02.28</t>
+          <t>2025.09.14</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 30개</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>삼다수~</t>
+        </is>
+      </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L × 30개 리뷰"깨끗하고 건강한 무라벨 삼다수! 환경까지 생각한 선택"무라벨이라 쓰레기 처리도 간편하고, 삼다수 특유의 부드러운 물맛까지 그대로! 대량 구매하니 가성비도 최고!✅ 장점✔ 깔끔한 무라벨 디자인 – 환경 보호 + 분리수거도 편리!✔ 부드러운 물맛 – 목 넘김이 편하고 텁텁함이 없음.✔ 대량 구매로 가성비 굿 – 30개라 오래두고 마실 수 있어요.아쉬운 점◾ 무라벨이라 처음엔 낯설지만, 익숙해지면 진짜 편하고 좋음!총평✔ 삼다수 본연의 깨끗한 물맛 그대로!✔ 무라벨이라 환경 보호에도 한 걸음 더!✔ 대량 구매하면 가성비까지 완벽!</t>
+          <t>부모님댁 여름에는 삼다수를 보내드립니다.더운 날씨에는 물 끓이는게 만만치 않으니.무거운 물 배달해 주시느라 택배기사님 애쓰셨어요~</t>
         </is>
       </c>
       <c r="H191" t="n">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>이*</t>
+          <t>치챠르</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -7441,22 +7441,18 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2025.09.20</t>
+          <t>2025.02.28</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 6개</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>배송 오류</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 2L, 30개</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr">
         <is>
-          <t>다른집에 갔다 놓음배송기간도 길음삼다수 물맛은 깨끗한 청량감이좋아 계속 주문하고 있는중</t>
+          <t>제주삼다수 그린 무라벨, 2L × 30개 리뷰"깨끗하고 건강한 무라벨 삼다수! 환경까지 생각한 선택"무라벨이라 쓰레기 처리도 간편하고, 삼다수 특유의 부드러운 물맛까지 그대로! 대량 구매하니 가성비도 최고!✅ 장점✔ 깔끔한 무라벨 디자인 – 환경 보호 + 분리수거도 편리!✔ 부드러운 물맛 – 목 넘김이 편하고 텁텁함이 없음.✔ 대량 구매로 가성비 굿 – 30개라 오래두고 마실 수 있어요.아쉬운 점◾ 무라벨이라 처음엔 낯설지만, 익숙해지면 진짜 편하고 좋음!총평✔ 삼다수 본연의 깨끗한 물맛 그대로!✔ 무라벨이라 환경 보호에도 한 걸음 더!✔ 대량 구매하면 가성비까지 완벽!</t>
         </is>
       </c>
       <c r="H192" t="n">
@@ -7471,7 +7467,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>박*임</t>
+          <t>솔담이</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -7479,22 +7475,18 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2025.09.09</t>
+          <t>2023.03.13</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>삼다수 늘먹는 생수임</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr">
         <is>
-          <t>다른생수를 돌아다니다 삼다수 먹은뒤론 계속 삼다수만 먹게 되네요.깔끔한 물맛</t>
+          <t>삼다수 항상 믿고 먹는 생수입니다.보통 무라벨 주문하는데 없을땐 라벨제품도 시켜먹고요.요즘 배송도 빨라서 좋아요.라벨 떼고 잘찌그려서 재활용합니다.</t>
         </is>
       </c>
       <c r="H193" t="n">
@@ -7509,7 +7501,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>솔담이</t>
+          <t>이*</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -7517,18 +7509,22 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>2023.03.13</t>
+          <t>2025.09.20</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 2L, 6개</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>배송 오류</t>
+        </is>
+      </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>삼다수 항상 믿고 먹는 생수입니다.보통 무라벨 주문하는데 없을땐 라벨제품도 시켜먹고요.요즘 배송도 빨라서 좋아요.라벨 떼고 잘찌그려서 재활용합니다.</t>
+          <t>다른집에 갔다 놓음배송기간도 길음삼다수 물맛은 깨끗한 청량감이좋아 계속 주문하고 있는중</t>
         </is>
       </c>
       <c r="H194" t="n">
@@ -7543,7 +7539,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>쿠쿠루삥뽕</t>
+          <t>박*임</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -7551,7 +7547,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>2025.09.23</t>
+          <t>2025.09.09</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -7561,12 +7557,12 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>물은 삼다수!</t>
+          <t>삼다수 늘먹는 생수임</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>삼다수만 마시는데 쿠팡이 젤 저렴해 여기서 대부분 구입해요</t>
+          <t>다른생수를 돌아다니다 삼다수 먹은뒤론 계속 삼다수만 먹게 되네요.깔끔한 물맛</t>
         </is>
       </c>
       <c r="H195" t="n">
@@ -7581,7 +7577,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>이*영</t>
+          <t>쿠쿠루삥뽕</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -7589,18 +7585,22 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>2023.12.19</t>
+          <t>2025.09.23</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>물은 삼다수!</t>
+        </is>
+      </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>집에 정수기 사용을 안해서 항상 삼다수 구매해서 먹고 있어요예전에는 생수통 주변으로 비닐 삼다수 표기명이 있었는데, 이제는 재활용 때문인지비닐 상호명없이 와서 분리수거도 쉽고 깔끔해서 좋아요떨어질때마다 매번 구매해서 현재까지 쭉 구매해서 먹고있어요그리고 생산지 및 수원지가 잘 표기되어있어서 안심하고 구매하고 있어요다른 생수들에 비해 삼다수는 물 비린내 없이 깔끔한 맛이어서 만족하면서 먹어요그리고 무엇보다 페트병이 튼튼한거같아요 강아지가 있어서 페트병에 자꾸가서무는데 찌그러짐없이 멀쩡하더라구요~다들  2L 삼다수 생수 구매하세요 ㅠㅠ</t>
+          <t>삼다수만 마시는데 쿠팡이 젤 저렴해 여기서 대부분 구입해요</t>
         </is>
       </c>
       <c r="H196" t="n">
@@ -7615,7 +7615,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>정*훈</t>
+          <t>이*영</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -7623,7 +7623,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>2023.09.21</t>
+          <t>2023.12.19</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -7631,18 +7631,14 @@
           <t>제주삼다수 그린 무라벨, 2L, 18개</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>가성비?!</t>
-        </is>
-      </c>
+      <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr">
         <is>
-          <t>이따금 풀리는 특가라 구입은 했어요.날이 풀려서 더위도 풀리는 중이라 소비량이 줄었지만 몇개 남지 않아 구입했네요.</t>
+          <t>집에 정수기 사용을 안해서 항상 삼다수 구매해서 먹고 있어요예전에는 생수통 주변으로 비닐 삼다수 표기명이 있었는데, 이제는 재활용 때문인지비닐 상호명없이 와서 분리수거도 쉽고 깔끔해서 좋아요떨어질때마다 매번 구매해서 현재까지 쭉 구매해서 먹고있어요그리고 생산지 및 수원지가 잘 표기되어있어서 안심하고 구매하고 있어요다른 생수들에 비해 삼다수는 물 비린내 없이 깔끔한 맛이어서 만족하면서 먹어요그리고 무엇보다 페트병이 튼튼한거같아요 강아지가 있어서 페트병에 자꾸가서무는데 찌그러짐없이 멀쩡하더라구요~다들  2L 삼다수 생수 구매하세요 ㅠㅠ</t>
         </is>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -7653,7 +7649,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>뚱순</t>
+          <t>정*훈</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -7661,22 +7657,26 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>2022.07.02</t>
+          <t>2023.09.21</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>가성비?!</t>
+        </is>
+      </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>생수 윗부분이 찌끄러져 물을 부으면 컵밖으로 흘러요 ㅠ  무거운 생수 배달해 주시니 감사한데 좀더 신경써주면 감사하겠어요</t>
+          <t>이따금 풀리는 특가라 구입은 했어요.날이 풀려서 더위도 풀리는 중이라 소비량이 줄었지만 몇개 남지 않아 구입했네요.</t>
         </is>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>박*임</t>
+          <t>뚱순</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>2025.09.09</t>
+          <t>2022.07.02</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -7703,14 +7703,10 @@
           <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>물맛이 깔끔</t>
-        </is>
-      </c>
+      <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr">
         <is>
-          <t>다른생수 보다좀 비싸지만 물맛이 깔끔하니 좋으네요</t>
+          <t>생수 윗부분이 찌끄러져 물을 부으면 컵밖으로 흘러요 ㅠ  무거운 생수 배달해 주시니 감사한데 좀더 신경써주면 감사하겠어요</t>
         </is>
       </c>
       <c r="H199" t="n">
@@ -7725,7 +7721,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>장*찬</t>
+          <t>박*임</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -7733,22 +7729,22 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>2025.08.27</t>
+          <t>2025.09.09</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 60개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>온라인으로 주문해서 마시고 있어요</t>
+          <t>물맛이 깔끔</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>항상 마시는 제품입니다.편하게 온라인으로 주문해서 다른 삼다수와 비교해서 가성비 좋은것만 주문해  마시고 있읍니다.</t>
+          <t>다른생수 보다좀 비싸지만 물맛이 깔끔하니 좋으네요</t>
         </is>
       </c>
       <c r="H200" t="n">
@@ -7763,7 +7759,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>윤진혁</t>
+          <t>장*찬</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -7771,22 +7767,22 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>2022.08.25</t>
+          <t>2025.08.27</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 500ml, 60개</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>★ 삼다수가 참 좋다 ★</t>
+          <t>온라인으로 주문해서 마시고 있어요</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>뭔가 물 맛이 달라서 항상 삼다수를 주로 마시고 있는데, 친구가 카톡을 하나 보냈더라구요.내용을 확인해보니 물 마실때 무조건 삼다수만 마셔라 하는 내용이더라구요.머선 내용인지 확인해보니다양한 수질검사에서 삼다수는 어떤 검사를 하던지간에 다 좋은 지표를 보여주더라구요..인간은 몸의 70%가 수분으로 구성되어 있다보니, 깨끗한 물을 마시는게 건강에서 참 중요한거 같네요.항상 애용하는 삼다수!앞으로도 쭉 이용하려 합니다~그리고 비닐이 없는 그린이라 버리기도 편하고 환경도 생각하는거 같아 더 좋아요~</t>
+          <t>항상 마시는 제품입니다.편하게 온라인으로 주문해서 다른 삼다수와 비교해서 가성비 좋은것만 주문해  마시고 있읍니다.</t>
         </is>
       </c>
       <c r="H201" t="n">
@@ -12753,7 +12749,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>곽*정</t>
+          <t>장*석</t>
         </is>
       </c>
       <c r="C336" t="n">
@@ -12761,7 +12757,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>2023.07.20</t>
+          <t>2025.01.10</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -12771,12 +12767,12 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>제주도 산속에서 직접 가져오셨나봐요</t>
+          <t>삼다수 2L 무라벨 24개</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>산속에서 직접 물을 담아오셨나봐요.겉에 흙으로 덮여져 있어요</t>
+          <t>저번에 삼다수 2L 아기 분유물로 잘써서 이번에도 주문했는데 1월4일날 주문한게 배송중만 뜨고 1월10날까지 안옴 저번꺼는 3일만에 왔는데.. 판매자한테 두번 전화하니깐 안받음 송장번호도 안나와있고 배달하는 천일특송에 전화해보니 잘모르겠다는 답변까지 나옴 싼게 비찌떡임...</t>
         </is>
       </c>
       <c r="H336" t="n">
@@ -12791,7 +12787,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>장*석</t>
+          <t>곽*정</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -12799,7 +12795,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>2025.01.10</t>
+          <t>2023.07.20</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -12809,12 +12805,12 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>삼다수 2L 무라벨 24개</t>
+          <t>제주도 산속에서 직접 가져오셨나봐요</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>저번에 삼다수 2L 아기 분유물로 잘써서 이번에도 주문했는데 1월4일날 주문한게 배송중만 뜨고 1월10날까지 안옴 저번꺼는 3일만에 왔는데.. 판매자한테 두번 전화하니깐 안받음 송장번호도 안나와있고 배달하는 천일특송에 전화해보니 잘모르겠다는 답변까지 나옴 싼게 비찌떡임...</t>
+          <t>산속에서 직접 물을 담아오셨나봐요.겉에 흙으로 덮여져 있어요</t>
         </is>
       </c>
       <c r="H337" t="n">
@@ -13543,7 +13539,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>윤*라</t>
+          <t>김*선</t>
         </is>
       </c>
       <c r="C357" t="n">
@@ -13551,26 +13547,26 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>2024.12.04</t>
+          <t>2025.08.17</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>동영상은 안올라가네요 요즘 물통불량이 많네요.</t>
+          <t>물을 자주 시키는데 자꾸 새는 병이 나오네요..</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>자꾸 구멍난 물통이 6개중에 한두개씩 나와요이건 좀 아닌거같아요불량체크를 안하는건지...찜찜하니 버리게 되는데6개중에 한개도 어이없는데 두개씩 나올땐 모지 싶네요</t>
+          <t>물을 자주 시키는데 자꾸 새는 병이 나오네요..처음에는 어쩌다 그럴수도 있겠지 했는데너무 자주 그러니 이래도 되나 싶습니다</t>
         </is>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -13581,7 +13577,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>문이좋아</t>
+          <t>윤*라</t>
         </is>
       </c>
       <c r="C358" t="n">
@@ -13589,18 +13585,22 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>2022.08.05</t>
+          <t>2024.12.04</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 24개</t>
-        </is>
-      </c>
-      <c r="F358" t="inlineStr"/>
+          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>동영상은 안올라가네요 요즘 물통불량이 많네요.</t>
+        </is>
+      </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>아이고2년넘게 쿠팡에서 주문하는상품인데처음 기사님이 상품6세트를 1층현관밖놓고 가네요혼자서 애기보고있는데 애기업고 1층에가서 하나씩가져왔네요엘리베트있어서 다행이다  아침부터날벼락</t>
+          <t>자꾸 구멍난 물통이 6개중에 한두개씩 나와요이건 좀 아닌거같아요불량체크를 안하는건지...찜찜하니 버리게 되는데6개중에 한개도 어이없는데 두개씩 나올땐 모지 싶네요</t>
         </is>
       </c>
       <c r="H358" t="n">
@@ -13615,7 +13615,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>정*영</t>
+          <t>문이좋아</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -13623,22 +13623,18 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>2022.01.11</t>
+          <t>2022.08.05</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
-        </is>
-      </c>
-      <c r="F359" t="inlineStr">
-        <is>
-          <t>삼다수 그린을 주문했는데 그냥 삼다수가 왔네요..</t>
-        </is>
-      </c>
+          <t>제주삼다수 그린 무라벨, 2L, 24개</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr"/>
       <c r="G359" t="inlineStr">
         <is>
-          <t>삼다수 그린을 주문했는데 그냥 삼다수가 왔네오.. 같은 물이라 그냥 먹지만 상품을 확인하고 보내주셨으면 합니다.</t>
+          <t>아이고2년넘게 쿠팡에서 주문하는상품인데처음 기사님이 상품6세트를 1층현관밖놓고 가네요혼자서 애기보고있는데 애기업고 1층에가서 하나씩가져왔네요엘리베트있어서 다행이다  아침부터날벼락</t>
         </is>
       </c>
       <c r="H359" t="n">
@@ -13653,7 +13649,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>김*선</t>
+          <t>정*영</t>
         </is>
       </c>
       <c r="C360" t="n">
@@ -13661,7 +13657,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>2025.08.17</t>
+          <t>2022.01.11</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -13671,16 +13667,16 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>물을 자주 시키는데 자꾸 새는 병이 나오네요..</t>
+          <t>삼다수 그린을 주문했는데 그냥 삼다수가 왔네요..</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>물을 자주 시키는데 자꾸 새는 병이 나오네요..처음에는 어쩌다 그럴수도 있겠지 했는데너무 자주 그러니 이래도 되나 싶습니다</t>
+          <t>삼다수 그린을 주문했는데 그냥 삼다수가 왔네오.. 같은 물이라 그냥 먹지만 상품을 확인하고 보내주셨으면 합니다.</t>
         </is>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -17331,7 +17327,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>윤*영</t>
+          <t>권*수</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -17339,7 +17335,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>2022.04.23</t>
+          <t>2025.11.02</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
@@ -17349,16 +17345,16 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>물셉니다.ㅡㅡ</t>
+          <t>다시는 여기서 안시킵니다</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>2리터 짜리 6개 2묶음 시켰습니다포장 패킹 뜯었는데 바닥에 물이 흥건합니다.한개씩 꾹꾹 눌러보니까 물이 솟아 오릅니다....다음 패킹도 뜯었는데 또 물이 흥건합니다.또 꾹꾹 눌러봤더니 물이 줄줄흐릅니다.6개중에 1개는 불량입니다.ㅡㅡ앞으로 삼다수도 거를것 같습니다.</t>
+          <t>배송 포장등은 여기 쓰지말라고 했는데 물의 평가 기준이 배송 포장이 주가 아닌가 해서 씁니다. 삼다수 통 아니면 삼다수라는걸 알아보기 힘들게 스카치 테이프에 돌돌 말아서 6개 왔고 6개도 쓰다만 삼다수 포장반 비닐 반으로 왔고 심지어는 던져놨는지 밑에 미세하게 물도 샙니다. 다시는 여기서 안시키면 되지하는 생각으로 반품은 안하지만 너무한다는 생각은 떨칠수가 없네요</t>
         </is>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460">
@@ -17369,7 +17365,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>한*완</t>
+          <t>윤*영</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -17377,26 +17373,26 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>2022.03.14</t>
+          <t>2022.04.23</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 60개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>벌크로 된 제품을 박스에 넣어서 보냈어요</t>
+          <t>물셉니다.ㅡㅡ</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>배송은 빠르게 항상 도착 했습니다.세박스, 이미지 처럼 비밀포장 되어 있는 제품을 주문 하였는데,하나하나 벌크로 되어진 제품을 박스에 넣어서 배송 받았어요.플라스틱 표면이 어디 쓸린것 처럼, 까끌까끌해서 정식 제품과 차이가 있었어요. 하나 마셔 봤는데, 아직 몸상태가 이상하진 않습니다.재활용 재포장 느낌이 강해서 다음에도 이런 배송이면 환불 반품 해야 될것 같아요.혹시 이런 제품을 판매 하시는거면 미리 고지 해야 될것 같습니다.</t>
+          <t>2리터 짜리 6개 2묶음 시켰습니다포장 패킹 뜯었는데 바닥에 물이 흥건합니다.한개씩 꾹꾹 눌러보니까 물이 솟아 오릅니다....다음 패킹도 뜯었는데 또 물이 흥건합니다.또 꾹꾹 눌러봤더니 물이 줄줄흐릅니다.6개중에 1개는 불량입니다.ㅡㅡ앞으로 삼다수도 거를것 같습니다.</t>
         </is>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -17407,7 +17403,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>민*길</t>
+          <t>한*완</t>
         </is>
       </c>
       <c r="C461" t="n">
@@ -17415,26 +17411,26 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>2023.12.09</t>
+          <t>2022.03.14</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
+          <t>제주삼다수 그린 무라벨, 500ml, 60개</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>배송시 집어던지지 마세요</t>
+          <t>벌크로 된 제품을 박스에 넣어서 보냈어요</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>삼다수를 2주에 한 번씩 18통씩 주기적으로 시키고 있습니다. 여름때부터 두세 통 깨져서 물이 넘친 경우가 있었지만 그러려니하고 넘어갔습니다. 그런 일이 반복되더니 이번엔 아예 3팩(1팩에 6통) 모두 비닐이 흥건해지도록 다 터져있습니다. 반품 시키려니 당장에 마실 물이 없으니 그냥 먹겠지만 화가 나서 글 남깁니다. 택배 배달원의 의도적인 분노표시행동으로 느껴집니다. 조치 취해주십시오.</t>
+          <t>배송은 빠르게 항상 도착 했습니다.세박스, 이미지 처럼 비밀포장 되어 있는 제품을 주문 하였는데,하나하나 벌크로 되어진 제품을 박스에 넣어서 배송 받았어요.플라스틱 표면이 어디 쓸린것 처럼, 까끌까끌해서 정식 제품과 차이가 있었어요. 하나 마셔 봤는데, 아직 몸상태가 이상하진 않습니다.재활용 재포장 느낌이 강해서 다음에도 이런 배송이면 환불 반품 해야 될것 같아요.혹시 이런 제품을 판매 하시는거면 미리 고지 해야 될것 같습니다.</t>
         </is>
       </c>
       <c r="H461" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -17445,7 +17441,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>권*수</t>
+          <t>민*길</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -17453,26 +17449,26 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>2025.11.02</t>
+          <t>2023.12.09</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>다시는 여기서 안시킵니다</t>
+          <t>배송시 집어던지지 마세요</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>배송 포장등은 여기 쓰지말라고 했는데 물의 평가 기준이 배송 포장이 주가 아닌가 해서 씁니다. 삼다수 통 아니면 삼다수라는걸 알아보기 힘들게 스카치 테이프에 돌돌 말아서 6개 왔고 6개도 쓰다만 삼다수 포장반 비닐 반으로 왔고 심지어는 던져놨는지 밑에 미세하게 물도 샙니다. 다시는 여기서 안시키면 되지하는 생각으로 반품은 안하지만 너무한다는 생각은 떨칠수가 없네요</t>
+          <t>삼다수를 2주에 한 번씩 18통씩 주기적으로 시키고 있습니다. 여름때부터 두세 통 깨져서 물이 넘친 경우가 있었지만 그러려니하고 넘어갔습니다. 그런 일이 반복되더니 이번엔 아예 3팩(1팩에 6통) 모두 비닐이 흥건해지도록 다 터져있습니다. 반품 시키려니 당장에 마실 물이 없으니 그냥 먹겠지만 화가 나서 글 남깁니다. 택배 배달원의 의도적인 분노표시행동으로 느껴집니다. 조치 취해주십시오.</t>
         </is>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="463">
@@ -17483,7 +17479,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>서*석</t>
+          <t>삐약삐야기</t>
         </is>
       </c>
       <c r="C463" t="n">
@@ -17491,22 +17487,22 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>2025.04.07</t>
+          <t>2024.11.26</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>제주삼다수 그린, 500ml, 20개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 6개</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>배송 지연으로 큰일날뻔했습니다</t>
+          <t>엘레베이터 없는 집은 그냥 바깥에 배송하는 거 같음</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>배송일에 정획히 배송이 안됩니다 그래서 좀 황망한 일을 당할 뻔했습니다 삼다수 홈에서 배송 받을 때도 배송날짜가 늦어서 급한건이라 쿠팡을 이용했는데 배송지연으로 큰일 날뻔 했습니다 배송이 지연될꺼면 6시전 본인들 근무시간에는 공지를 줘야 해결을 할텐데 밤9시 넘어서 공지가 와서 취소를 했더니 반송비 차감으로 뜨더군요 황당해서 지금 생각지도 않게 마트가서 사야할판인데 피해보상은 못할망정 반송비를 받다니요 다행히 담 날 배송이 되었길래 취소는 했습니다만 이제 쿠팡이든 이 판매자든 신뢰가 안가네요</t>
+          <t>요청사항에 공동현관 비밀번호도 적어 놓았고 문앞이라고 체크까지 해놓았는데 대체 왜 바깥에다가 배송하고 배송 완료라고 하는거죠??3층이라서 올라가기 싫어서 그러신거 같은데 그럴거면 택배를 안시켰죠;; 무거워서 못 들고 올라가니까 시킨건데 누가 훔쳐갈 위험도 있는 물을 바깥에다가 놔두고 가는건 일하기 싫다는 걸로 보이네요. 최악입니다.</t>
         </is>
       </c>
       <c r="H463" t="n">
@@ -17521,7 +17517,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>정*정</t>
+          <t>서*석</t>
         </is>
       </c>
       <c r="C464" t="n">
@@ -17529,26 +17525,26 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>2022.10.28</t>
+          <t>2025.04.07</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 60개</t>
+          <t>제주삼다수 그린, 500ml, 20개</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>무라벨을 억지로 만든제품</t>
+          <t>배송 지연으로 큰일날뻔했습니다</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>무라벨을 억지로 만든 느낌입니다두박스는 원래 무라벨제품이었는데한박스는 남았을때 다른제품을 먼저 마시고뒤에 뜯어 보니 손에 끈적한 느낌이정품이 맞는지 의심이 생기네요꼼꼼한 추적과 상품 부탁드립니다흔적사진확인바랍니다</t>
+          <t>배송일에 정획히 배송이 안됩니다 그래서 좀 황망한 일을 당할 뻔했습니다 삼다수 홈에서 배송 받을 때도 배송날짜가 늦어서 급한건이라 쿠팡을 이용했는데 배송지연으로 큰일 날뻔 했습니다 배송이 지연될꺼면 6시전 본인들 근무시간에는 공지를 줘야 해결을 할텐데 밤9시 넘어서 공지가 와서 취소를 했더니 반송비 차감으로 뜨더군요 황당해서 지금 생각지도 않게 마트가서 사야할판인데 피해보상은 못할망정 반송비를 받다니요 다행히 담 날 배송이 되었길래 취소는 했습니다만 이제 쿠팡이든 이 판매자든 신뢰가 안가네요</t>
         </is>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
@@ -17559,7 +17555,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>윤*민</t>
+          <t>정*정</t>
         </is>
       </c>
       <c r="C465" t="n">
@@ -17567,26 +17563,26 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>2022.03.23</t>
+          <t>2022.10.28</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 24개</t>
+          <t>제주삼다수 그린 무라벨, 500ml, 60개</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>무라벨 주문하면 유라벨오니 조심요망</t>
+          <t>무라벨을 억지로 만든제품</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>무라벨 주문했는데 문자가 왔어요 무라벨 없으니 유라벨 보내도 되냐고. 그래서 안된다 주문을 취소하겠다고했습니다. 그런데 2일후인가 도착예정 하루전에 유라벨이 떡하니 와있네요. 고객센타 전화했더니 상세내용에 '무라벨 없을때 유라벨 랜덤 발송' 으로 판매자가 써놨으니 제 잘못이라하네요. 배송비 6천원 차감없이는 물건 회수 안한답니다. 이거 매우 상습적인듯합니다. 이 판매자와 거래마세요. 전화도 문자도 안받습니다.</t>
+          <t>무라벨을 억지로 만든 느낌입니다두박스는 원래 무라벨제품이었는데한박스는 남았을때 다른제품을 먼저 마시고뒤에 뜯어 보니 손에 끈적한 느낌이정품이 맞는지 의심이 생기네요꼼꼼한 추적과 상품 부탁드립니다흔적사진확인바랍니다</t>
         </is>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466">
@@ -17597,7 +17593,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>윤*주</t>
+          <t>윤*민</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -17605,26 +17601,26 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>2022.01.17</t>
+          <t>2022.03.23</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 24개</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>그린 금액 받으시고 일반 삼다수 배송하셨어요</t>
+          <t>무라벨 주문하면 유라벨오니 조심요망</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>상품상세 페이지에 기재 되어 있다고 하시니 제 잘못입니다.하지만 누가 삼다수 사면서 상세페이지를 다 읽고 사나요? 메인이미지에 있는 제품 사진, 가격, 리뷰만 보고 구매하는건 솔직히 판매자분도 아시리라 생각해요. 분명 일반 삼다수와 삼다수 그린의 금액 차이가 있는데 저런 이해불가가한 상세내용을 기재 하고는 금액은 삼다수 그린으로 받으시고 일반 삼다수를 보내주시는걸 합당하다고 말씀하시는건 억지네요.</t>
+          <t>무라벨 주문했는데 문자가 왔어요 무라벨 없으니 유라벨 보내도 되냐고. 그래서 안된다 주문을 취소하겠다고했습니다. 그런데 2일후인가 도착예정 하루전에 유라벨이 떡하니 와있네요. 고객센타 전화했더니 상세내용에 '무라벨 없을때 유라벨 랜덤 발송' 으로 판매자가 써놨으니 제 잘못이라하네요. 배송비 6천원 차감없이는 물건 회수 안한답니다. 이거 매우 상습적인듯합니다. 이 판매자와 거래마세요. 전화도 문자도 안받습니다.</t>
         </is>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
@@ -17635,7 +17631,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>비비</t>
+          <t>윤*주</t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -17643,26 +17639,26 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>2021.08.17</t>
+          <t>2022.01.17</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 60개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 12개</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>CJ 생수 배송 최악</t>
+          <t>그린 금액 받으시고 일반 삼다수 배송하셨어요</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>상품은 정말 좋아요 근데 배송을 금요일까지 가져다주기로 했는데 금요일 배송 불가할거같으면 연락이라도 줘야지 아무 연락없어 고객센터 통해서 한시간을 붙잡았는데도 토요일 당일 재배송도 불가.당장 집에 생수는 없는데 구매 하고도 오프라인에서 비싸게 생수 사먹었습니다.결국 생수는 2일이나 더 지나서 도착했습니다.CJ생수에서 배송하는 생수는 이제 안시키겠습니다.환경 생각해 무라벨로 구매했더니 배송이 엉망이네요.</t>
+          <t>상품상세 페이지에 기재 되어 있다고 하시니 제 잘못입니다.하지만 누가 삼다수 사면서 상세페이지를 다 읽고 사나요? 메인이미지에 있는 제품 사진, 가격, 리뷰만 보고 구매하는건 솔직히 판매자분도 아시리라 생각해요. 분명 일반 삼다수와 삼다수 그린의 금액 차이가 있는데 저런 이해불가가한 상세내용을 기재 하고는 금액은 삼다수 그린으로 받으시고 일반 삼다수를 보내주시는걸 합당하다고 말씀하시는건 억지네요.</t>
         </is>
       </c>
       <c r="H467" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468">
@@ -17707,7 +17703,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>문*경</t>
+          <t>비비</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -17715,26 +17711,26 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>2025.01.30</t>
+          <t>2021.08.17</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 30개</t>
+          <t>제주삼다수 그린 무라벨, 500ml, 60개</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>속상합니다</t>
+          <t>CJ 생수 배송 최악</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>명절이라 기사님 노고도 이해하지만 2층 배송은 고사하고라도 대문도 못열게 바짝붙여 물통을 배송한건 너무한다는 생각이 듭니다 분명 2층이라 적어놨는데 이전 배송때는 연락도 주셔서 감사한 마음에 음료수도 대접해드렸는데 같은 기사님이 아니신지?7시가 넘은 시간이면 새벽도 아니고이전처럼 연락을 주시면 한통이라도같이 옮길수도 있었는데 문도 못열게 놓고가신건 정말 아니라는 생각이 듭니다.담번엔 주문 못할것 같아요ㅜ</t>
+          <t>상품은 정말 좋아요 근데 배송을 금요일까지 가져다주기로 했는데 금요일 배송 불가할거같으면 연락이라도 줘야지 아무 연락없어 고객센터 통해서 한시간을 붙잡았는데도 토요일 당일 재배송도 불가.당장 집에 생수는 없는데 구매 하고도 오프라인에서 비싸게 생수 사먹었습니다.결국 생수는 2일이나 더 지나서 도착했습니다.CJ생수에서 배송하는 생수는 이제 안시키겠습니다.환경 생각해 무라벨로 구매했더니 배송이 엉망이네요.</t>
         </is>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="470">
@@ -17745,7 +17741,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>이*복</t>
+          <t>문*경</t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -17753,26 +17749,26 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>2022.02.11</t>
+          <t>2025.01.30</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 30개</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>배송이 엉망이네요</t>
+          <t>속상합니다</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>갑자기 가격이 오른건지 배송도 안해주고상담원을 이용해서  취소 시키는 쓰레기 업체내요그러면 정확히 공지를 해서 관리를  해야지다시 사려니 가격을 일반적인이지 않은 가격으로책정해서 살테면 사보라고 가격을 올려버리니니네가 그가격 사겟니 하는 꼬라지가역겨운 처사가 아닐수 없네요 참 그지 같이장사 해처 먹네요110000만건이나 리뷰등록  할정도로많이 팔아먹고참 그지 같이 장사 해처 먹는  쓰레기 업체</t>
+          <t>명절이라 기사님 노고도 이해하지만 2층 배송은 고사하고라도 대문도 못열게 바짝붙여 물통을 배송한건 너무한다는 생각이 듭니다 분명 2층이라 적어놨는데 이전 배송때는 연락도 주셔서 감사한 마음에 음료수도 대접해드렸는데 같은 기사님이 아니신지?7시가 넘은 시간이면 새벽도 아니고이전처럼 연락을 주시면 한통이라도같이 옮길수도 있었는데 문도 못열게 놓고가신건 정말 아니라는 생각이 듭니다.담번엔 주문 못할것 같아요ㅜ</t>
         </is>
       </c>
       <c r="H470" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -17783,7 +17779,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>장*정</t>
+          <t>이*복</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -17791,26 +17787,26 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>2017.12.08</t>
+          <t>2022.02.11</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
+          <t>제주삼다수 그린 무라벨, 330ml, 40개</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>개짜증남</t>
+          <t>배송이 엉망이네요</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>두달분량 삼다수 박스배송돼서 다 뜯고 물 마셨는데다음날 배송기사에게 문자옴.갯수 오버돼서 잘못배달됐다며 박스 포장해서 문 앞에 내놓으라고~씨 개짜증! 박스 다 내다버렸다고!! 물 포장 다 뜯었다고!!!!! 잘못 배달 온거 돈 더 지불하고 먹기로함~이런 미친 실수는 지들이 하고 이런식으로 더 팔아먹음.몇달동안 삼다수만 마시게 생겼음.다른 저렴한 제품들도 번갈아 마시는데 이런 배달실수 한번도 없었음! 비싼 삼다수를 또 시키나봐라!!!뛔!뛔!뛔!</t>
+          <t>갑자기 가격이 오른건지 배송도 안해주고상담원을 이용해서  취소 시키는 쓰레기 업체내요그러면 정확히 공지를 해서 관리를  해야지다시 사려니 가격을 일반적인이지 않은 가격으로책정해서 살테면 사보라고 가격을 올려버리니니네가 그가격 사겟니 하는 꼬라지가역겨운 처사가 아닐수 없네요 참 그지 같이장사 해처 먹네요110000만건이나 리뷰등록  할정도로많이 팔아먹고참 그지 같이 장사 해처 먹는  쓰레기 업체</t>
         </is>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="472">
@@ -17821,7 +17817,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>쿠팡실구매자</t>
+          <t>장*정</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -17829,26 +17825,26 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>2022.02.15</t>
+          <t>2017.12.08</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
+          <t>제주삼다수 그린 무라벨, 500ml, 40개</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>이때까지 쿠팡에서 물주문했지만 이런적은 처음</t>
+          <t>개짜증남</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>무라벨을 주문하고 배송당일까지 기다렸는데 당일날 연락이와서 입고가지연이되니 반품을 할껀지 아니면 라벨있는게 재고가 있는데 그걸로 할껀지 의사를 물음배송당일이였고 아기가 마셔야하는거라 그거라도 보내달라고함배송받고 뜯어서 쓰는도중 라벨있는물인데 라벨이 엉성하게 붙어져있고 심지어 오늘본건 라벨도 안붙어져 있음(너무 기분이 이상함)설마 먹는건데?이런의심이듬.</t>
+          <t>두달분량 삼다수 박스배송돼서 다 뜯고 물 마셨는데다음날 배송기사에게 문자옴.갯수 오버돼서 잘못배달됐다며 박스 포장해서 문 앞에 내놓으라고~씨 개짜증! 박스 다 내다버렸다고!! 물 포장 다 뜯었다고!!!!! 잘못 배달 온거 돈 더 지불하고 먹기로함~이런 미친 실수는 지들이 하고 이런식으로 더 팔아먹음.몇달동안 삼다수만 마시게 생겼음.다른 저렴한 제품들도 번갈아 마시는데 이런 배달실수 한번도 없었음! 비싼 삼다수를 또 시키나봐라!!!뛔!뛔!뛔!</t>
         </is>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -17859,7 +17855,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>macsims</t>
+          <t>쿠팡실구매자</t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -17867,7 +17863,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>2025.03.18</t>
+          <t>2022.02.15</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
@@ -17877,16 +17873,16 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>자주 시켰는데 이번은 왜 1층에다 놓고가셨네요</t>
+          <t>이때까지 쿠팡에서 물주문했지만 이런적은 처음</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>3층에 살고 있는데 물을 1층에.. 그것도 건물 돌아서 1층 들어가는 곳에다가 놓고 갔네요분명 3층이라고 했는데..  항상 3층에 놓고 가더니 오늘은 뭡니까?어르신 사시는 곳이라서 신경써서 주문하는데..어르신이 전화왔네요반품하고 싶다고.. 몸이 안좋으신데. 어떻게 갖고 올라올까 걱정된다고...뭐하는겁니까?이런식으로 할거면 수퍼서 사오지 왜 주문할까요?진짜 아침부터 짜증나게 하네..내가 어르신댁까지 가서 올려드려야 겠네요이딴식으로 하지마세요</t>
+          <t>무라벨을 주문하고 배송당일까지 기다렸는데 당일날 연락이와서 입고가지연이되니 반품을 할껀지 아니면 라벨있는게 재고가 있는데 그걸로 할껀지 의사를 물음배송당일이였고 아기가 마셔야하는거라 그거라도 보내달라고함배송받고 뜯어서 쓰는도중 라벨있는물인데 라벨이 엉성하게 붙어져있고 심지어 오늘본건 라벨도 안붙어져 있음(너무 기분이 이상함)설마 먹는건데?이런의심이듬.</t>
         </is>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -17897,7 +17893,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>쯔아앙구우</t>
+          <t>macsims</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -17905,22 +17901,22 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>2025.01.10</t>
+          <t>2025.03.18</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>제주삼다수 그린 무라벨, 2L, 6개</t>
+          <t>제주삼다수 그린 무라벨, 2L, 18개</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>세대문앞 배송메모해놔도 야외 공동현관에 놓고 가버림</t>
+          <t>자주 시켰는데 이번은 왜 1층에다 놓고가셨네요</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>배송기사 추운날씨에 고생하는건 알겠는데요 배송메모에 공동현관 비번도 적어놨고 심지어 배송상품에 호수까지 적혀있는데 영하 13도 날씨에 야외 공동현관에 놓고 가버리는 비양심 택배기사. 어이가 없네요</t>
+          <t>3층에 살고 있는데 물을 1층에.. 그것도 건물 돌아서 1층 들어가는 곳에다가 놓고 갔네요분명 3층이라고 했는데..  항상 3층에 놓고 가더니 오늘은 뭡니까?어르신 사시는 곳이라서 신경써서 주문하는데..어르신이 전화왔네요반품하고 싶다고.. 몸이 안좋으신데. 어떻게 갖고 올라올까 걱정된다고...뭐하는겁니까?이런식으로 할거면 수퍼서 사오지 왜 주문할까요?진짜 아침부터 짜증나게 하네..내가 어르신댁까지 가서 올려드려야 겠네요이딴식으로 하지마세요</t>
         </is>
       </c>
       <c r="H474" t="n">
@@ -17935,7 +17931,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>삐약삐야기</t>
+          <t>쯔아앙구우</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -17943,7 +17939,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>2024.11.26</t>
+          <t>2025.01.10</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
@@ -17953,12 +17949,12 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>엘레베이터 없는 집은 그냥 바깥에 배송하는 거 같음</t>
+          <t>세대문앞 배송메모해놔도 야외 공동현관에 놓고 가버림</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>요청사항에 공동현관 비밀번호도 적어 놓았고 문앞이라고 체크까지 해놓았는데 대체 왜 바깥에다가 배송하고 배송 완료라고 하는거죠??3층이라서 올라가기 싫어서 그러신거 같은데 그럴거면 택배를 안시켰죠;; 무거워서 못 들고 올라가니까 시킨건데 누가 훔쳐갈 위험도 있는 물을 바깥에다가 놔두고 가는건 일하기 싫다는 걸로 보이네요. 최악입니다.</t>
+          <t>배송기사 추운날씨에 고생하는건 알겠는데요 배송메모에 공동현관 비번도 적어놨고 심지어 배송상품에 호수까지 적혀있는데 영하 13도 날씨에 야외 공동현관에 놓고 가버리는 비양심 택배기사. 어이가 없네요</t>
         </is>
       </c>
       <c r="H475" t="n">
